--- a/行业/食品饮料/调味品/总表.xlsx
+++ b/行业/食品饮料/调味品/总表.xlsx
@@ -528,7 +528,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -590,9 +590,20 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -603,7 +614,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -736,7 +749,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,34 +761,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,7 +873,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,8 +889,8 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,8 +958,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -960,10 +973,16 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1494,11 +1513,11 @@
   <dimension ref="A1:AE83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2422,7 +2441,10 @@
         <f>(S16-S17)/S17</f>
         <v>-0.0378108110572284</v>
       </c>
-      <c r="K16" s="14"/>
+      <c r="K16" s="14">
+        <f t="shared" ref="K16:K25" si="8">(T16-T17)/T17</f>
+        <v>0</v>
+      </c>
       <c r="L16" s="18">
         <v>6718881439.74</v>
       </c>
@@ -2448,8 +2470,12 @@
       <c r="S16" s="18">
         <v>5139091906.63</v>
       </c>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
+      <c r="T16" s="33">
+        <v>785375950</v>
+      </c>
+      <c r="U16" s="33">
+        <v>785375950</v>
+      </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
@@ -2480,14 +2506,17 @@
         <v>-0.0891095891977247</v>
       </c>
       <c r="I17" s="13">
-        <f t="shared" ref="I17:I26" si="8">(O17-O18)/O18</f>
+        <f t="shared" ref="I17:I26" si="9">(O17-O18)/O18</f>
         <v>-1.70715132355257</v>
       </c>
       <c r="J17" s="14">
         <f>(S17-S18)/S18</f>
         <v>0.044059172814461</v>
       </c>
-      <c r="K17" s="14"/>
+      <c r="K17" s="14">
+        <f t="shared" si="8"/>
+        <v>-0.0141359756797898</v>
+      </c>
       <c r="L17" s="16">
         <v>6223376570.5</v>
       </c>
@@ -2510,11 +2539,15 @@
       <c r="R17" s="32">
         <v>677654835.65</v>
       </c>
-      <c r="S17" s="33">
+      <c r="S17" s="34">
         <v>5341040998.68</v>
       </c>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
+      <c r="T17" s="33">
+        <v>785375950</v>
+      </c>
+      <c r="U17" s="33">
+        <v>785375950</v>
+      </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
@@ -2533,31 +2566,34 @@
         <v>0.135919835740443</v>
       </c>
       <c r="F18" s="14">
-        <f t="shared" ref="F18:F26" si="9">O18/N18</f>
+        <f t="shared" ref="F18:F26" si="10">O18/N18</f>
         <v>0.184506426584944</v>
       </c>
       <c r="G18" s="14">
-        <f t="shared" ref="G18:G26" si="10">M18/L18</f>
+        <f t="shared" ref="G18:G26" si="11">M18/L18</f>
         <v>0.281747436919482</v>
       </c>
       <c r="H18" s="14">
-        <f t="shared" ref="H18:H26" si="11">O18/L18</f>
+        <f t="shared" ref="H18:H26" si="12">O18/L18</f>
         <v>0.132522213799464</v>
       </c>
       <c r="I18" s="13">
+        <f t="shared" si="9"/>
+        <v>-0.192666937239026</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" ref="J18:J26" si="13">(S18-S19)/S19</f>
+        <v>-0.00150781658783711</v>
+      </c>
+      <c r="K18" s="14">
         <f t="shared" si="8"/>
-        <v>-0.192666937239026</v>
-      </c>
-      <c r="J18" s="14">
-        <f t="shared" ref="J18:J26" si="12">(S18-S19)/S19</f>
-        <v>-0.00150781658783711</v>
-      </c>
-      <c r="K18" s="14"/>
+        <v>0</v>
+      </c>
       <c r="L18" s="16">
         <v>5917652808.13</v>
       </c>
       <c r="M18" s="21">
-        <f t="shared" ref="M18:M27" si="13">L18-N18</f>
+        <f t="shared" ref="M18:M27" si="14">L18-N18</f>
         <v>1667283511.27</v>
       </c>
       <c r="N18" s="16">
@@ -2575,11 +2611,15 @@
       <c r="R18" s="32">
         <v>1212493363.66</v>
       </c>
-      <c r="S18" s="33">
+      <c r="S18" s="34">
         <v>5115649704.3</v>
       </c>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
+      <c r="T18" s="33">
+        <v>796637194</v>
+      </c>
+      <c r="U18" s="33">
+        <v>796637194</v>
+      </c>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
@@ -2598,31 +2638,34 @@
         <v>0.147404291199012</v>
       </c>
       <c r="F19" s="14">
+        <f t="shared" si="10"/>
+        <v>0.194599733296717</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="11"/>
+        <v>0.250383470044278</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="12"/>
+        <v>0.145875176804194</v>
+      </c>
+      <c r="I19" s="12">
         <f t="shared" si="9"/>
-        <v>0.194599733296717</v>
-      </c>
-      <c r="G19" s="14">
-        <f t="shared" si="10"/>
-        <v>0.250383470044278</v>
-      </c>
-      <c r="H19" s="14">
-        <f t="shared" si="11"/>
-        <v>0.145875176804194</v>
-      </c>
-      <c r="I19" s="12">
+        <v>0.227517922860407</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" si="13"/>
+        <v>0.0959455191484949</v>
+      </c>
+      <c r="K19" s="14">
         <f t="shared" si="8"/>
-        <v>0.227517922860407</v>
-      </c>
-      <c r="J19" s="14">
-        <f t="shared" si="12"/>
-        <v>0.0959455191484949</v>
-      </c>
-      <c r="K19" s="14"/>
+        <v>0</v>
+      </c>
       <c r="L19" s="16">
         <v>6658923560.27</v>
       </c>
       <c r="M19" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1667284387.78</v>
       </c>
       <c r="N19" s="16">
@@ -2640,11 +2683,15 @@
       <c r="R19" s="32">
         <v>1000999170.24</v>
       </c>
-      <c r="S19" s="33">
+      <c r="S19" s="34">
         <v>5123374813.83</v>
       </c>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
+      <c r="T19" s="33">
+        <v>796637194</v>
+      </c>
+      <c r="U19" s="33">
+        <v>796637194</v>
+      </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
@@ -2663,31 +2710,34 @@
         <v>0.141528959158248</v>
       </c>
       <c r="F20" s="14">
+        <f t="shared" si="10"/>
+        <v>0.186379631043394</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="11"/>
+        <v>0.286867510025872</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="12"/>
+        <v>0.132913370366435</v>
+      </c>
+      <c r="I20" s="13">
         <f t="shared" si="9"/>
-        <v>0.186379631043394</v>
-      </c>
-      <c r="G20" s="14">
-        <f t="shared" si="10"/>
-        <v>0.286867510025872</v>
-      </c>
-      <c r="H20" s="14">
-        <f t="shared" si="11"/>
-        <v>0.132913370366435</v>
-      </c>
-      <c r="I20" s="13">
+        <v>0.161605538848774</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="13"/>
+        <v>0.12201698396675</v>
+      </c>
+      <c r="K20" s="14">
         <f t="shared" si="8"/>
-        <v>0.161605538848774</v>
-      </c>
-      <c r="J20" s="14">
-        <f t="shared" si="12"/>
-        <v>0.12201698396675</v>
-      </c>
-      <c r="K20" s="14"/>
+        <v>0</v>
+      </c>
       <c r="L20" s="16">
         <v>5953726937.24</v>
       </c>
       <c r="M20" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1707930821.86</v>
       </c>
       <c r="N20" s="16">
@@ -2705,11 +2755,15 @@
       <c r="R20" s="32">
         <v>1058869197.81</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="35">
         <v>4674844437.35</v>
       </c>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
+      <c r="T20" s="33">
+        <v>796637194</v>
+      </c>
+      <c r="U20" s="33">
+        <v>796637194</v>
+      </c>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
@@ -2728,31 +2782,34 @@
         <v>0.123400232469235</v>
       </c>
       <c r="F21" s="14">
+        <f t="shared" si="10"/>
+        <v>0.172561498486247</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="11"/>
+        <v>0.340239814359238</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="12"/>
+        <v>0.113849206275734</v>
+      </c>
+      <c r="I21" s="12">
         <f t="shared" si="9"/>
-        <v>0.172561498486247</v>
-      </c>
-      <c r="G21" s="13">
-        <f t="shared" si="10"/>
-        <v>0.340239814359238</v>
-      </c>
-      <c r="H21" s="14">
-        <f t="shared" si="11"/>
-        <v>0.113849206275734</v>
-      </c>
-      <c r="I21" s="12">
+        <v>0.332092262949975</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="13"/>
+        <v>0.154346322704087</v>
+      </c>
+      <c r="K21" s="14">
         <f t="shared" si="8"/>
-        <v>0.332092262949975</v>
-      </c>
-      <c r="J21" s="14">
-        <f t="shared" si="12"/>
-        <v>0.154346322704087</v>
-      </c>
-      <c r="K21" s="14"/>
+        <v>0</v>
+      </c>
       <c r="L21" s="16">
         <v>5983687463.75</v>
       </c>
       <c r="M21" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2035888711.85</v>
       </c>
       <c r="N21" s="16">
@@ -2770,11 +2827,15 @@
       <c r="R21" s="32">
         <v>723569594.03</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S21" s="35">
         <v>4166464950.31</v>
       </c>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
+      <c r="T21" s="33">
+        <v>796637194</v>
+      </c>
+      <c r="U21" s="33">
+        <v>796637194</v>
+      </c>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
@@ -2793,31 +2854,34 @@
         <v>0.107981762462568</v>
       </c>
       <c r="F22" s="14">
+        <f t="shared" si="10"/>
+        <v>0.148226520751638</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" si="11"/>
+        <v>0.349611711070378</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="12"/>
+        <v>0.0964047932056491</v>
+      </c>
+      <c r="I22" s="12">
         <f t="shared" si="9"/>
-        <v>0.148226520751638</v>
-      </c>
-      <c r="G22" s="13">
-        <f t="shared" si="10"/>
-        <v>0.349611711070378</v>
-      </c>
-      <c r="H22" s="14">
-        <f t="shared" si="11"/>
-        <v>0.0964047932056491</v>
-      </c>
-      <c r="I22" s="12">
+        <v>0.246525457918945</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="13"/>
+        <v>0.142933638506007</v>
+      </c>
+      <c r="K22" s="14">
         <f t="shared" si="8"/>
-        <v>0.246525457918945</v>
-      </c>
-      <c r="J22" s="14">
-        <f t="shared" si="12"/>
-        <v>0.142933638506007</v>
-      </c>
-      <c r="K22" s="14"/>
+        <v>0</v>
+      </c>
       <c r="L22" s="16">
         <v>5304762875.94</v>
       </c>
       <c r="M22" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1854607225.88</v>
       </c>
       <c r="N22" s="16">
@@ -2835,11 +2899,15 @@
       <c r="R22" s="32">
         <v>650615659.55</v>
       </c>
-      <c r="S22" s="23">
+      <c r="S22" s="35">
         <v>3609371700.99</v>
       </c>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
+      <c r="T22" s="33">
+        <v>796637194</v>
+      </c>
+      <c r="U22" s="33">
+        <v>796637194</v>
+      </c>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
@@ -2858,31 +2926,34 @@
         <v>0.0964580983452112</v>
       </c>
       <c r="F23" s="14">
+        <f t="shared" si="10"/>
+        <v>0.132810018005808</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="11"/>
+        <v>0.370965480070186</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="12"/>
+        <v>0.0835420859181533</v>
+      </c>
+      <c r="I23" s="12">
         <f t="shared" si="9"/>
-        <v>0.132810018005808</v>
-      </c>
-      <c r="G23" s="13">
-        <f t="shared" si="10"/>
-        <v>0.370965480070186</v>
-      </c>
-      <c r="H23" s="14">
-        <f t="shared" si="11"/>
-        <v>0.0835420859181533</v>
-      </c>
-      <c r="I23" s="12">
+        <v>0.496971412499224</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="13"/>
+        <v>0.144785649301856</v>
+      </c>
+      <c r="K23" s="14">
         <f t="shared" si="8"/>
-        <v>0.496971412499224</v>
-      </c>
-      <c r="J23" s="14">
-        <f t="shared" si="12"/>
-        <v>0.144785649301856</v>
-      </c>
-      <c r="K23" s="14"/>
+        <v>0</v>
+      </c>
       <c r="L23" s="16">
         <v>4910866585.04</v>
       </c>
       <c r="M23" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1821761980.28</v>
       </c>
       <c r="N23" s="16">
@@ -2900,11 +2971,15 @@
       <c r="R23" s="32">
         <v>676669245.06</v>
       </c>
-      <c r="S23" s="23">
+      <c r="S23" s="35">
         <v>3157988862.51</v>
       </c>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
+      <c r="T23" s="33">
+        <v>796637194</v>
+      </c>
+      <c r="U23" s="33">
+        <v>796637194</v>
+      </c>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
@@ -2923,31 +2998,34 @@
         <v>0.0741579481353309</v>
       </c>
       <c r="F24" s="14">
+        <f t="shared" si="10"/>
+        <v>0.0979289181850914</v>
+      </c>
+      <c r="G24" s="13">
+        <f t="shared" si="11"/>
+        <v>0.381269762551473</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" si="12"/>
+        <v>0.060591582801739</v>
+      </c>
+      <c r="I24" s="13">
         <f t="shared" si="9"/>
-        <v>0.0979289181850914</v>
-      </c>
-      <c r="G24" s="13">
-        <f t="shared" si="10"/>
-        <v>0.381269762551473</v>
-      </c>
-      <c r="H24" s="14">
-        <f t="shared" si="11"/>
-        <v>0.060591582801739</v>
-      </c>
-      <c r="I24" s="13">
+        <v>-0.0634488224879556</v>
+      </c>
+      <c r="J24" s="14">
+        <f t="shared" si="13"/>
+        <v>0.0441684194682816</v>
+      </c>
+      <c r="K24" s="14">
         <f t="shared" si="8"/>
-        <v>-0.0634488224879556</v>
-      </c>
-      <c r="J24" s="14">
-        <f t="shared" si="12"/>
-        <v>0.0441684194682816</v>
-      </c>
-      <c r="K24" s="14"/>
+        <v>0</v>
+      </c>
       <c r="L24" s="16">
         <v>4523115170.58</v>
       </c>
       <c r="M24" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1724527047.08</v>
       </c>
       <c r="N24" s="16">
@@ -2965,11 +3043,15 @@
       <c r="R24" s="32">
         <v>393949066.09</v>
       </c>
-      <c r="S24" s="23">
+      <c r="S24" s="35">
         <v>2758585298.86</v>
       </c>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
+      <c r="T24" s="33">
+        <v>796637194</v>
+      </c>
+      <c r="U24" s="33">
+        <v>796637194</v>
+      </c>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
@@ -2988,31 +3070,34 @@
         <v>0.080085434624652</v>
       </c>
       <c r="F25" s="14">
+        <f t="shared" si="10"/>
+        <v>0.112009784784847</v>
+      </c>
+      <c r="G25" s="13">
+        <f t="shared" si="11"/>
+        <v>0.35635460067491</v>
+      </c>
+      <c r="H25" s="14">
+        <f t="shared" si="12"/>
+        <v>0.0720945826561604</v>
+      </c>
+      <c r="I25" s="12">
         <f t="shared" si="9"/>
-        <v>0.112009784784847</v>
-      </c>
-      <c r="G25" s="13">
-        <f t="shared" si="10"/>
-        <v>0.35635460067491</v>
-      </c>
-      <c r="H25" s="14">
-        <f t="shared" si="11"/>
-        <v>0.0720945826561604</v>
-      </c>
-      <c r="I25" s="12">
+        <v>0.328006614094497</v>
+      </c>
+      <c r="J25" s="14">
+        <f t="shared" si="13"/>
+        <v>0.139637431020141</v>
+      </c>
+      <c r="K25" s="14">
         <f t="shared" si="8"/>
-        <v>0.328006614094497</v>
-      </c>
-      <c r="J25" s="14">
-        <f t="shared" si="12"/>
-        <v>0.139637431020141</v>
-      </c>
-      <c r="K25" s="14"/>
+        <v>0</v>
+      </c>
       <c r="L25" s="16">
         <v>4058969587.71</v>
       </c>
       <c r="M25" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1446432486.58</v>
       </c>
       <c r="N25" s="16">
@@ -3030,11 +3115,15 @@
       <c r="R25" s="32">
         <v>334963620.08</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S25" s="35">
         <v>2641896888.88</v>
       </c>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
+      <c r="T25" s="33">
+        <v>796637194</v>
+      </c>
+      <c r="U25" s="33">
+        <v>796637194</v>
+      </c>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
@@ -3053,31 +3142,34 @@
         <v>0.0685897167369739</v>
       </c>
       <c r="F26" s="14">
+        <f t="shared" si="10"/>
+        <v>0.0923980798268776</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" si="11"/>
+        <v>0.354778424853162</v>
+      </c>
+      <c r="H26" s="14">
+        <f t="shared" si="12"/>
+        <v>0.0596172346064413</v>
+      </c>
+      <c r="I26" s="12">
         <f t="shared" si="9"/>
-        <v>0.0923980798268776</v>
-      </c>
-      <c r="G26" s="13">
-        <f t="shared" si="10"/>
-        <v>0.354778424853162</v>
-      </c>
-      <c r="H26" s="14">
-        <f t="shared" si="11"/>
-        <v>0.0596172346064413</v>
-      </c>
-      <c r="I26" s="12">
-        <f t="shared" si="8"/>
         <v>0.800068850009729</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.321404611520922</v>
       </c>
-      <c r="K26" s="14"/>
+      <c r="K26" s="14">
+        <f>(T26-T27)/T27</f>
+        <v>0</v>
+      </c>
       <c r="L26" s="16">
         <v>3696122566.48</v>
       </c>
       <c r="M26" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1311304542.2</v>
       </c>
       <c r="N26" s="16">
@@ -3095,11 +3187,15 @@
       <c r="R26" s="32">
         <v>135067181.02</v>
       </c>
-      <c r="S26" s="23">
+      <c r="S26" s="35">
         <v>2318190695.54</v>
       </c>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
+      <c r="T26" s="33">
+        <v>796637194</v>
+      </c>
+      <c r="U26" s="33">
+        <v>796637194</v>
+      </c>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
@@ -3136,7 +3232,7 @@
         <v>3495088667.33</v>
       </c>
       <c r="M27" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1305534803.5</v>
       </c>
       <c r="N27" s="16">
@@ -3154,11 +3250,15 @@
       <c r="R27" s="32">
         <v>242084618.48</v>
       </c>
-      <c r="S27" s="23">
+      <c r="S27" s="35">
         <v>1754338281.65</v>
       </c>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
+      <c r="T27" s="33">
+        <v>796637194</v>
+      </c>
+      <c r="U27" s="33">
+        <v>796637194</v>
+      </c>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
@@ -3263,7 +3363,7 @@
         <v>0.316164682857814</v>
       </c>
       <c r="K30" s="14">
-        <f t="shared" ref="K30:K37" si="14">(T30-T31)/T31</f>
+        <f t="shared" ref="K30:K37" si="15">(T30-T31)/T31</f>
         <v>0.0645826251064263</v>
       </c>
       <c r="L30" s="4">
@@ -3327,7 +3427,7 @@
         <v>0.108448021445581</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" ref="I31:I39" si="15">(O31-O32)/O32</f>
+        <f t="shared" ref="I31:I39" si="16">(O31-O32)/O32</f>
         <v>0.553525427321262</v>
       </c>
       <c r="J31" s="14">
@@ -3335,7 +3435,7 @@
         <v>0.265511357801264</v>
       </c>
       <c r="K31" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.208675707551295</v>
       </c>
       <c r="L31" s="16">
@@ -3383,38 +3483,38 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="11">
-        <f t="shared" ref="E32:E40" si="16">(O32+P32)/L32</f>
+        <f t="shared" ref="E32:E40" si="17">(O32+P32)/L32</f>
         <v>0.0923400343109796</v>
       </c>
       <c r="F32" s="14">
-        <f t="shared" ref="F32:F40" si="17">O32/N32</f>
+        <f t="shared" ref="F32:F40" si="18">O32/N32</f>
         <v>0.106734499493711</v>
       </c>
       <c r="G32" s="14">
-        <f t="shared" ref="G32:G40" si="18">M32/L32</f>
+        <f t="shared" ref="G32:G40" si="19">M32/L32</f>
         <v>0.134950903282766</v>
       </c>
       <c r="H32" s="14">
-        <f t="shared" ref="H32:H40" si="19">O32/L32</f>
+        <f t="shared" ref="H32:H40" si="20">O32/L32</f>
         <v>0.0923305823756004</v>
       </c>
       <c r="I32" s="13">
+        <f t="shared" si="16"/>
+        <v>0.0758040630428128</v>
+      </c>
+      <c r="J32" s="14">
+        <f t="shared" ref="J32:J39" si="21">(S32-S33)/S33</f>
+        <v>0.137019947464054</v>
+      </c>
+      <c r="K32" s="14">
         <f t="shared" si="15"/>
-        <v>0.0758040630428128</v>
-      </c>
-      <c r="J32" s="14">
-        <f t="shared" ref="J32:J39" si="20">(S32-S33)/S33</f>
-        <v>0.137019947464054</v>
-      </c>
-      <c r="K32" s="14">
-        <f t="shared" si="14"/>
         <v>0.199957601552533</v>
       </c>
       <c r="L32" s="16">
         <v>2397922657.19</v>
       </c>
       <c r="M32" s="21">
-        <f t="shared" ref="M32:M40" si="21">L32-N32</f>
+        <f t="shared" ref="M32:M40" si="22">L32-N32</f>
         <v>323601828.59</v>
       </c>
       <c r="N32" s="16">
@@ -3455,38 +3555,38 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="11">
+        <f t="shared" si="17"/>
+        <v>0.0937074701353158</v>
+      </c>
+      <c r="F33" s="14">
+        <f t="shared" si="18"/>
+        <v>0.108435539151202</v>
+      </c>
+      <c r="G33" s="14">
+        <f t="shared" si="19"/>
+        <v>0.131587242538234</v>
+      </c>
+      <c r="H33" s="14">
+        <f t="shared" si="20"/>
+        <v>0.0941668055611486</v>
+      </c>
+      <c r="I33" s="13">
         <f t="shared" si="16"/>
-        <v>0.0937074701353158</v>
-      </c>
-      <c r="F33" s="14">
-        <f t="shared" si="17"/>
-        <v>0.108435539151202</v>
-      </c>
-      <c r="G33" s="14">
-        <f t="shared" si="18"/>
-        <v>0.131587242538234</v>
-      </c>
-      <c r="H33" s="14">
-        <f t="shared" si="19"/>
-        <v>0.0941668055611486</v>
-      </c>
-      <c r="I33" s="13">
+        <v>0.038067685806363</v>
+      </c>
+      <c r="J33" s="14">
+        <f t="shared" si="21"/>
+        <v>0.249512951393242</v>
+      </c>
+      <c r="K33" s="14">
         <f t="shared" si="15"/>
-        <v>0.038067685806363</v>
-      </c>
-      <c r="J33" s="14">
-        <f t="shared" si="20"/>
-        <v>0.249512951393242</v>
-      </c>
-      <c r="K33" s="14">
-        <f t="shared" si="14"/>
         <v>0.428945553936482</v>
       </c>
       <c r="L33" s="16">
         <v>2185494550.48</v>
       </c>
       <c r="M33" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>287583201.48</v>
       </c>
       <c r="N33" s="16">
@@ -3527,38 +3627,38 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="11">
+        <f t="shared" si="17"/>
+        <v>0.0971055801939866</v>
+      </c>
+      <c r="F34" s="14">
+        <f t="shared" si="18"/>
+        <v>0.12448980369023</v>
+      </c>
+      <c r="G34" s="14">
+        <f t="shared" si="19"/>
+        <v>0.225260853007811</v>
+      </c>
+      <c r="H34" s="14">
+        <f t="shared" si="20"/>
+        <v>0.096447124320194</v>
+      </c>
+      <c r="I34" s="13">
         <f t="shared" si="16"/>
-        <v>0.0971055801939866</v>
-      </c>
-      <c r="F34" s="14">
-        <f t="shared" si="17"/>
-        <v>0.12448980369023</v>
-      </c>
-      <c r="G34" s="14">
-        <f t="shared" si="18"/>
-        <v>0.225260853007811</v>
-      </c>
-      <c r="H34" s="14">
-        <f t="shared" si="19"/>
-        <v>0.096447124320194</v>
-      </c>
-      <c r="I34" s="13">
+        <v>-0.17402301476168</v>
+      </c>
+      <c r="J34" s="14">
+        <f t="shared" si="21"/>
+        <v>0.271906286261509</v>
+      </c>
+      <c r="K34" s="14">
         <f t="shared" si="15"/>
-        <v>-0.17402301476168</v>
-      </c>
-      <c r="J34" s="14">
-        <f t="shared" si="20"/>
-        <v>0.271906286261509</v>
-      </c>
-      <c r="K34" s="14">
-        <f t="shared" si="14"/>
         <v>0.428101919470848</v>
       </c>
       <c r="L34" s="16">
         <v>2055571609.08</v>
       </c>
       <c r="M34" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>463039814.08</v>
       </c>
       <c r="N34" s="16">
@@ -3599,38 +3699,38 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="11">
+        <f t="shared" si="17"/>
+        <v>0.125470247715255</v>
+      </c>
+      <c r="F35" s="14">
+        <f t="shared" si="18"/>
+        <v>0.1837137290892</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="19"/>
+        <v>0.323453266079702</v>
+      </c>
+      <c r="H35" s="14">
+        <f t="shared" si="20"/>
+        <v>0.124290923391616</v>
+      </c>
+      <c r="I35" s="12">
         <f t="shared" si="16"/>
-        <v>0.125470247715255</v>
-      </c>
-      <c r="F35" s="14">
-        <f t="shared" si="17"/>
-        <v>0.1837137290892</v>
-      </c>
-      <c r="G35" s="15">
-        <f t="shared" si="18"/>
-        <v>0.323453266079702</v>
-      </c>
-      <c r="H35" s="14">
-        <f t="shared" si="19"/>
-        <v>0.124290923391616</v>
-      </c>
-      <c r="I35" s="12">
+        <v>0.666142883870169</v>
+      </c>
+      <c r="J35" s="14">
+        <f t="shared" si="21"/>
+        <v>0.123689887095143</v>
+      </c>
+      <c r="K35" s="14">
         <f t="shared" si="15"/>
-        <v>0.666142883870169</v>
-      </c>
-      <c r="J35" s="14">
-        <f t="shared" si="20"/>
-        <v>0.123689887095143</v>
-      </c>
-      <c r="K35" s="14">
-        <f t="shared" si="14"/>
         <v>0.00066725115127926</v>
       </c>
       <c r="L35" s="16">
         <v>1931143438.96</v>
       </c>
       <c r="M35" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>624634652.6</v>
       </c>
       <c r="N35" s="16">
@@ -3671,38 +3771,38 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="11">
+        <f t="shared" si="17"/>
+        <v>0.121803221086439</v>
+      </c>
+      <c r="F36" s="14">
+        <f t="shared" si="18"/>
+        <v>0.135523232361733</v>
+      </c>
+      <c r="G36" s="14">
+        <f t="shared" si="19"/>
+        <v>0.111309125008419</v>
+      </c>
+      <c r="H36" s="14">
+        <f t="shared" si="20"/>
+        <v>0.120438259949236</v>
+      </c>
+      <c r="I36" s="12">
         <f t="shared" si="16"/>
-        <v>0.121803221086439</v>
-      </c>
-      <c r="F36" s="14">
-        <f t="shared" si="17"/>
-        <v>0.135523232361733</v>
-      </c>
-      <c r="G36" s="14">
-        <f t="shared" si="18"/>
-        <v>0.111309125008419</v>
-      </c>
-      <c r="H36" s="14">
-        <f t="shared" si="19"/>
-        <v>0.120438259949236</v>
-      </c>
-      <c r="I36" s="12">
+        <v>0.439319600747544</v>
+      </c>
+      <c r="J36" s="14">
+        <f t="shared" si="21"/>
+        <v>0.230010498376745</v>
+      </c>
+      <c r="K36" s="14">
         <f t="shared" si="15"/>
-        <v>0.439319600747544</v>
-      </c>
-      <c r="J36" s="14">
-        <f t="shared" si="20"/>
-        <v>0.230010498376745</v>
-      </c>
-      <c r="K36" s="14">
-        <f t="shared" si="14"/>
         <v>1.0374075</v>
       </c>
       <c r="L36" s="16">
         <v>1196126831.38</v>
       </c>
       <c r="M36" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>133139831</v>
       </c>
       <c r="N36" s="16">
@@ -3743,38 +3843,38 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="11">
+        <f t="shared" si="17"/>
+        <v>0.0988176824631842</v>
+      </c>
+      <c r="F37" s="14">
+        <f t="shared" si="18"/>
+        <v>0.112405921712588</v>
+      </c>
+      <c r="G37" s="14">
+        <f t="shared" si="19"/>
+        <v>0.132697880913633</v>
+      </c>
+      <c r="H37" s="14">
+        <f t="shared" si="20"/>
+        <v>0.0974898940991835</v>
+      </c>
+      <c r="I37" s="12">
         <f t="shared" si="16"/>
-        <v>0.0988176824631842</v>
-      </c>
-      <c r="F37" s="14">
-        <f t="shared" si="17"/>
-        <v>0.112405921712588</v>
-      </c>
-      <c r="G37" s="14">
-        <f t="shared" si="18"/>
-        <v>0.132697880913633</v>
-      </c>
-      <c r="H37" s="14">
-        <f t="shared" si="19"/>
-        <v>0.0974898940991835</v>
-      </c>
-      <c r="I37" s="12">
+        <v>0.504387235419186</v>
+      </c>
+      <c r="J37" s="14">
+        <f t="shared" si="21"/>
+        <v>0.236174394035559</v>
+      </c>
+      <c r="K37" s="14">
         <f t="shared" si="15"/>
-        <v>0.504387235419186</v>
-      </c>
-      <c r="J37" s="14">
-        <f t="shared" si="20"/>
-        <v>0.236174394035559</v>
-      </c>
-      <c r="K37" s="14">
-        <f t="shared" si="14"/>
         <v>0.333333333333333</v>
       </c>
       <c r="L37" s="16">
         <v>1026655803.71</v>
       </c>
       <c r="M37" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>136235049.58</v>
       </c>
       <c r="N37" s="16">
@@ -3815,27 +3915,27 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="11">
+        <f t="shared" si="17"/>
+        <v>0.102122372604976</v>
+      </c>
+      <c r="F38" s="14">
+        <f t="shared" si="18"/>
+        <v>0.142313135043809</v>
+      </c>
+      <c r="G38" s="13">
+        <f t="shared" si="19"/>
+        <v>0.35439373871199</v>
+      </c>
+      <c r="H38" s="14">
+        <f t="shared" si="20"/>
+        <v>0.0918782510478093</v>
+      </c>
+      <c r="I38" s="12">
         <f t="shared" si="16"/>
-        <v>0.102122372604976</v>
-      </c>
-      <c r="F38" s="14">
-        <f t="shared" si="17"/>
-        <v>0.142313135043809</v>
-      </c>
-      <c r="G38" s="13">
-        <f t="shared" si="18"/>
-        <v>0.35439373871199</v>
-      </c>
-      <c r="H38" s="14">
-        <f t="shared" si="19"/>
-        <v>0.0918782510478093</v>
-      </c>
-      <c r="I38" s="12">
-        <f t="shared" si="15"/>
         <v>0.256007377514907</v>
       </c>
       <c r="J38" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.0417807283033406</v>
       </c>
       <c r="K38" s="14"/>
@@ -3843,7 +3943,7 @@
         <v>724122606.18</v>
       </c>
       <c r="M38" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>256624517.69</v>
       </c>
       <c r="N38" s="16">
@@ -3885,27 +3985,27 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="11">
+        <f t="shared" si="17"/>
+        <v>0.092404743820588</v>
+      </c>
+      <c r="F39" s="14">
+        <f t="shared" si="18"/>
+        <v>0.132106454316004</v>
+      </c>
+      <c r="G39" s="13">
+        <f t="shared" si="19"/>
+        <v>0.382219951042547</v>
+      </c>
+      <c r="H39" s="14">
+        <f t="shared" si="20"/>
+        <v>0.0816127318149368</v>
+      </c>
+      <c r="I39" s="13">
         <f t="shared" si="16"/>
-        <v>0.092404743820588</v>
-      </c>
-      <c r="F39" s="14">
-        <f t="shared" si="17"/>
-        <v>0.132106454316004</v>
-      </c>
-      <c r="G39" s="13">
-        <f t="shared" si="18"/>
-        <v>0.382219951042547</v>
-      </c>
-      <c r="H39" s="14">
-        <f t="shared" si="19"/>
-        <v>0.0816127318149368</v>
-      </c>
-      <c r="I39" s="13">
-        <f t="shared" si="15"/>
         <v>-0.248319190709499</v>
       </c>
       <c r="J39" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.0622324251897966</v>
       </c>
       <c r="K39" s="14"/>
@@ -3913,7 +4013,7 @@
         <v>649044867.29</v>
       </c>
       <c r="M39" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>248077897.4</v>
       </c>
       <c r="N39" s="20">
@@ -3951,19 +4051,19 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.143815880807212</v>
       </c>
       <c r="F40" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.195099189143853</v>
       </c>
       <c r="G40" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.30242869917021</v>
       </c>
       <c r="H40" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.136095595161915</v>
       </c>
       <c r="I40" s="11"/>
@@ -3973,7 +4073,7 @@
         <v>517791722.18</v>
       </c>
       <c r="M40" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>156595076.98</v>
       </c>
       <c r="N40" s="20">
@@ -3992,7 +4092,7 @@
       <c r="R40" s="23">
         <v>90132165.69</v>
       </c>
-      <c r="S40" s="33">
+      <c r="S40" s="36">
         <v>612649198.93</v>
       </c>
       <c r="T40" s="28"/>
@@ -4475,7 +4575,7 @@
       <c r="H56" s="6"/>
       <c r="I56" s="11"/>
       <c r="J56" s="14">
-        <f t="shared" ref="J56:J62" si="22">(S56-S57)/S57</f>
+        <f t="shared" ref="J56:J62" si="23">(S56-S57)/S57</f>
         <v>-0.143412163367192</v>
       </c>
       <c r="K56" s="14"/>
@@ -4510,7 +4610,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="11"/>
       <c r="J57" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.36896660405246</v>
       </c>
       <c r="K57" s="14"/>
@@ -4545,7 +4645,7 @@
       <c r="H58" s="6"/>
       <c r="I58" s="11"/>
       <c r="J58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.222575353222556</v>
       </c>
       <c r="K58" s="14"/>
@@ -4580,7 +4680,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="11"/>
       <c r="J59" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.325614220708547</v>
       </c>
       <c r="K59" s="14"/>
@@ -4615,7 +4715,7 @@
       <c r="H60" s="6"/>
       <c r="I60" s="11"/>
       <c r="J60" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.0832576082351315</v>
       </c>
       <c r="K60" s="14"/>

--- a/行业/食品饮料/调味品/总表.xlsx
+++ b/行业/食品饮料/调味品/总表.xlsx
@@ -589,7 +589,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -600,9 +602,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -873,7 +873,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -889,8 +889,8 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -922,6 +922,9 @@
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,29 +943,35 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -970,19 +979,19 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1513,11 +1522,11 @@
   <dimension ref="A1:AE83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16:C29"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1535,7 +1544,8 @@
     <col min="13" max="13" width="19.8461538461538" style="1"/>
     <col min="14" max="14" width="20.9230769230769" customWidth="1"/>
     <col min="15" max="15" width="19.8461538461538" customWidth="1"/>
-    <col min="16" max="17" width="17.0769230769231" style="4" customWidth="1"/>
+    <col min="16" max="16" width="17.0769230769231" style="4" customWidth="1"/>
+    <col min="17" max="17" width="19.8461538461538" style="4" customWidth="1"/>
     <col min="18" max="18" width="22.4615384615385" style="4" customWidth="1"/>
     <col min="19" max="19" width="20.9230769230769" customWidth="1"/>
     <col min="20" max="20" width="19.8461538461538" style="5" customWidth="1"/>
@@ -1589,22 +1599,22 @@
       <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="22" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="30" t="s">
         <v>20</v>
       </c>
       <c r="AA1" s="6" t="s">
@@ -1636,23 +1646,65 @@
       <c r="D2" s="7">
         <v>2014</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
+      <c r="E2" s="11">
+        <f>(O2+P2)/L2</f>
+        <v>0.147095403940763</v>
+      </c>
+      <c r="F2" s="11">
+        <f>O2/N2</f>
+        <v>0.194337185436872</v>
+      </c>
+      <c r="G2" s="11">
+        <f>M2/L2</f>
+        <v>0.244395703547193</v>
+      </c>
+      <c r="H2" s="11">
+        <f>O2/L2</f>
+        <v>0.146842012276646</v>
+      </c>
+      <c r="I2" s="13">
+        <f>(O2-O3)/O3</f>
+        <v>-0.0904344275443549</v>
+      </c>
+      <c r="J2" s="14">
+        <f>(S2-S3)/S3</f>
+        <v>-0.041013411874212</v>
+      </c>
+      <c r="K2" s="14">
+        <f>(T2-T3)/T3</f>
+        <v>0.199999999913678</v>
+      </c>
+      <c r="L2" s="16">
+        <v>38423518405.62</v>
+      </c>
+      <c r="M2" s="22">
+        <f>L2-N2</f>
+        <v>9390542813.5</v>
+      </c>
+      <c r="N2" s="16">
+        <v>29032975592.12</v>
+      </c>
+      <c r="O2" s="16">
+        <v>5642186761.43</v>
+      </c>
+      <c r="P2" s="16">
+        <v>9736199.27</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>1096850567.11</v>
+      </c>
+      <c r="R2" s="16">
+        <v>7355650997.74</v>
+      </c>
+      <c r="S2" s="16">
+        <v>24559312356.59</v>
+      </c>
+      <c r="T2" s="31">
+        <v>5560600544</v>
+      </c>
+      <c r="U2" s="39">
+        <v>5560600544</v>
+      </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
@@ -1690,32 +1742,41 @@
         <f t="shared" ref="J3:J14" si="2">(S3-S4)/S4</f>
         <v>0.0242209145696001</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16">
+      <c r="K3" s="14">
+        <f t="shared" ref="K3:K13" si="3">(T3-T4)/T4</f>
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="17">
         <v>34059175850.3</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="22">
         <f>L3-N3</f>
         <v>7174696439.08</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="17">
         <v>26884479411.22</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="17">
         <v>6203166580.06</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="17">
         <v>12379926.82</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23">
+      <c r="Q3" s="27">
+        <v>1161039435.23</v>
+      </c>
+      <c r="R3" s="27">
+        <v>3830314321.72</v>
+      </c>
+      <c r="S3" s="29">
         <v>25609651543.29</v>
       </c>
-      <c r="T3" s="29">
+      <c r="T3" s="32">
         <v>4633833787</v>
       </c>
-      <c r="U3" s="28"/>
+      <c r="U3" s="39">
+        <v>4633833787</v>
+      </c>
       <c r="AA3" s="9"/>
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
@@ -1734,15 +1795,15 @@
         <v>0.200255197052557</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" ref="F4:F13" si="3">O4/N4</f>
+        <f t="shared" ref="F4:F13" si="4">O4/N4</f>
         <v>0.283894192203626</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" ref="G4:G14" si="4">M4/L4</f>
+        <f t="shared" ref="G4:G14" si="5">M4/L4</f>
         <v>0.295097404400503</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H13" si="5">O4/L4</f>
+        <f t="shared" ref="H4:H13" si="6">O4/L4</f>
         <v>0.200117752959959</v>
       </c>
       <c r="I4" s="13">
@@ -1753,32 +1814,41 @@
         <f t="shared" si="2"/>
         <v>0.0970590269656729</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="16">
+      <c r="K4" s="14">
+        <f t="shared" si="3"/>
+        <v>0.29999999987656</v>
+      </c>
+      <c r="L4" s="17">
         <v>33337724549.58</v>
       </c>
-      <c r="M4" s="21">
-        <f t="shared" ref="M4:M13" si="6">L4-N4</f>
+      <c r="M4" s="22">
+        <f t="shared" ref="M4:M13" si="7">L4-N4</f>
         <v>9837875983.2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="17">
         <v>23499848566.38</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="17">
         <v>6671470525.66</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="17">
         <v>4582073.3</v>
       </c>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23">
+      <c r="Q4" s="27">
+        <v>1149269490.14</v>
+      </c>
+      <c r="R4" s="27">
+        <v>6323508784.06</v>
+      </c>
+      <c r="S4" s="29">
         <v>25004031043.49</v>
       </c>
-      <c r="T4" s="29">
+      <c r="T4" s="32">
         <v>4212576170</v>
       </c>
-      <c r="U4" s="28"/>
+      <c r="U4" s="39">
+        <v>4212576170</v>
+      </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
@@ -1797,15 +1867,15 @@
         <v>0.217187032745513</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.317813102988648</v>
       </c>
       <c r="G5" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.317183788558181</v>
       </c>
       <c r="H5" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.217007938929277</v>
       </c>
       <c r="I5" s="13">
@@ -1816,32 +1886,41 @@
         <f t="shared" si="2"/>
         <v>0.151285589133775</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="16">
+      <c r="K5" s="14">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="17">
         <v>29533620038.66</v>
       </c>
-      <c r="M5" s="21">
-        <f t="shared" si="6"/>
+      <c r="M5" s="22">
+        <f t="shared" si="7"/>
         <v>9367585493.7</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="17">
         <v>20166034544.96</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="17">
         <v>6409030013.71</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="17">
         <v>5289288.72</v>
       </c>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23">
+      <c r="Q5" s="27">
+        <v>1233392261</v>
+      </c>
+      <c r="R5" s="27">
+        <v>6950432014.98</v>
+      </c>
+      <c r="S5" s="29">
         <v>22791873936.49</v>
       </c>
-      <c r="T5" s="29">
+      <c r="T5" s="32">
         <v>3240443208</v>
       </c>
-      <c r="U5" s="28"/>
+      <c r="U5" s="39">
+        <v>3240443208</v>
+      </c>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
@@ -1860,18 +1939,18 @@
         <v>0.216423791788316</v>
       </c>
       <c r="F6" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.322709797499474</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.329490918127118</v>
       </c>
       <c r="H6" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.216379850032756</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="18">
         <f t="shared" si="1"/>
         <v>0.226618472154364</v>
       </c>
@@ -1879,32 +1958,41 @@
         <f t="shared" si="2"/>
         <v>0.162166116197159</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="16">
+      <c r="K6" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
         <v>24753888098.68</v>
       </c>
-      <c r="M6" s="21">
-        <f t="shared" si="6"/>
+      <c r="M6" s="22">
+        <f t="shared" si="7"/>
         <v>8156181316.85</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="17">
         <v>16597706781.83</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="17">
         <v>5356242594.52</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="17">
         <v>1087729.3</v>
       </c>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23">
+      <c r="Q6" s="27">
+        <v>1020956084.25</v>
+      </c>
+      <c r="R6" s="27">
+        <v>6567569488.52</v>
+      </c>
+      <c r="S6" s="29">
         <v>19796889800.07</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="32">
         <v>2700369340</v>
       </c>
-      <c r="U6" s="28"/>
+      <c r="U6" s="39">
+        <v>2700369340</v>
+      </c>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
@@ -1923,18 +2011,18 @@
         <v>0.216804732804178</v>
       </c>
       <c r="F7" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.314424563871999</v>
       </c>
       <c r="G7" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.31056534390678</v>
       </c>
       <c r="H7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.216775191060352</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="18">
         <f t="shared" si="1"/>
         <v>0.236500047209247</v>
       </c>
@@ -1942,32 +2030,41 @@
         <f t="shared" si="2"/>
         <v>0.168000000000082</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="16">
+      <c r="K7" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.000309994788625395</v>
+      </c>
+      <c r="L7" s="17">
         <v>20143788853.33</v>
       </c>
-      <c r="M7" s="21">
-        <f t="shared" si="6"/>
+      <c r="M7" s="22">
+        <f t="shared" si="7"/>
         <v>6255962712.82</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="17">
         <v>13887826140.51</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="17">
         <v>4366673677.36</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="17">
         <v>595082.65</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23">
+      <c r="Q7" s="27">
+        <v>856132678.5</v>
+      </c>
+      <c r="R7" s="27">
+        <v>5996242501.64</v>
+      </c>
+      <c r="S7" s="29">
         <v>17034475127.23</v>
       </c>
-      <c r="T7" s="29">
+      <c r="T7" s="32">
         <v>2700369340</v>
       </c>
-      <c r="U7" s="28"/>
+      <c r="U7" s="39">
+        <v>2696886700</v>
+      </c>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
@@ -1986,18 +2083,18 @@
         <v>0.216216223892856</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.300189280364282</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.279862592937587</v>
       </c>
       <c r="H8" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.216177529989466</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="18">
         <f t="shared" si="1"/>
         <v>0.242107765186688</v>
       </c>
@@ -2005,32 +2102,41 @@
         <f t="shared" si="2"/>
         <v>0.170625829671742</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="16">
+      <c r="K8" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.00138412873846462</v>
+      </c>
+      <c r="L8" s="17">
         <v>16336012255.77</v>
       </c>
-      <c r="M8" s="21">
-        <f t="shared" si="6"/>
+      <c r="M8" s="22">
+        <f t="shared" si="7"/>
         <v>4571838748.16</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="17">
         <v>11764173507.61</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="23">
         <v>3531478779.33</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="24">
         <v>632104.08</v>
       </c>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="30">
+      <c r="Q8" s="27">
+        <v>683810161.82</v>
+      </c>
+      <c r="R8" s="27">
+        <v>4720977581.77</v>
+      </c>
+      <c r="S8" s="33">
         <v>14584310896.6</v>
       </c>
-      <c r="T8" s="29">
+      <c r="T8" s="32">
         <v>2701206700</v>
       </c>
-      <c r="U8" s="28"/>
+      <c r="U8" s="31">
+        <v>2696886700</v>
+      </c>
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
@@ -2046,15 +2152,15 @@
       <c r="D9" s="9"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.283922451698562</v>
       </c>
       <c r="G9" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.256233500647508</v>
       </c>
       <c r="H9" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.211172007987417</v>
       </c>
       <c r="I9" s="13">
@@ -2065,30 +2171,39 @@
         <f t="shared" si="2"/>
         <v>0.103075946410378</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="16">
+      <c r="K9" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.000478633501906331</v>
+      </c>
+      <c r="L9" s="17">
         <v>13463592998.27</v>
       </c>
-      <c r="M9" s="21">
-        <f t="shared" si="6"/>
+      <c r="M9" s="22">
+        <f t="shared" si="7"/>
         <v>3449823565.24</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="17">
         <v>10013769433.03</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="17">
         <v>2843133968.17</v>
       </c>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23">
+      <c r="P9" s="19"/>
+      <c r="Q9" s="27">
+        <v>570244775.78</v>
+      </c>
+      <c r="R9" s="27">
+        <v>4074050747.76</v>
+      </c>
+      <c r="S9" s="29">
         <v>12458558940.81</v>
       </c>
-      <c r="T9" s="29">
+      <c r="T9" s="32">
         <v>2704950700</v>
       </c>
-      <c r="U9" s="28"/>
+      <c r="U9" s="35">
+        <v>271746700</v>
+      </c>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
@@ -2104,15 +2219,15 @@
       <c r="D10" s="9"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.286778236485815</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.238900339649918</v>
       </c>
       <c r="H10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.218266818385149</v>
       </c>
       <c r="I10" s="12">
@@ -2123,30 +2238,39 @@
         <f t="shared" si="2"/>
         <v>0.150469779869341</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="16">
+      <c r="K10" s="14">
+        <f t="shared" si="3"/>
+        <v>0.799868314289895</v>
+      </c>
+      <c r="L10" s="17">
         <v>11498002242.84</v>
       </c>
-      <c r="M10" s="21">
-        <f t="shared" si="6"/>
+      <c r="M10" s="22">
+        <f t="shared" si="7"/>
         <v>2746876641.11</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="17">
         <v>8751125601.73</v>
       </c>
       <c r="O10" s="25">
         <v>2509632367.33</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23">
+      <c r="P10" s="26"/>
+      <c r="Q10" s="27">
+        <v>501670546.62</v>
+      </c>
+      <c r="R10" s="27">
+        <v>2194831656.35</v>
+      </c>
+      <c r="S10" s="29">
         <v>11294380030.09</v>
       </c>
-      <c r="T10" s="29">
+      <c r="T10" s="32">
         <v>2706246000</v>
       </c>
-      <c r="U10" s="28"/>
+      <c r="U10" s="31">
+        <v>269460000</v>
+      </c>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
@@ -2162,15 +2286,15 @@
       <c r="D11" s="9"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.279103975335185</v>
       </c>
       <c r="G11" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.31931750503582</v>
       </c>
       <c r="H11" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.189981190285575</v>
       </c>
       <c r="I11" s="12">
@@ -2181,30 +2305,39 @@
         <f t="shared" si="2"/>
         <v>0.168491970709073</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="16">
+      <c r="K11" s="14">
+        <f t="shared" si="3"/>
+        <v>1.11473980309423</v>
+      </c>
+      <c r="L11" s="17">
         <v>11000594566.17</v>
       </c>
-      <c r="M11" s="21">
-        <f t="shared" si="6"/>
+      <c r="M11" s="22">
+        <f t="shared" si="7"/>
         <v>3512682410.78</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="17">
         <v>7487912155.39</v>
       </c>
       <c r="O11" s="25">
         <v>2089906049.53</v>
       </c>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23">
+      <c r="P11" s="26"/>
+      <c r="Q11" s="27">
+        <v>402320381.83</v>
+      </c>
+      <c r="R11" s="27">
+        <v>2739330825.61</v>
+      </c>
+      <c r="S11" s="29">
         <v>9817189662.62</v>
       </c>
-      <c r="T11" s="29">
+      <c r="T11" s="32">
         <v>1503580000</v>
       </c>
-      <c r="U11" s="28"/>
+      <c r="U11" s="31">
+        <v>149700000</v>
+      </c>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
@@ -2220,15 +2353,15 @@
       <c r="D12" s="9"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.410382890750542</v>
       </c>
       <c r="G12" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.417678190862682</v>
       </c>
       <c r="H12" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.238974907380858</v>
       </c>
       <c r="I12" s="12">
@@ -2239,31 +2372,40 @@
         <f t="shared" si="2"/>
         <v>0.188412255311032</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="16">
+      <c r="K12" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="17">
         <v>6722123294.35</v>
       </c>
-      <c r="M12" s="21">
-        <f t="shared" si="6"/>
+      <c r="M12" s="22">
+        <f t="shared" si="7"/>
         <v>2807684296.34</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="17">
         <v>3914438998.01</v>
       </c>
       <c r="O12" s="25">
         <v>1606418791.67</v>
       </c>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23">
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27">
+        <v>369200360.24</v>
+      </c>
+      <c r="R12" s="29">
+        <v>1930187429.41</v>
+      </c>
+      <c r="S12" s="29">
         <v>8401589320.86</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="32">
         <f>71100*10000</f>
         <v>711000000</v>
       </c>
-      <c r="U12" s="28"/>
+      <c r="U12" s="35">
+        <v>0</v>
+      </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
@@ -2279,15 +2421,15 @@
       <c r="D13" s="9"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.33002646978956</v>
       </c>
       <c r="G13" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.401165692604779</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.197631172458521</v>
       </c>
       <c r="I13" s="12">
@@ -2298,32 +2440,41 @@
         <f t="shared" si="2"/>
         <v>0.160745719949092</v>
       </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="16">
+      <c r="K13" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="17">
         <v>6110204366.74</v>
       </c>
-      <c r="M13" s="21">
-        <f t="shared" si="6"/>
+      <c r="M13" s="22">
+        <f t="shared" si="7"/>
         <v>2451204366.74</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="17">
         <f>36.59*100000000</f>
         <v>3659000000</v>
       </c>
       <c r="O13" s="25">
         <v>1207566852.96</v>
       </c>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23">
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27">
+        <v>282068894.05</v>
+      </c>
+      <c r="R13" s="19">
+        <v>2171135232.51</v>
+      </c>
+      <c r="S13" s="29">
         <v>7069591619.67</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="32">
         <f>71100*10000</f>
         <v>711000000</v>
       </c>
-      <c r="U13" s="28"/>
+      <c r="U13" s="35">
+        <v>0</v>
+      </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
@@ -2349,21 +2500,24 @@
         <f t="shared" si="2"/>
         <v>0.104261047185661</v>
       </c>
-      <c r="K14" s="14"/>
+      <c r="K14" s="14" t="e">
+        <f>(T14-T15)/T15</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="22"/>
+      <c r="N14" s="28"/>
       <c r="O14" s="25">
         <v>955684713.08</v>
       </c>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="31">
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="34">
         <v>6090560144.37</v>
       </c>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
@@ -2386,18 +2540,18 @@
       <c r="K15" s="14"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="22"/>
+      <c r="N15" s="28"/>
       <c r="O15" s="25">
         <v>814184256.9</v>
       </c>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="31">
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="34">
         <v>5515507551.31</v>
       </c>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
@@ -2418,7 +2572,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="11">
-        <f t="shared" ref="E16:E26" si="7">(O16+P16)/L16</f>
+        <f t="shared" ref="E16:E26" si="8">(O16+P16)/L16</f>
         <v>0.258931822172073</v>
       </c>
       <c r="F16" s="14">
@@ -2442,38 +2596,38 @@
         <v>-0.0378108110572284</v>
       </c>
       <c r="K16" s="14">
-        <f t="shared" ref="K16:K25" si="8">(T16-T17)/T17</f>
+        <f t="shared" ref="K16:K25" si="9">(T16-T17)/T17</f>
         <v>0</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="19">
         <v>6718881439.74</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="22">
         <f>L16-N16</f>
         <v>1518352188.76</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="19">
         <v>5200529250.98</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="19">
         <v>1737033635.91</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="16">
         <v>2698578.24</v>
       </c>
-      <c r="Q16" s="32">
+      <c r="Q16" s="27">
         <v>64551857.2</v>
       </c>
-      <c r="R16" s="32">
+      <c r="R16" s="27">
         <v>841908805.69</v>
       </c>
-      <c r="S16" s="18">
+      <c r="S16" s="19">
         <v>5139091906.63</v>
       </c>
-      <c r="T16" s="33">
+      <c r="T16" s="31">
         <v>785375950</v>
       </c>
-      <c r="U16" s="33">
+      <c r="U16" s="31">
         <v>785375950</v>
       </c>
       <c r="AA16" s="7"/>
@@ -2490,7 +2644,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.0893635366701453</v>
       </c>
       <c r="F17" s="14">
@@ -2506,7 +2660,7 @@
         <v>-0.0891095891977247</v>
       </c>
       <c r="I17" s="13">
-        <f t="shared" ref="I17:I26" si="9">(O17-O18)/O18</f>
+        <f t="shared" ref="I17:I26" si="10">(O17-O18)/O18</f>
         <v>-1.70715132355257</v>
       </c>
       <c r="J17" s="14">
@@ -2514,38 +2668,38 @@
         <v>0.044059172814461</v>
       </c>
       <c r="K17" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.0141359756797898</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="17">
         <v>6223376570.5</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="22">
         <f>L17-N17</f>
         <v>2758540203.95</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="17">
         <v>3464836366.55</v>
       </c>
       <c r="O17" s="25">
         <v>-554562529.62</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="16">
         <v>-1580410.75</v>
       </c>
-      <c r="Q17" s="32">
+      <c r="Q17" s="27">
         <v>80152748.71</v>
       </c>
-      <c r="R17" s="32">
+      <c r="R17" s="27">
         <v>677654835.65</v>
       </c>
-      <c r="S17" s="34">
+      <c r="S17" s="36">
         <v>5341040998.68</v>
       </c>
-      <c r="T17" s="33">
+      <c r="T17" s="31">
         <v>785375950</v>
       </c>
-      <c r="U17" s="33">
+      <c r="U17" s="31">
         <v>785375950</v>
       </c>
       <c r="AA17" s="9"/>
@@ -2562,62 +2716,62 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.135919835740443</v>
       </c>
       <c r="F18" s="14">
-        <f t="shared" ref="F18:F26" si="10">O18/N18</f>
+        <f t="shared" ref="F18:F26" si="11">O18/N18</f>
         <v>0.184506426584944</v>
       </c>
       <c r="G18" s="14">
-        <f t="shared" ref="G18:G26" si="11">M18/L18</f>
+        <f t="shared" ref="G18:G26" si="12">M18/L18</f>
         <v>0.281747436919482</v>
       </c>
       <c r="H18" s="14">
-        <f t="shared" ref="H18:H26" si="12">O18/L18</f>
+        <f t="shared" ref="H18:H26" si="13">O18/L18</f>
         <v>0.132522213799464</v>
       </c>
       <c r="I18" s="13">
+        <f t="shared" si="10"/>
+        <v>-0.192666937239026</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" ref="J18:J26" si="14">(S18-S19)/S19</f>
+        <v>-0.00150781658783711</v>
+      </c>
+      <c r="K18" s="14">
         <f t="shared" si="9"/>
-        <v>-0.192666937239026</v>
-      </c>
-      <c r="J18" s="14">
-        <f t="shared" ref="J18:J26" si="13">(S18-S19)/S19</f>
-        <v>-0.00150781658783711</v>
-      </c>
-      <c r="K18" s="14">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="17">
         <v>5917652808.13</v>
       </c>
-      <c r="M18" s="21">
-        <f t="shared" ref="M18:M27" si="14">L18-N18</f>
+      <c r="M18" s="22">
+        <f t="shared" ref="M18:M27" si="15">L18-N18</f>
         <v>1667283511.27</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="17">
         <v>4250369296.86</v>
       </c>
       <c r="O18" s="25">
         <v>784220450.63</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="16">
         <v>20105947.02</v>
       </c>
-      <c r="Q18" s="32">
+      <c r="Q18" s="27">
         <v>92303153.39</v>
       </c>
-      <c r="R18" s="32">
+      <c r="R18" s="27">
         <v>1212493363.66</v>
       </c>
-      <c r="S18" s="34">
+      <c r="S18" s="36">
         <v>5115649704.3</v>
       </c>
-      <c r="T18" s="33">
+      <c r="T18" s="31">
         <v>796637194</v>
       </c>
-      <c r="U18" s="33">
+      <c r="U18" s="31">
         <v>796637194</v>
       </c>
       <c r="AA18" s="9"/>
@@ -2634,62 +2788,62 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.147404291199012</v>
       </c>
       <c r="F19" s="14">
+        <f t="shared" si="11"/>
+        <v>0.194599733296717</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="12"/>
+        <v>0.250383470044278</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="13"/>
+        <v>0.145875176804194</v>
+      </c>
+      <c r="I19" s="12">
         <f t="shared" si="10"/>
-        <v>0.194599733296717</v>
-      </c>
-      <c r="G19" s="14">
-        <f t="shared" si="11"/>
-        <v>0.250383470044278</v>
-      </c>
-      <c r="H19" s="14">
-        <f t="shared" si="12"/>
-        <v>0.145875176804194</v>
-      </c>
-      <c r="I19" s="12">
+        <v>0.227517922860407</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" si="14"/>
+        <v>0.0959455191484949</v>
+      </c>
+      <c r="K19" s="14">
         <f t="shared" si="9"/>
-        <v>0.227517922860407</v>
-      </c>
-      <c r="J19" s="14">
-        <f t="shared" si="13"/>
-        <v>0.0959455191484949</v>
-      </c>
-      <c r="K19" s="14">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="17">
         <v>6658923560.27</v>
       </c>
-      <c r="M19" s="21">
-        <f t="shared" si="14"/>
+      <c r="M19" s="22">
+        <f t="shared" si="15"/>
         <v>1667284387.78</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N19" s="17">
         <v>4991639172.49</v>
       </c>
       <c r="O19" s="25">
         <v>971371651.68</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="16">
         <v>10182255.87</v>
       </c>
-      <c r="Q19" s="32">
+      <c r="Q19" s="27">
         <v>158704875.24</v>
       </c>
-      <c r="R19" s="32">
+      <c r="R19" s="27">
         <v>1000999170.24</v>
       </c>
-      <c r="S19" s="34">
+      <c r="S19" s="36">
         <v>5123374813.83</v>
       </c>
-      <c r="T19" s="33">
+      <c r="T19" s="31">
         <v>796637194</v>
       </c>
-      <c r="U19" s="33">
+      <c r="U19" s="31">
         <v>796637194</v>
       </c>
       <c r="AA19" s="9"/>
@@ -2706,62 +2860,62 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.141528959158248</v>
       </c>
       <c r="F20" s="14">
+        <f t="shared" si="11"/>
+        <v>0.186379631043394</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="12"/>
+        <v>0.286867510025872</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="13"/>
+        <v>0.132913370366435</v>
+      </c>
+      <c r="I20" s="13">
         <f t="shared" si="10"/>
-        <v>0.186379631043394</v>
-      </c>
-      <c r="G20" s="14">
-        <f t="shared" si="11"/>
-        <v>0.286867510025872</v>
-      </c>
-      <c r="H20" s="14">
-        <f t="shared" si="12"/>
-        <v>0.132913370366435</v>
-      </c>
-      <c r="I20" s="13">
+        <v>0.161605538848774</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="14"/>
+        <v>0.12201698396675</v>
+      </c>
+      <c r="K20" s="14">
         <f t="shared" si="9"/>
-        <v>0.161605538848774</v>
-      </c>
-      <c r="J20" s="14">
-        <f t="shared" si="13"/>
-        <v>0.12201698396675</v>
-      </c>
-      <c r="K20" s="14">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="17">
         <v>5953726937.24</v>
       </c>
-      <c r="M20" s="21">
-        <f t="shared" si="14"/>
+      <c r="M20" s="22">
+        <f t="shared" si="15"/>
         <v>1707930821.86</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="17">
         <v>4245796115.38</v>
       </c>
       <c r="O20" s="25">
         <v>791329913.47</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="16">
         <v>51294863.07</v>
       </c>
-      <c r="Q20" s="32">
+      <c r="Q20" s="27">
         <v>136691992.21</v>
       </c>
-      <c r="R20" s="32">
+      <c r="R20" s="27">
         <v>1058869197.81</v>
       </c>
-      <c r="S20" s="35">
+      <c r="S20" s="37">
         <v>4674844437.35</v>
       </c>
-      <c r="T20" s="33">
+      <c r="T20" s="31">
         <v>796637194</v>
       </c>
-      <c r="U20" s="33">
+      <c r="U20" s="31">
         <v>796637194</v>
       </c>
       <c r="AA20" s="9"/>
@@ -2778,62 +2932,62 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.123400232469235</v>
       </c>
       <c r="F21" s="14">
+        <f t="shared" si="11"/>
+        <v>0.172561498486247</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="12"/>
+        <v>0.340239814359238</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="13"/>
+        <v>0.113849206275734</v>
+      </c>
+      <c r="I21" s="12">
         <f t="shared" si="10"/>
-        <v>0.172561498486247</v>
-      </c>
-      <c r="G21" s="13">
-        <f t="shared" si="11"/>
-        <v>0.340239814359238</v>
-      </c>
-      <c r="H21" s="14">
-        <f t="shared" si="12"/>
-        <v>0.113849206275734</v>
-      </c>
-      <c r="I21" s="12">
+        <v>0.332092262949975</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="14"/>
+        <v>0.154346322704087</v>
+      </c>
+      <c r="K21" s="14">
         <f t="shared" si="9"/>
-        <v>0.332092262949975</v>
-      </c>
-      <c r="J21" s="14">
-        <f t="shared" si="13"/>
-        <v>0.154346322704087</v>
-      </c>
-      <c r="K21" s="14">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="17">
         <v>5983687463.75</v>
       </c>
-      <c r="M21" s="21">
-        <f t="shared" si="14"/>
+      <c r="M21" s="22">
+        <f t="shared" si="15"/>
         <v>2035888711.85</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N21" s="17">
         <v>3947798751.9</v>
       </c>
       <c r="O21" s="25">
         <v>681238068.35</v>
       </c>
-      <c r="P21" s="26">
+      <c r="P21" s="16">
         <v>57150355.7</v>
       </c>
-      <c r="Q21" s="32">
+      <c r="Q21" s="27">
         <v>111327569.02</v>
       </c>
-      <c r="R21" s="32">
+      <c r="R21" s="27">
         <v>723569594.03</v>
       </c>
-      <c r="S21" s="35">
+      <c r="S21" s="37">
         <v>4166464950.31</v>
       </c>
-      <c r="T21" s="33">
+      <c r="T21" s="31">
         <v>796637194</v>
       </c>
-      <c r="U21" s="33">
+      <c r="U21" s="31">
         <v>796637194</v>
       </c>
       <c r="AA21" s="9"/>
@@ -2850,62 +3004,62 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.107981762462568</v>
       </c>
       <c r="F22" s="14">
+        <f t="shared" si="11"/>
+        <v>0.148226520751638</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" si="12"/>
+        <v>0.349611711070378</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="13"/>
+        <v>0.0964047932056491</v>
+      </c>
+      <c r="I22" s="12">
         <f t="shared" si="10"/>
-        <v>0.148226520751638</v>
-      </c>
-      <c r="G22" s="13">
-        <f t="shared" si="11"/>
-        <v>0.349611711070378</v>
-      </c>
-      <c r="H22" s="14">
-        <f t="shared" si="12"/>
-        <v>0.0964047932056491</v>
-      </c>
-      <c r="I22" s="12">
+        <v>0.246525457918945</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="14"/>
+        <v>0.142933638506007</v>
+      </c>
+      <c r="K22" s="14">
         <f t="shared" si="9"/>
-        <v>0.246525457918945</v>
-      </c>
-      <c r="J22" s="14">
-        <f t="shared" si="13"/>
-        <v>0.142933638506007</v>
-      </c>
-      <c r="K22" s="14">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="17">
         <v>5304762875.94</v>
       </c>
-      <c r="M22" s="21">
-        <f t="shared" si="14"/>
+      <c r="M22" s="22">
+        <f t="shared" si="15"/>
         <v>1854607225.88</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N22" s="17">
         <v>3450155650.06</v>
       </c>
       <c r="O22" s="25">
         <v>511404568.06</v>
       </c>
-      <c r="P22" s="26">
+      <c r="P22" s="16">
         <v>61413076.73</v>
       </c>
-      <c r="Q22" s="32">
+      <c r="Q22" s="27">
         <v>97773235.58</v>
       </c>
-      <c r="R22" s="32">
+      <c r="R22" s="27">
         <v>650615659.55</v>
       </c>
-      <c r="S22" s="35">
+      <c r="S22" s="37">
         <v>3609371700.99</v>
       </c>
-      <c r="T22" s="33">
+      <c r="T22" s="31">
         <v>796637194</v>
       </c>
-      <c r="U22" s="33">
+      <c r="U22" s="31">
         <v>796637194</v>
       </c>
       <c r="AA22" s="9"/>
@@ -2922,62 +3076,62 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.0964580983452112</v>
       </c>
       <c r="F23" s="14">
+        <f t="shared" si="11"/>
+        <v>0.132810018005808</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="12"/>
+        <v>0.370965480070186</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="13"/>
+        <v>0.0835420859181533</v>
+      </c>
+      <c r="I23" s="12">
         <f t="shared" si="10"/>
-        <v>0.132810018005808</v>
-      </c>
-      <c r="G23" s="13">
-        <f t="shared" si="11"/>
-        <v>0.370965480070186</v>
-      </c>
-      <c r="H23" s="14">
-        <f t="shared" si="12"/>
-        <v>0.0835420859181533</v>
-      </c>
-      <c r="I23" s="12">
+        <v>0.496971412499224</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="14"/>
+        <v>0.144785649301856</v>
+      </c>
+      <c r="K23" s="14">
         <f t="shared" si="9"/>
-        <v>0.496971412499224</v>
-      </c>
-      <c r="J23" s="14">
-        <f t="shared" si="13"/>
-        <v>0.144785649301856</v>
-      </c>
-      <c r="K23" s="14">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="17">
         <v>4910866585.04</v>
       </c>
-      <c r="M23" s="21">
-        <f t="shared" si="14"/>
+      <c r="M23" s="22">
+        <f t="shared" si="15"/>
         <v>1821761980.28</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N23" s="17">
         <v>3089104604.76</v>
       </c>
       <c r="O23" s="25">
         <v>410264038.18</v>
       </c>
-      <c r="P23" s="26">
+      <c r="P23" s="16">
         <v>63428813.84</v>
       </c>
-      <c r="Q23" s="32">
+      <c r="Q23" s="27">
         <v>75998454.21</v>
       </c>
-      <c r="R23" s="32">
+      <c r="R23" s="27">
         <v>676669245.06</v>
       </c>
-      <c r="S23" s="35">
+      <c r="S23" s="37">
         <v>3157988862.51</v>
       </c>
-      <c r="T23" s="33">
+      <c r="T23" s="31">
         <v>796637194</v>
       </c>
-      <c r="U23" s="33">
+      <c r="U23" s="31">
         <v>796637194</v>
       </c>
       <c r="AA23" s="9"/>
@@ -2994,62 +3148,62 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.0741579481353309</v>
       </c>
       <c r="F24" s="14">
+        <f t="shared" si="11"/>
+        <v>0.0979289181850914</v>
+      </c>
+      <c r="G24" s="13">
+        <f t="shared" si="12"/>
+        <v>0.381269762551473</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" si="13"/>
+        <v>0.060591582801739</v>
+      </c>
+      <c r="I24" s="13">
         <f t="shared" si="10"/>
-        <v>0.0979289181850914</v>
-      </c>
-      <c r="G24" s="13">
-        <f t="shared" si="11"/>
-        <v>0.381269762551473</v>
-      </c>
-      <c r="H24" s="14">
-        <f t="shared" si="12"/>
-        <v>0.060591582801739</v>
-      </c>
-      <c r="I24" s="13">
+        <v>-0.0634488224879556</v>
+      </c>
+      <c r="J24" s="14">
+        <f t="shared" si="14"/>
+        <v>0.0441684194682816</v>
+      </c>
+      <c r="K24" s="14">
         <f t="shared" si="9"/>
-        <v>-0.0634488224879556</v>
-      </c>
-      <c r="J24" s="14">
-        <f t="shared" si="13"/>
-        <v>0.0441684194682816</v>
-      </c>
-      <c r="K24" s="14">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="17">
         <v>4523115170.58</v>
       </c>
-      <c r="M24" s="21">
-        <f t="shared" si="14"/>
+      <c r="M24" s="22">
+        <f t="shared" si="15"/>
         <v>1724527047.08</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N24" s="17">
         <v>2798588123.5</v>
       </c>
       <c r="O24" s="25">
         <v>274062707.38</v>
       </c>
-      <c r="P24" s="26">
+      <c r="P24" s="16">
         <v>61362232.85</v>
       </c>
-      <c r="Q24" s="32">
+      <c r="Q24" s="27">
         <v>65056564.18</v>
       </c>
-      <c r="R24" s="32">
+      <c r="R24" s="27">
         <v>393949066.09</v>
       </c>
-      <c r="S24" s="35">
+      <c r="S24" s="37">
         <v>2758585298.86</v>
       </c>
-      <c r="T24" s="33">
+      <c r="T24" s="31">
         <v>796637194</v>
       </c>
-      <c r="U24" s="33">
+      <c r="U24" s="31">
         <v>796637194</v>
       </c>
       <c r="AA24" s="9"/>
@@ -3066,62 +3220,62 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.080085434624652</v>
       </c>
       <c r="F25" s="14">
+        <f t="shared" si="11"/>
+        <v>0.112009784784847</v>
+      </c>
+      <c r="G25" s="13">
+        <f t="shared" si="12"/>
+        <v>0.35635460067491</v>
+      </c>
+      <c r="H25" s="14">
+        <f t="shared" si="13"/>
+        <v>0.0720945826561604</v>
+      </c>
+      <c r="I25" s="12">
         <f t="shared" si="10"/>
-        <v>0.112009784784847</v>
-      </c>
-      <c r="G25" s="13">
-        <f t="shared" si="11"/>
-        <v>0.35635460067491</v>
-      </c>
-      <c r="H25" s="14">
-        <f t="shared" si="12"/>
-        <v>0.0720945826561604</v>
-      </c>
-      <c r="I25" s="12">
+        <v>0.328006614094497</v>
+      </c>
+      <c r="J25" s="14">
+        <f t="shared" si="14"/>
+        <v>0.139637431020141</v>
+      </c>
+      <c r="K25" s="14">
         <f t="shared" si="9"/>
-        <v>0.328006614094497</v>
-      </c>
-      <c r="J25" s="14">
-        <f t="shared" si="13"/>
-        <v>0.139637431020141</v>
-      </c>
-      <c r="K25" s="14">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L25" s="17">
         <v>4058969587.71</v>
       </c>
-      <c r="M25" s="21">
-        <f t="shared" si="14"/>
+      <c r="M25" s="22">
+        <f t="shared" si="15"/>
         <v>1446432486.58</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N25" s="17">
         <v>2612537101.13</v>
       </c>
       <c r="O25" s="25">
         <v>292629718.44</v>
       </c>
-      <c r="P25" s="26">
+      <c r="P25" s="16">
         <v>32434625.12</v>
       </c>
-      <c r="Q25" s="32">
+      <c r="Q25" s="27">
         <v>51394587.66</v>
       </c>
-      <c r="R25" s="32">
+      <c r="R25" s="27">
         <v>334963620.08</v>
       </c>
-      <c r="S25" s="35">
+      <c r="S25" s="37">
         <v>2641896888.88</v>
       </c>
-      <c r="T25" s="33">
+      <c r="T25" s="31">
         <v>796637194</v>
       </c>
-      <c r="U25" s="33">
+      <c r="U25" s="31">
         <v>796637194</v>
       </c>
       <c r="AA25" s="10"/>
@@ -3138,62 +3292,62 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.0685897167369739</v>
       </c>
       <c r="F26" s="14">
+        <f t="shared" si="11"/>
+        <v>0.0923980798268776</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" si="12"/>
+        <v>0.354778424853162</v>
+      </c>
+      <c r="H26" s="14">
+        <f t="shared" si="13"/>
+        <v>0.0596172346064413</v>
+      </c>
+      <c r="I26" s="12">
         <f t="shared" si="10"/>
-        <v>0.0923980798268776</v>
-      </c>
-      <c r="G26" s="13">
-        <f t="shared" si="11"/>
-        <v>0.354778424853162</v>
-      </c>
-      <c r="H26" s="14">
-        <f t="shared" si="12"/>
-        <v>0.0596172346064413</v>
-      </c>
-      <c r="I26" s="12">
-        <f t="shared" si="9"/>
         <v>0.800068850009729</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.321404611520922</v>
       </c>
       <c r="K26" s="14">
         <f>(T26-T27)/T27</f>
         <v>0</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L26" s="17">
         <v>3696122566.48</v>
       </c>
-      <c r="M26" s="21">
-        <f t="shared" si="14"/>
+      <c r="M26" s="22">
+        <f t="shared" si="15"/>
         <v>1311304542.2</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N26" s="17">
         <v>2384818024.28</v>
       </c>
       <c r="O26" s="25">
         <v>220352606.18</v>
       </c>
-      <c r="P26" s="26">
+      <c r="P26" s="16">
         <v>33163393.68</v>
       </c>
-      <c r="Q26" s="32">
+      <c r="Q26" s="27">
         <v>42004915.4</v>
       </c>
-      <c r="R26" s="32">
+      <c r="R26" s="27">
         <v>135067181.02</v>
       </c>
-      <c r="S26" s="35">
+      <c r="S26" s="37">
         <v>2318190695.54</v>
       </c>
-      <c r="T26" s="33">
+      <c r="T26" s="31">
         <v>796637194</v>
       </c>
-      <c r="U26" s="33">
+      <c r="U26" s="31">
         <v>796637194</v>
       </c>
       <c r="AA26" s="9"/>
@@ -3225,38 +3379,38 @@
         <f>O27/L27</f>
         <v>0.03502441393669</v>
       </c>
-      <c r="I27" s="19"/>
+      <c r="I27" s="20"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="16">
+      <c r="L27" s="17">
         <v>3495088667.33</v>
       </c>
-      <c r="M27" s="21">
-        <f t="shared" si="14"/>
+      <c r="M27" s="22">
+        <f t="shared" si="15"/>
         <v>1305534803.5</v>
       </c>
-      <c r="N27" s="16">
+      <c r="N27" s="17">
         <v>2189553863.83</v>
       </c>
       <c r="O27" s="25">
         <v>122413432.23</v>
       </c>
-      <c r="P27" s="26">
+      <c r="P27" s="16">
         <v>41443184.12</v>
       </c>
-      <c r="Q27" s="32">
+      <c r="Q27" s="27">
         <v>22906699.05</v>
       </c>
-      <c r="R27" s="32">
+      <c r="R27" s="27">
         <v>242084618.48</v>
       </c>
-      <c r="S27" s="35">
+      <c r="S27" s="37">
         <v>1754338281.65</v>
       </c>
-      <c r="T27" s="33">
+      <c r="T27" s="31">
         <v>796637194</v>
       </c>
-      <c r="U27" s="33">
+      <c r="U27" s="31">
         <v>796637194</v>
       </c>
       <c r="AA27" s="9"/>
@@ -3281,14 +3435,14 @@
       <c r="K28" s="14"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
@@ -3311,14 +3465,14 @@
       <c r="K29" s="14"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
@@ -3363,13 +3517,13 @@
         <v>0.316164682857814</v>
       </c>
       <c r="K30" s="14">
-        <f t="shared" ref="K30:K37" si="15">(T30-T31)/T31</f>
+        <f t="shared" ref="K30:K37" si="16">(T30-T31)/T31</f>
         <v>0.0645826251064263</v>
       </c>
       <c r="L30" s="4">
         <v>4267793815.23</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M30" s="22">
         <f>L30-N30</f>
         <v>615426267.63</v>
       </c>
@@ -3379,22 +3533,22 @@
       <c r="O30" s="4">
         <v>530447940.83</v>
       </c>
-      <c r="P30" s="23">
+      <c r="P30" s="29">
         <v>5161.46</v>
       </c>
-      <c r="Q30" s="23">
+      <c r="Q30" s="29">
         <v>98762845.55</v>
       </c>
-      <c r="R30" s="23">
+      <c r="R30" s="29">
         <v>470030322.18</v>
       </c>
       <c r="S30" s="4">
         <v>3206797965.72</v>
       </c>
-      <c r="T30" s="27">
+      <c r="T30" s="30">
         <v>1027821086</v>
       </c>
-      <c r="U30" s="27">
+      <c r="U30" s="30">
         <v>958538590</v>
       </c>
       <c r="AA30" s="7"/>
@@ -3427,7 +3581,7 @@
         <v>0.108448021445581</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" ref="I31:I39" si="16">(O31-O32)/O32</f>
+        <f t="shared" ref="I31:I39" si="17">(O31-O32)/O32</f>
         <v>0.553525427321262</v>
       </c>
       <c r="J31" s="14">
@@ -3435,38 +3589,38 @@
         <v>0.265511357801264</v>
       </c>
       <c r="K31" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.208675707551295</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="17">
         <v>3171593207.19</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M31" s="22">
         <f>L31-N31</f>
         <v>818570271.09</v>
       </c>
-      <c r="N31" s="16">
+      <c r="N31" s="17">
         <v>2353022936.1</v>
       </c>
-      <c r="O31" s="16">
+      <c r="O31" s="17">
         <v>343953008.15</v>
       </c>
-      <c r="P31" s="23">
+      <c r="P31" s="29">
         <v>1376299.18</v>
       </c>
-      <c r="Q31" s="23">
+      <c r="Q31" s="29">
         <v>57707967.16</v>
       </c>
-      <c r="R31" s="23">
+      <c r="R31" s="29">
         <v>773383847.4</v>
       </c>
-      <c r="S31" s="34">
+      <c r="S31" s="36">
         <v>2436471672.19</v>
       </c>
-      <c r="T31" s="27">
+      <c r="T31" s="30">
         <v>965468590</v>
       </c>
-      <c r="U31" s="27">
+      <c r="U31" s="30">
         <v>958538590</v>
       </c>
       <c r="AA31" s="9"/>
@@ -3483,62 +3637,62 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="11">
-        <f t="shared" ref="E32:E40" si="17">(O32+P32)/L32</f>
+        <f t="shared" ref="E32:E40" si="18">(O32+P32)/L32</f>
         <v>0.0923400343109796</v>
       </c>
       <c r="F32" s="14">
-        <f t="shared" ref="F32:F40" si="18">O32/N32</f>
+        <f t="shared" ref="F32:F40" si="19">O32/N32</f>
         <v>0.106734499493711</v>
       </c>
       <c r="G32" s="14">
-        <f t="shared" ref="G32:G40" si="19">M32/L32</f>
+        <f t="shared" ref="G32:G40" si="20">M32/L32</f>
         <v>0.134950903282766</v>
       </c>
       <c r="H32" s="14">
-        <f t="shared" ref="H32:H40" si="20">O32/L32</f>
+        <f t="shared" ref="H32:H40" si="21">O32/L32</f>
         <v>0.0923305823756004</v>
       </c>
       <c r="I32" s="13">
+        <f t="shared" si="17"/>
+        <v>0.0758040630428128</v>
+      </c>
+      <c r="J32" s="14">
+        <f t="shared" ref="J32:J39" si="22">(S32-S33)/S33</f>
+        <v>0.137019947464054</v>
+      </c>
+      <c r="K32" s="14">
         <f t="shared" si="16"/>
-        <v>0.0758040630428128</v>
-      </c>
-      <c r="J32" s="14">
-        <f t="shared" ref="J32:J39" si="21">(S32-S33)/S33</f>
-        <v>0.137019947464054</v>
-      </c>
-      <c r="K32" s="14">
-        <f t="shared" si="15"/>
         <v>0.199957601552533</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="17">
         <v>2397922657.19</v>
       </c>
-      <c r="M32" s="21">
-        <f t="shared" ref="M32:M40" si="22">L32-N32</f>
+      <c r="M32" s="22">
+        <f t="shared" ref="M32:M40" si="23">L32-N32</f>
         <v>323601828.59</v>
       </c>
-      <c r="N32" s="16">
+      <c r="N32" s="17">
         <v>2074320828.6</v>
       </c>
-      <c r="O32" s="16">
+      <c r="O32" s="17">
         <v>221401595.43</v>
       </c>
-      <c r="P32" s="23">
+      <c r="P32" s="29">
         <v>22665.01</v>
       </c>
-      <c r="Q32" s="23">
+      <c r="Q32" s="29">
         <v>39840870.93</v>
       </c>
-      <c r="R32" s="23">
+      <c r="R32" s="29">
         <v>178187852.39</v>
       </c>
-      <c r="S32" s="34">
+      <c r="S32" s="36">
         <v>1925286294.09</v>
       </c>
-      <c r="T32" s="27">
+      <c r="T32" s="30">
         <v>798782158</v>
       </c>
-      <c r="U32" s="27">
+      <c r="U32" s="30">
         <v>794566246</v>
       </c>
       <c r="AA32" s="9"/>
@@ -3555,62 +3709,62 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="11">
+        <f t="shared" si="18"/>
+        <v>0.0937074701353158</v>
+      </c>
+      <c r="F33" s="14">
+        <f t="shared" si="19"/>
+        <v>0.108435539151202</v>
+      </c>
+      <c r="G33" s="14">
+        <f t="shared" si="20"/>
+        <v>0.131587242538234</v>
+      </c>
+      <c r="H33" s="14">
+        <f t="shared" si="21"/>
+        <v>0.0941668055611486</v>
+      </c>
+      <c r="I33" s="13">
         <f t="shared" si="17"/>
-        <v>0.0937074701353158</v>
-      </c>
-      <c r="F33" s="14">
-        <f t="shared" si="18"/>
-        <v>0.108435539151202</v>
-      </c>
-      <c r="G33" s="14">
-        <f t="shared" si="19"/>
-        <v>0.131587242538234</v>
-      </c>
-      <c r="H33" s="14">
-        <f t="shared" si="20"/>
-        <v>0.0941668055611486</v>
-      </c>
-      <c r="I33" s="13">
+        <v>0.038067685806363</v>
+      </c>
+      <c r="J33" s="14">
+        <f t="shared" si="22"/>
+        <v>0.249512951393242</v>
+      </c>
+      <c r="K33" s="14">
         <f t="shared" si="16"/>
-        <v>0.038067685806363</v>
-      </c>
-      <c r="J33" s="14">
-        <f t="shared" si="21"/>
-        <v>0.249512951393242</v>
-      </c>
-      <c r="K33" s="14">
-        <f t="shared" si="15"/>
         <v>0.428945553936482</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="17">
         <v>2185494550.48</v>
       </c>
-      <c r="M33" s="21">
-        <f t="shared" si="22"/>
+      <c r="M33" s="22">
+        <f t="shared" si="23"/>
         <v>287583201.48</v>
       </c>
-      <c r="N33" s="16">
+      <c r="N33" s="17">
         <v>1897911349</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O33" s="17">
         <v>205801040.39</v>
       </c>
-      <c r="P33" s="23">
+      <c r="P33" s="29">
         <v>-1003875.07</v>
       </c>
-      <c r="Q33" s="23">
+      <c r="Q33" s="29">
         <v>51143969.08</v>
       </c>
-      <c r="R33" s="23">
+      <c r="R33" s="29">
         <v>378030105.44</v>
       </c>
-      <c r="S33" s="34">
+      <c r="S33" s="36">
         <v>1693273982.03</v>
       </c>
-      <c r="T33" s="27">
+      <c r="T33" s="30">
         <v>665675318</v>
       </c>
-      <c r="U33" s="27">
+      <c r="U33" s="30">
         <v>659771876</v>
       </c>
       <c r="AA33" s="9"/>
@@ -3627,62 +3781,62 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="11">
+        <f t="shared" si="18"/>
+        <v>0.0971055801939866</v>
+      </c>
+      <c r="F34" s="14">
+        <f t="shared" si="19"/>
+        <v>0.12448980369023</v>
+      </c>
+      <c r="G34" s="14">
+        <f t="shared" si="20"/>
+        <v>0.225260853007811</v>
+      </c>
+      <c r="H34" s="14">
+        <f t="shared" si="21"/>
+        <v>0.096447124320194</v>
+      </c>
+      <c r="I34" s="13">
         <f t="shared" si="17"/>
-        <v>0.0971055801939866</v>
-      </c>
-      <c r="F34" s="14">
-        <f t="shared" si="18"/>
-        <v>0.12448980369023</v>
-      </c>
-      <c r="G34" s="14">
-        <f t="shared" si="19"/>
-        <v>0.225260853007811</v>
-      </c>
-      <c r="H34" s="14">
-        <f t="shared" si="20"/>
-        <v>0.096447124320194</v>
-      </c>
-      <c r="I34" s="13">
+        <v>-0.17402301476168</v>
+      </c>
+      <c r="J34" s="14">
+        <f t="shared" si="22"/>
+        <v>0.271906286261509</v>
+      </c>
+      <c r="K34" s="14">
         <f t="shared" si="16"/>
-        <v>-0.17402301476168</v>
-      </c>
-      <c r="J34" s="14">
-        <f t="shared" si="21"/>
-        <v>0.271906286261509</v>
-      </c>
-      <c r="K34" s="14">
-        <f t="shared" si="15"/>
         <v>0.428101919470848</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="17">
         <v>2055571609.08</v>
       </c>
-      <c r="M34" s="21">
-        <f t="shared" si="22"/>
+      <c r="M34" s="22">
+        <f t="shared" si="23"/>
         <v>463039814.08</v>
       </c>
-      <c r="N34" s="16">
+      <c r="N34" s="17">
         <v>1592531795</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O34" s="17">
         <v>198253970.53</v>
       </c>
-      <c r="P34" s="23">
+      <c r="P34" s="29">
         <v>1353503.2</v>
       </c>
-      <c r="Q34" s="23">
+      <c r="Q34" s="29">
         <v>33750491.3</v>
       </c>
-      <c r="R34" s="23">
+      <c r="R34" s="29">
         <v>191991964.23</v>
       </c>
-      <c r="S34" s="34">
+      <c r="S34" s="36">
         <v>1355147203.67</v>
       </c>
-      <c r="T34" s="27">
+      <c r="T34" s="30">
         <v>465850722</v>
       </c>
-      <c r="U34" s="27">
+      <c r="U34" s="30">
         <v>459810506</v>
       </c>
       <c r="AA34" s="9"/>
@@ -3699,62 +3853,62 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="11">
+        <f t="shared" si="18"/>
+        <v>0.125470247715255</v>
+      </c>
+      <c r="F35" s="14">
+        <f t="shared" si="19"/>
+        <v>0.1837137290892</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="20"/>
+        <v>0.323453266079702</v>
+      </c>
+      <c r="H35" s="14">
+        <f t="shared" si="21"/>
+        <v>0.124290923391616</v>
+      </c>
+      <c r="I35" s="12">
         <f t="shared" si="17"/>
-        <v>0.125470247715255</v>
-      </c>
-      <c r="F35" s="14">
-        <f t="shared" si="18"/>
-        <v>0.1837137290892</v>
-      </c>
-      <c r="G35" s="15">
-        <f t="shared" si="19"/>
-        <v>0.323453266079702</v>
-      </c>
-      <c r="H35" s="14">
-        <f t="shared" si="20"/>
-        <v>0.124290923391616</v>
-      </c>
-      <c r="I35" s="12">
+        <v>0.666142883870169</v>
+      </c>
+      <c r="J35" s="14">
+        <f t="shared" si="22"/>
+        <v>0.123689887095143</v>
+      </c>
+      <c r="K35" s="14">
         <f t="shared" si="16"/>
-        <v>0.666142883870169</v>
-      </c>
-      <c r="J35" s="14">
-        <f t="shared" si="21"/>
-        <v>0.123689887095143</v>
-      </c>
-      <c r="K35" s="14">
-        <f t="shared" si="15"/>
         <v>0.00066725115127926</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="17">
         <v>1931143438.96</v>
       </c>
-      <c r="M35" s="21">
-        <f t="shared" si="22"/>
+      <c r="M35" s="22">
+        <f t="shared" si="23"/>
         <v>624634652.6</v>
       </c>
-      <c r="N35" s="16">
+      <c r="N35" s="17">
         <v>1306508786.36</v>
       </c>
-      <c r="O35" s="16">
+      <c r="O35" s="17">
         <v>240023601.23</v>
       </c>
-      <c r="P35" s="23">
+      <c r="P35" s="29">
         <v>2277444.43</v>
       </c>
-      <c r="Q35" s="23">
+      <c r="Q35" s="29">
         <v>45130726.95</v>
       </c>
-      <c r="R35" s="23">
+      <c r="R35" s="29">
         <v>243412728.61</v>
       </c>
-      <c r="S35" s="34">
+      <c r="S35" s="36">
         <v>1065445794.48</v>
       </c>
-      <c r="T35" s="27">
+      <c r="T35" s="30">
         <v>326202714</v>
       </c>
-      <c r="U35" s="27">
+      <c r="U35" s="30">
         <v>134964546</v>
       </c>
       <c r="AA35" s="9"/>
@@ -3771,62 +3925,62 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="11">
+        <f t="shared" si="18"/>
+        <v>0.121803221086439</v>
+      </c>
+      <c r="F36" s="14">
+        <f t="shared" si="19"/>
+        <v>0.135523232361733</v>
+      </c>
+      <c r="G36" s="14">
+        <f t="shared" si="20"/>
+        <v>0.111309125008419</v>
+      </c>
+      <c r="H36" s="14">
+        <f t="shared" si="21"/>
+        <v>0.120438259949236</v>
+      </c>
+      <c r="I36" s="12">
         <f t="shared" si="17"/>
-        <v>0.121803221086439</v>
-      </c>
-      <c r="F36" s="14">
-        <f t="shared" si="18"/>
-        <v>0.135523232361733</v>
-      </c>
-      <c r="G36" s="14">
-        <f t="shared" si="19"/>
-        <v>0.111309125008419</v>
-      </c>
-      <c r="H36" s="14">
-        <f t="shared" si="20"/>
-        <v>0.120438259949236</v>
-      </c>
-      <c r="I36" s="12">
+        <v>0.439319600747544</v>
+      </c>
+      <c r="J36" s="14">
+        <f t="shared" si="22"/>
+        <v>0.230010498376745</v>
+      </c>
+      <c r="K36" s="14">
         <f t="shared" si="16"/>
-        <v>0.439319600747544</v>
-      </c>
-      <c r="J36" s="14">
-        <f t="shared" si="21"/>
-        <v>0.230010498376745</v>
-      </c>
-      <c r="K36" s="14">
-        <f t="shared" si="15"/>
         <v>1.0374075</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L36" s="17">
         <v>1196126831.38</v>
       </c>
-      <c r="M36" s="21">
-        <f t="shared" si="22"/>
+      <c r="M36" s="22">
+        <f t="shared" si="23"/>
         <v>133139831</v>
       </c>
-      <c r="N36" s="16">
+      <c r="N36" s="17">
         <v>1062987000.38</v>
       </c>
-      <c r="O36" s="16">
+      <c r="O36" s="17">
         <v>144059434.25</v>
       </c>
-      <c r="P36" s="23">
+      <c r="P36" s="29">
         <v>1632666.64</v>
       </c>
-      <c r="Q36" s="23">
+      <c r="Q36" s="29">
         <v>26757461.94</v>
       </c>
-      <c r="R36" s="23">
+      <c r="R36" s="29">
         <v>174843670.03</v>
       </c>
-      <c r="S36" s="34">
+      <c r="S36" s="36">
         <v>948167111.51</v>
       </c>
-      <c r="T36" s="27">
+      <c r="T36" s="30">
         <v>325985200</v>
       </c>
-      <c r="U36" s="27">
+      <c r="U36" s="30">
         <v>133190272</v>
       </c>
       <c r="AA36" s="9"/>
@@ -3843,62 +3997,62 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="11">
+        <f t="shared" si="18"/>
+        <v>0.0988176824631842</v>
+      </c>
+      <c r="F37" s="14">
+        <f t="shared" si="19"/>
+        <v>0.112405921712588</v>
+      </c>
+      <c r="G37" s="14">
+        <f t="shared" si="20"/>
+        <v>0.132697880913633</v>
+      </c>
+      <c r="H37" s="14">
+        <f t="shared" si="21"/>
+        <v>0.0974898940991835</v>
+      </c>
+      <c r="I37" s="12">
         <f t="shared" si="17"/>
-        <v>0.0988176824631842</v>
-      </c>
-      <c r="F37" s="14">
-        <f t="shared" si="18"/>
-        <v>0.112405921712588</v>
-      </c>
-      <c r="G37" s="14">
-        <f t="shared" si="19"/>
-        <v>0.132697880913633</v>
-      </c>
-      <c r="H37" s="14">
-        <f t="shared" si="20"/>
-        <v>0.0974898940991835</v>
-      </c>
-      <c r="I37" s="12">
+        <v>0.504387235419186</v>
+      </c>
+      <c r="J37" s="14">
+        <f t="shared" si="22"/>
+        <v>0.236174394035559</v>
+      </c>
+      <c r="K37" s="14">
         <f t="shared" si="16"/>
-        <v>0.504387235419186</v>
-      </c>
-      <c r="J37" s="14">
-        <f t="shared" si="21"/>
-        <v>0.236174394035559</v>
-      </c>
-      <c r="K37" s="14">
-        <f t="shared" si="15"/>
         <v>0.333333333333333</v>
       </c>
-      <c r="L37" s="16">
+      <c r="L37" s="17">
         <v>1026655803.71</v>
       </c>
-      <c r="M37" s="21">
-        <f t="shared" si="22"/>
+      <c r="M37" s="22">
+        <f t="shared" si="23"/>
         <v>136235049.58</v>
       </c>
-      <c r="N37" s="16">
+      <c r="N37" s="17">
         <v>890420754.13</v>
       </c>
       <c r="O37" s="25">
         <v>100088565.58</v>
       </c>
-      <c r="P37" s="23">
+      <c r="P37" s="29">
         <v>1363181.63</v>
       </c>
-      <c r="Q37" s="23">
+      <c r="Q37" s="29">
         <v>21883612.08</v>
       </c>
-      <c r="R37" s="23">
+      <c r="R37" s="29">
         <v>69492005.89</v>
       </c>
-      <c r="S37" s="34">
+      <c r="S37" s="36">
         <v>770860990.83</v>
       </c>
-      <c r="T37" s="27">
+      <c r="T37" s="30">
         <v>160000000</v>
       </c>
-      <c r="U37" s="27">
+      <c r="U37" s="30">
         <v>40000000</v>
       </c>
       <c r="AA37" s="9"/>
@@ -3915,60 +4069,60 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="11">
+        <f t="shared" si="18"/>
+        <v>0.102122372604976</v>
+      </c>
+      <c r="F38" s="14">
+        <f t="shared" si="19"/>
+        <v>0.142313135043809</v>
+      </c>
+      <c r="G38" s="13">
+        <f t="shared" si="20"/>
+        <v>0.35439373871199</v>
+      </c>
+      <c r="H38" s="14">
+        <f t="shared" si="21"/>
+        <v>0.0918782510478093</v>
+      </c>
+      <c r="I38" s="12">
         <f t="shared" si="17"/>
-        <v>0.102122372604976</v>
-      </c>
-      <c r="F38" s="14">
-        <f t="shared" si="18"/>
-        <v>0.142313135043809</v>
-      </c>
-      <c r="G38" s="13">
-        <f t="shared" si="19"/>
-        <v>0.35439373871199</v>
-      </c>
-      <c r="H38" s="14">
-        <f t="shared" si="20"/>
-        <v>0.0918782510478093</v>
-      </c>
-      <c r="I38" s="12">
-        <f t="shared" si="16"/>
         <v>0.256007377514907</v>
       </c>
       <c r="J38" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-0.0417807283033406</v>
       </c>
       <c r="K38" s="14"/>
-      <c r="L38" s="16">
+      <c r="L38" s="17">
         <v>724122606.18</v>
       </c>
-      <c r="M38" s="21">
-        <f t="shared" si="22"/>
+      <c r="M38" s="22">
+        <f t="shared" si="23"/>
         <v>256624517.69</v>
       </c>
-      <c r="N38" s="16">
+      <c r="N38" s="17">
         <v>467498088.49</v>
       </c>
       <c r="O38" s="25">
         <v>66531118.6</v>
       </c>
-      <c r="P38" s="23">
+      <c r="P38" s="29">
         <f>741.8*10000</f>
         <v>7418000</v>
       </c>
-      <c r="Q38" s="23">
+      <c r="Q38" s="29">
         <v>14353571.4</v>
       </c>
-      <c r="R38" s="23">
+      <c r="R38" s="29">
         <v>73033936.57</v>
       </c>
-      <c r="S38" s="23">
+      <c r="S38" s="29">
         <v>623585955.63</v>
       </c>
-      <c r="T38" s="27">
+      <c r="T38" s="30">
         <v>120000000</v>
       </c>
-      <c r="U38" s="27">
+      <c r="U38" s="30">
         <v>0</v>
       </c>
       <c r="AA38" s="9"/>
@@ -3985,58 +4139,58 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="11">
+        <f t="shared" si="18"/>
+        <v>0.092404743820588</v>
+      </c>
+      <c r="F39" s="14">
+        <f t="shared" si="19"/>
+        <v>0.132106454316004</v>
+      </c>
+      <c r="G39" s="13">
+        <f t="shared" si="20"/>
+        <v>0.382219951042547</v>
+      </c>
+      <c r="H39" s="14">
+        <f t="shared" si="21"/>
+        <v>0.0816127318149368</v>
+      </c>
+      <c r="I39" s="13">
         <f t="shared" si="17"/>
-        <v>0.092404743820588</v>
-      </c>
-      <c r="F39" s="14">
-        <f t="shared" si="18"/>
-        <v>0.132106454316004</v>
-      </c>
-      <c r="G39" s="13">
-        <f t="shared" si="19"/>
-        <v>0.382219951042547</v>
-      </c>
-      <c r="H39" s="14">
-        <f t="shared" si="20"/>
-        <v>0.0816127318149368</v>
-      </c>
-      <c r="I39" s="13">
-        <f t="shared" si="16"/>
         <v>-0.248319190709499</v>
       </c>
       <c r="J39" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.0622324251897966</v>
       </c>
       <c r="K39" s="14"/>
-      <c r="L39" s="20">
+      <c r="L39" s="21">
         <v>649044867.29</v>
       </c>
-      <c r="M39" s="21">
-        <f t="shared" si="22"/>
+      <c r="M39" s="22">
+        <f t="shared" si="23"/>
         <v>248077897.4</v>
       </c>
-      <c r="N39" s="20">
+      <c r="N39" s="21">
         <v>400966969.89</v>
       </c>
       <c r="O39" s="25">
         <v>52970324.69</v>
       </c>
-      <c r="P39" s="23">
+      <c r="P39" s="29">
         <f>700.45*10000</f>
         <v>7004500</v>
       </c>
-      <c r="Q39" s="23">
+      <c r="Q39" s="29">
         <v>11307733.43</v>
       </c>
-      <c r="R39" s="23">
+      <c r="R39" s="29">
         <v>99224680.07</v>
       </c>
-      <c r="S39" s="23">
+      <c r="S39" s="29">
         <v>650775844.37</v>
       </c>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
       <c r="AA39" s="10"/>
       <c r="AB39" s="10"/>
       <c r="AC39" s="10"/>
@@ -4051,52 +4205,52 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.143815880807212</v>
       </c>
       <c r="F40" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.195099189143853</v>
       </c>
       <c r="G40" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.30242869917021</v>
       </c>
       <c r="H40" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.136095595161915</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
-      <c r="L40" s="20">
+      <c r="L40" s="21">
         <v>517791722.18</v>
       </c>
-      <c r="M40" s="21">
-        <f t="shared" si="22"/>
+      <c r="M40" s="22">
+        <f t="shared" si="23"/>
         <v>156595076.98</v>
       </c>
-      <c r="N40" s="20">
+      <c r="N40" s="21">
         <v>361196645.2</v>
       </c>
       <c r="O40" s="25">
         <v>70469172.6</v>
       </c>
-      <c r="P40" s="23">
+      <c r="P40" s="29">
         <f>399.75*10000</f>
         <v>3997500</v>
       </c>
-      <c r="Q40" s="23">
+      <c r="Q40" s="29">
         <v>13149040.82</v>
       </c>
-      <c r="R40" s="23">
+      <c r="R40" s="29">
         <v>90132165.69</v>
       </c>
-      <c r="S40" s="36">
+      <c r="S40" s="38">
         <v>612649198.93</v>
       </c>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
@@ -4119,14 +4273,14 @@
       <c r="K41" s="14"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
@@ -4149,14 +4303,14 @@
       <c r="K42" s="14"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
@@ -4179,14 +4333,14 @@
       <c r="K43" s="14"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
@@ -4211,14 +4365,14 @@
       <c r="K44" s="14"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
       <c r="AC44" s="7"/>
@@ -4241,14 +4395,14 @@
       <c r="K45" s="14"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
@@ -4271,14 +4425,14 @@
       <c r="K46" s="14"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
@@ -4301,14 +4455,14 @@
       <c r="K47" s="14"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9"/>
       <c r="AC47" s="9"/>
@@ -4331,14 +4485,14 @@
       <c r="K48" s="14"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
       <c r="AA48" s="9"/>
       <c r="AB48" s="9"/>
       <c r="AC48" s="9"/>
@@ -4361,14 +4515,14 @@
       <c r="K49" s="14"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
       <c r="AA49" s="9"/>
       <c r="AB49" s="9"/>
       <c r="AC49" s="9"/>
@@ -4391,14 +4545,14 @@
       <c r="K50" s="14"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
       <c r="AA50" s="9"/>
       <c r="AB50" s="9"/>
       <c r="AC50" s="9"/>
@@ -4421,14 +4575,14 @@
       <c r="K51" s="14"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
       <c r="AA51" s="9"/>
       <c r="AB51" s="9"/>
       <c r="AC51" s="9"/>
@@ -4451,14 +4605,14 @@
       <c r="K52" s="14"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
       <c r="AA52" s="9"/>
       <c r="AB52" s="9"/>
       <c r="AC52" s="9"/>
@@ -4481,14 +4635,14 @@
       <c r="K53" s="14"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
       <c r="AC53" s="10"/>
@@ -4513,14 +4667,14 @@
       <c r="K54" s="14"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
       <c r="AA54" s="7"/>
       <c r="AB54" s="7"/>
       <c r="AC54" s="7"/>
@@ -4546,16 +4700,16 @@
       <c r="K55" s="14"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23">
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29">
         <v>2690710152.71</v>
       </c>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
       <c r="AA55" s="9"/>
       <c r="AB55" s="9"/>
       <c r="AC55" s="9"/>
@@ -4575,22 +4729,22 @@
       <c r="H56" s="6"/>
       <c r="I56" s="11"/>
       <c r="J56" s="14">
-        <f t="shared" ref="J56:J62" si="23">(S56-S57)/S57</f>
+        <f t="shared" ref="J56:J62" si="24">(S56-S57)/S57</f>
         <v>-0.143412163367192</v>
       </c>
       <c r="K56" s="14"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23">
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29">
         <v>2025535449.58</v>
       </c>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
+      <c r="T56" s="35"/>
+      <c r="U56" s="35"/>
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
@@ -4610,22 +4764,22 @@
       <c r="H57" s="6"/>
       <c r="I57" s="11"/>
       <c r="J57" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.36896660405246</v>
       </c>
       <c r="K57" s="14"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23">
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29">
         <v>2364655862.43</v>
       </c>
-      <c r="T57" s="28"/>
-      <c r="U57" s="28"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="35"/>
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
       <c r="AC57" s="9"/>
@@ -4645,22 +4799,22 @@
       <c r="H58" s="6"/>
       <c r="I58" s="11"/>
       <c r="J58" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.222575353222556</v>
       </c>
       <c r="K58" s="14"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="23">
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29">
         <v>1727329107.54</v>
       </c>
-      <c r="T58" s="28"/>
-      <c r="U58" s="28"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="35"/>
       <c r="AA58" s="9"/>
       <c r="AB58" s="9"/>
       <c r="AC58" s="9"/>
@@ -4680,22 +4834,22 @@
       <c r="H59" s="6"/>
       <c r="I59" s="11"/>
       <c r="J59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.325614220708547</v>
       </c>
       <c r="K59" s="14"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="23">
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29">
         <v>1412861058.41</v>
       </c>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
@@ -4715,22 +4869,22 @@
       <c r="H60" s="6"/>
       <c r="I60" s="11"/>
       <c r="J60" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.0832576082351315</v>
       </c>
       <c r="K60" s="14"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="23">
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29">
         <v>1065816160.04</v>
       </c>
-      <c r="T60" s="28"/>
-      <c r="U60" s="28"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35"/>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
@@ -4753,16 +4907,16 @@
       <c r="K61" s="14"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="22"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="23"/>
-      <c r="S61" s="23">
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29">
         <v>983899076.21</v>
       </c>
-      <c r="T61" s="28"/>
-      <c r="U61" s="28"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
@@ -4785,14 +4939,14 @@
       <c r="K62" s="14"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="28"/>
-      <c r="U62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="29"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
@@ -4815,14 +4969,14 @@
       <c r="K63" s="14"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="23"/>
-      <c r="S63" s="23"/>
-      <c r="T63" s="28"/>
-      <c r="U63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="35"/>
       <c r="AA63" s="10"/>
       <c r="AB63" s="10"/>
       <c r="AC63" s="10"/>
@@ -4847,14 +5001,14 @@
       <c r="K64" s="14"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="28"/>
-      <c r="U64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="35"/>
       <c r="AA64" s="7"/>
       <c r="AB64" s="7"/>
       <c r="AC64" s="7"/>
@@ -4877,14 +5031,14 @@
       <c r="K65" s="14"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="23"/>
-      <c r="Q65" s="23"/>
-      <c r="R65" s="23"/>
-      <c r="S65" s="22"/>
-      <c r="T65" s="28"/>
-      <c r="U65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
@@ -4907,14 +5061,14 @@
       <c r="K66" s="14"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="23"/>
-      <c r="S66" s="22"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
@@ -4937,14 +5091,14 @@
       <c r="K67" s="14"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="23"/>
-      <c r="R67" s="23"/>
-      <c r="S67" s="22"/>
-      <c r="T67" s="28"/>
-      <c r="U67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
@@ -4967,14 +5121,14 @@
       <c r="K68" s="14"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="23"/>
-      <c r="Q68" s="23"/>
-      <c r="R68" s="23"/>
-      <c r="S68" s="22"/>
-      <c r="T68" s="28"/>
-      <c r="U68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35"/>
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
       <c r="AC68" s="9"/>
@@ -4997,14 +5151,14 @@
       <c r="K69" s="14"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="23"/>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="23"/>
-      <c r="S69" s="22"/>
-      <c r="T69" s="28"/>
-      <c r="U69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="28"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
@@ -5027,14 +5181,14 @@
       <c r="K70" s="14"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="23"/>
-      <c r="Q70" s="23"/>
-      <c r="R70" s="23"/>
-      <c r="S70" s="22"/>
-      <c r="T70" s="28"/>
-      <c r="U70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="28"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="35"/>
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
@@ -5057,14 +5211,14 @@
       <c r="K71" s="14"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="22"/>
-      <c r="P71" s="23"/>
-      <c r="Q71" s="23"/>
-      <c r="R71" s="23"/>
-      <c r="S71" s="22"/>
-      <c r="T71" s="28"/>
-      <c r="U71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="28"/>
+      <c r="T71" s="35"/>
+      <c r="U71" s="35"/>
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
       <c r="AC71" s="9"/>
@@ -5087,14 +5241,14 @@
       <c r="K72" s="14"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="23"/>
-      <c r="Q72" s="23"/>
-      <c r="R72" s="23"/>
-      <c r="S72" s="22"/>
-      <c r="T72" s="28"/>
-      <c r="U72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="28"/>
+      <c r="T72" s="35"/>
+      <c r="U72" s="35"/>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
@@ -5117,14 +5271,14 @@
       <c r="K73" s="14"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="23"/>
-      <c r="Q73" s="23"/>
-      <c r="R73" s="23"/>
-      <c r="S73" s="22"/>
-      <c r="T73" s="28"/>
-      <c r="U73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+      <c r="R73" s="29"/>
+      <c r="S73" s="28"/>
+      <c r="T73" s="35"/>
+      <c r="U73" s="35"/>
       <c r="AA73" s="10"/>
       <c r="AB73" s="10"/>
       <c r="AC73" s="10"/>
@@ -5149,14 +5303,14 @@
       <c r="K74" s="14"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="23"/>
-      <c r="R74" s="23"/>
-      <c r="S74" s="22"/>
-      <c r="T74" s="28"/>
-      <c r="U74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+      <c r="R74" s="29"/>
+      <c r="S74" s="28"/>
+      <c r="T74" s="35"/>
+      <c r="U74" s="35"/>
       <c r="AA74" s="7"/>
       <c r="AB74" s="7"/>
       <c r="AC74" s="7"/>
@@ -5179,14 +5333,14 @@
       <c r="K75" s="14"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="22"/>
-      <c r="P75" s="23"/>
-      <c r="Q75" s="23"/>
-      <c r="R75" s="23"/>
-      <c r="S75" s="22"/>
-      <c r="T75" s="28"/>
-      <c r="U75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="28"/>
+      <c r="T75" s="35"/>
+      <c r="U75" s="35"/>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
@@ -5209,14 +5363,14 @@
       <c r="K76" s="14"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
-      <c r="N76" s="22"/>
-      <c r="O76" s="22"/>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="23"/>
-      <c r="R76" s="23"/>
-      <c r="S76" s="22"/>
-      <c r="T76" s="28"/>
-      <c r="U76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="28"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="29"/>
+      <c r="R76" s="29"/>
+      <c r="S76" s="28"/>
+      <c r="T76" s="35"/>
+      <c r="U76" s="35"/>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
@@ -5239,14 +5393,14 @@
       <c r="K77" s="14"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="23"/>
-      <c r="Q77" s="23"/>
-      <c r="R77" s="23"/>
-      <c r="S77" s="22"/>
-      <c r="T77" s="28"/>
-      <c r="U77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="28"/>
+      <c r="T77" s="35"/>
+      <c r="U77" s="35"/>
       <c r="AA77" s="9"/>
       <c r="AB77" s="9"/>
       <c r="AC77" s="9"/>
@@ -5269,14 +5423,14 @@
       <c r="K78" s="14"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="22"/>
-      <c r="P78" s="23"/>
-      <c r="Q78" s="23"/>
-      <c r="R78" s="23"/>
-      <c r="S78" s="22"/>
-      <c r="T78" s="28"/>
-      <c r="U78" s="28"/>
+      <c r="N78" s="28"/>
+      <c r="O78" s="28"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="R78" s="29"/>
+      <c r="S78" s="28"/>
+      <c r="T78" s="35"/>
+      <c r="U78" s="35"/>
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
       <c r="AC78" s="9"/>
@@ -5299,14 +5453,14 @@
       <c r="K79" s="14"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="22"/>
-      <c r="P79" s="23"/>
-      <c r="Q79" s="23"/>
-      <c r="R79" s="23"/>
-      <c r="S79" s="22"/>
-      <c r="T79" s="28"/>
-      <c r="U79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="28"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+      <c r="R79" s="29"/>
+      <c r="S79" s="28"/>
+      <c r="T79" s="35"/>
+      <c r="U79" s="35"/>
       <c r="AA79" s="9"/>
       <c r="AB79" s="9"/>
       <c r="AC79" s="9"/>
@@ -5329,14 +5483,14 @@
       <c r="K80" s="14"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="22"/>
-      <c r="P80" s="23"/>
-      <c r="Q80" s="23"/>
-      <c r="R80" s="23"/>
-      <c r="S80" s="22"/>
-      <c r="T80" s="28"/>
-      <c r="U80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="29"/>
+      <c r="Q80" s="29"/>
+      <c r="R80" s="29"/>
+      <c r="S80" s="28"/>
+      <c r="T80" s="35"/>
+      <c r="U80" s="35"/>
       <c r="AA80" s="9"/>
       <c r="AB80" s="9"/>
       <c r="AC80" s="9"/>
@@ -5359,14 +5513,14 @@
       <c r="K81" s="14"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="22"/>
-      <c r="P81" s="23"/>
-      <c r="Q81" s="23"/>
-      <c r="R81" s="23"/>
-      <c r="S81" s="22"/>
-      <c r="T81" s="28"/>
-      <c r="U81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="28"/>
+      <c r="P81" s="29"/>
+      <c r="Q81" s="29"/>
+      <c r="R81" s="29"/>
+      <c r="S81" s="28"/>
+      <c r="T81" s="35"/>
+      <c r="U81" s="35"/>
       <c r="AA81" s="9"/>
       <c r="AB81" s="9"/>
       <c r="AC81" s="9"/>
@@ -5389,14 +5543,14 @@
       <c r="K82" s="14"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="22"/>
-      <c r="P82" s="23"/>
-      <c r="Q82" s="23"/>
-      <c r="R82" s="23"/>
-      <c r="S82" s="22"/>
-      <c r="T82" s="28"/>
-      <c r="U82" s="28"/>
+      <c r="N82" s="28"/>
+      <c r="O82" s="28"/>
+      <c r="P82" s="29"/>
+      <c r="Q82" s="29"/>
+      <c r="R82" s="29"/>
+      <c r="S82" s="28"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35"/>
       <c r="AA82" s="9"/>
       <c r="AB82" s="9"/>
       <c r="AC82" s="9"/>
@@ -5419,14 +5573,14 @@
       <c r="K83" s="14"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22"/>
-      <c r="P83" s="23"/>
-      <c r="Q83" s="23"/>
-      <c r="R83" s="23"/>
-      <c r="S83" s="22"/>
-      <c r="T83" s="28"/>
-      <c r="U83" s="28"/>
+      <c r="N83" s="28"/>
+      <c r="O83" s="28"/>
+      <c r="P83" s="29"/>
+      <c r="Q83" s="29"/>
+      <c r="R83" s="29"/>
+      <c r="S83" s="28"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="35"/>
       <c r="AA83" s="10"/>
       <c r="AB83" s="10"/>
       <c r="AC83" s="10"/>

--- a/行业/食品饮料/调味品/总表.xlsx
+++ b/行业/食品饮料/调味品/总表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>名称</t>
   </si>
@@ -62,6 +62,9 @@
     <t>总股份数同比增长率</t>
   </si>
   <si>
+    <t>股份数增长的原因</t>
+  </si>
+  <si>
     <t>总资产</t>
   </si>
   <si>
@@ -92,6 +95,12 @@
     <t>流通股份数目</t>
   </si>
   <si>
+    <t>发现</t>
+  </si>
+  <si>
+    <t>答案</t>
+  </si>
+  <si>
     <t>类现金资产</t>
   </si>
   <si>
@@ -112,6 +121,24 @@
   <si>
     <t>清乾隆年间
 (佛山酱园)</t>
+  </si>
+  <si>
+    <t>送股(每股送0.2股)</t>
+  </si>
+  <si>
+    <t>1.最近两年净利润下滑的厉害，需要对影响净利润下滑的因素进行探究;
+2.从2019年开始股份实现了全部流通，需要对限制性国家股和法人股的知识进行了解。
+3.股份数在2015年之后的2020年第一次开始大量扩张，需要找到这些扩张的资本都拿去干嘛了，评估效果将会如何。
+4.2017年开始有利息支出，之前没有利息支出，但之前有贷款费用(这意味着之前没有贷款)，这些费用是哪里来的？</t>
+  </si>
+  <si>
+    <t>送股(每股送0.1股)</t>
+  </si>
+  <si>
+    <t>送股+资本公积金转增(每股送0.1股转0.2股)</t>
+  </si>
+  <si>
+    <t>资本公积金转增股本(每股转0.2股)</t>
   </si>
   <si>
     <t>中炬高新</t>
@@ -873,7 +900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,76 +949,91 @@
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1519,14 +1561,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE83"/>
+  <dimension ref="A1:AF83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1540,20 +1582,22 @@
     <col min="8" max="8" width="12.7692307692308" customWidth="1"/>
     <col min="9" max="9" width="20" style="2" customWidth="1"/>
     <col min="10" max="11" width="20" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.9230769230769" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.8461538461538" style="1"/>
-    <col min="14" max="14" width="20.9230769230769" customWidth="1"/>
-    <col min="15" max="15" width="19.8461538461538" customWidth="1"/>
-    <col min="16" max="16" width="17.0769230769231" style="4" customWidth="1"/>
-    <col min="17" max="17" width="19.8461538461538" style="4" customWidth="1"/>
-    <col min="18" max="18" width="22.4615384615385" style="4" customWidth="1"/>
-    <col min="19" max="19" width="20.9230769230769" customWidth="1"/>
-    <col min="20" max="20" width="19.8461538461538" style="5" customWidth="1"/>
-    <col min="21" max="21" width="15.1538461538462" style="5" customWidth="1"/>
-    <col min="27" max="31" width="12.7692307692308" style="1" customWidth="1"/>
+    <col min="12" max="12" width="35.4134615384615" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.9230769230769" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.8461538461538" style="1"/>
+    <col min="15" max="15" width="20.9230769230769" customWidth="1"/>
+    <col min="16" max="16" width="19.8461538461538" customWidth="1"/>
+    <col min="17" max="17" width="17.0769230769231" style="4" customWidth="1"/>
+    <col min="18" max="18" width="19.8461538461538" style="4" customWidth="1"/>
+    <col min="19" max="19" width="22.4615384615385" style="4" customWidth="1"/>
+    <col min="20" max="20" width="20.9230769230769" customWidth="1"/>
+    <col min="21" max="21" width="19.8461538461538" style="5" customWidth="1"/>
+    <col min="22" max="22" width="15.1538461538462" style="5" customWidth="1"/>
+    <col min="23" max="23" width="30.7596153846154" customWidth="1"/>
+    <col min="28" max="32" width="12.7692307692308" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:31">
+    <row r="1" s="1" customFormat="1" spans="1:32">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1599,119 +1643,134 @@
       <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="V1" s="36" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="AB1" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6">
         <v>2023</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7">
         <v>2014</v>
       </c>
       <c r="E2" s="11">
-        <f>(O2+P2)/L2</f>
+        <f>(P2+Q2)/M2</f>
         <v>0.147095403940763</v>
       </c>
       <c r="F2" s="11">
-        <f>O2/N2</f>
+        <f>P2/O2</f>
         <v>0.194337185436872</v>
       </c>
       <c r="G2" s="11">
-        <f>M2/L2</f>
+        <f>N2/M2</f>
         <v>0.244395703547193</v>
       </c>
       <c r="H2" s="11">
-        <f>O2/L2</f>
+        <f>P2/M2</f>
         <v>0.146842012276646</v>
       </c>
       <c r="I2" s="13">
-        <f>(O2-O3)/O3</f>
+        <f>(P2-P3)/P3</f>
         <v>-0.0904344275443549</v>
       </c>
       <c r="J2" s="14">
-        <f>(S2-S3)/S3</f>
+        <f>(T2-T3)/T3</f>
         <v>-0.041013411874212</v>
       </c>
       <c r="K2" s="14">
-        <f>(T2-T3)/T3</f>
+        <f>(U2-U3)/U3</f>
         <v>0.199999999913678</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="19">
         <v>38423518405.62</v>
       </c>
-      <c r="M2" s="22">
-        <f>L2-N2</f>
+      <c r="N2" s="20">
+        <f>M2-O2</f>
         <v>9390542813.5</v>
       </c>
-      <c r="N2" s="16">
+      <c r="O2" s="19">
         <v>29032975592.12</v>
       </c>
-      <c r="O2" s="16">
+      <c r="P2" s="19">
         <v>5642186761.43</v>
       </c>
-      <c r="P2" s="16">
+      <c r="Q2" s="19">
         <v>9736199.27</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="R2" s="19">
         <v>1096850567.11</v>
       </c>
-      <c r="R2" s="16">
+      <c r="S2" s="19">
         <v>7355650997.74</v>
       </c>
-      <c r="S2" s="16">
+      <c r="T2" s="19">
         <v>24559312356.59</v>
       </c>
-      <c r="T2" s="31">
+      <c r="U2" s="38">
         <v>5560600544</v>
       </c>
-      <c r="U2" s="39">
+      <c r="V2" s="39">
         <v>5560600544</v>
       </c>
-      <c r="AA2" s="7"/>
+      <c r="W2" s="40" t="s">
+        <v>32</v>
+      </c>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
-    </row>
-    <row r="3" spans="1:31">
+      <c r="AF2" s="7"/>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" s="9"/>
       <c r="B3" s="6">
         <v>2022</v>
@@ -1719,71 +1778,75 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E8" si="0">(O3+P3)/L3</f>
+        <f t="shared" ref="E3:E8" si="0">(P3+Q3)/M3</f>
         <v>0.182492569233006</v>
       </c>
       <c r="F3" s="11">
-        <f>O3/N3</f>
+        <f>P3/O3</f>
         <v>0.230734115590543</v>
       </c>
       <c r="G3" s="11">
-        <f>M3/L3</f>
+        <f>N3/M3</f>
         <v>0.210653847603796</v>
       </c>
       <c r="H3" s="11">
-        <f>O3/L3</f>
+        <f>P3/M3</f>
         <v>0.182129086367936</v>
       </c>
       <c r="I3" s="13">
-        <f t="shared" ref="I2:I14" si="1">(O3-O4)/O4</f>
+        <f t="shared" ref="I2:I14" si="1">(P3-P4)/P4</f>
         <v>-0.0701950107999122</v>
       </c>
       <c r="J3" s="14">
-        <f t="shared" ref="J3:J14" si="2">(S3-S4)/S4</f>
+        <f t="shared" ref="J3:J14" si="2">(T3-T4)/T4</f>
         <v>0.0242209145696001</v>
       </c>
       <c r="K3" s="14">
-        <f t="shared" ref="K3:K13" si="3">(T3-T4)/T4</f>
+        <f t="shared" ref="K3:K13" si="3">(U3-U4)/U4</f>
         <v>0.1</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="21">
         <v>34059175850.3</v>
       </c>
-      <c r="M3" s="22">
-        <f>L3-N3</f>
+      <c r="N3" s="20">
+        <f>M3-O3</f>
         <v>7174696439.08</v>
       </c>
-      <c r="N3" s="17">
+      <c r="O3" s="21">
         <v>26884479411.22</v>
       </c>
-      <c r="O3" s="17">
+      <c r="P3" s="21">
         <v>6203166580.06</v>
       </c>
-      <c r="P3" s="17">
+      <c r="Q3" s="21">
         <v>12379926.82</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="R3" s="27">
         <v>1161039435.23</v>
       </c>
-      <c r="R3" s="27">
+      <c r="S3" s="27">
         <v>3830314321.72</v>
       </c>
-      <c r="S3" s="29">
+      <c r="T3" s="28">
         <v>25609651543.29</v>
       </c>
-      <c r="T3" s="32">
+      <c r="U3" s="41">
         <v>4633833787</v>
       </c>
-      <c r="U3" s="39">
+      <c r="V3" s="39">
         <v>4633833787</v>
       </c>
-      <c r="AA3" s="9"/>
+      <c r="W3" s="42"/>
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9"/>
       <c r="AE3" s="9"/>
-    </row>
-    <row r="4" spans="1:31">
+      <c r="AF3" s="9"/>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="9"/>
       <c r="B4" s="6">
         <v>2021</v>
@@ -1795,15 +1858,15 @@
         <v>0.200255197052557</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" ref="F4:F13" si="4">O4/N4</f>
+        <f t="shared" ref="F4:F13" si="4">P4/O4</f>
         <v>0.283894192203626</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" ref="G4:G14" si="5">M4/L4</f>
+        <f t="shared" ref="G4:G14" si="5">N4/M4</f>
         <v>0.295097404400503</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H13" si="6">O4/L4</f>
+        <f t="shared" ref="H4:H13" si="6">P4/M4</f>
         <v>0.200117752959959</v>
       </c>
       <c r="I4" s="13">
@@ -1818,44 +1881,48 @@
         <f t="shared" si="3"/>
         <v>0.29999999987656</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="21">
         <v>33337724549.58</v>
       </c>
-      <c r="M4" s="22">
-        <f t="shared" ref="M4:M13" si="7">L4-N4</f>
+      <c r="N4" s="20">
+        <f t="shared" ref="N4:N13" si="7">M4-O4</f>
         <v>9837875983.2</v>
       </c>
-      <c r="N4" s="17">
+      <c r="O4" s="21">
         <v>23499848566.38</v>
       </c>
-      <c r="O4" s="17">
+      <c r="P4" s="21">
         <v>6671470525.66</v>
       </c>
-      <c r="P4" s="17">
+      <c r="Q4" s="21">
         <v>4582073.3</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="R4" s="27">
         <v>1149269490.14</v>
       </c>
-      <c r="R4" s="27">
+      <c r="S4" s="27">
         <v>6323508784.06</v>
       </c>
-      <c r="S4" s="29">
+      <c r="T4" s="28">
         <v>25004031043.49</v>
       </c>
-      <c r="T4" s="32">
+      <c r="U4" s="41">
         <v>4212576170</v>
       </c>
-      <c r="U4" s="39">
+      <c r="V4" s="39">
         <v>4212576170</v>
       </c>
-      <c r="AA4" s="9"/>
+      <c r="W4" s="42"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
-    </row>
-    <row r="5" spans="1:31">
+      <c r="AF4" s="9"/>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" s="9"/>
       <c r="B5" s="6">
         <v>2020</v>
@@ -1890,44 +1957,48 @@
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="21">
         <v>29533620038.66</v>
       </c>
-      <c r="M5" s="22">
+      <c r="N5" s="20">
         <f t="shared" si="7"/>
         <v>9367585493.7</v>
       </c>
-      <c r="N5" s="17">
+      <c r="O5" s="21">
         <v>20166034544.96</v>
       </c>
-      <c r="O5" s="17">
+      <c r="P5" s="21">
         <v>6409030013.71</v>
       </c>
-      <c r="P5" s="17">
+      <c r="Q5" s="21">
         <v>5289288.72</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="R5" s="27">
         <v>1233392261</v>
       </c>
-      <c r="R5" s="27">
+      <c r="S5" s="27">
         <v>6950432014.98</v>
       </c>
-      <c r="S5" s="29">
+      <c r="T5" s="28">
         <v>22791873936.49</v>
       </c>
-      <c r="T5" s="32">
+      <c r="U5" s="41">
         <v>3240443208</v>
       </c>
-      <c r="U5" s="39">
+      <c r="V5" s="39">
         <v>3240443208</v>
       </c>
-      <c r="AA5" s="9"/>
+      <c r="W5" s="42"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="AF5" s="9"/>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="9"/>
       <c r="B6" s="6">
         <v>2019</v>
@@ -1950,7 +2021,7 @@
         <f t="shared" si="6"/>
         <v>0.216379850032756</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <f t="shared" si="1"/>
         <v>0.226618472154364</v>
       </c>
@@ -1962,44 +2033,46 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="14"/>
+      <c r="M6" s="21">
         <v>24753888098.68</v>
       </c>
-      <c r="M6" s="22">
+      <c r="N6" s="20">
         <f t="shared" si="7"/>
         <v>8156181316.85</v>
       </c>
-      <c r="N6" s="17">
+      <c r="O6" s="21">
         <v>16597706781.83</v>
       </c>
-      <c r="O6" s="17">
+      <c r="P6" s="21">
         <v>5356242594.52</v>
       </c>
-      <c r="P6" s="17">
+      <c r="Q6" s="21">
         <v>1087729.3</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="R6" s="27">
         <v>1020956084.25</v>
       </c>
-      <c r="R6" s="27">
+      <c r="S6" s="27">
         <v>6567569488.52</v>
       </c>
-      <c r="S6" s="29">
+      <c r="T6" s="28">
         <v>19796889800.07</v>
       </c>
-      <c r="T6" s="32">
+      <c r="U6" s="41">
         <v>2700369340</v>
       </c>
-      <c r="U6" s="39">
+      <c r="V6" s="39">
         <v>2700369340</v>
       </c>
-      <c r="AA6" s="9"/>
+      <c r="W6" s="42"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="9"/>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="AF6" s="9"/>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="9"/>
       <c r="B7" s="6">
         <v>2018</v>
@@ -2022,7 +2095,7 @@
         <f t="shared" si="6"/>
         <v>0.216775191060352</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <f t="shared" si="1"/>
         <v>0.236500047209247</v>
       </c>
@@ -2034,44 +2107,46 @@
         <f t="shared" si="3"/>
         <v>-0.000309994788625395</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="14"/>
+      <c r="M7" s="21">
         <v>20143788853.33</v>
       </c>
-      <c r="M7" s="22">
+      <c r="N7" s="20">
         <f t="shared" si="7"/>
         <v>6255962712.82</v>
       </c>
-      <c r="N7" s="17">
+      <c r="O7" s="21">
         <v>13887826140.51</v>
       </c>
-      <c r="O7" s="17">
+      <c r="P7" s="21">
         <v>4366673677.36</v>
       </c>
-      <c r="P7" s="17">
+      <c r="Q7" s="21">
         <v>595082.65</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="R7" s="27">
         <v>856132678.5</v>
       </c>
-      <c r="R7" s="27">
+      <c r="S7" s="27">
         <v>5996242501.64</v>
       </c>
-      <c r="S7" s="29">
+      <c r="T7" s="28">
         <v>17034475127.23</v>
       </c>
-      <c r="T7" s="32">
+      <c r="U7" s="41">
         <v>2700369340</v>
       </c>
-      <c r="U7" s="39">
+      <c r="V7" s="39">
         <v>2696886700</v>
       </c>
-      <c r="AA7" s="9"/>
+      <c r="W7" s="42"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="AF7" s="9"/>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="9"/>
       <c r="B8" s="6">
         <v>2017</v>
@@ -2094,7 +2169,7 @@
         <f t="shared" si="6"/>
         <v>0.216177529989466</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <f t="shared" si="1"/>
         <v>0.242107765186688</v>
       </c>
@@ -2106,44 +2181,46 @@
         <f t="shared" si="3"/>
         <v>-0.00138412873846462</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="14"/>
+      <c r="M8" s="21">
         <v>16336012255.77</v>
       </c>
-      <c r="M8" s="22">
+      <c r="N8" s="20">
         <f t="shared" si="7"/>
         <v>4571838748.16</v>
       </c>
-      <c r="N8" s="17">
+      <c r="O8" s="21">
         <v>11764173507.61</v>
       </c>
-      <c r="O8" s="23">
+      <c r="P8" s="22">
         <v>3531478779.33</v>
       </c>
-      <c r="P8" s="24">
+      <c r="Q8" s="29">
         <v>632104.08</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="R8" s="27">
         <v>683810161.82</v>
       </c>
-      <c r="R8" s="27">
+      <c r="S8" s="27">
         <v>4720977581.77</v>
       </c>
-      <c r="S8" s="33">
+      <c r="T8" s="30">
         <v>14584310896.6</v>
       </c>
-      <c r="T8" s="32">
+      <c r="U8" s="41">
         <v>2701206700</v>
       </c>
-      <c r="U8" s="31">
+      <c r="V8" s="38">
         <v>2696886700</v>
       </c>
-      <c r="AA8" s="9"/>
+      <c r="W8" s="42"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="AF8" s="9"/>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="9"/>
       <c r="B9" s="6">
         <v>2016</v>
@@ -2175,42 +2252,44 @@
         <f t="shared" si="3"/>
         <v>-0.000478633501906331</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="14"/>
+      <c r="M9" s="21">
         <v>13463592998.27</v>
       </c>
-      <c r="M9" s="22">
+      <c r="N9" s="20">
         <f t="shared" si="7"/>
         <v>3449823565.24</v>
       </c>
-      <c r="N9" s="17">
+      <c r="O9" s="21">
         <v>10013769433.03</v>
       </c>
-      <c r="O9" s="17">
+      <c r="P9" s="21">
         <v>2843133968.17</v>
       </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="27">
+      <c r="Q9" s="25"/>
+      <c r="R9" s="27">
         <v>570244775.78</v>
       </c>
-      <c r="R9" s="27">
+      <c r="S9" s="27">
         <v>4074050747.76</v>
       </c>
-      <c r="S9" s="29">
+      <c r="T9" s="28">
         <v>12458558940.81</v>
       </c>
-      <c r="T9" s="32">
+      <c r="U9" s="41">
         <v>2704950700</v>
       </c>
-      <c r="U9" s="35">
+      <c r="V9" s="43">
         <v>271746700</v>
       </c>
-      <c r="AA9" s="9"/>
+      <c r="W9" s="42"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="AF9" s="9"/>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="9"/>
       <c r="B10" s="6">
         <v>2015</v>
@@ -2242,42 +2321,44 @@
         <f t="shared" si="3"/>
         <v>0.799868314289895</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="14"/>
+      <c r="M10" s="21">
         <v>11498002242.84</v>
       </c>
-      <c r="M10" s="22">
+      <c r="N10" s="20">
         <f t="shared" si="7"/>
         <v>2746876641.11</v>
       </c>
-      <c r="N10" s="17">
+      <c r="O10" s="21">
         <v>8751125601.73</v>
       </c>
-      <c r="O10" s="25">
+      <c r="P10" s="23">
         <v>2509632367.33</v>
       </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="27">
+      <c r="Q10" s="31"/>
+      <c r="R10" s="27">
         <v>501670546.62</v>
       </c>
-      <c r="R10" s="27">
+      <c r="S10" s="27">
         <v>2194831656.35</v>
       </c>
-      <c r="S10" s="29">
+      <c r="T10" s="28">
         <v>11294380030.09</v>
       </c>
-      <c r="T10" s="32">
+      <c r="U10" s="41">
         <v>2706246000</v>
       </c>
-      <c r="U10" s="31">
+      <c r="V10" s="38">
         <v>269460000</v>
       </c>
-      <c r="AA10" s="9"/>
+      <c r="W10" s="42"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="AF10" s="9"/>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="9"/>
       <c r="B11" s="6">
         <v>2014</v>
@@ -2309,42 +2390,44 @@
         <f t="shared" si="3"/>
         <v>1.11473980309423</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="14"/>
+      <c r="M11" s="21">
         <v>11000594566.17</v>
       </c>
-      <c r="M11" s="22">
+      <c r="N11" s="20">
         <f t="shared" si="7"/>
         <v>3512682410.78</v>
       </c>
-      <c r="N11" s="17">
+      <c r="O11" s="21">
         <v>7487912155.39</v>
       </c>
-      <c r="O11" s="25">
+      <c r="P11" s="23">
         <v>2089906049.53</v>
       </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="27">
+      <c r="Q11" s="31"/>
+      <c r="R11" s="27">
         <v>402320381.83</v>
       </c>
-      <c r="R11" s="27">
+      <c r="S11" s="27">
         <v>2739330825.61</v>
       </c>
-      <c r="S11" s="29">
+      <c r="T11" s="28">
         <v>9817189662.62</v>
       </c>
-      <c r="T11" s="32">
+      <c r="U11" s="41">
         <v>1503580000</v>
       </c>
-      <c r="U11" s="31">
+      <c r="V11" s="38">
         <v>149700000</v>
       </c>
-      <c r="AA11" s="10"/>
+      <c r="W11" s="42"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="AF11" s="10"/>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="9"/>
       <c r="B12" s="6">
         <v>2013</v>
@@ -2376,43 +2459,45 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="14"/>
+      <c r="M12" s="21">
         <v>6722123294.35</v>
       </c>
-      <c r="M12" s="22">
+      <c r="N12" s="20">
         <f t="shared" si="7"/>
         <v>2807684296.34</v>
       </c>
-      <c r="N12" s="17">
+      <c r="O12" s="21">
         <v>3914438998.01</v>
       </c>
-      <c r="O12" s="25">
+      <c r="P12" s="23">
         <v>1606418791.67</v>
       </c>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27">
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27">
         <v>369200360.24</v>
       </c>
-      <c r="R12" s="29">
+      <c r="S12" s="28">
         <v>1930187429.41</v>
       </c>
-      <c r="S12" s="29">
+      <c r="T12" s="28">
         <v>8401589320.86</v>
       </c>
-      <c r="T12" s="32">
+      <c r="U12" s="41">
         <f>71100*10000</f>
         <v>711000000</v>
       </c>
-      <c r="U12" s="35">
+      <c r="V12" s="43">
         <v>0</v>
       </c>
-      <c r="AA12" s="9"/>
+      <c r="W12" s="42"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="AF12" s="9"/>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="9"/>
       <c r="B13" s="6">
         <v>2012</v>
@@ -2444,44 +2529,46 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="14"/>
+      <c r="M13" s="21">
         <v>6110204366.74</v>
       </c>
-      <c r="M13" s="22">
+      <c r="N13" s="20">
         <f t="shared" si="7"/>
         <v>2451204366.74</v>
       </c>
-      <c r="N13" s="17">
+      <c r="O13" s="21">
         <f>36.59*100000000</f>
         <v>3659000000</v>
       </c>
-      <c r="O13" s="25">
+      <c r="P13" s="23">
         <v>1207566852.96</v>
       </c>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27">
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27">
         <v>282068894.05</v>
       </c>
-      <c r="R13" s="19">
+      <c r="S13" s="25">
         <v>2171135232.51</v>
       </c>
-      <c r="S13" s="29">
+      <c r="T13" s="28">
         <v>7069591619.67</v>
       </c>
-      <c r="T13" s="32">
+      <c r="U13" s="41">
         <f>71100*10000</f>
         <v>711000000</v>
       </c>
-      <c r="U13" s="35">
+      <c r="V13" s="43">
         <v>0</v>
       </c>
-      <c r="AA13" s="9"/>
+      <c r="W13" s="42"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
       <c r="AE13" s="9"/>
-    </row>
-    <row r="14" spans="1:31">
+      <c r="AF13" s="9"/>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="9"/>
       <c r="B14" s="6">
         <v>2011</v>
@@ -2501,30 +2588,32 @@
         <v>0.104261047185661</v>
       </c>
       <c r="K14" s="14" t="e">
-        <f>(T14-T15)/T15</f>
+        <f>(U14-U15)/U15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="25">
+      <c r="N14" s="6"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="23">
         <v>955684713.08</v>
       </c>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="34">
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="32">
         <v>6090560144.37</v>
       </c>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="AA14" s="9"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="42"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="AF14" s="9"/>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" s="10"/>
       <c r="B15" s="6">
         <v>2010</v>
@@ -2538,105 +2627,108 @@
       <c r="I15" s="11"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="25">
+      <c r="N15" s="6"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="23">
         <v>814184256.9</v>
       </c>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="34">
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="32">
         <v>5515507551.31</v>
       </c>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="AA15" s="9"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="42"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
-    </row>
-    <row r="16" spans="1:31">
+      <c r="AF15" s="9"/>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B16" s="6">
         <v>2023</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E16" s="11">
-        <f t="shared" ref="E16:E26" si="8">(O16+P16)/L16</f>
+        <f t="shared" ref="E16:E26" si="8">(P16+Q16)/M16</f>
         <v>0.258931822172073</v>
       </c>
       <c r="F16" s="14">
-        <f>O16/N16</f>
+        <f>P16/O16</f>
         <v>0.33401093467221</v>
       </c>
       <c r="G16" s="13">
-        <f>M16/L16</f>
+        <f>N16/M16</f>
         <v>0.225982881581961</v>
       </c>
       <c r="H16" s="14">
-        <f>O16/L16</f>
+        <f>P16/M16</f>
         <v>0.2585301811751</v>
       </c>
       <c r="I16" s="13">
-        <f>(O16-O17)/O17</f>
+        <f>(P16-P17)/P17</f>
         <v>-4.13225929112134</v>
       </c>
       <c r="J16" s="14">
-        <f>(S16-S17)/S17</f>
+        <f>(T16-T17)/T17</f>
         <v>-0.0378108110572284</v>
       </c>
       <c r="K16" s="14">
-        <f t="shared" ref="K16:K25" si="9">(T16-T17)/T17</f>
+        <f t="shared" ref="K16:K25" si="9">(U16-U17)/U17</f>
         <v>0</v>
       </c>
-      <c r="L16" s="19">
+      <c r="M16" s="25">
         <v>6718881439.74</v>
       </c>
-      <c r="M16" s="22">
-        <f>L16-N16</f>
+      <c r="N16" s="20">
+        <f>M16-O16</f>
         <v>1518352188.76</v>
       </c>
-      <c r="N16" s="19">
+      <c r="O16" s="25">
         <v>5200529250.98</v>
       </c>
-      <c r="O16" s="19">
+      <c r="P16" s="25">
         <v>1737033635.91</v>
       </c>
-      <c r="P16" s="16">
+      <c r="Q16" s="19">
         <v>2698578.24</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="R16" s="27">
         <v>64551857.2</v>
       </c>
-      <c r="R16" s="27">
+      <c r="S16" s="27">
         <v>841908805.69</v>
       </c>
-      <c r="S16" s="19">
+      <c r="T16" s="25">
         <v>5139091906.63</v>
       </c>
-      <c r="T16" s="31">
+      <c r="U16" s="38">
         <v>785375950</v>
       </c>
-      <c r="U16" s="31">
+      <c r="V16" s="38">
         <v>785375950</v>
       </c>
-      <c r="AA16" s="7"/>
+      <c r="W16" s="44"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="AF16" s="7"/>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" s="9"/>
       <c r="B17" s="6">
         <v>2022</v>
@@ -2648,67 +2740,69 @@
         <v>-0.0893635366701453</v>
       </c>
       <c r="F17" s="14">
-        <f>O17/N17</f>
+        <f>P17/O17</f>
         <v>-0.160054464613054</v>
       </c>
       <c r="G17" s="13">
-        <f>M17/L17</f>
+        <f>N17/M17</f>
         <v>0.443254585786438</v>
       </c>
       <c r="H17" s="14">
-        <f>O17/L17</f>
+        <f>P17/M17</f>
         <v>-0.0891095891977247</v>
       </c>
       <c r="I17" s="13">
-        <f t="shared" ref="I17:I26" si="10">(O17-O18)/O18</f>
+        <f t="shared" ref="I17:I26" si="10">(P17-P18)/P18</f>
         <v>-1.70715132355257</v>
       </c>
       <c r="J17" s="14">
-        <f>(S17-S18)/S18</f>
+        <f>(T17-T18)/T18</f>
         <v>0.044059172814461</v>
       </c>
       <c r="K17" s="14">
         <f t="shared" si="9"/>
         <v>-0.0141359756797898</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="14"/>
+      <c r="M17" s="21">
         <v>6223376570.5</v>
       </c>
-      <c r="M17" s="22">
-        <f>L17-N17</f>
+      <c r="N17" s="20">
+        <f>M17-O17</f>
         <v>2758540203.95</v>
       </c>
-      <c r="N17" s="17">
+      <c r="O17" s="21">
         <v>3464836366.55</v>
       </c>
-      <c r="O17" s="25">
+      <c r="P17" s="23">
         <v>-554562529.62</v>
       </c>
-      <c r="P17" s="16">
+      <c r="Q17" s="19">
         <v>-1580410.75</v>
       </c>
-      <c r="Q17" s="27">
+      <c r="R17" s="27">
         <v>80152748.71</v>
       </c>
-      <c r="R17" s="27">
+      <c r="S17" s="27">
         <v>677654835.65</v>
       </c>
-      <c r="S17" s="36">
+      <c r="T17" s="33">
         <v>5341040998.68</v>
       </c>
-      <c r="T17" s="31">
+      <c r="U17" s="38">
         <v>785375950</v>
       </c>
-      <c r="U17" s="31">
+      <c r="V17" s="38">
         <v>785375950</v>
       </c>
-      <c r="AA17" s="9"/>
+      <c r="W17" s="44"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
       <c r="AE17" s="9"/>
-    </row>
-    <row r="18" spans="1:31">
+      <c r="AF17" s="9"/>
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" s="9"/>
       <c r="B18" s="6">
         <v>2021</v>
@@ -2720,15 +2814,15 @@
         <v>0.135919835740443</v>
       </c>
       <c r="F18" s="14">
-        <f t="shared" ref="F18:F26" si="11">O18/N18</f>
+        <f t="shared" ref="F18:F26" si="11">P18/O18</f>
         <v>0.184506426584944</v>
       </c>
       <c r="G18" s="14">
-        <f t="shared" ref="G18:G26" si="12">M18/L18</f>
+        <f t="shared" ref="G18:G26" si="12">N18/M18</f>
         <v>0.281747436919482</v>
       </c>
       <c r="H18" s="14">
-        <f t="shared" ref="H18:H26" si="13">O18/L18</f>
+        <f t="shared" ref="H18:H26" si="13">P18/M18</f>
         <v>0.132522213799464</v>
       </c>
       <c r="I18" s="13">
@@ -2736,51 +2830,53 @@
         <v>-0.192666937239026</v>
       </c>
       <c r="J18" s="14">
-        <f t="shared" ref="J18:J26" si="14">(S18-S19)/S19</f>
+        <f t="shared" ref="J18:J26" si="14">(T18-T19)/T19</f>
         <v>-0.00150781658783711</v>
       </c>
       <c r="K18" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="14"/>
+      <c r="M18" s="21">
         <v>5917652808.13</v>
       </c>
-      <c r="M18" s="22">
-        <f t="shared" ref="M18:M27" si="15">L18-N18</f>
+      <c r="N18" s="20">
+        <f t="shared" ref="N18:N27" si="15">M18-O18</f>
         <v>1667283511.27</v>
       </c>
-      <c r="N18" s="17">
+      <c r="O18" s="21">
         <v>4250369296.86</v>
       </c>
-      <c r="O18" s="25">
+      <c r="P18" s="23">
         <v>784220450.63</v>
       </c>
-      <c r="P18" s="16">
+      <c r="Q18" s="19">
         <v>20105947.02</v>
       </c>
-      <c r="Q18" s="27">
+      <c r="R18" s="27">
         <v>92303153.39</v>
       </c>
-      <c r="R18" s="27">
+      <c r="S18" s="27">
         <v>1212493363.66</v>
       </c>
-      <c r="S18" s="36">
+      <c r="T18" s="33">
         <v>5115649704.3</v>
       </c>
-      <c r="T18" s="31">
+      <c r="U18" s="38">
         <v>796637194</v>
       </c>
-      <c r="U18" s="31">
+      <c r="V18" s="38">
         <v>796637194</v>
       </c>
-      <c r="AA18" s="9"/>
+      <c r="W18" s="44"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="9"/>
-    </row>
-    <row r="19" spans="1:31">
+      <c r="AF18" s="9"/>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" s="9"/>
       <c r="B19" s="6">
         <v>2020</v>
@@ -2815,44 +2911,46 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="14"/>
+      <c r="M19" s="21">
         <v>6658923560.27</v>
       </c>
-      <c r="M19" s="22">
+      <c r="N19" s="20">
         <f t="shared" si="15"/>
         <v>1667284387.78</v>
       </c>
-      <c r="N19" s="17">
+      <c r="O19" s="21">
         <v>4991639172.49</v>
       </c>
-      <c r="O19" s="25">
+      <c r="P19" s="23">
         <v>971371651.68</v>
       </c>
-      <c r="P19" s="16">
+      <c r="Q19" s="19">
         <v>10182255.87</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="R19" s="27">
         <v>158704875.24</v>
       </c>
-      <c r="R19" s="27">
+      <c r="S19" s="27">
         <v>1000999170.24</v>
       </c>
-      <c r="S19" s="36">
+      <c r="T19" s="33">
         <v>5123374813.83</v>
       </c>
-      <c r="T19" s="31">
+      <c r="U19" s="38">
         <v>796637194</v>
       </c>
-      <c r="U19" s="31">
+      <c r="V19" s="38">
         <v>796637194</v>
       </c>
-      <c r="AA19" s="9"/>
+      <c r="W19" s="44"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
       <c r="AE19" s="9"/>
-    </row>
-    <row r="20" spans="1:31">
+      <c r="AF19" s="9"/>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" s="9"/>
       <c r="B20" s="6">
         <v>2019</v>
@@ -2887,44 +2985,46 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="14"/>
+      <c r="M20" s="21">
         <v>5953726937.24</v>
       </c>
-      <c r="M20" s="22">
+      <c r="N20" s="20">
         <f t="shared" si="15"/>
         <v>1707930821.86</v>
       </c>
-      <c r="N20" s="17">
+      <c r="O20" s="21">
         <v>4245796115.38</v>
       </c>
-      <c r="O20" s="25">
+      <c r="P20" s="23">
         <v>791329913.47</v>
       </c>
-      <c r="P20" s="16">
+      <c r="Q20" s="19">
         <v>51294863.07</v>
       </c>
-      <c r="Q20" s="27">
+      <c r="R20" s="27">
         <v>136691992.21</v>
       </c>
-      <c r="R20" s="27">
+      <c r="S20" s="27">
         <v>1058869197.81</v>
       </c>
-      <c r="S20" s="37">
+      <c r="T20" s="34">
         <v>4674844437.35</v>
       </c>
-      <c r="T20" s="31">
+      <c r="U20" s="38">
         <v>796637194</v>
       </c>
-      <c r="U20" s="31">
+      <c r="V20" s="38">
         <v>796637194</v>
       </c>
-      <c r="AA20" s="9"/>
+      <c r="W20" s="44"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
       <c r="AE20" s="9"/>
-    </row>
-    <row r="21" spans="1:31">
+      <c r="AF20" s="9"/>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" s="9"/>
       <c r="B21" s="6">
         <v>2018</v>
@@ -2959,44 +3059,46 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="14"/>
+      <c r="M21" s="21">
         <v>5983687463.75</v>
       </c>
-      <c r="M21" s="22">
+      <c r="N21" s="20">
         <f t="shared" si="15"/>
         <v>2035888711.85</v>
       </c>
-      <c r="N21" s="17">
+      <c r="O21" s="21">
         <v>3947798751.9</v>
       </c>
-      <c r="O21" s="25">
+      <c r="P21" s="23">
         <v>681238068.35</v>
       </c>
-      <c r="P21" s="16">
+      <c r="Q21" s="19">
         <v>57150355.7</v>
       </c>
-      <c r="Q21" s="27">
+      <c r="R21" s="27">
         <v>111327569.02</v>
       </c>
-      <c r="R21" s="27">
+      <c r="S21" s="27">
         <v>723569594.03</v>
       </c>
-      <c r="S21" s="37">
+      <c r="T21" s="34">
         <v>4166464950.31</v>
       </c>
-      <c r="T21" s="31">
+      <c r="U21" s="38">
         <v>796637194</v>
       </c>
-      <c r="U21" s="31">
+      <c r="V21" s="38">
         <v>796637194</v>
       </c>
-      <c r="AA21" s="9"/>
+      <c r="W21" s="44"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
-    </row>
-    <row r="22" spans="1:31">
+      <c r="AF21" s="9"/>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" s="9"/>
       <c r="B22" s="6">
         <v>2017</v>
@@ -3031,44 +3133,46 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="14"/>
+      <c r="M22" s="21">
         <v>5304762875.94</v>
       </c>
-      <c r="M22" s="22">
+      <c r="N22" s="20">
         <f t="shared" si="15"/>
         <v>1854607225.88</v>
       </c>
-      <c r="N22" s="17">
+      <c r="O22" s="21">
         <v>3450155650.06</v>
       </c>
-      <c r="O22" s="25">
+      <c r="P22" s="23">
         <v>511404568.06</v>
       </c>
-      <c r="P22" s="16">
+      <c r="Q22" s="19">
         <v>61413076.73</v>
       </c>
-      <c r="Q22" s="27">
+      <c r="R22" s="27">
         <v>97773235.58</v>
       </c>
-      <c r="R22" s="27">
+      <c r="S22" s="27">
         <v>650615659.55</v>
       </c>
-      <c r="S22" s="37">
+      <c r="T22" s="34">
         <v>3609371700.99</v>
       </c>
-      <c r="T22" s="31">
+      <c r="U22" s="38">
         <v>796637194</v>
       </c>
-      <c r="U22" s="31">
+      <c r="V22" s="38">
         <v>796637194</v>
       </c>
-      <c r="AA22" s="9"/>
+      <c r="W22" s="44"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
       <c r="AE22" s="9"/>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="AF22" s="9"/>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" s="9"/>
       <c r="B23" s="6">
         <v>2016</v>
@@ -3103,44 +3207,46 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="14"/>
+      <c r="M23" s="21">
         <v>4910866585.04</v>
       </c>
-      <c r="M23" s="22">
+      <c r="N23" s="20">
         <f t="shared" si="15"/>
         <v>1821761980.28</v>
       </c>
-      <c r="N23" s="17">
+      <c r="O23" s="21">
         <v>3089104604.76</v>
       </c>
-      <c r="O23" s="25">
+      <c r="P23" s="23">
         <v>410264038.18</v>
       </c>
-      <c r="P23" s="16">
+      <c r="Q23" s="19">
         <v>63428813.84</v>
       </c>
-      <c r="Q23" s="27">
+      <c r="R23" s="27">
         <v>75998454.21</v>
       </c>
-      <c r="R23" s="27">
+      <c r="S23" s="27">
         <v>676669245.06</v>
       </c>
-      <c r="S23" s="37">
+      <c r="T23" s="34">
         <v>3157988862.51</v>
       </c>
-      <c r="T23" s="31">
+      <c r="U23" s="38">
         <v>796637194</v>
       </c>
-      <c r="U23" s="31">
+      <c r="V23" s="38">
         <v>796637194</v>
       </c>
-      <c r="AA23" s="9"/>
+      <c r="W23" s="44"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
       <c r="AE23" s="9"/>
-    </row>
-    <row r="24" spans="1:31">
+      <c r="AF23" s="9"/>
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" s="9"/>
       <c r="B24" s="6">
         <v>2015</v>
@@ -3175,44 +3281,46 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="14"/>
+      <c r="M24" s="21">
         <v>4523115170.58</v>
       </c>
-      <c r="M24" s="22">
+      <c r="N24" s="20">
         <f t="shared" si="15"/>
         <v>1724527047.08</v>
       </c>
-      <c r="N24" s="17">
+      <c r="O24" s="21">
         <v>2798588123.5</v>
       </c>
-      <c r="O24" s="25">
+      <c r="P24" s="23">
         <v>274062707.38</v>
       </c>
-      <c r="P24" s="16">
+      <c r="Q24" s="19">
         <v>61362232.85</v>
       </c>
-      <c r="Q24" s="27">
+      <c r="R24" s="27">
         <v>65056564.18</v>
       </c>
-      <c r="R24" s="27">
+      <c r="S24" s="27">
         <v>393949066.09</v>
       </c>
-      <c r="S24" s="37">
+      <c r="T24" s="34">
         <v>2758585298.86</v>
       </c>
-      <c r="T24" s="31">
+      <c r="U24" s="38">
         <v>796637194</v>
       </c>
-      <c r="U24" s="31">
+      <c r="V24" s="38">
         <v>796637194</v>
       </c>
-      <c r="AA24" s="9"/>
+      <c r="W24" s="44"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
       <c r="AE24" s="9"/>
-    </row>
-    <row r="25" spans="1:31">
+      <c r="AF24" s="9"/>
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" s="9"/>
       <c r="B25" s="6">
         <v>2014</v>
@@ -3247,44 +3355,46 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="14"/>
+      <c r="M25" s="21">
         <v>4058969587.71</v>
       </c>
-      <c r="M25" s="22">
+      <c r="N25" s="20">
         <f t="shared" si="15"/>
         <v>1446432486.58</v>
       </c>
-      <c r="N25" s="17">
+      <c r="O25" s="21">
         <v>2612537101.13</v>
       </c>
-      <c r="O25" s="25">
+      <c r="P25" s="23">
         <v>292629718.44</v>
       </c>
-      <c r="P25" s="16">
+      <c r="Q25" s="19">
         <v>32434625.12</v>
       </c>
-      <c r="Q25" s="27">
+      <c r="R25" s="27">
         <v>51394587.66</v>
       </c>
-      <c r="R25" s="27">
+      <c r="S25" s="27">
         <v>334963620.08</v>
       </c>
-      <c r="S25" s="37">
+      <c r="T25" s="34">
         <v>2641896888.88</v>
       </c>
-      <c r="T25" s="31">
+      <c r="U25" s="38">
         <v>796637194</v>
       </c>
-      <c r="U25" s="31">
+      <c r="V25" s="38">
         <v>796637194</v>
       </c>
-      <c r="AA25" s="10"/>
+      <c r="W25" s="44"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
       <c r="AE25" s="10"/>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="AF25" s="10"/>
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" s="9"/>
       <c r="B26" s="6">
         <v>2013</v>
@@ -3316,47 +3426,49 @@
         <v>0.321404611520922</v>
       </c>
       <c r="K26" s="14">
-        <f>(T26-T27)/T27</f>
+        <f>(U26-U27)/U27</f>
         <v>0</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="14"/>
+      <c r="M26" s="21">
         <v>3696122566.48</v>
       </c>
-      <c r="M26" s="22">
+      <c r="N26" s="20">
         <f t="shared" si="15"/>
         <v>1311304542.2</v>
       </c>
-      <c r="N26" s="17">
+      <c r="O26" s="21">
         <v>2384818024.28</v>
       </c>
-      <c r="O26" s="25">
+      <c r="P26" s="23">
         <v>220352606.18</v>
       </c>
-      <c r="P26" s="16">
+      <c r="Q26" s="19">
         <v>33163393.68</v>
       </c>
-      <c r="Q26" s="27">
+      <c r="R26" s="27">
         <v>42004915.4</v>
       </c>
-      <c r="R26" s="27">
+      <c r="S26" s="27">
         <v>135067181.02</v>
       </c>
-      <c r="S26" s="37">
+      <c r="T26" s="34">
         <v>2318190695.54</v>
       </c>
-      <c r="T26" s="31">
+      <c r="U26" s="38">
         <v>796637194</v>
       </c>
-      <c r="U26" s="31">
+      <c r="V26" s="38">
         <v>796637194</v>
       </c>
-      <c r="AA26" s="9"/>
+      <c r="W26" s="44"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
       <c r="AE26" s="9"/>
-    </row>
-    <row r="27" spans="1:31">
+      <c r="AF26" s="9"/>
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" s="9"/>
       <c r="B27" s="6">
         <v>2012</v>
@@ -3364,62 +3476,64 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="11">
-        <f>(O27+P27)/L27</f>
+        <f>(P27+Q27)/M27</f>
         <v>0.0468819626470807</v>
       </c>
       <c r="F27" s="14">
-        <f>O27/N27</f>
+        <f>P27/O27</f>
         <v>0.0559079336901412</v>
       </c>
       <c r="G27" s="13">
-        <f>M27/L27</f>
+        <f>N27/M27</f>
         <v>0.373534101066837</v>
       </c>
       <c r="H27" s="14">
-        <f>O27/L27</f>
+        <f>P27/M27</f>
         <v>0.03502441393669</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="18"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="17">
+      <c r="L27" s="14"/>
+      <c r="M27" s="21">
         <v>3495088667.33</v>
       </c>
-      <c r="M27" s="22">
+      <c r="N27" s="20">
         <f t="shared" si="15"/>
         <v>1305534803.5</v>
       </c>
-      <c r="N27" s="17">
+      <c r="O27" s="21">
         <v>2189553863.83</v>
       </c>
-      <c r="O27" s="25">
+      <c r="P27" s="23">
         <v>122413432.23</v>
       </c>
-      <c r="P27" s="16">
+      <c r="Q27" s="19">
         <v>41443184.12</v>
       </c>
-      <c r="Q27" s="27">
+      <c r="R27" s="27">
         <v>22906699.05</v>
       </c>
-      <c r="R27" s="27">
+      <c r="S27" s="27">
         <v>242084618.48</v>
       </c>
-      <c r="S27" s="37">
+      <c r="T27" s="34">
         <v>1754338281.65</v>
       </c>
-      <c r="T27" s="31">
+      <c r="U27" s="38">
         <v>796637194</v>
       </c>
-      <c r="U27" s="31">
+      <c r="V27" s="38">
         <v>796637194</v>
       </c>
-      <c r="AA27" s="9"/>
+      <c r="W27" s="44"/>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
       <c r="AD27" s="9"/>
       <c r="AE27" s="9"/>
-    </row>
-    <row r="28" spans="1:31">
+      <c r="AF27" s="9"/>
+    </row>
+    <row r="28" spans="1:32">
       <c r="A28" s="9"/>
       <c r="B28" s="6">
         <v>2011</v>
@@ -3433,23 +3547,25 @@
       <c r="I28" s="11"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="6"/>
+      <c r="L28" s="14"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
       <c r="S28" s="28"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="AA28" s="9"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="44"/>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
       <c r="AE28" s="9"/>
-    </row>
-    <row r="29" spans="1:31">
+      <c r="AF28" s="9"/>
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" s="10"/>
       <c r="B29" s="6">
         <v>2010</v>
@@ -3463,25 +3579,27 @@
       <c r="I29" s="11"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
-      <c r="L29" s="6"/>
+      <c r="L29" s="14"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
       <c r="S29" s="28"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="AA29" s="9"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="44"/>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
       <c r="AE29" s="9"/>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="AF29" s="9"/>
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B30" s="6">
         <v>2023</v>
@@ -3493,71 +3611,72 @@
         <v>2016</v>
       </c>
       <c r="E30" s="11">
-        <f>(O30+P30)/L30</f>
+        <f>(P30+Q30)/M30</f>
         <v>0.124292110925563</v>
       </c>
       <c r="F30" s="14">
-        <f>O30/N30</f>
+        <f>P30/O30</f>
         <v>0.145233997925144</v>
       </c>
       <c r="G30" s="14">
-        <f>M30/L30</f>
+        <f>N30/M30</f>
         <v>0.144202436732955</v>
       </c>
       <c r="H30" s="14">
-        <f>O30/L30</f>
+        <f>P30/M30</f>
         <v>0.124290901527869</v>
       </c>
       <c r="I30" s="12">
-        <f>(O30-O31)/O31</f>
+        <f>(P30-P31)/P31</f>
         <v>0.542210500449144</v>
       </c>
       <c r="J30" s="14">
-        <f>(S30-S31)/S31</f>
+        <f>(T30-T31)/T31</f>
         <v>0.316164682857814</v>
       </c>
       <c r="K30" s="14">
-        <f t="shared" ref="K30:K37" si="16">(T30-T31)/T31</f>
+        <f t="shared" ref="K30:K37" si="16">(U30-U31)/U31</f>
         <v>0.0645826251064263</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="4">
         <v>4267793815.23</v>
       </c>
-      <c r="M30" s="22">
-        <f>L30-N30</f>
+      <c r="N30" s="20">
+        <f>M30-O30</f>
         <v>615426267.63</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="4">
         <v>3652367547.6</v>
       </c>
-      <c r="O30" s="4">
+      <c r="P30" s="4">
         <v>530447940.83</v>
       </c>
-      <c r="P30" s="29">
+      <c r="Q30" s="28">
         <v>5161.46</v>
       </c>
-      <c r="Q30" s="29">
+      <c r="R30" s="28">
         <v>98762845.55</v>
       </c>
-      <c r="R30" s="29">
+      <c r="S30" s="28">
         <v>470030322.18</v>
       </c>
-      <c r="S30" s="4">
+      <c r="T30" s="4">
         <v>3206797965.72</v>
       </c>
-      <c r="T30" s="30">
+      <c r="U30" s="36">
         <v>1027821086</v>
       </c>
-      <c r="U30" s="30">
+      <c r="V30" s="36">
         <v>958538590</v>
       </c>
-      <c r="AA30" s="7"/>
+      <c r="W30" s="44"/>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
-    </row>
-    <row r="31" spans="1:31">
+      <c r="AF30" s="7"/>
+    </row>
+    <row r="31" spans="1:32">
       <c r="A31" s="9"/>
       <c r="B31" s="6">
         <v>2022</v>
@@ -3565,71 +3684,73 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="11">
-        <f>(O31+P31)/L31</f>
+        <f>(P31+Q31)/M31</f>
         <v>0.108881967128426</v>
       </c>
       <c r="F31" s="14">
-        <f>O31/N31</f>
+        <f>P31/O31</f>
         <v>0.146174949199638</v>
       </c>
       <c r="G31" s="14">
-        <f>M31/L31</f>
+        <f>N31/M31</f>
         <v>0.258094344897165</v>
       </c>
       <c r="H31" s="14">
-        <f>O31/L31</f>
+        <f>P31/M31</f>
         <v>0.108448021445581</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" ref="I31:I39" si="17">(O31-O32)/O32</f>
+        <f t="shared" ref="I31:I39" si="17">(P31-P32)/P32</f>
         <v>0.553525427321262</v>
       </c>
       <c r="J31" s="14">
-        <f>(S31-S32)/S32</f>
+        <f>(T31-T32)/T32</f>
         <v>0.265511357801264</v>
       </c>
       <c r="K31" s="14">
         <f t="shared" si="16"/>
         <v>0.208675707551295</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="14"/>
+      <c r="M31" s="21">
         <v>3171593207.19</v>
       </c>
-      <c r="M31" s="22">
-        <f>L31-N31</f>
+      <c r="N31" s="20">
+        <f>M31-O31</f>
         <v>818570271.09</v>
       </c>
-      <c r="N31" s="17">
+      <c r="O31" s="21">
         <v>2353022936.1</v>
       </c>
-      <c r="O31" s="17">
+      <c r="P31" s="21">
         <v>343953008.15</v>
       </c>
-      <c r="P31" s="29">
+      <c r="Q31" s="28">
         <v>1376299.18</v>
       </c>
-      <c r="Q31" s="29">
+      <c r="R31" s="28">
         <v>57707967.16</v>
       </c>
-      <c r="R31" s="29">
+      <c r="S31" s="28">
         <v>773383847.4</v>
       </c>
-      <c r="S31" s="36">
+      <c r="T31" s="33">
         <v>2436471672.19</v>
       </c>
-      <c r="T31" s="30">
+      <c r="U31" s="36">
         <v>965468590</v>
       </c>
-      <c r="U31" s="30">
+      <c r="V31" s="36">
         <v>958538590</v>
       </c>
-      <c r="AA31" s="9"/>
+      <c r="W31" s="44"/>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
       <c r="AE31" s="9"/>
-    </row>
-    <row r="32" spans="1:31">
+      <c r="AF31" s="9"/>
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" s="9"/>
       <c r="B32" s="6">
         <v>2021</v>
@@ -3637,19 +3758,19 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="11">
-        <f t="shared" ref="E32:E40" si="18">(O32+P32)/L32</f>
+        <f t="shared" ref="E32:E40" si="18">(P32+Q32)/M32</f>
         <v>0.0923400343109796</v>
       </c>
       <c r="F32" s="14">
-        <f t="shared" ref="F32:F40" si="19">O32/N32</f>
+        <f t="shared" ref="F32:F40" si="19">P32/O32</f>
         <v>0.106734499493711</v>
       </c>
       <c r="G32" s="14">
-        <f t="shared" ref="G32:G40" si="20">M32/L32</f>
+        <f t="shared" ref="G32:G40" si="20">N32/M32</f>
         <v>0.134950903282766</v>
       </c>
       <c r="H32" s="14">
-        <f t="shared" ref="H32:H40" si="21">O32/L32</f>
+        <f t="shared" ref="H32:H40" si="21">P32/M32</f>
         <v>0.0923305823756004</v>
       </c>
       <c r="I32" s="13">
@@ -3657,51 +3778,53 @@
         <v>0.0758040630428128</v>
       </c>
       <c r="J32" s="14">
-        <f t="shared" ref="J32:J39" si="22">(S32-S33)/S33</f>
+        <f t="shared" ref="J32:J39" si="22">(T32-T33)/T33</f>
         <v>0.137019947464054</v>
       </c>
       <c r="K32" s="14">
         <f t="shared" si="16"/>
         <v>0.199957601552533</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="14"/>
+      <c r="M32" s="21">
         <v>2397922657.19</v>
       </c>
-      <c r="M32" s="22">
-        <f t="shared" ref="M32:M40" si="23">L32-N32</f>
+      <c r="N32" s="20">
+        <f t="shared" ref="N32:N40" si="23">M32-O32</f>
         <v>323601828.59</v>
       </c>
-      <c r="N32" s="17">
+      <c r="O32" s="21">
         <v>2074320828.6</v>
       </c>
-      <c r="O32" s="17">
+      <c r="P32" s="21">
         <v>221401595.43</v>
       </c>
-      <c r="P32" s="29">
+      <c r="Q32" s="28">
         <v>22665.01</v>
       </c>
-      <c r="Q32" s="29">
+      <c r="R32" s="28">
         <v>39840870.93</v>
       </c>
-      <c r="R32" s="29">
+      <c r="S32" s="28">
         <v>178187852.39</v>
       </c>
-      <c r="S32" s="36">
+      <c r="T32" s="33">
         <v>1925286294.09</v>
       </c>
-      <c r="T32" s="30">
+      <c r="U32" s="36">
         <v>798782158</v>
       </c>
-      <c r="U32" s="30">
+      <c r="V32" s="36">
         <v>794566246</v>
       </c>
-      <c r="AA32" s="9"/>
+      <c r="W32" s="44"/>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
       <c r="AD32" s="9"/>
       <c r="AE32" s="9"/>
-    </row>
-    <row r="33" spans="1:31">
+      <c r="AF32" s="9"/>
+    </row>
+    <row r="33" spans="1:32">
       <c r="A33" s="9"/>
       <c r="B33" s="6">
         <v>2020</v>
@@ -3736,44 +3859,46 @@
         <f t="shared" si="16"/>
         <v>0.428945553936482</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="14"/>
+      <c r="M33" s="21">
         <v>2185494550.48</v>
       </c>
-      <c r="M33" s="22">
+      <c r="N33" s="20">
         <f t="shared" si="23"/>
         <v>287583201.48</v>
       </c>
-      <c r="N33" s="17">
+      <c r="O33" s="21">
         <v>1897911349</v>
       </c>
-      <c r="O33" s="17">
+      <c r="P33" s="21">
         <v>205801040.39</v>
       </c>
-      <c r="P33" s="29">
+      <c r="Q33" s="28">
         <v>-1003875.07</v>
       </c>
-      <c r="Q33" s="29">
+      <c r="R33" s="28">
         <v>51143969.08</v>
       </c>
-      <c r="R33" s="29">
+      <c r="S33" s="28">
         <v>378030105.44</v>
       </c>
-      <c r="S33" s="36">
+      <c r="T33" s="33">
         <v>1693273982.03</v>
       </c>
-      <c r="T33" s="30">
+      <c r="U33" s="36">
         <v>665675318</v>
       </c>
-      <c r="U33" s="30">
+      <c r="V33" s="36">
         <v>659771876</v>
       </c>
-      <c r="AA33" s="9"/>
+      <c r="W33" s="44"/>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
       <c r="AE33" s="9"/>
-    </row>
-    <row r="34" spans="1:31">
+      <c r="AF33" s="9"/>
+    </row>
+    <row r="34" spans="1:32">
       <c r="A34" s="9"/>
       <c r="B34" s="6">
         <v>2019</v>
@@ -3808,44 +3933,46 @@
         <f t="shared" si="16"/>
         <v>0.428101919470848</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="14"/>
+      <c r="M34" s="21">
         <v>2055571609.08</v>
       </c>
-      <c r="M34" s="22">
+      <c r="N34" s="20">
         <f t="shared" si="23"/>
         <v>463039814.08</v>
       </c>
-      <c r="N34" s="17">
+      <c r="O34" s="21">
         <v>1592531795</v>
       </c>
-      <c r="O34" s="17">
+      <c r="P34" s="21">
         <v>198253970.53</v>
       </c>
-      <c r="P34" s="29">
+      <c r="Q34" s="28">
         <v>1353503.2</v>
       </c>
-      <c r="Q34" s="29">
+      <c r="R34" s="28">
         <v>33750491.3</v>
       </c>
-      <c r="R34" s="29">
+      <c r="S34" s="28">
         <v>191991964.23</v>
       </c>
-      <c r="S34" s="36">
+      <c r="T34" s="33">
         <v>1355147203.67</v>
       </c>
-      <c r="T34" s="30">
+      <c r="U34" s="36">
         <v>465850722</v>
       </c>
-      <c r="U34" s="30">
+      <c r="V34" s="36">
         <v>459810506</v>
       </c>
-      <c r="AA34" s="9"/>
+      <c r="W34" s="44"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
       <c r="AD34" s="9"/>
       <c r="AE34" s="9"/>
-    </row>
-    <row r="35" spans="1:31">
+      <c r="AF34" s="9"/>
+    </row>
+    <row r="35" spans="1:32">
       <c r="A35" s="9"/>
       <c r="B35" s="6">
         <v>2018</v>
@@ -3880,44 +4007,46 @@
         <f t="shared" si="16"/>
         <v>0.00066725115127926</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="14"/>
+      <c r="M35" s="21">
         <v>1931143438.96</v>
       </c>
-      <c r="M35" s="22">
+      <c r="N35" s="20">
         <f t="shared" si="23"/>
         <v>624634652.6</v>
       </c>
-      <c r="N35" s="17">
+      <c r="O35" s="21">
         <v>1306508786.36</v>
       </c>
-      <c r="O35" s="17">
+      <c r="P35" s="21">
         <v>240023601.23</v>
       </c>
-      <c r="P35" s="29">
+      <c r="Q35" s="28">
         <v>2277444.43</v>
       </c>
-      <c r="Q35" s="29">
+      <c r="R35" s="28">
         <v>45130726.95</v>
       </c>
-      <c r="R35" s="29">
+      <c r="S35" s="28">
         <v>243412728.61</v>
       </c>
-      <c r="S35" s="36">
+      <c r="T35" s="33">
         <v>1065445794.48</v>
       </c>
-      <c r="T35" s="30">
+      <c r="U35" s="36">
         <v>326202714</v>
       </c>
-      <c r="U35" s="30">
+      <c r="V35" s="36">
         <v>134964546</v>
       </c>
-      <c r="AA35" s="9"/>
+      <c r="W35" s="44"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
-    </row>
-    <row r="36" spans="1:31">
+      <c r="AF35" s="9"/>
+    </row>
+    <row r="36" spans="1:32">
       <c r="A36" s="9"/>
       <c r="B36" s="6">
         <v>2017</v>
@@ -3952,44 +4081,46 @@
         <f t="shared" si="16"/>
         <v>1.0374075</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L36" s="14"/>
+      <c r="M36" s="21">
         <v>1196126831.38</v>
       </c>
-      <c r="M36" s="22">
+      <c r="N36" s="20">
         <f t="shared" si="23"/>
         <v>133139831</v>
       </c>
-      <c r="N36" s="17">
+      <c r="O36" s="21">
         <v>1062987000.38</v>
       </c>
-      <c r="O36" s="17">
+      <c r="P36" s="21">
         <v>144059434.25</v>
       </c>
-      <c r="P36" s="29">
+      <c r="Q36" s="28">
         <v>1632666.64</v>
       </c>
-      <c r="Q36" s="29">
+      <c r="R36" s="28">
         <v>26757461.94</v>
       </c>
-      <c r="R36" s="29">
+      <c r="S36" s="28">
         <v>174843670.03</v>
       </c>
-      <c r="S36" s="36">
+      <c r="T36" s="33">
         <v>948167111.51</v>
       </c>
-      <c r="T36" s="30">
+      <c r="U36" s="36">
         <v>325985200</v>
       </c>
-      <c r="U36" s="30">
+      <c r="V36" s="36">
         <v>133190272</v>
       </c>
-      <c r="AA36" s="9"/>
+      <c r="W36" s="44"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
-    </row>
-    <row r="37" spans="1:31">
+      <c r="AF36" s="9"/>
+    </row>
+    <row r="37" spans="1:32">
       <c r="A37" s="9"/>
       <c r="B37" s="6">
         <v>2016</v>
@@ -4024,44 +4155,46 @@
         <f t="shared" si="16"/>
         <v>0.333333333333333</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37" s="14"/>
+      <c r="M37" s="21">
         <v>1026655803.71</v>
       </c>
-      <c r="M37" s="22">
+      <c r="N37" s="20">
         <f t="shared" si="23"/>
         <v>136235049.58</v>
       </c>
-      <c r="N37" s="17">
+      <c r="O37" s="21">
         <v>890420754.13</v>
       </c>
-      <c r="O37" s="25">
+      <c r="P37" s="23">
         <v>100088565.58</v>
       </c>
-      <c r="P37" s="29">
+      <c r="Q37" s="28">
         <v>1363181.63</v>
       </c>
-      <c r="Q37" s="29">
+      <c r="R37" s="28">
         <v>21883612.08</v>
       </c>
-      <c r="R37" s="29">
+      <c r="S37" s="28">
         <v>69492005.89</v>
       </c>
-      <c r="S37" s="36">
+      <c r="T37" s="33">
         <v>770860990.83</v>
       </c>
-      <c r="T37" s="30">
+      <c r="U37" s="36">
         <v>160000000</v>
       </c>
-      <c r="U37" s="30">
+      <c r="V37" s="36">
         <v>40000000</v>
       </c>
-      <c r="AA37" s="9"/>
+      <c r="W37" s="44"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
-    </row>
-    <row r="38" spans="1:31">
+      <c r="AF37" s="9"/>
+    </row>
+    <row r="38" spans="1:32">
       <c r="A38" s="9"/>
       <c r="B38" s="6">
         <v>2015</v>
@@ -4093,45 +4226,47 @@
         <v>-0.0417807283033406</v>
       </c>
       <c r="K38" s="14"/>
-      <c r="L38" s="17">
+      <c r="L38" s="14"/>
+      <c r="M38" s="21">
         <v>724122606.18</v>
       </c>
-      <c r="M38" s="22">
+      <c r="N38" s="20">
         <f t="shared" si="23"/>
         <v>256624517.69</v>
       </c>
-      <c r="N38" s="17">
+      <c r="O38" s="21">
         <v>467498088.49</v>
       </c>
-      <c r="O38" s="25">
+      <c r="P38" s="23">
         <v>66531118.6</v>
       </c>
-      <c r="P38" s="29">
+      <c r="Q38" s="28">
         <f>741.8*10000</f>
         <v>7418000</v>
       </c>
-      <c r="Q38" s="29">
+      <c r="R38" s="28">
         <v>14353571.4</v>
       </c>
-      <c r="R38" s="29">
+      <c r="S38" s="28">
         <v>73033936.57</v>
       </c>
-      <c r="S38" s="29">
+      <c r="T38" s="28">
         <v>623585955.63</v>
       </c>
-      <c r="T38" s="30">
+      <c r="U38" s="36">
         <v>120000000</v>
       </c>
-      <c r="U38" s="30">
+      <c r="V38" s="36">
         <v>0</v>
       </c>
-      <c r="AA38" s="9"/>
+      <c r="W38" s="44"/>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
       <c r="AD38" s="9"/>
       <c r="AE38" s="9"/>
-    </row>
-    <row r="39" spans="1:31">
+      <c r="AF38" s="9"/>
+    </row>
+    <row r="39" spans="1:32">
       <c r="A39" s="9"/>
       <c r="B39" s="6">
         <v>2014</v>
@@ -4163,41 +4298,43 @@
         <v>0.0622324251897966</v>
       </c>
       <c r="K39" s="14"/>
-      <c r="L39" s="21">
+      <c r="L39" s="14"/>
+      <c r="M39" s="26">
         <v>649044867.29</v>
       </c>
-      <c r="M39" s="22">
+      <c r="N39" s="20">
         <f t="shared" si="23"/>
         <v>248077897.4</v>
       </c>
-      <c r="N39" s="21">
+      <c r="O39" s="26">
         <v>400966969.89</v>
       </c>
-      <c r="O39" s="25">
+      <c r="P39" s="23">
         <v>52970324.69</v>
       </c>
-      <c r="P39" s="29">
+      <c r="Q39" s="28">
         <f>700.45*10000</f>
         <v>7004500</v>
       </c>
-      <c r="Q39" s="29">
+      <c r="R39" s="28">
         <v>11307733.43</v>
       </c>
-      <c r="R39" s="29">
+      <c r="S39" s="28">
         <v>99224680.07</v>
       </c>
-      <c r="S39" s="29">
+      <c r="T39" s="28">
         <v>650775844.37</v>
       </c>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="AA39" s="10"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="44"/>
       <c r="AB39" s="10"/>
       <c r="AC39" s="10"/>
       <c r="AD39" s="10"/>
       <c r="AE39" s="10"/>
-    </row>
-    <row r="40" spans="1:31">
+      <c r="AF39" s="10"/>
+    </row>
+    <row r="40" spans="1:32">
       <c r="A40" s="9"/>
       <c r="B40" s="6">
         <v>2013</v>
@@ -4223,41 +4360,43 @@
       <c r="I40" s="11"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
-      <c r="L40" s="21">
+      <c r="L40" s="14"/>
+      <c r="M40" s="26">
         <v>517791722.18</v>
       </c>
-      <c r="M40" s="22">
+      <c r="N40" s="20">
         <f t="shared" si="23"/>
         <v>156595076.98</v>
       </c>
-      <c r="N40" s="21">
+      <c r="O40" s="26">
         <v>361196645.2</v>
       </c>
-      <c r="O40" s="25">
+      <c r="P40" s="23">
         <v>70469172.6</v>
       </c>
-      <c r="P40" s="29">
+      <c r="Q40" s="28">
         <f>399.75*10000</f>
         <v>3997500</v>
       </c>
-      <c r="Q40" s="29">
+      <c r="R40" s="28">
         <v>13149040.82</v>
       </c>
-      <c r="R40" s="29">
+      <c r="S40" s="28">
         <v>90132165.69</v>
       </c>
-      <c r="S40" s="38">
+      <c r="T40" s="35">
         <v>612649198.93</v>
       </c>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
-      <c r="AA40" s="9"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="44"/>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
       <c r="AD40" s="9"/>
       <c r="AE40" s="9"/>
-    </row>
-    <row r="41" spans="1:31">
+      <c r="AF40" s="9"/>
+    </row>
+    <row r="41" spans="1:32">
       <c r="A41" s="9"/>
       <c r="B41" s="6">
         <v>2012</v>
@@ -4271,23 +4410,25 @@
       <c r="I41" s="11"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
-      <c r="L41" s="6"/>
+      <c r="L41" s="14"/>
       <c r="M41" s="6"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
       <c r="S41" s="28"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="AA41" s="9"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="44"/>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
       <c r="AE41" s="9"/>
-    </row>
-    <row r="42" spans="1:31">
+      <c r="AF41" s="9"/>
+    </row>
+    <row r="42" spans="1:32">
       <c r="A42" s="9"/>
       <c r="B42" s="6">
         <v>2011</v>
@@ -4301,23 +4442,25 @@
       <c r="I42" s="11"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
-      <c r="L42" s="6"/>
+      <c r="L42" s="14"/>
       <c r="M42" s="6"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
       <c r="S42" s="28"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="AA42" s="9"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="44"/>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
       <c r="AD42" s="9"/>
       <c r="AE42" s="9"/>
-    </row>
-    <row r="43" spans="1:31">
+      <c r="AF42" s="9"/>
+    </row>
+    <row r="43" spans="1:32">
       <c r="A43" s="10"/>
       <c r="B43" s="6">
         <v>2010</v>
@@ -4331,25 +4474,27 @@
       <c r="I43" s="11"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
-      <c r="L43" s="6"/>
+      <c r="L43" s="14"/>
       <c r="M43" s="6"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
       <c r="S43" s="28"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="AA43" s="9"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="44"/>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
       <c r="AD43" s="9"/>
       <c r="AE43" s="9"/>
-    </row>
-    <row r="44" spans="1:31">
+      <c r="AF43" s="9"/>
+    </row>
+    <row r="44" spans="1:32">
       <c r="A44" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B44" s="6">
         <v>2023</v>
@@ -4363,23 +4508,25 @@
       <c r="I44" s="11"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
-      <c r="L44" s="6"/>
+      <c r="L44" s="14"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
       <c r="S44" s="28"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="AA44" s="7"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="44"/>
       <c r="AB44" s="7"/>
       <c r="AC44" s="7"/>
       <c r="AD44" s="7"/>
       <c r="AE44" s="7"/>
-    </row>
-    <row r="45" spans="1:31">
+      <c r="AF44" s="7"/>
+    </row>
+    <row r="45" spans="1:32">
       <c r="A45" s="6"/>
       <c r="B45" s="6">
         <v>2022</v>
@@ -4393,23 +4540,25 @@
       <c r="I45" s="11"/>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
-      <c r="L45" s="6"/>
+      <c r="L45" s="14"/>
       <c r="M45" s="6"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
       <c r="S45" s="28"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="AA45" s="9"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="44"/>
       <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
       <c r="AD45" s="9"/>
       <c r="AE45" s="9"/>
-    </row>
-    <row r="46" spans="1:31">
+      <c r="AF45" s="9"/>
+    </row>
+    <row r="46" spans="1:32">
       <c r="A46" s="6"/>
       <c r="B46" s="6">
         <v>2021</v>
@@ -4423,23 +4572,25 @@
       <c r="I46" s="11"/>
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
-      <c r="L46" s="6"/>
+      <c r="L46" s="14"/>
       <c r="M46" s="6"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
       <c r="S46" s="28"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="35"/>
-      <c r="AA46" s="9"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="44"/>
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
       <c r="AD46" s="9"/>
       <c r="AE46" s="9"/>
-    </row>
-    <row r="47" spans="1:31">
+      <c r="AF46" s="9"/>
+    </row>
+    <row r="47" spans="1:32">
       <c r="A47" s="6"/>
       <c r="B47" s="6">
         <v>2020</v>
@@ -4453,23 +4604,25 @@
       <c r="I47" s="11"/>
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
-      <c r="L47" s="6"/>
+      <c r="L47" s="14"/>
       <c r="M47" s="6"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
       <c r="S47" s="28"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-      <c r="AA47" s="9"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="44"/>
       <c r="AB47" s="9"/>
       <c r="AC47" s="9"/>
       <c r="AD47" s="9"/>
       <c r="AE47" s="9"/>
-    </row>
-    <row r="48" spans="1:31">
+      <c r="AF47" s="9"/>
+    </row>
+    <row r="48" spans="1:32">
       <c r="A48" s="6"/>
       <c r="B48" s="6">
         <v>2019</v>
@@ -4483,23 +4636,25 @@
       <c r="I48" s="11"/>
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
-      <c r="L48" s="6"/>
+      <c r="L48" s="14"/>
       <c r="M48" s="6"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
       <c r="S48" s="28"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="AA48" s="9"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="44"/>
       <c r="AB48" s="9"/>
       <c r="AC48" s="9"/>
       <c r="AD48" s="9"/>
       <c r="AE48" s="9"/>
-    </row>
-    <row r="49" spans="1:31">
+      <c r="AF48" s="9"/>
+    </row>
+    <row r="49" spans="1:32">
       <c r="A49" s="6"/>
       <c r="B49" s="6">
         <v>2018</v>
@@ -4513,23 +4668,25 @@
       <c r="I49" s="11"/>
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
-      <c r="L49" s="6"/>
+      <c r="L49" s="14"/>
       <c r="M49" s="6"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
       <c r="S49" s="28"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="AA49" s="9"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="44"/>
       <c r="AB49" s="9"/>
       <c r="AC49" s="9"/>
       <c r="AD49" s="9"/>
       <c r="AE49" s="9"/>
-    </row>
-    <row r="50" spans="1:31">
+      <c r="AF49" s="9"/>
+    </row>
+    <row r="50" spans="1:32">
       <c r="A50" s="6"/>
       <c r="B50" s="6">
         <v>2017</v>
@@ -4543,23 +4700,25 @@
       <c r="I50" s="11"/>
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
-      <c r="L50" s="6"/>
+      <c r="L50" s="14"/>
       <c r="M50" s="6"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
       <c r="S50" s="28"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="AA50" s="9"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="44"/>
       <c r="AB50" s="9"/>
       <c r="AC50" s="9"/>
       <c r="AD50" s="9"/>
       <c r="AE50" s="9"/>
-    </row>
-    <row r="51" spans="1:31">
+      <c r="AF50" s="9"/>
+    </row>
+    <row r="51" spans="1:32">
       <c r="A51" s="6"/>
       <c r="B51" s="6">
         <v>2016</v>
@@ -4573,23 +4732,25 @@
       <c r="I51" s="11"/>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
-      <c r="L51" s="6"/>
+      <c r="L51" s="14"/>
       <c r="M51" s="6"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
       <c r="S51" s="28"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="AA51" s="9"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="44"/>
       <c r="AB51" s="9"/>
       <c r="AC51" s="9"/>
       <c r="AD51" s="9"/>
       <c r="AE51" s="9"/>
-    </row>
-    <row r="52" spans="1:31">
+      <c r="AF51" s="9"/>
+    </row>
+    <row r="52" spans="1:32">
       <c r="A52" s="6"/>
       <c r="B52" s="6">
         <v>2015</v>
@@ -4603,23 +4764,25 @@
       <c r="I52" s="11"/>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
-      <c r="L52" s="6"/>
+      <c r="L52" s="14"/>
       <c r="M52" s="6"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
       <c r="S52" s="28"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
-      <c r="AA52" s="9"/>
+      <c r="T52" s="24"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="44"/>
       <c r="AB52" s="9"/>
       <c r="AC52" s="9"/>
       <c r="AD52" s="9"/>
       <c r="AE52" s="9"/>
-    </row>
-    <row r="53" spans="1:31">
+      <c r="AF52" s="9"/>
+    </row>
+    <row r="53" spans="1:32">
       <c r="A53" s="6"/>
       <c r="B53" s="6">
         <v>2014</v>
@@ -4633,25 +4796,27 @@
       <c r="I53" s="11"/>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
-      <c r="L53" s="6"/>
+      <c r="L53" s="14"/>
       <c r="M53" s="6"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
       <c r="S53" s="28"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="AA53" s="10"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="44"/>
       <c r="AB53" s="10"/>
       <c r="AC53" s="10"/>
       <c r="AD53" s="10"/>
       <c r="AE53" s="10"/>
-    </row>
-    <row r="54" spans="1:31">
+      <c r="AF53" s="10"/>
+    </row>
+    <row r="54" spans="1:32">
       <c r="A54" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B54" s="6">
         <v>2023</v>
@@ -4665,23 +4830,25 @@
       <c r="I54" s="11"/>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
-      <c r="L54" s="6"/>
+      <c r="L54" s="14"/>
       <c r="M54" s="6"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
       <c r="S54" s="28"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="35"/>
-      <c r="AA54" s="7"/>
+      <c r="T54" s="24"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="44"/>
       <c r="AB54" s="7"/>
       <c r="AC54" s="7"/>
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
-    </row>
-    <row r="55" spans="1:31">
+      <c r="AF54" s="7"/>
+    </row>
+    <row r="55" spans="1:32">
       <c r="A55" s="6"/>
       <c r="B55" s="6">
         <v>2022</v>
@@ -4694,29 +4861,31 @@
       <c r="H55" s="6"/>
       <c r="I55" s="11"/>
       <c r="J55" s="14">
-        <f>(S55-S56)/S56</f>
+        <f>(T55-T56)/T56</f>
         <v>0.328394500954267</v>
       </c>
       <c r="K55" s="14"/>
-      <c r="L55" s="6"/>
+      <c r="L55" s="14"/>
       <c r="M55" s="6"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29">
+      <c r="N55" s="6"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28">
         <v>2690710152.71</v>
       </c>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="AA55" s="9"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="44"/>
       <c r="AB55" s="9"/>
       <c r="AC55" s="9"/>
       <c r="AD55" s="9"/>
       <c r="AE55" s="9"/>
-    </row>
-    <row r="56" spans="1:31">
+      <c r="AF55" s="9"/>
+    </row>
+    <row r="56" spans="1:32">
       <c r="A56" s="6"/>
       <c r="B56" s="6">
         <v>2021</v>
@@ -4729,29 +4898,31 @@
       <c r="H56" s="6"/>
       <c r="I56" s="11"/>
       <c r="J56" s="14">
-        <f t="shared" ref="J56:J62" si="24">(S56-S57)/S57</f>
+        <f t="shared" ref="J56:J62" si="24">(T56-T57)/T57</f>
         <v>-0.143412163367192</v>
       </c>
       <c r="K56" s="14"/>
-      <c r="L56" s="6"/>
+      <c r="L56" s="14"/>
       <c r="M56" s="6"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="29">
+      <c r="N56" s="6"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28">
         <v>2025535449.58</v>
       </c>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
-      <c r="AA56" s="9"/>
+      <c r="U56" s="43"/>
+      <c r="V56" s="43"/>
+      <c r="W56" s="44"/>
       <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
       <c r="AD56" s="9"/>
       <c r="AE56" s="9"/>
-    </row>
-    <row r="57" spans="1:31">
+      <c r="AF56" s="9"/>
+    </row>
+    <row r="57" spans="1:32">
       <c r="A57" s="6"/>
       <c r="B57" s="6">
         <v>2020</v>
@@ -4768,25 +4939,27 @@
         <v>0.36896660405246</v>
       </c>
       <c r="K57" s="14"/>
-      <c r="L57" s="6"/>
+      <c r="L57" s="14"/>
       <c r="M57" s="6"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29">
+      <c r="N57" s="6"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28">
         <v>2364655862.43</v>
       </c>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-      <c r="AA57" s="9"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="44"/>
       <c r="AB57" s="9"/>
       <c r="AC57" s="9"/>
       <c r="AD57" s="9"/>
       <c r="AE57" s="9"/>
-    </row>
-    <row r="58" spans="1:31">
+      <c r="AF57" s="9"/>
+    </row>
+    <row r="58" spans="1:32">
       <c r="A58" s="6"/>
       <c r="B58" s="6">
         <v>2019</v>
@@ -4803,25 +4976,27 @@
         <v>0.222575353222556</v>
       </c>
       <c r="K58" s="14"/>
-      <c r="L58" s="6"/>
+      <c r="L58" s="14"/>
       <c r="M58" s="6"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29">
+      <c r="N58" s="6"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="28">
         <v>1727329107.54</v>
       </c>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="AA58" s="9"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
+      <c r="W58" s="44"/>
       <c r="AB58" s="9"/>
       <c r="AC58" s="9"/>
       <c r="AD58" s="9"/>
       <c r="AE58" s="9"/>
-    </row>
-    <row r="59" spans="1:31">
+      <c r="AF58" s="9"/>
+    </row>
+    <row r="59" spans="1:32">
       <c r="A59" s="6"/>
       <c r="B59" s="6">
         <v>2018</v>
@@ -4838,25 +5013,27 @@
         <v>0.325614220708547</v>
       </c>
       <c r="K59" s="14"/>
-      <c r="L59" s="6"/>
+      <c r="L59" s="14"/>
       <c r="M59" s="6"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29"/>
-      <c r="S59" s="29">
+      <c r="N59" s="6"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28">
         <v>1412861058.41</v>
       </c>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="AA59" s="9"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="43"/>
+      <c r="W59" s="44"/>
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
       <c r="AD59" s="9"/>
       <c r="AE59" s="9"/>
-    </row>
-    <row r="60" spans="1:31">
+      <c r="AF59" s="9"/>
+    </row>
+    <row r="60" spans="1:32">
       <c r="A60" s="6"/>
       <c r="B60" s="6">
         <v>2017</v>
@@ -4873,25 +5050,27 @@
         <v>0.0832576082351315</v>
       </c>
       <c r="K60" s="14"/>
-      <c r="L60" s="6"/>
+      <c r="L60" s="14"/>
       <c r="M60" s="6"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29">
+      <c r="N60" s="6"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28">
         <v>1065816160.04</v>
       </c>
-      <c r="T60" s="35"/>
-      <c r="U60" s="35"/>
-      <c r="AA60" s="9"/>
+      <c r="U60" s="43"/>
+      <c r="V60" s="43"/>
+      <c r="W60" s="44"/>
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
       <c r="AD60" s="9"/>
       <c r="AE60" s="9"/>
-    </row>
-    <row r="61" spans="1:31">
+      <c r="AF60" s="9"/>
+    </row>
+    <row r="61" spans="1:32">
       <c r="A61" s="6"/>
       <c r="B61" s="6">
         <v>2016</v>
@@ -4905,25 +5084,27 @@
       <c r="I61" s="11"/>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
-      <c r="L61" s="6"/>
+      <c r="L61" s="14"/>
       <c r="M61" s="6"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="29"/>
-      <c r="S61" s="29">
+      <c r="N61" s="6"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="28">
         <v>983899076.21</v>
       </c>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
-      <c r="AA61" s="9"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="43"/>
+      <c r="W61" s="44"/>
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
       <c r="AD61" s="9"/>
       <c r="AE61" s="9"/>
-    </row>
-    <row r="62" spans="1:31">
+      <c r="AF61" s="9"/>
+    </row>
+    <row r="62" spans="1:32">
       <c r="A62" s="6"/>
       <c r="B62" s="6">
         <v>2015</v>
@@ -4937,23 +5118,25 @@
       <c r="I62" s="11"/>
       <c r="J62" s="14"/>
       <c r="K62" s="14"/>
-      <c r="L62" s="6"/>
+      <c r="L62" s="14"/>
       <c r="M62" s="6"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="29"/>
-      <c r="R62" s="29"/>
-      <c r="S62" s="29"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="35"/>
-      <c r="AA62" s="9"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="43"/>
+      <c r="V62" s="43"/>
+      <c r="W62" s="44"/>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
       <c r="AD62" s="9"/>
       <c r="AE62" s="9"/>
-    </row>
-    <row r="63" spans="1:31">
+      <c r="AF62" s="9"/>
+    </row>
+    <row r="63" spans="1:32">
       <c r="A63" s="6"/>
       <c r="B63" s="6">
         <v>2014</v>
@@ -4967,25 +5150,27 @@
       <c r="I63" s="11"/>
       <c r="J63" s="14"/>
       <c r="K63" s="14"/>
-      <c r="L63" s="6"/>
+      <c r="L63" s="14"/>
       <c r="M63" s="6"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="29"/>
-      <c r="S63" s="29"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
-      <c r="AA63" s="10"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="28"/>
+      <c r="S63" s="28"/>
+      <c r="T63" s="28"/>
+      <c r="U63" s="43"/>
+      <c r="V63" s="43"/>
+      <c r="W63" s="44"/>
       <c r="AB63" s="10"/>
       <c r="AC63" s="10"/>
       <c r="AD63" s="10"/>
       <c r="AE63" s="10"/>
-    </row>
-    <row r="64" spans="1:31">
+      <c r="AF63" s="10"/>
+    </row>
+    <row r="64" spans="1:32">
       <c r="A64" s="6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B64" s="6">
         <v>2023</v>
@@ -4999,23 +5184,25 @@
       <c r="I64" s="11"/>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
-      <c r="L64" s="6"/>
+      <c r="L64" s="14"/>
       <c r="M64" s="6"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="29"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
       <c r="S64" s="28"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="AA64" s="7"/>
+      <c r="T64" s="24"/>
+      <c r="U64" s="43"/>
+      <c r="V64" s="43"/>
+      <c r="W64" s="44"/>
       <c r="AB64" s="7"/>
       <c r="AC64" s="7"/>
       <c r="AD64" s="7"/>
       <c r="AE64" s="7"/>
-    </row>
-    <row r="65" spans="1:31">
+      <c r="AF64" s="7"/>
+    </row>
+    <row r="65" spans="1:32">
       <c r="A65" s="6"/>
       <c r="B65" s="6">
         <v>2022</v>
@@ -5029,23 +5216,25 @@
       <c r="I65" s="11"/>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
-      <c r="L65" s="6"/>
+      <c r="L65" s="14"/>
       <c r="M65" s="6"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="29"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="28"/>
       <c r="S65" s="28"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="35"/>
-      <c r="AA65" s="9"/>
+      <c r="T65" s="24"/>
+      <c r="U65" s="43"/>
+      <c r="V65" s="43"/>
+      <c r="W65" s="44"/>
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
       <c r="AD65" s="9"/>
       <c r="AE65" s="9"/>
-    </row>
-    <row r="66" spans="1:31">
+      <c r="AF65" s="9"/>
+    </row>
+    <row r="66" spans="1:32">
       <c r="A66" s="6"/>
       <c r="B66" s="6">
         <v>2021</v>
@@ -5059,23 +5248,25 @@
       <c r="I66" s="11"/>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
-      <c r="L66" s="6"/>
+      <c r="L66" s="14"/>
       <c r="M66" s="6"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="29"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
       <c r="S66" s="28"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="35"/>
-      <c r="AA66" s="9"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="43"/>
+      <c r="V66" s="43"/>
+      <c r="W66" s="44"/>
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
       <c r="AD66" s="9"/>
       <c r="AE66" s="9"/>
-    </row>
-    <row r="67" spans="1:31">
+      <c r="AF66" s="9"/>
+    </row>
+    <row r="67" spans="1:32">
       <c r="A67" s="6"/>
       <c r="B67" s="6">
         <v>2020</v>
@@ -5089,23 +5280,25 @@
       <c r="I67" s="11"/>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
-      <c r="L67" s="6"/>
+      <c r="L67" s="14"/>
       <c r="M67" s="6"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="28"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="29"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="28"/>
       <c r="S67" s="28"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="35"/>
-      <c r="AA67" s="9"/>
+      <c r="T67" s="24"/>
+      <c r="U67" s="43"/>
+      <c r="V67" s="43"/>
+      <c r="W67" s="44"/>
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
       <c r="AD67" s="9"/>
       <c r="AE67" s="9"/>
-    </row>
-    <row r="68" spans="1:31">
+      <c r="AF67" s="9"/>
+    </row>
+    <row r="68" spans="1:32">
       <c r="A68" s="6"/>
       <c r="B68" s="6">
         <v>2019</v>
@@ -5119,23 +5312,25 @@
       <c r="I68" s="11"/>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
-      <c r="L68" s="6"/>
+      <c r="L68" s="14"/>
       <c r="M68" s="6"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="28"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="29"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="28"/>
       <c r="S68" s="28"/>
-      <c r="T68" s="35"/>
-      <c r="U68" s="35"/>
-      <c r="AA68" s="9"/>
+      <c r="T68" s="24"/>
+      <c r="U68" s="43"/>
+      <c r="V68" s="43"/>
+      <c r="W68" s="44"/>
       <c r="AB68" s="9"/>
       <c r="AC68" s="9"/>
       <c r="AD68" s="9"/>
       <c r="AE68" s="9"/>
-    </row>
-    <row r="69" spans="1:31">
+      <c r="AF68" s="9"/>
+    </row>
+    <row r="69" spans="1:32">
       <c r="A69" s="6"/>
       <c r="B69" s="6">
         <v>2018</v>
@@ -5149,23 +5344,25 @@
       <c r="I69" s="11"/>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
-      <c r="L69" s="6"/>
+      <c r="L69" s="14"/>
       <c r="M69" s="6"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="29"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="28"/>
       <c r="S69" s="28"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="35"/>
-      <c r="AA69" s="9"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="43"/>
+      <c r="V69" s="43"/>
+      <c r="W69" s="44"/>
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
       <c r="AD69" s="9"/>
       <c r="AE69" s="9"/>
-    </row>
-    <row r="70" spans="1:31">
+      <c r="AF69" s="9"/>
+    </row>
+    <row r="70" spans="1:32">
       <c r="A70" s="6"/>
       <c r="B70" s="6">
         <v>2017</v>
@@ -5179,23 +5376,25 @@
       <c r="I70" s="11"/>
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
-      <c r="L70" s="6"/>
+      <c r="L70" s="14"/>
       <c r="M70" s="6"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="28"/>
-      <c r="P70" s="29"/>
-      <c r="Q70" s="29"/>
-      <c r="R70" s="29"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="28"/>
+      <c r="R70" s="28"/>
       <c r="S70" s="28"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="35"/>
-      <c r="AA70" s="9"/>
+      <c r="T70" s="24"/>
+      <c r="U70" s="43"/>
+      <c r="V70" s="43"/>
+      <c r="W70" s="44"/>
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
       <c r="AD70" s="9"/>
       <c r="AE70" s="9"/>
-    </row>
-    <row r="71" spans="1:31">
+      <c r="AF70" s="9"/>
+    </row>
+    <row r="71" spans="1:32">
       <c r="A71" s="6"/>
       <c r="B71" s="6">
         <v>2016</v>
@@ -5209,23 +5408,25 @@
       <c r="I71" s="11"/>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
-      <c r="L71" s="6"/>
+      <c r="L71" s="14"/>
       <c r="M71" s="6"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="28"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="29"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="28"/>
       <c r="S71" s="28"/>
-      <c r="T71" s="35"/>
-      <c r="U71" s="35"/>
-      <c r="AA71" s="9"/>
+      <c r="T71" s="24"/>
+      <c r="U71" s="43"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="44"/>
       <c r="AB71" s="9"/>
       <c r="AC71" s="9"/>
       <c r="AD71" s="9"/>
       <c r="AE71" s="9"/>
-    </row>
-    <row r="72" spans="1:31">
+      <c r="AF71" s="9"/>
+    </row>
+    <row r="72" spans="1:32">
       <c r="A72" s="6"/>
       <c r="B72" s="6">
         <v>2015</v>
@@ -5239,23 +5440,25 @@
       <c r="I72" s="11"/>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
-      <c r="L72" s="6"/>
+      <c r="L72" s="14"/>
       <c r="M72" s="6"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="29"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="28"/>
       <c r="S72" s="28"/>
-      <c r="T72" s="35"/>
-      <c r="U72" s="35"/>
-      <c r="AA72" s="9"/>
+      <c r="T72" s="24"/>
+      <c r="U72" s="43"/>
+      <c r="V72" s="43"/>
+      <c r="W72" s="44"/>
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
       <c r="AD72" s="9"/>
       <c r="AE72" s="9"/>
-    </row>
-    <row r="73" spans="1:31">
+      <c r="AF72" s="9"/>
+    </row>
+    <row r="73" spans="1:32">
       <c r="A73" s="6"/>
       <c r="B73" s="6">
         <v>2014</v>
@@ -5269,25 +5472,27 @@
       <c r="I73" s="11"/>
       <c r="J73" s="14"/>
       <c r="K73" s="14"/>
-      <c r="L73" s="6"/>
+      <c r="L73" s="14"/>
       <c r="M73" s="6"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="29"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="28"/>
+      <c r="R73" s="28"/>
       <c r="S73" s="28"/>
-      <c r="T73" s="35"/>
-      <c r="U73" s="35"/>
-      <c r="AA73" s="10"/>
+      <c r="T73" s="24"/>
+      <c r="U73" s="43"/>
+      <c r="V73" s="43"/>
+      <c r="W73" s="44"/>
       <c r="AB73" s="10"/>
       <c r="AC73" s="10"/>
       <c r="AD73" s="10"/>
       <c r="AE73" s="10"/>
-    </row>
-    <row r="74" spans="1:31">
+      <c r="AF73" s="10"/>
+    </row>
+    <row r="74" spans="1:32">
       <c r="A74" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B74" s="6">
         <v>2023</v>
@@ -5301,23 +5506,25 @@
       <c r="I74" s="11"/>
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
-      <c r="L74" s="6"/>
+      <c r="L74" s="14"/>
       <c r="M74" s="6"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="29"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="28"/>
+      <c r="R74" s="28"/>
       <c r="S74" s="28"/>
-      <c r="T74" s="35"/>
-      <c r="U74" s="35"/>
-      <c r="AA74" s="7"/>
+      <c r="T74" s="24"/>
+      <c r="U74" s="43"/>
+      <c r="V74" s="43"/>
+      <c r="W74" s="44"/>
       <c r="AB74" s="7"/>
       <c r="AC74" s="7"/>
       <c r="AD74" s="7"/>
       <c r="AE74" s="7"/>
-    </row>
-    <row r="75" spans="1:31">
+      <c r="AF74" s="7"/>
+    </row>
+    <row r="75" spans="1:32">
       <c r="A75" s="6"/>
       <c r="B75" s="6">
         <v>2022</v>
@@ -5331,23 +5538,25 @@
       <c r="I75" s="11"/>
       <c r="J75" s="14"/>
       <c r="K75" s="14"/>
-      <c r="L75" s="6"/>
+      <c r="L75" s="14"/>
       <c r="M75" s="6"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="29"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="28"/>
+      <c r="R75" s="28"/>
       <c r="S75" s="28"/>
-      <c r="T75" s="35"/>
-      <c r="U75" s="35"/>
-      <c r="AA75" s="9"/>
+      <c r="T75" s="24"/>
+      <c r="U75" s="43"/>
+      <c r="V75" s="43"/>
+      <c r="W75" s="44"/>
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
       <c r="AD75" s="9"/>
       <c r="AE75" s="9"/>
-    </row>
-    <row r="76" spans="1:31">
+      <c r="AF75" s="9"/>
+    </row>
+    <row r="76" spans="1:32">
       <c r="A76" s="6"/>
       <c r="B76" s="6">
         <v>2021</v>
@@ -5361,23 +5570,25 @@
       <c r="I76" s="11"/>
       <c r="J76" s="14"/>
       <c r="K76" s="14"/>
-      <c r="L76" s="6"/>
+      <c r="L76" s="14"/>
       <c r="M76" s="6"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="29"/>
-      <c r="Q76" s="29"/>
-      <c r="R76" s="29"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="28"/>
+      <c r="R76" s="28"/>
       <c r="S76" s="28"/>
-      <c r="T76" s="35"/>
-      <c r="U76" s="35"/>
-      <c r="AA76" s="9"/>
+      <c r="T76" s="24"/>
+      <c r="U76" s="43"/>
+      <c r="V76" s="43"/>
+      <c r="W76" s="44"/>
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
       <c r="AD76" s="9"/>
       <c r="AE76" s="9"/>
-    </row>
-    <row r="77" spans="1:31">
+      <c r="AF76" s="9"/>
+    </row>
+    <row r="77" spans="1:32">
       <c r="A77" s="6"/>
       <c r="B77" s="6">
         <v>2020</v>
@@ -5391,23 +5602,25 @@
       <c r="I77" s="11"/>
       <c r="J77" s="14"/>
       <c r="K77" s="14"/>
-      <c r="L77" s="6"/>
+      <c r="L77" s="14"/>
       <c r="M77" s="6"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="29"/>
-      <c r="Q77" s="29"/>
-      <c r="R77" s="29"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="28"/>
+      <c r="R77" s="28"/>
       <c r="S77" s="28"/>
-      <c r="T77" s="35"/>
-      <c r="U77" s="35"/>
-      <c r="AA77" s="9"/>
+      <c r="T77" s="24"/>
+      <c r="U77" s="43"/>
+      <c r="V77" s="43"/>
+      <c r="W77" s="44"/>
       <c r="AB77" s="9"/>
       <c r="AC77" s="9"/>
       <c r="AD77" s="9"/>
       <c r="AE77" s="9"/>
-    </row>
-    <row r="78" spans="1:31">
+      <c r="AF77" s="9"/>
+    </row>
+    <row r="78" spans="1:32">
       <c r="A78" s="6"/>
       <c r="B78" s="6">
         <v>2019</v>
@@ -5421,23 +5634,25 @@
       <c r="I78" s="11"/>
       <c r="J78" s="14"/>
       <c r="K78" s="14"/>
-      <c r="L78" s="6"/>
+      <c r="L78" s="14"/>
       <c r="M78" s="6"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="28"/>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="29"/>
-      <c r="R78" s="29"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="28"/>
+      <c r="R78" s="28"/>
       <c r="S78" s="28"/>
-      <c r="T78" s="35"/>
-      <c r="U78" s="35"/>
-      <c r="AA78" s="9"/>
+      <c r="T78" s="24"/>
+      <c r="U78" s="43"/>
+      <c r="V78" s="43"/>
+      <c r="W78" s="44"/>
       <c r="AB78" s="9"/>
       <c r="AC78" s="9"/>
       <c r="AD78" s="9"/>
       <c r="AE78" s="9"/>
-    </row>
-    <row r="79" spans="1:31">
+      <c r="AF78" s="9"/>
+    </row>
+    <row r="79" spans="1:32">
       <c r="A79" s="6"/>
       <c r="B79" s="6">
         <v>2018</v>
@@ -5451,23 +5666,25 @@
       <c r="I79" s="11"/>
       <c r="J79" s="14"/>
       <c r="K79" s="14"/>
-      <c r="L79" s="6"/>
+      <c r="L79" s="14"/>
       <c r="M79" s="6"/>
-      <c r="N79" s="28"/>
-      <c r="O79" s="28"/>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="29"/>
-      <c r="R79" s="29"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="28"/>
+      <c r="R79" s="28"/>
       <c r="S79" s="28"/>
-      <c r="T79" s="35"/>
-      <c r="U79" s="35"/>
-      <c r="AA79" s="9"/>
+      <c r="T79" s="24"/>
+      <c r="U79" s="43"/>
+      <c r="V79" s="43"/>
+      <c r="W79" s="44"/>
       <c r="AB79" s="9"/>
       <c r="AC79" s="9"/>
       <c r="AD79" s="9"/>
       <c r="AE79" s="9"/>
-    </row>
-    <row r="80" spans="1:31">
+      <c r="AF79" s="9"/>
+    </row>
+    <row r="80" spans="1:32">
       <c r="A80" s="6"/>
       <c r="B80" s="6">
         <v>2017</v>
@@ -5481,23 +5698,25 @@
       <c r="I80" s="11"/>
       <c r="J80" s="14"/>
       <c r="K80" s="14"/>
-      <c r="L80" s="6"/>
+      <c r="L80" s="14"/>
       <c r="M80" s="6"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="28"/>
-      <c r="P80" s="29"/>
-      <c r="Q80" s="29"/>
-      <c r="R80" s="29"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="28"/>
+      <c r="R80" s="28"/>
       <c r="S80" s="28"/>
-      <c r="T80" s="35"/>
-      <c r="U80" s="35"/>
-      <c r="AA80" s="9"/>
+      <c r="T80" s="24"/>
+      <c r="U80" s="43"/>
+      <c r="V80" s="43"/>
+      <c r="W80" s="44"/>
       <c r="AB80" s="9"/>
       <c r="AC80" s="9"/>
       <c r="AD80" s="9"/>
       <c r="AE80" s="9"/>
-    </row>
-    <row r="81" spans="1:31">
+      <c r="AF80" s="9"/>
+    </row>
+    <row r="81" spans="1:32">
       <c r="A81" s="6"/>
       <c r="B81" s="6">
         <v>2016</v>
@@ -5511,23 +5730,25 @@
       <c r="I81" s="11"/>
       <c r="J81" s="14"/>
       <c r="K81" s="14"/>
-      <c r="L81" s="6"/>
+      <c r="L81" s="14"/>
       <c r="M81" s="6"/>
-      <c r="N81" s="28"/>
-      <c r="O81" s="28"/>
-      <c r="P81" s="29"/>
-      <c r="Q81" s="29"/>
-      <c r="R81" s="29"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="28"/>
+      <c r="R81" s="28"/>
       <c r="S81" s="28"/>
-      <c r="T81" s="35"/>
-      <c r="U81" s="35"/>
-      <c r="AA81" s="9"/>
+      <c r="T81" s="24"/>
+      <c r="U81" s="43"/>
+      <c r="V81" s="43"/>
+      <c r="W81" s="44"/>
       <c r="AB81" s="9"/>
       <c r="AC81" s="9"/>
       <c r="AD81" s="9"/>
       <c r="AE81" s="9"/>
-    </row>
-    <row r="82" spans="1:31">
+      <c r="AF81" s="9"/>
+    </row>
+    <row r="82" spans="1:32">
       <c r="A82" s="6"/>
       <c r="B82" s="6">
         <v>2015</v>
@@ -5541,23 +5762,25 @@
       <c r="I82" s="11"/>
       <c r="J82" s="14"/>
       <c r="K82" s="14"/>
-      <c r="L82" s="6"/>
+      <c r="L82" s="14"/>
       <c r="M82" s="6"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="28"/>
-      <c r="P82" s="29"/>
-      <c r="Q82" s="29"/>
-      <c r="R82" s="29"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="28"/>
+      <c r="R82" s="28"/>
       <c r="S82" s="28"/>
-      <c r="T82" s="35"/>
-      <c r="U82" s="35"/>
-      <c r="AA82" s="9"/>
+      <c r="T82" s="24"/>
+      <c r="U82" s="43"/>
+      <c r="V82" s="43"/>
+      <c r="W82" s="44"/>
       <c r="AB82" s="9"/>
       <c r="AC82" s="9"/>
       <c r="AD82" s="9"/>
       <c r="AE82" s="9"/>
-    </row>
-    <row r="83" spans="1:31">
+      <c r="AF82" s="9"/>
+    </row>
+    <row r="83" spans="1:32">
       <c r="A83" s="6"/>
       <c r="B83" s="6">
         <v>2014</v>
@@ -5571,24 +5794,26 @@
       <c r="I83" s="11"/>
       <c r="J83" s="14"/>
       <c r="K83" s="14"/>
-      <c r="L83" s="6"/>
+      <c r="L83" s="14"/>
       <c r="M83" s="6"/>
-      <c r="N83" s="28"/>
-      <c r="O83" s="28"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="29"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="28"/>
+      <c r="R83" s="28"/>
       <c r="S83" s="28"/>
-      <c r="T83" s="35"/>
-      <c r="U83" s="35"/>
-      <c r="AA83" s="10"/>
+      <c r="T83" s="24"/>
+      <c r="U83" s="43"/>
+      <c r="V83" s="43"/>
+      <c r="W83" s="44"/>
       <c r="AB83" s="10"/>
       <c r="AC83" s="10"/>
       <c r="AD83" s="10"/>
       <c r="AE83" s="10"/>
+      <c r="AF83" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="A16:A29"/>
     <mergeCell ref="A30:A43"/>
@@ -5610,6 +5835,7 @@
     <mergeCell ref="D54:D63"/>
     <mergeCell ref="D64:D73"/>
     <mergeCell ref="D74:D83"/>
+    <mergeCell ref="W2:W15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/行业/食品饮料/调味品/总表.xlsx
+++ b/行业/食品饮料/调味品/总表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>名称</t>
   </si>
@@ -130,6 +130,10 @@
 2.从2019年开始股份实现了全部流通，需要对限制性国家股和法人股的知识进行了解。
 3.股份数在2015年之后的2020年第一次开始大量扩张，需要找到这些扩张的资本都拿去干嘛了，评估效果将会如何。
 4.2017年开始有利息支出，之前没有利息支出，但之前有贷款费用(这意味着之前没有贷款)，这些费用是哪里来的？</t>
+  </si>
+  <si>
+    <t>1.营收下滑。营收下滑是由于疫情导致餐饮企业大量倒闭，人们的
+吃饭需求由外出就餐大量转为在家就餐，而在家就餐对酱油的需求量下滑且海天酱油在个人购买酱油渠道(电商渠道&lt;顺丰、韵达、申通、京东、菜鸟等&gt;)上不占优势引起。</t>
   </si>
   <si>
     <t>送股(每股送0.1股)</t>
@@ -900,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,6 +923,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1015,23 +1022,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1564,11 +1580,11 @@
   <dimension ref="A1:AF83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1582,7 +1598,7 @@
     <col min="8" max="8" width="12.7692307692308" customWidth="1"/>
     <col min="9" max="9" width="20" style="2" customWidth="1"/>
     <col min="10" max="11" width="20" style="3" customWidth="1"/>
-    <col min="12" max="12" width="35.4134615384615" style="3" customWidth="1"/>
+    <col min="12" max="12" width="43.4326923076923" style="3" customWidth="1"/>
     <col min="13" max="13" width="20.9230769230769" style="1" customWidth="1"/>
     <col min="14" max="14" width="19.8461538461538" style="1"/>
     <col min="15" max="15" width="20.9230769230769" customWidth="1"/>
@@ -1594,2054 +1610,2071 @@
     <col min="21" max="21" width="19.8461538461538" style="5" customWidth="1"/>
     <col min="22" max="22" width="15.1538461538462" style="5" customWidth="1"/>
     <col min="23" max="23" width="30.7596153846154" customWidth="1"/>
+    <col min="24" max="24" width="61.8557692307692" style="6" customWidth="1"/>
     <col min="28" max="32" width="12.7692307692308" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:32">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="W1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="X1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>2023</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>2014</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="12">
         <f>(P2+Q2)/M2</f>
         <v>0.147095403940763</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="12">
         <f>P2/O2</f>
         <v>0.194337185436872</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="12">
         <f>N2/M2</f>
         <v>0.244395703547193</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="12">
         <f>P2/M2</f>
         <v>0.146842012276646</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="14">
         <f>(P2-P3)/P3</f>
         <v>-0.0904344275443549</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="15">
         <f>(T2-T3)/T3</f>
         <v>-0.041013411874212</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="15">
         <f>(U2-U3)/U3</f>
         <v>0.199999999913678</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="20">
         <v>38423518405.62</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="21">
         <f>M2-O2</f>
         <v>9390542813.5</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="20">
         <v>29032975592.12</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="20">
         <v>5642186761.43</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="Q2" s="20">
         <v>9736199.27</v>
       </c>
-      <c r="R2" s="19">
+      <c r="R2" s="20">
         <v>1096850567.11</v>
       </c>
-      <c r="S2" s="19">
+      <c r="S2" s="20">
         <v>7355650997.74</v>
       </c>
-      <c r="T2" s="19">
+      <c r="T2" s="20">
         <v>24559312356.59</v>
       </c>
-      <c r="U2" s="38">
+      <c r="U2" s="40">
         <v>5560600544</v>
       </c>
-      <c r="V2" s="39">
+      <c r="V2" s="41">
         <v>5560600544</v>
       </c>
-      <c r="W2" s="40" t="s">
+      <c r="W2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
+      <c r="X2" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6">
+      <c r="A3" s="10"/>
+      <c r="B3" s="7">
         <v>2022</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12">
         <f t="shared" ref="E3:E8" si="0">(P3+Q3)/M3</f>
         <v>0.182492569233006</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <f>P3/O3</f>
         <v>0.230734115590543</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="12">
         <f>N3/M3</f>
         <v>0.210653847603796</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="12">
         <f>P3/M3</f>
         <v>0.182129086367936</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="14">
         <f t="shared" ref="I2:I14" si="1">(P3-P4)/P4</f>
         <v>-0.0701950107999122</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="15">
         <f t="shared" ref="J3:J14" si="2">(T3-T4)/T4</f>
         <v>0.0242209145696001</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="15">
         <f t="shared" ref="K3:K13" si="3">(U3-U4)/U4</f>
         <v>0.1</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="21">
+      <c r="L3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="22">
         <v>34059175850.3</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="21">
         <f>M3-O3</f>
         <v>7174696439.08</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="22">
         <v>26884479411.22</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="22">
         <v>6203166580.06</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="22">
         <v>12379926.82</v>
       </c>
-      <c r="R3" s="27">
+      <c r="R3" s="28">
         <v>1161039435.23</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="28">
         <v>3830314321.72</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="29">
         <v>25609651543.29</v>
       </c>
-      <c r="U3" s="41">
+      <c r="U3" s="44">
         <v>4633833787</v>
       </c>
-      <c r="V3" s="39">
+      <c r="V3" s="41">
         <v>4633833787</v>
       </c>
       <c r="W3" s="42"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
+      <c r="X3" s="45"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7">
         <v>2021</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="12">
         <f t="shared" si="0"/>
         <v>0.200255197052557</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="12">
         <f t="shared" ref="F4:F13" si="4">P4/O4</f>
         <v>0.283894192203626</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="12">
         <f t="shared" ref="G4:G14" si="5">N4/M4</f>
         <v>0.295097404400503</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="12">
         <f t="shared" ref="H4:H13" si="6">P4/M4</f>
         <v>0.200117752959959</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="14">
         <f t="shared" si="1"/>
         <v>0.0409485540539824</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="15">
         <f t="shared" si="2"/>
         <v>0.0970590269656729</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="15">
         <f t="shared" si="3"/>
         <v>0.29999999987656</v>
       </c>
-      <c r="L4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="21">
+      <c r="L4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="22">
         <v>33337724549.58</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="21">
         <f t="shared" ref="N4:N13" si="7">M4-O4</f>
         <v>9837875983.2</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="22">
         <v>23499848566.38</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="22">
         <v>6671470525.66</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="22">
         <v>4582073.3</v>
       </c>
-      <c r="R4" s="27">
+      <c r="R4" s="28">
         <v>1149269490.14</v>
       </c>
-      <c r="S4" s="27">
+      <c r="S4" s="28">
         <v>6323508784.06</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="29">
         <v>25004031043.49</v>
       </c>
-      <c r="U4" s="41">
+      <c r="U4" s="44">
         <v>4212576170</v>
       </c>
-      <c r="V4" s="39">
+      <c r="V4" s="41">
         <v>4212576170</v>
       </c>
       <c r="W4" s="42"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
+      <c r="X4" s="45"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6">
+      <c r="A5" s="10"/>
+      <c r="B5" s="7">
         <v>2020</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="12">
         <f t="shared" si="0"/>
         <v>0.217187032745513</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="13">
         <f t="shared" si="4"/>
         <v>0.317813102988648</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="14">
         <f t="shared" si="5"/>
         <v>0.317183788558181</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="12">
         <f t="shared" si="6"/>
         <v>0.217007938929277</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="14">
         <f t="shared" si="1"/>
         <v>0.196553348847028</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="15">
         <f t="shared" si="2"/>
         <v>0.151285589133775</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="15">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="21">
+      <c r="L5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="22">
         <v>29533620038.66</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="21">
         <f t="shared" si="7"/>
         <v>9367585493.7</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="22">
         <v>20166034544.96</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="22">
         <v>6409030013.71</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="22">
         <v>5289288.72</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="28">
         <v>1233392261</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="28">
         <v>6950432014.98</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="29">
         <v>22791873936.49</v>
       </c>
-      <c r="U5" s="41">
+      <c r="U5" s="44">
         <v>3240443208</v>
       </c>
-      <c r="V5" s="39">
+      <c r="V5" s="41">
         <v>3240443208</v>
       </c>
       <c r="W5" s="42"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
+      <c r="X5" s="45"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7">
         <v>2019</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12">
         <f t="shared" si="0"/>
         <v>0.216423791788316</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="13">
         <f t="shared" si="4"/>
         <v>0.322709797499474</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="14">
         <f t="shared" si="5"/>
         <v>0.329490918127118</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="12">
         <f t="shared" si="6"/>
         <v>0.216379850032756</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="18">
         <f t="shared" si="1"/>
         <v>0.226618472154364</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="15">
         <f t="shared" si="2"/>
         <v>0.162166116197159</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="21">
+      <c r="L6" s="15"/>
+      <c r="M6" s="22">
         <v>24753888098.68</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="21">
         <f t="shared" si="7"/>
         <v>8156181316.85</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="22">
         <v>16597706781.83</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="22">
         <v>5356242594.52</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="22">
         <v>1087729.3</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R6" s="28">
         <v>1020956084.25</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="28">
         <v>6567569488.52</v>
       </c>
-      <c r="T6" s="28">
+      <c r="T6" s="29">
         <v>19796889800.07</v>
       </c>
-      <c r="U6" s="41">
+      <c r="U6" s="44">
         <v>2700369340</v>
       </c>
-      <c r="V6" s="39">
+      <c r="V6" s="41">
         <v>2700369340</v>
       </c>
       <c r="W6" s="42"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
+      <c r="X6" s="45"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7">
         <v>2018</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="11">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12">
         <f t="shared" si="0"/>
         <v>0.216804732804178</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="13">
         <f t="shared" si="4"/>
         <v>0.314424563871999</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="14">
         <f t="shared" si="5"/>
         <v>0.31056534390678</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="12">
         <f t="shared" si="6"/>
         <v>0.216775191060352</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="18">
         <f t="shared" si="1"/>
         <v>0.236500047209247</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="15">
         <f t="shared" si="2"/>
         <v>0.168000000000082</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="15">
         <f t="shared" si="3"/>
         <v>-0.000309994788625395</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="21">
+      <c r="L7" s="15"/>
+      <c r="M7" s="22">
         <v>20143788853.33</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="21">
         <f t="shared" si="7"/>
         <v>6255962712.82</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="22">
         <v>13887826140.51</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="22">
         <v>4366673677.36</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="22">
         <v>595082.65</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="28">
         <v>856132678.5</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7" s="28">
         <v>5996242501.64</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="29">
         <v>17034475127.23</v>
       </c>
-      <c r="U7" s="41">
+      <c r="U7" s="44">
         <v>2700369340</v>
       </c>
-      <c r="V7" s="39">
+      <c r="V7" s="41">
         <v>2696886700</v>
       </c>
       <c r="W7" s="42"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
+      <c r="X7" s="45"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7">
         <v>2017</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
         <v>0.216216223892856</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="13">
         <f t="shared" si="4"/>
         <v>0.300189280364282</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="12">
         <f t="shared" si="5"/>
         <v>0.279862592937587</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="12">
         <f t="shared" si="6"/>
         <v>0.216177529989466</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="18">
         <f t="shared" si="1"/>
         <v>0.242107765186688</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="15">
         <f t="shared" si="2"/>
         <v>0.170625829671742</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="15">
         <f t="shared" si="3"/>
         <v>-0.00138412873846462</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="21">
+      <c r="L8" s="15"/>
+      <c r="M8" s="22">
         <v>16336012255.77</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="21">
         <f t="shared" si="7"/>
         <v>4571838748.16</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="22">
         <v>11764173507.61</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="23">
         <v>3531478779.33</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="Q8" s="30">
         <v>632104.08</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="28">
         <v>683810161.82</v>
       </c>
-      <c r="S8" s="27">
+      <c r="S8" s="28">
         <v>4720977581.77</v>
       </c>
-      <c r="T8" s="30">
+      <c r="T8" s="31">
         <v>14584310896.6</v>
       </c>
-      <c r="U8" s="41">
+      <c r="U8" s="44">
         <v>2701206700</v>
       </c>
-      <c r="V8" s="38">
+      <c r="V8" s="40">
         <v>2696886700</v>
       </c>
       <c r="W8" s="42"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
+      <c r="X8" s="45"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7">
         <v>2016</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
         <f t="shared" si="4"/>
         <v>0.283922451698562</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="12">
         <f t="shared" si="5"/>
         <v>0.256233500647508</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="12">
         <f t="shared" si="6"/>
         <v>0.211172007987417</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="14">
         <f t="shared" si="1"/>
         <v>0.132888627506352</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="15">
         <f t="shared" si="2"/>
         <v>0.103075946410378</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="15">
         <f t="shared" si="3"/>
         <v>-0.000478633501906331</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="21">
+      <c r="L9" s="15"/>
+      <c r="M9" s="22">
         <v>13463592998.27</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="21">
         <f t="shared" si="7"/>
         <v>3449823565.24</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="22">
         <v>10013769433.03</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="22">
         <v>2843133968.17</v>
       </c>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="27">
+      <c r="Q9" s="26"/>
+      <c r="R9" s="28">
         <v>570244775.78</v>
       </c>
-      <c r="S9" s="27">
+      <c r="S9" s="28">
         <v>4074050747.76</v>
       </c>
-      <c r="T9" s="28">
+      <c r="T9" s="29">
         <v>12458558940.81</v>
       </c>
-      <c r="U9" s="41">
+      <c r="U9" s="44">
         <v>2704950700</v>
       </c>
-      <c r="V9" s="43">
+      <c r="V9" s="46">
         <v>271746700</v>
       </c>
       <c r="W9" s="42"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
+      <c r="X9" s="45"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="9"/>
-      <c r="B10" s="6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7">
         <v>2015</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12">
         <f t="shared" si="4"/>
         <v>0.286778236485815</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="12">
         <f t="shared" si="5"/>
         <v>0.238900339649918</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="12">
         <f t="shared" si="6"/>
         <v>0.218266818385149</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="13">
         <f t="shared" si="1"/>
         <v>0.200835017389606</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="15">
         <f t="shared" si="2"/>
         <v>0.150469779869341</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="15">
         <f t="shared" si="3"/>
         <v>0.799868314289895</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="21">
+      <c r="L10" s="15"/>
+      <c r="M10" s="22">
         <v>11498002242.84</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="21">
         <f t="shared" si="7"/>
         <v>2746876641.11</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="22">
         <v>8751125601.73</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="24">
         <v>2509632367.33</v>
       </c>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="27">
+      <c r="Q10" s="32"/>
+      <c r="R10" s="28">
         <v>501670546.62</v>
       </c>
-      <c r="S10" s="27">
+      <c r="S10" s="28">
         <v>2194831656.35</v>
       </c>
-      <c r="T10" s="28">
+      <c r="T10" s="29">
         <v>11294380030.09</v>
       </c>
-      <c r="U10" s="41">
+      <c r="U10" s="44">
         <v>2706246000</v>
       </c>
-      <c r="V10" s="38">
+      <c r="V10" s="40">
         <v>269460000</v>
       </c>
       <c r="W10" s="42"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
+      <c r="X10" s="45"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7">
         <v>2014</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12">
         <f t="shared" si="4"/>
         <v>0.279103975335185</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="14">
         <f t="shared" si="5"/>
         <v>0.31931750503582</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="12">
         <f t="shared" si="6"/>
         <v>0.189981190285575</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="13">
         <f t="shared" si="1"/>
         <v>0.300972112855687</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="15">
         <f t="shared" si="2"/>
         <v>0.168491970709073</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="15">
         <f t="shared" si="3"/>
         <v>1.11473980309423</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="21">
+      <c r="L11" s="15"/>
+      <c r="M11" s="22">
         <v>11000594566.17</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="21">
         <f t="shared" si="7"/>
         <v>3512682410.78</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="22">
         <v>7487912155.39</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="24">
         <v>2089906049.53</v>
       </c>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="27">
+      <c r="Q11" s="32"/>
+      <c r="R11" s="28">
         <v>402320381.83</v>
       </c>
-      <c r="S11" s="27">
+      <c r="S11" s="28">
         <v>2739330825.61</v>
       </c>
-      <c r="T11" s="28">
+      <c r="T11" s="29">
         <v>9817189662.62</v>
       </c>
-      <c r="U11" s="41">
+      <c r="U11" s="44">
         <v>1503580000</v>
       </c>
-      <c r="V11" s="38">
+      <c r="V11" s="40">
         <v>149700000</v>
       </c>
       <c r="W11" s="42"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
+      <c r="X11" s="45"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="9"/>
-      <c r="B12" s="6">
+      <c r="A12" s="10"/>
+      <c r="B12" s="7">
         <v>2013</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13">
         <f t="shared" si="4"/>
         <v>0.410382890750542</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="14">
         <f t="shared" si="5"/>
         <v>0.417678190862682</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="12">
         <f t="shared" si="6"/>
         <v>0.238974907380858</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="13">
         <f t="shared" si="1"/>
         <v>0.330293877918502</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="15">
         <f t="shared" si="2"/>
         <v>0.188412255311032</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="21">
+      <c r="L12" s="15"/>
+      <c r="M12" s="22">
         <v>6722123294.35</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="21">
         <f t="shared" si="7"/>
         <v>2807684296.34</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="22">
         <v>3914438998.01</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="24">
         <v>1606418791.67</v>
       </c>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27">
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28">
         <v>369200360.24</v>
       </c>
-      <c r="S12" s="28">
+      <c r="S12" s="29">
         <v>1930187429.41</v>
       </c>
-      <c r="T12" s="28">
+      <c r="T12" s="29">
         <v>8401589320.86</v>
       </c>
-      <c r="U12" s="41">
+      <c r="U12" s="44">
         <f>71100*10000</f>
         <v>711000000</v>
       </c>
-      <c r="V12" s="43">
+      <c r="V12" s="46">
         <v>0</v>
       </c>
       <c r="W12" s="42"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
+      <c r="X12" s="45"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6">
+      <c r="A13" s="10"/>
+      <c r="B13" s="7">
         <v>2012</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13">
         <f t="shared" si="4"/>
         <v>0.33002646978956</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="14">
         <f t="shared" si="5"/>
         <v>0.401165692604779</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="12">
         <f t="shared" si="6"/>
         <v>0.197631172458521</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="13">
         <f t="shared" si="1"/>
         <v>0.263561963932884</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="15">
         <f t="shared" si="2"/>
         <v>0.160745719949092</v>
       </c>
-      <c r="K13" s="14" t="e">
+      <c r="K13" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="21">
+      <c r="L13" s="15"/>
+      <c r="M13" s="22">
         <v>6110204366.74</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="21">
         <f t="shared" si="7"/>
         <v>2451204366.74</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="22">
         <f>36.59*100000000</f>
         <v>3659000000</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="24">
         <v>1207566852.96</v>
       </c>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27">
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28">
         <v>282068894.05</v>
       </c>
-      <c r="S13" s="25">
+      <c r="S13" s="26">
         <v>2171135232.51</v>
       </c>
-      <c r="T13" s="28">
+      <c r="T13" s="29">
         <v>7069591619.67</v>
       </c>
-      <c r="U13" s="41">
+      <c r="U13" s="44">
         <f>71100*10000</f>
         <v>711000000</v>
       </c>
-      <c r="V13" s="43">
+      <c r="V13" s="46">
         <v>0</v>
       </c>
       <c r="W13" s="42"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
+      <c r="X13" s="45"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7">
         <v>2011</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="13">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="14">
         <f t="shared" si="1"/>
         <v>0.173794144238016</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="15">
         <f t="shared" si="2"/>
         <v>0.104261047185661</v>
       </c>
-      <c r="K14" s="14" t="e">
+      <c r="K14" s="15" t="e">
         <f>(U14-U15)/U15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="23">
+      <c r="L14" s="15"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="24">
         <v>955684713.08</v>
       </c>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="32">
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="33">
         <v>6090560144.37</v>
       </c>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
       <c r="W14" s="42"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
+      <c r="X14" s="45"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="10"/>
-      <c r="B15" s="6">
+      <c r="A15" s="11"/>
+      <c r="B15" s="7">
         <v>2010</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="23">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="24">
         <v>814184256.9</v>
       </c>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="32">
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="33">
         <v>5515507551.31</v>
       </c>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="42"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="45"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="A16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="7">
         <v>2023</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="11">
+      <c r="D16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="12">
         <f t="shared" ref="E16:E26" si="8">(P16+Q16)/M16</f>
         <v>0.258931822172073</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="15">
         <f>P16/O16</f>
         <v>0.33401093467221</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="14">
         <f>N16/M16</f>
         <v>0.225982881581961</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="15">
         <f>P16/M16</f>
         <v>0.2585301811751</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="14">
         <f>(P16-P17)/P17</f>
         <v>-4.13225929112134</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="15">
         <f>(T16-T17)/T17</f>
         <v>-0.0378108110572284</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="15">
         <f t="shared" ref="K16:K25" si="9">(U16-U17)/U17</f>
         <v>0</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="26">
         <v>6718881439.74</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="21">
         <f>M16-O16</f>
         <v>1518352188.76</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="26">
         <v>5200529250.98</v>
       </c>
-      <c r="P16" s="25">
+      <c r="P16" s="26">
         <v>1737033635.91</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q16" s="20">
         <v>2698578.24</v>
       </c>
-      <c r="R16" s="27">
+      <c r="R16" s="28">
         <v>64551857.2</v>
       </c>
-      <c r="S16" s="27">
+      <c r="S16" s="28">
         <v>841908805.69</v>
       </c>
-      <c r="T16" s="25">
+      <c r="T16" s="26">
         <v>5139091906.63</v>
       </c>
-      <c r="U16" s="38">
+      <c r="U16" s="40">
         <v>785375950</v>
       </c>
-      <c r="V16" s="38">
+      <c r="V16" s="40">
         <v>785375950</v>
       </c>
-      <c r="W16" s="44"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
+      <c r="W16" s="48"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6">
+      <c r="A17" s="10"/>
+      <c r="B17" s="7">
         <v>2022</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="11">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="12">
         <f t="shared" si="8"/>
         <v>-0.0893635366701453</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="15">
         <f>P17/O17</f>
         <v>-0.160054464613054</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="14">
         <f>N17/M17</f>
         <v>0.443254585786438</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="15">
         <f>P17/M17</f>
         <v>-0.0891095891977247</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="14">
         <f t="shared" ref="I17:I26" si="10">(P17-P18)/P18</f>
         <v>-1.70715132355257</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="15">
         <f>(T17-T18)/T18</f>
         <v>0.044059172814461</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="15">
         <f t="shared" si="9"/>
         <v>-0.0141359756797898</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="21">
+      <c r="L17" s="15"/>
+      <c r="M17" s="22">
         <v>6223376570.5</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="21">
         <f>M17-O17</f>
         <v>2758540203.95</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="22">
         <v>3464836366.55</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="24">
         <v>-554562529.62</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q17" s="20">
         <v>-1580410.75</v>
       </c>
-      <c r="R17" s="27">
+      <c r="R17" s="28">
         <v>80152748.71</v>
       </c>
-      <c r="S17" s="27">
+      <c r="S17" s="28">
         <v>677654835.65</v>
       </c>
-      <c r="T17" s="33">
+      <c r="T17" s="34">
         <v>5341040998.68</v>
       </c>
-      <c r="U17" s="38">
+      <c r="U17" s="40">
         <v>785375950</v>
       </c>
-      <c r="V17" s="38">
+      <c r="V17" s="40">
         <v>785375950</v>
       </c>
-      <c r="W17" s="44"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
+      <c r="W17" s="48"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="9"/>
-      <c r="B18" s="6">
+      <c r="A18" s="10"/>
+      <c r="B18" s="7">
         <v>2021</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12">
         <f t="shared" si="8"/>
         <v>0.135919835740443</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="15">
         <f t="shared" ref="F18:F26" si="11">P18/O18</f>
         <v>0.184506426584944</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="15">
         <f t="shared" ref="G18:G26" si="12">N18/M18</f>
         <v>0.281747436919482</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="15">
         <f t="shared" ref="H18:H26" si="13">P18/M18</f>
         <v>0.132522213799464</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="14">
         <f t="shared" si="10"/>
         <v>-0.192666937239026</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="15">
         <f t="shared" ref="J18:J26" si="14">(T18-T19)/T19</f>
         <v>-0.00150781658783711</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="15">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="21">
+      <c r="L18" s="15"/>
+      <c r="M18" s="22">
         <v>5917652808.13</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="21">
         <f t="shared" ref="N18:N27" si="15">M18-O18</f>
         <v>1667283511.27</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="22">
         <v>4250369296.86</v>
       </c>
-      <c r="P18" s="23">
+      <c r="P18" s="24">
         <v>784220450.63</v>
       </c>
-      <c r="Q18" s="19">
+      <c r="Q18" s="20">
         <v>20105947.02</v>
       </c>
-      <c r="R18" s="27">
+      <c r="R18" s="28">
         <v>92303153.39</v>
       </c>
-      <c r="S18" s="27">
+      <c r="S18" s="28">
         <v>1212493363.66</v>
       </c>
-      <c r="T18" s="33">
+      <c r="T18" s="34">
         <v>5115649704.3</v>
       </c>
-      <c r="U18" s="38">
+      <c r="U18" s="40">
         <v>796637194</v>
       </c>
-      <c r="V18" s="38">
+      <c r="V18" s="40">
         <v>796637194</v>
       </c>
-      <c r="W18" s="44"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
+      <c r="W18" s="48"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="9"/>
-      <c r="B19" s="6">
+      <c r="A19" s="10"/>
+      <c r="B19" s="7">
         <v>2020</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="11">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="12">
         <f t="shared" si="8"/>
         <v>0.147404291199012</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="15">
         <f t="shared" si="11"/>
         <v>0.194599733296717</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="15">
         <f t="shared" si="12"/>
         <v>0.250383470044278</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="15">
         <f t="shared" si="13"/>
         <v>0.145875176804194</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="13">
         <f t="shared" si="10"/>
         <v>0.227517922860407</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="15">
         <f t="shared" si="14"/>
         <v>0.0959455191484949</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="15">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="21">
+      <c r="L19" s="15"/>
+      <c r="M19" s="22">
         <v>6658923560.27</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="21">
         <f t="shared" si="15"/>
         <v>1667284387.78</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="22">
         <v>4991639172.49</v>
       </c>
-      <c r="P19" s="23">
+      <c r="P19" s="24">
         <v>971371651.68</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="Q19" s="20">
         <v>10182255.87</v>
       </c>
-      <c r="R19" s="27">
+      <c r="R19" s="28">
         <v>158704875.24</v>
       </c>
-      <c r="S19" s="27">
+      <c r="S19" s="28">
         <v>1000999170.24</v>
       </c>
-      <c r="T19" s="33">
+      <c r="T19" s="34">
         <v>5123374813.83</v>
       </c>
-      <c r="U19" s="38">
+      <c r="U19" s="40">
         <v>796637194</v>
       </c>
-      <c r="V19" s="38">
+      <c r="V19" s="40">
         <v>796637194</v>
       </c>
-      <c r="W19" s="44"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
+      <c r="W19" s="48"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="9"/>
-      <c r="B20" s="6">
+      <c r="A20" s="10"/>
+      <c r="B20" s="7">
         <v>2019</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="12">
         <f t="shared" si="8"/>
         <v>0.141528959158248</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="15">
         <f t="shared" si="11"/>
         <v>0.186379631043394</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="15">
         <f t="shared" si="12"/>
         <v>0.286867510025872</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="15">
         <f t="shared" si="13"/>
         <v>0.132913370366435</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="14">
         <f t="shared" si="10"/>
         <v>0.161605538848774</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="15">
         <f t="shared" si="14"/>
         <v>0.12201698396675</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="15">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="21">
+      <c r="L20" s="15"/>
+      <c r="M20" s="22">
         <v>5953726937.24</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="21">
         <f t="shared" si="15"/>
         <v>1707930821.86</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="22">
         <v>4245796115.38</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="24">
         <v>791329913.47</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="Q20" s="20">
         <v>51294863.07</v>
       </c>
-      <c r="R20" s="27">
+      <c r="R20" s="28">
         <v>136691992.21</v>
       </c>
-      <c r="S20" s="27">
+      <c r="S20" s="28">
         <v>1058869197.81</v>
       </c>
-      <c r="T20" s="34">
+      <c r="T20" s="35">
         <v>4674844437.35</v>
       </c>
-      <c r="U20" s="38">
+      <c r="U20" s="40">
         <v>796637194</v>
       </c>
-      <c r="V20" s="38">
+      <c r="V20" s="40">
         <v>796637194</v>
       </c>
-      <c r="W20" s="44"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
+      <c r="W20" s="48"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="9"/>
-      <c r="B21" s="6">
+      <c r="A21" s="10"/>
+      <c r="B21" s="7">
         <v>2018</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="11">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="12">
         <f t="shared" si="8"/>
         <v>0.123400232469235</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="15">
         <f t="shared" si="11"/>
         <v>0.172561498486247</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="14">
         <f t="shared" si="12"/>
         <v>0.340239814359238</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="15">
         <f t="shared" si="13"/>
         <v>0.113849206275734</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="13">
         <f t="shared" si="10"/>
         <v>0.332092262949975</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="15">
         <f t="shared" si="14"/>
         <v>0.154346322704087</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="15">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="21">
+      <c r="L21" s="15"/>
+      <c r="M21" s="22">
         <v>5983687463.75</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="21">
         <f t="shared" si="15"/>
         <v>2035888711.85</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21" s="22">
         <v>3947798751.9</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P21" s="24">
         <v>681238068.35</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="Q21" s="20">
         <v>57150355.7</v>
       </c>
-      <c r="R21" s="27">
+      <c r="R21" s="28">
         <v>111327569.02</v>
       </c>
-      <c r="S21" s="27">
+      <c r="S21" s="28">
         <v>723569594.03</v>
       </c>
-      <c r="T21" s="34">
+      <c r="T21" s="35">
         <v>4166464950.31</v>
       </c>
-      <c r="U21" s="38">
+      <c r="U21" s="40">
         <v>796637194</v>
       </c>
-      <c r="V21" s="38">
+      <c r="V21" s="40">
         <v>796637194</v>
       </c>
-      <c r="W21" s="44"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
+      <c r="W21" s="48"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
     </row>
     <row r="22" spans="1:32">
-      <c r="A22" s="9"/>
-      <c r="B22" s="6">
+      <c r="A22" s="10"/>
+      <c r="B22" s="7">
         <v>2017</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="11">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="12">
         <f t="shared" si="8"/>
         <v>0.107981762462568</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="15">
         <f t="shared" si="11"/>
         <v>0.148226520751638</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="14">
         <f t="shared" si="12"/>
         <v>0.349611711070378</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="15">
         <f t="shared" si="13"/>
         <v>0.0964047932056491</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="13">
         <f t="shared" si="10"/>
         <v>0.246525457918945</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="15">
         <f t="shared" si="14"/>
         <v>0.142933638506007</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="15">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="21">
+      <c r="L22" s="15"/>
+      <c r="M22" s="22">
         <v>5304762875.94</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22" s="21">
         <f t="shared" si="15"/>
         <v>1854607225.88</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="22">
         <v>3450155650.06</v>
       </c>
-      <c r="P22" s="23">
+      <c r="P22" s="24">
         <v>511404568.06</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="Q22" s="20">
         <v>61413076.73</v>
       </c>
-      <c r="R22" s="27">
+      <c r="R22" s="28">
         <v>97773235.58</v>
       </c>
-      <c r="S22" s="27">
+      <c r="S22" s="28">
         <v>650615659.55</v>
       </c>
-      <c r="T22" s="34">
+      <c r="T22" s="35">
         <v>3609371700.99</v>
       </c>
-      <c r="U22" s="38">
+      <c r="U22" s="40">
         <v>796637194</v>
       </c>
-      <c r="V22" s="38">
+      <c r="V22" s="40">
         <v>796637194</v>
       </c>
-      <c r="W22" s="44"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
+      <c r="W22" s="48"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="9"/>
-      <c r="B23" s="6">
+      <c r="A23" s="10"/>
+      <c r="B23" s="7">
         <v>2016</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="11">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="12">
         <f t="shared" si="8"/>
         <v>0.0964580983452112</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="15">
         <f t="shared" si="11"/>
         <v>0.132810018005808</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="14">
         <f t="shared" si="12"/>
         <v>0.370965480070186</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="15">
         <f t="shared" si="13"/>
         <v>0.0835420859181533</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="13">
         <f t="shared" si="10"/>
         <v>0.496971412499224</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="15">
         <f t="shared" si="14"/>
         <v>0.144785649301856</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="15">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="21">
+      <c r="L23" s="15"/>
+      <c r="M23" s="22">
         <v>4910866585.04</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="21">
         <f t="shared" si="15"/>
         <v>1821761980.28</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O23" s="22">
         <v>3089104604.76</v>
       </c>
-      <c r="P23" s="23">
+      <c r="P23" s="24">
         <v>410264038.18</v>
       </c>
-      <c r="Q23" s="19">
+      <c r="Q23" s="20">
         <v>63428813.84</v>
       </c>
-      <c r="R23" s="27">
+      <c r="R23" s="28">
         <v>75998454.21</v>
       </c>
-      <c r="S23" s="27">
+      <c r="S23" s="28">
         <v>676669245.06</v>
       </c>
-      <c r="T23" s="34">
+      <c r="T23" s="35">
         <v>3157988862.51</v>
       </c>
-      <c r="U23" s="38">
+      <c r="U23" s="40">
         <v>796637194</v>
       </c>
-      <c r="V23" s="38">
+      <c r="V23" s="40">
         <v>796637194</v>
       </c>
-      <c r="W23" s="44"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
+      <c r="W23" s="48"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="9"/>
-      <c r="B24" s="6">
+      <c r="A24" s="10"/>
+      <c r="B24" s="7">
         <v>2015</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="12">
         <f t="shared" si="8"/>
         <v>0.0741579481353309</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="15">
         <f t="shared" si="11"/>
         <v>0.0979289181850914</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="14">
         <f t="shared" si="12"/>
         <v>0.381269762551473</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="15">
         <f t="shared" si="13"/>
         <v>0.060591582801739</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="14">
         <f t="shared" si="10"/>
         <v>-0.0634488224879556</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="15">
         <f t="shared" si="14"/>
         <v>0.0441684194682816</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="15">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="21">
+      <c r="L24" s="15"/>
+      <c r="M24" s="22">
         <v>4523115170.58</v>
       </c>
-      <c r="N24" s="20">
+      <c r="N24" s="21">
         <f t="shared" si="15"/>
         <v>1724527047.08</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24" s="22">
         <v>2798588123.5</v>
       </c>
-      <c r="P24" s="23">
+      <c r="P24" s="24">
         <v>274062707.38</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="Q24" s="20">
         <v>61362232.85</v>
       </c>
-      <c r="R24" s="27">
+      <c r="R24" s="28">
         <v>65056564.18</v>
       </c>
-      <c r="S24" s="27">
+      <c r="S24" s="28">
         <v>393949066.09</v>
       </c>
-      <c r="T24" s="34">
+      <c r="T24" s="35">
         <v>2758585298.86</v>
       </c>
-      <c r="U24" s="38">
+      <c r="U24" s="40">
         <v>796637194</v>
       </c>
-      <c r="V24" s="38">
+      <c r="V24" s="40">
         <v>796637194</v>
       </c>
-      <c r="W24" s="44"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
+      <c r="W24" s="48"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="9"/>
-      <c r="B25" s="6">
+      <c r="A25" s="10"/>
+      <c r="B25" s="7">
         <v>2014</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="11">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="12">
         <f t="shared" si="8"/>
         <v>0.080085434624652</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="15">
         <f t="shared" si="11"/>
         <v>0.112009784784847</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="14">
         <f t="shared" si="12"/>
         <v>0.35635460067491</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="15">
         <f t="shared" si="13"/>
         <v>0.0720945826561604</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="13">
         <f t="shared" si="10"/>
         <v>0.328006614094497</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="15">
         <f t="shared" si="14"/>
         <v>0.139637431020141</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="15">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="21">
+      <c r="L25" s="15"/>
+      <c r="M25" s="22">
         <v>4058969587.71</v>
       </c>
-      <c r="N25" s="20">
+      <c r="N25" s="21">
         <f t="shared" si="15"/>
         <v>1446432486.58</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O25" s="22">
         <v>2612537101.13</v>
       </c>
-      <c r="P25" s="23">
+      <c r="P25" s="24">
         <v>292629718.44</v>
       </c>
-      <c r="Q25" s="19">
+      <c r="Q25" s="20">
         <v>32434625.12</v>
       </c>
-      <c r="R25" s="27">
+      <c r="R25" s="28">
         <v>51394587.66</v>
       </c>
-      <c r="S25" s="27">
+      <c r="S25" s="28">
         <v>334963620.08</v>
       </c>
-      <c r="T25" s="34">
+      <c r="T25" s="35">
         <v>2641896888.88</v>
       </c>
-      <c r="U25" s="38">
+      <c r="U25" s="40">
         <v>796637194</v>
       </c>
-      <c r="V25" s="38">
+      <c r="V25" s="40">
         <v>796637194</v>
       </c>
-      <c r="W25" s="44"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
+      <c r="W25" s="48"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="9"/>
-      <c r="B26" s="6">
+      <c r="A26" s="10"/>
+      <c r="B26" s="7">
         <v>2013</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="11">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="12">
         <f t="shared" si="8"/>
         <v>0.0685897167369739</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="15">
         <f t="shared" si="11"/>
         <v>0.0923980798268776</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="14">
         <f t="shared" si="12"/>
         <v>0.354778424853162</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="15">
         <f t="shared" si="13"/>
         <v>0.0596172346064413</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="13">
         <f t="shared" si="10"/>
         <v>0.800068850009729</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="15">
         <f t="shared" si="14"/>
         <v>0.321404611520922</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="15">
         <f>(U26-U27)/U27</f>
         <v>0</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="21">
+      <c r="L26" s="15"/>
+      <c r="M26" s="22">
         <v>3696122566.48</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="21">
         <f t="shared" si="15"/>
         <v>1311304542.2</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O26" s="22">
         <v>2384818024.28</v>
       </c>
-      <c r="P26" s="23">
+      <c r="P26" s="24">
         <v>220352606.18</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="Q26" s="20">
         <v>33163393.68</v>
       </c>
-      <c r="R26" s="27">
+      <c r="R26" s="28">
         <v>42004915.4</v>
       </c>
-      <c r="S26" s="27">
+      <c r="S26" s="28">
         <v>135067181.02</v>
       </c>
-      <c r="T26" s="34">
+      <c r="T26" s="35">
         <v>2318190695.54</v>
       </c>
-      <c r="U26" s="38">
+      <c r="U26" s="40">
         <v>796637194</v>
       </c>
-      <c r="V26" s="38">
+      <c r="V26" s="40">
         <v>796637194</v>
       </c>
-      <c r="W26" s="44"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
+      <c r="W26" s="48"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="9"/>
-      <c r="B27" s="6">
+      <c r="A27" s="10"/>
+      <c r="B27" s="7">
         <v>2012</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="11">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="12">
         <f>(P27+Q27)/M27</f>
         <v>0.0468819626470807</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="15">
         <f>P27/O27</f>
         <v>0.0559079336901412</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="14">
         <f>N27/M27</f>
         <v>0.373534101066837</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="15">
         <f>P27/M27</f>
         <v>0.03502441393669</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="21">
+      <c r="I27" s="19"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="22">
         <v>3495088667.33</v>
       </c>
-      <c r="N27" s="20">
+      <c r="N27" s="21">
         <f t="shared" si="15"/>
         <v>1305534803.5</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O27" s="22">
         <v>2189553863.83</v>
       </c>
-      <c r="P27" s="23">
+      <c r="P27" s="24">
         <v>122413432.23</v>
       </c>
-      <c r="Q27" s="19">
+      <c r="Q27" s="20">
         <v>41443184.12</v>
       </c>
-      <c r="R27" s="27">
+      <c r="R27" s="28">
         <v>22906699.05</v>
       </c>
-      <c r="S27" s="27">
+      <c r="S27" s="28">
         <v>242084618.48</v>
       </c>
-      <c r="T27" s="34">
+      <c r="T27" s="35">
         <v>1754338281.65</v>
       </c>
-      <c r="U27" s="38">
+      <c r="U27" s="40">
         <v>796637194</v>
       </c>
-      <c r="V27" s="38">
+      <c r="V27" s="40">
         <v>796637194</v>
       </c>
-      <c r="W27" s="44"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
+      <c r="W27" s="48"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="9"/>
-      <c r="B28" s="6">
+      <c r="A28" s="10"/>
+      <c r="B28" s="7">
         <v>2011</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="44"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="48"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="10"/>
-      <c r="B29" s="6">
+      <c r="A29" s="11"/>
+      <c r="B29" s="7">
         <v>2010</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="44"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="48"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="6">
+      <c r="A30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="7">
         <v>2023</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <v>1996</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="8">
         <v>2016</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="12">
         <f>(P30+Q30)/M30</f>
         <v>0.124292110925563</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="15">
         <f>P30/O30</f>
         <v>0.145233997925144</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="15">
         <f>N30/M30</f>
         <v>0.144202436732955</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="15">
         <f>P30/M30</f>
         <v>0.124290901527869</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="13">
         <f>(P30-P31)/P31</f>
         <v>0.542210500449144</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="15">
         <f>(T30-T31)/T31</f>
         <v>0.316164682857814</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="15">
         <f t="shared" ref="K30:K37" si="16">(U30-U31)/U31</f>
         <v>0.0645826251064263</v>
       </c>
       <c r="M30" s="4">
         <v>4267793815.23</v>
       </c>
-      <c r="N30" s="20">
+      <c r="N30" s="21">
         <f>M30-O30</f>
         <v>615426267.63</v>
       </c>
@@ -3651,2169 +3684,2169 @@
       <c r="P30" s="4">
         <v>530447940.83</v>
       </c>
-      <c r="Q30" s="28">
+      <c r="Q30" s="29">
         <v>5161.46</v>
       </c>
-      <c r="R30" s="28">
+      <c r="R30" s="29">
         <v>98762845.55</v>
       </c>
-      <c r="S30" s="28">
+      <c r="S30" s="29">
         <v>470030322.18</v>
       </c>
       <c r="T30" s="4">
         <v>3206797965.72</v>
       </c>
-      <c r="U30" s="36">
+      <c r="U30" s="37">
         <v>1027821086</v>
       </c>
-      <c r="V30" s="36">
+      <c r="V30" s="37">
         <v>958538590</v>
       </c>
-      <c r="W30" s="44"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
+      <c r="W30" s="48"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
     </row>
     <row r="31" spans="1:32">
-      <c r="A31" s="9"/>
-      <c r="B31" s="6">
+      <c r="A31" s="10"/>
+      <c r="B31" s="7">
         <v>2022</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="11">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="12">
         <f>(P31+Q31)/M31</f>
         <v>0.108881967128426</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="15">
         <f>P31/O31</f>
         <v>0.146174949199638</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="15">
         <f>N31/M31</f>
         <v>0.258094344897165</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="15">
         <f>P31/M31</f>
         <v>0.108448021445581</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="13">
         <f t="shared" ref="I31:I39" si="17">(P31-P32)/P32</f>
         <v>0.553525427321262</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="15">
         <f>(T31-T32)/T32</f>
         <v>0.265511357801264</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="15">
         <f t="shared" si="16"/>
         <v>0.208675707551295</v>
       </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="21">
+      <c r="L31" s="15"/>
+      <c r="M31" s="22">
         <v>3171593207.19</v>
       </c>
-      <c r="N31" s="20">
+      <c r="N31" s="21">
         <f>M31-O31</f>
         <v>818570271.09</v>
       </c>
-      <c r="O31" s="21">
+      <c r="O31" s="22">
         <v>2353022936.1</v>
       </c>
-      <c r="P31" s="21">
+      <c r="P31" s="22">
         <v>343953008.15</v>
       </c>
-      <c r="Q31" s="28">
+      <c r="Q31" s="29">
         <v>1376299.18</v>
       </c>
-      <c r="R31" s="28">
+      <c r="R31" s="29">
         <v>57707967.16</v>
       </c>
-      <c r="S31" s="28">
+      <c r="S31" s="29">
         <v>773383847.4</v>
       </c>
-      <c r="T31" s="33">
+      <c r="T31" s="34">
         <v>2436471672.19</v>
       </c>
-      <c r="U31" s="36">
+      <c r="U31" s="37">
         <v>965468590</v>
       </c>
-      <c r="V31" s="36">
+      <c r="V31" s="37">
         <v>958538590</v>
       </c>
-      <c r="W31" s="44"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
+      <c r="W31" s="48"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
     </row>
     <row r="32" spans="1:32">
-      <c r="A32" s="9"/>
-      <c r="B32" s="6">
+      <c r="A32" s="10"/>
+      <c r="B32" s="7">
         <v>2021</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="11">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="12">
         <f t="shared" ref="E32:E40" si="18">(P32+Q32)/M32</f>
         <v>0.0923400343109796</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="15">
         <f t="shared" ref="F32:F40" si="19">P32/O32</f>
         <v>0.106734499493711</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="15">
         <f t="shared" ref="G32:G40" si="20">N32/M32</f>
         <v>0.134950903282766</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="15">
         <f t="shared" ref="H32:H40" si="21">P32/M32</f>
         <v>0.0923305823756004</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="14">
         <f t="shared" si="17"/>
         <v>0.0758040630428128</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="15">
         <f t="shared" ref="J32:J39" si="22">(T32-T33)/T33</f>
         <v>0.137019947464054</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="15">
         <f t="shared" si="16"/>
         <v>0.199957601552533</v>
       </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="21">
+      <c r="L32" s="15"/>
+      <c r="M32" s="22">
         <v>2397922657.19</v>
       </c>
-      <c r="N32" s="20">
+      <c r="N32" s="21">
         <f t="shared" ref="N32:N40" si="23">M32-O32</f>
         <v>323601828.59</v>
       </c>
-      <c r="O32" s="21">
+      <c r="O32" s="22">
         <v>2074320828.6</v>
       </c>
-      <c r="P32" s="21">
+      <c r="P32" s="22">
         <v>221401595.43</v>
       </c>
-      <c r="Q32" s="28">
+      <c r="Q32" s="29">
         <v>22665.01</v>
       </c>
-      <c r="R32" s="28">
+      <c r="R32" s="29">
         <v>39840870.93</v>
       </c>
-      <c r="S32" s="28">
+      <c r="S32" s="29">
         <v>178187852.39</v>
       </c>
-      <c r="T32" s="33">
+      <c r="T32" s="34">
         <v>1925286294.09</v>
       </c>
-      <c r="U32" s="36">
+      <c r="U32" s="37">
         <v>798782158</v>
       </c>
-      <c r="V32" s="36">
+      <c r="V32" s="37">
         <v>794566246</v>
       </c>
-      <c r="W32" s="44"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
+      <c r="W32" s="48"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
     </row>
     <row r="33" spans="1:32">
-      <c r="A33" s="9"/>
-      <c r="B33" s="6">
+      <c r="A33" s="10"/>
+      <c r="B33" s="7">
         <v>2020</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="11">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="12">
         <f t="shared" si="18"/>
         <v>0.0937074701353158</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="15">
         <f t="shared" si="19"/>
         <v>0.108435539151202</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="15">
         <f t="shared" si="20"/>
         <v>0.131587242538234</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="15">
         <f t="shared" si="21"/>
         <v>0.0941668055611486</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="14">
         <f t="shared" si="17"/>
         <v>0.038067685806363</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="15">
         <f t="shared" si="22"/>
         <v>0.249512951393242</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="15">
         <f t="shared" si="16"/>
         <v>0.428945553936482</v>
       </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="21">
+      <c r="L33" s="15"/>
+      <c r="M33" s="22">
         <v>2185494550.48</v>
       </c>
-      <c r="N33" s="20">
+      <c r="N33" s="21">
         <f t="shared" si="23"/>
         <v>287583201.48</v>
       </c>
-      <c r="O33" s="21">
+      <c r="O33" s="22">
         <v>1897911349</v>
       </c>
-      <c r="P33" s="21">
+      <c r="P33" s="22">
         <v>205801040.39</v>
       </c>
-      <c r="Q33" s="28">
+      <c r="Q33" s="29">
         <v>-1003875.07</v>
       </c>
-      <c r="R33" s="28">
+      <c r="R33" s="29">
         <v>51143969.08</v>
       </c>
-      <c r="S33" s="28">
+      <c r="S33" s="29">
         <v>378030105.44</v>
       </c>
-      <c r="T33" s="33">
+      <c r="T33" s="34">
         <v>1693273982.03</v>
       </c>
-      <c r="U33" s="36">
+      <c r="U33" s="37">
         <v>665675318</v>
       </c>
-      <c r="V33" s="36">
+      <c r="V33" s="37">
         <v>659771876</v>
       </c>
-      <c r="W33" s="44"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
+      <c r="W33" s="48"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
     </row>
     <row r="34" spans="1:32">
-      <c r="A34" s="9"/>
-      <c r="B34" s="6">
+      <c r="A34" s="10"/>
+      <c r="B34" s="7">
         <v>2019</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="11">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="12">
         <f t="shared" si="18"/>
         <v>0.0971055801939866</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="15">
         <f t="shared" si="19"/>
         <v>0.12448980369023</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="15">
         <f t="shared" si="20"/>
         <v>0.225260853007811</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="15">
         <f t="shared" si="21"/>
         <v>0.096447124320194</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="14">
         <f t="shared" si="17"/>
         <v>-0.17402301476168</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="15">
         <f t="shared" si="22"/>
         <v>0.271906286261509</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="15">
         <f t="shared" si="16"/>
         <v>0.428101919470848</v>
       </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="21">
+      <c r="L34" s="15"/>
+      <c r="M34" s="22">
         <v>2055571609.08</v>
       </c>
-      <c r="N34" s="20">
+      <c r="N34" s="21">
         <f t="shared" si="23"/>
         <v>463039814.08</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="22">
         <v>1592531795</v>
       </c>
-      <c r="P34" s="21">
+      <c r="P34" s="22">
         <v>198253970.53</v>
       </c>
-      <c r="Q34" s="28">
+      <c r="Q34" s="29">
         <v>1353503.2</v>
       </c>
-      <c r="R34" s="28">
+      <c r="R34" s="29">
         <v>33750491.3</v>
       </c>
-      <c r="S34" s="28">
+      <c r="S34" s="29">
         <v>191991964.23</v>
       </c>
-      <c r="T34" s="33">
+      <c r="T34" s="34">
         <v>1355147203.67</v>
       </c>
-      <c r="U34" s="36">
+      <c r="U34" s="37">
         <v>465850722</v>
       </c>
-      <c r="V34" s="36">
+      <c r="V34" s="37">
         <v>459810506</v>
       </c>
-      <c r="W34" s="44"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
+      <c r="W34" s="48"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="A35" s="9"/>
-      <c r="B35" s="6">
+      <c r="A35" s="10"/>
+      <c r="B35" s="7">
         <v>2018</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="11">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="12">
         <f t="shared" si="18"/>
         <v>0.125470247715255</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="15">
         <f t="shared" si="19"/>
         <v>0.1837137290892</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="16">
         <f t="shared" si="20"/>
         <v>0.323453266079702</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="15">
         <f t="shared" si="21"/>
         <v>0.124290923391616</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="13">
         <f t="shared" si="17"/>
         <v>0.666142883870169</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="15">
         <f t="shared" si="22"/>
         <v>0.123689887095143</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="15">
         <f t="shared" si="16"/>
         <v>0.00066725115127926</v>
       </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="21">
+      <c r="L35" s="15"/>
+      <c r="M35" s="22">
         <v>1931143438.96</v>
       </c>
-      <c r="N35" s="20">
+      <c r="N35" s="21">
         <f t="shared" si="23"/>
         <v>624634652.6</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O35" s="22">
         <v>1306508786.36</v>
       </c>
-      <c r="P35" s="21">
+      <c r="P35" s="22">
         <v>240023601.23</v>
       </c>
-      <c r="Q35" s="28">
+      <c r="Q35" s="29">
         <v>2277444.43</v>
       </c>
-      <c r="R35" s="28">
+      <c r="R35" s="29">
         <v>45130726.95</v>
       </c>
-      <c r="S35" s="28">
+      <c r="S35" s="29">
         <v>243412728.61</v>
       </c>
-      <c r="T35" s="33">
+      <c r="T35" s="34">
         <v>1065445794.48</v>
       </c>
-      <c r="U35" s="36">
+      <c r="U35" s="37">
         <v>326202714</v>
       </c>
-      <c r="V35" s="36">
+      <c r="V35" s="37">
         <v>134964546</v>
       </c>
-      <c r="W35" s="44"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
+      <c r="W35" s="48"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
     </row>
     <row r="36" spans="1:32">
-      <c r="A36" s="9"/>
-      <c r="B36" s="6">
+      <c r="A36" s="10"/>
+      <c r="B36" s="7">
         <v>2017</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="11">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="12">
         <f t="shared" si="18"/>
         <v>0.121803221086439</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="15">
         <f t="shared" si="19"/>
         <v>0.135523232361733</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="15">
         <f t="shared" si="20"/>
         <v>0.111309125008419</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="15">
         <f t="shared" si="21"/>
         <v>0.120438259949236</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="13">
         <f t="shared" si="17"/>
         <v>0.439319600747544</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="15">
         <f t="shared" si="22"/>
         <v>0.230010498376745</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K36" s="15">
         <f t="shared" si="16"/>
         <v>1.0374075</v>
       </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="21">
+      <c r="L36" s="15"/>
+      <c r="M36" s="22">
         <v>1196126831.38</v>
       </c>
-      <c r="N36" s="20">
+      <c r="N36" s="21">
         <f t="shared" si="23"/>
         <v>133139831</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O36" s="22">
         <v>1062987000.38</v>
       </c>
-      <c r="P36" s="21">
+      <c r="P36" s="22">
         <v>144059434.25</v>
       </c>
-      <c r="Q36" s="28">
+      <c r="Q36" s="29">
         <v>1632666.64</v>
       </c>
-      <c r="R36" s="28">
+      <c r="R36" s="29">
         <v>26757461.94</v>
       </c>
-      <c r="S36" s="28">
+      <c r="S36" s="29">
         <v>174843670.03</v>
       </c>
-      <c r="T36" s="33">
+      <c r="T36" s="34">
         <v>948167111.51</v>
       </c>
-      <c r="U36" s="36">
+      <c r="U36" s="37">
         <v>325985200</v>
       </c>
-      <c r="V36" s="36">
+      <c r="V36" s="37">
         <v>133190272</v>
       </c>
-      <c r="W36" s="44"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="9"/>
+      <c r="W36" s="48"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
     </row>
     <row r="37" spans="1:32">
-      <c r="A37" s="9"/>
-      <c r="B37" s="6">
+      <c r="A37" s="10"/>
+      <c r="B37" s="7">
         <v>2016</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="11">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="12">
         <f t="shared" si="18"/>
         <v>0.0988176824631842</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="15">
         <f t="shared" si="19"/>
         <v>0.112405921712588</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="15">
         <f t="shared" si="20"/>
         <v>0.132697880913633</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="15">
         <f t="shared" si="21"/>
         <v>0.0974898940991835</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="13">
         <f t="shared" si="17"/>
         <v>0.504387235419186</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="15">
         <f t="shared" si="22"/>
         <v>0.236174394035559</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="15">
         <f t="shared" si="16"/>
         <v>0.333333333333333</v>
       </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="21">
+      <c r="L37" s="15"/>
+      <c r="M37" s="22">
         <v>1026655803.71</v>
       </c>
-      <c r="N37" s="20">
+      <c r="N37" s="21">
         <f t="shared" si="23"/>
         <v>136235049.58</v>
       </c>
-      <c r="O37" s="21">
+      <c r="O37" s="22">
         <v>890420754.13</v>
       </c>
-      <c r="P37" s="23">
+      <c r="P37" s="24">
         <v>100088565.58</v>
       </c>
-      <c r="Q37" s="28">
+      <c r="Q37" s="29">
         <v>1363181.63</v>
       </c>
-      <c r="R37" s="28">
+      <c r="R37" s="29">
         <v>21883612.08</v>
       </c>
-      <c r="S37" s="28">
+      <c r="S37" s="29">
         <v>69492005.89</v>
       </c>
-      <c r="T37" s="33">
+      <c r="T37" s="34">
         <v>770860990.83</v>
       </c>
-      <c r="U37" s="36">
+      <c r="U37" s="37">
         <v>160000000</v>
       </c>
-      <c r="V37" s="36">
+      <c r="V37" s="37">
         <v>40000000</v>
       </c>
-      <c r="W37" s="44"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="9"/>
-      <c r="AF37" s="9"/>
+      <c r="W37" s="48"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
     </row>
     <row r="38" spans="1:32">
-      <c r="A38" s="9"/>
-      <c r="B38" s="6">
+      <c r="A38" s="10"/>
+      <c r="B38" s="7">
         <v>2015</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="11">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="12">
         <f t="shared" si="18"/>
         <v>0.102122372604976</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="15">
         <f t="shared" si="19"/>
         <v>0.142313135043809</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="14">
         <f t="shared" si="20"/>
         <v>0.35439373871199</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="15">
         <f t="shared" si="21"/>
         <v>0.0918782510478093</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="13">
         <f t="shared" si="17"/>
         <v>0.256007377514907</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="15">
         <f t="shared" si="22"/>
         <v>-0.0417807283033406</v>
       </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="21">
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="22">
         <v>724122606.18</v>
       </c>
-      <c r="N38" s="20">
+      <c r="N38" s="21">
         <f t="shared" si="23"/>
         <v>256624517.69</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O38" s="22">
         <v>467498088.49</v>
       </c>
-      <c r="P38" s="23">
+      <c r="P38" s="24">
         <v>66531118.6</v>
       </c>
-      <c r="Q38" s="28">
+      <c r="Q38" s="29">
         <f>741.8*10000</f>
         <v>7418000</v>
       </c>
-      <c r="R38" s="28">
+      <c r="R38" s="29">
         <v>14353571.4</v>
       </c>
-      <c r="S38" s="28">
+      <c r="S38" s="29">
         <v>73033936.57</v>
       </c>
-      <c r="T38" s="28">
+      <c r="T38" s="29">
         <v>623585955.63</v>
       </c>
-      <c r="U38" s="36">
+      <c r="U38" s="37">
         <v>120000000</v>
       </c>
-      <c r="V38" s="36">
+      <c r="V38" s="37">
         <v>0</v>
       </c>
-      <c r="W38" s="44"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
+      <c r="W38" s="48"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" s="9"/>
-      <c r="B39" s="6">
+      <c r="A39" s="10"/>
+      <c r="B39" s="7">
         <v>2014</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="11">
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="12">
         <f t="shared" si="18"/>
         <v>0.092404743820588</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="15">
         <f t="shared" si="19"/>
         <v>0.132106454316004</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="14">
         <f t="shared" si="20"/>
         <v>0.382219951042547</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="15">
         <f t="shared" si="21"/>
         <v>0.0816127318149368</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="14">
         <f t="shared" si="17"/>
         <v>-0.248319190709499</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="15">
         <f t="shared" si="22"/>
         <v>0.0622324251897966</v>
       </c>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="26">
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="27">
         <v>649044867.29</v>
       </c>
-      <c r="N39" s="20">
+      <c r="N39" s="21">
         <f t="shared" si="23"/>
         <v>248077897.4</v>
       </c>
-      <c r="O39" s="26">
+      <c r="O39" s="27">
         <v>400966969.89</v>
       </c>
-      <c r="P39" s="23">
+      <c r="P39" s="24">
         <v>52970324.69</v>
       </c>
-      <c r="Q39" s="28">
+      <c r="Q39" s="29">
         <f>700.45*10000</f>
         <v>7004500</v>
       </c>
-      <c r="R39" s="28">
+      <c r="R39" s="29">
         <v>11307733.43</v>
       </c>
-      <c r="S39" s="28">
+      <c r="S39" s="29">
         <v>99224680.07</v>
       </c>
-      <c r="T39" s="28">
+      <c r="T39" s="29">
         <v>650775844.37</v>
       </c>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="44"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="10"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="48"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
     </row>
     <row r="40" spans="1:32">
-      <c r="A40" s="9"/>
-      <c r="B40" s="6">
+      <c r="A40" s="10"/>
+      <c r="B40" s="7">
         <v>2013</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="11">
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="12">
         <f t="shared" si="18"/>
         <v>0.143815880807212</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="15">
         <f t="shared" si="19"/>
         <v>0.195099189143853</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="14">
         <f t="shared" si="20"/>
         <v>0.30242869917021</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="15">
         <f t="shared" si="21"/>
         <v>0.136095595161915</v>
       </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="26">
+      <c r="I40" s="12"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="27">
         <v>517791722.18</v>
       </c>
-      <c r="N40" s="20">
+      <c r="N40" s="21">
         <f t="shared" si="23"/>
         <v>156595076.98</v>
       </c>
-      <c r="O40" s="26">
+      <c r="O40" s="27">
         <v>361196645.2</v>
       </c>
-      <c r="P40" s="23">
+      <c r="P40" s="24">
         <v>70469172.6</v>
       </c>
-      <c r="Q40" s="28">
+      <c r="Q40" s="29">
         <f>399.75*10000</f>
         <v>3997500</v>
       </c>
-      <c r="R40" s="28">
+      <c r="R40" s="29">
         <v>13149040.82</v>
       </c>
-      <c r="S40" s="28">
+      <c r="S40" s="29">
         <v>90132165.69</v>
       </c>
-      <c r="T40" s="35">
+      <c r="T40" s="36">
         <v>612649198.93</v>
       </c>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="44"/>
-      <c r="AB40" s="9"/>
-      <c r="AC40" s="9"/>
-      <c r="AD40" s="9"/>
-      <c r="AE40" s="9"/>
-      <c r="AF40" s="9"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="48"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
     </row>
     <row r="41" spans="1:32">
-      <c r="A41" s="9"/>
-      <c r="B41" s="6">
+      <c r="A41" s="10"/>
+      <c r="B41" s="7">
         <v>2012</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="24"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="44"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="9"/>
-      <c r="AE41" s="9"/>
-      <c r="AF41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="48"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
     </row>
     <row r="42" spans="1:32">
-      <c r="A42" s="9"/>
-      <c r="B42" s="6">
+      <c r="A42" s="10"/>
+      <c r="B42" s="7">
         <v>2011</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="24"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="44"/>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="9"/>
-      <c r="AE42" s="9"/>
-      <c r="AF42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="48"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
     </row>
     <row r="43" spans="1:32">
-      <c r="A43" s="10"/>
-      <c r="B43" s="6">
+      <c r="A43" s="11"/>
+      <c r="B43" s="7">
         <v>2010</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="24"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="44"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="9"/>
-      <c r="AF43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="48"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
     </row>
     <row r="44" spans="1:32">
-      <c r="A44" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="6">
+      <c r="A44" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="7">
         <v>2023</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="24"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="44"/>
-      <c r="AB44" s="7"/>
-      <c r="AC44" s="7"/>
-      <c r="AD44" s="7"/>
-      <c r="AE44" s="7"/>
-      <c r="AF44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="48"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
     </row>
     <row r="45" spans="1:32">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7">
         <v>2022</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="24"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="44"/>
-      <c r="AB45" s="9"/>
-      <c r="AC45" s="9"/>
-      <c r="AD45" s="9"/>
-      <c r="AE45" s="9"/>
-      <c r="AF45" s="9"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="48"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
     </row>
     <row r="46" spans="1:32">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7">
         <v>2021</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="24"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="44"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
-      <c r="AD46" s="9"/>
-      <c r="AE46" s="9"/>
-      <c r="AF46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="48"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
     </row>
     <row r="47" spans="1:32">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7">
         <v>2020</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="44"/>
-      <c r="AB47" s="9"/>
-      <c r="AC47" s="9"/>
-      <c r="AD47" s="9"/>
-      <c r="AE47" s="9"/>
-      <c r="AF47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="48"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
     </row>
     <row r="48" spans="1:32">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7">
         <v>2019</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="43"/>
-      <c r="V48" s="43"/>
-      <c r="W48" s="44"/>
-      <c r="AB48" s="9"/>
-      <c r="AC48" s="9"/>
-      <c r="AD48" s="9"/>
-      <c r="AE48" s="9"/>
-      <c r="AF48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="48"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
     </row>
     <row r="49" spans="1:32">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7">
         <v>2018</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="44"/>
-      <c r="AB49" s="9"/>
-      <c r="AC49" s="9"/>
-      <c r="AD49" s="9"/>
-      <c r="AE49" s="9"/>
-      <c r="AF49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="48"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
     </row>
     <row r="50" spans="1:32">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7">
         <v>2017</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="44"/>
-      <c r="AB50" s="9"/>
-      <c r="AC50" s="9"/>
-      <c r="AD50" s="9"/>
-      <c r="AE50" s="9"/>
-      <c r="AF50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="48"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
     </row>
     <row r="51" spans="1:32">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7">
         <v>2016</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="44"/>
-      <c r="AB51" s="9"/>
-      <c r="AC51" s="9"/>
-      <c r="AD51" s="9"/>
-      <c r="AE51" s="9"/>
-      <c r="AF51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="48"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
     </row>
     <row r="52" spans="1:32">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7">
         <v>2015</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="24"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="44"/>
-      <c r="AB52" s="9"/>
-      <c r="AC52" s="9"/>
-      <c r="AD52" s="9"/>
-      <c r="AE52" s="9"/>
-      <c r="AF52" s="9"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="48"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
     </row>
     <row r="53" spans="1:32">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7">
         <v>2014</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="24"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="44"/>
-      <c r="AB53" s="10"/>
-      <c r="AC53" s="10"/>
-      <c r="AD53" s="10"/>
-      <c r="AE53" s="10"/>
-      <c r="AF53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="48"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
     </row>
     <row r="54" spans="1:32">
-      <c r="A54" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="6">
+      <c r="A54" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="7">
         <v>2023</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="24"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="44"/>
-      <c r="AB54" s="7"/>
-      <c r="AC54" s="7"/>
-      <c r="AD54" s="7"/>
-      <c r="AE54" s="7"/>
-      <c r="AF54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="48"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
     </row>
     <row r="55" spans="1:32">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7">
         <v>2022</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="14">
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="15">
         <f>(T55-T56)/T56</f>
         <v>0.328394500954267</v>
       </c>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28">
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29">
         <v>2690710152.71</v>
       </c>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="44"/>
-      <c r="AB55" s="9"/>
-      <c r="AC55" s="9"/>
-      <c r="AD55" s="9"/>
-      <c r="AE55" s="9"/>
-      <c r="AF55" s="9"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="48"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
     </row>
     <row r="56" spans="1:32">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7">
         <v>2021</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="14">
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="15">
         <f t="shared" ref="J56:J62" si="24">(T56-T57)/T57</f>
         <v>-0.143412163367192</v>
       </c>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28">
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29">
         <v>2025535449.58</v>
       </c>
-      <c r="U56" s="43"/>
-      <c r="V56" s="43"/>
-      <c r="W56" s="44"/>
-      <c r="AB56" s="9"/>
-      <c r="AC56" s="9"/>
-      <c r="AD56" s="9"/>
-      <c r="AE56" s="9"/>
-      <c r="AF56" s="9"/>
+      <c r="U56" s="46"/>
+      <c r="V56" s="46"/>
+      <c r="W56" s="48"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
     </row>
     <row r="57" spans="1:32">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7">
         <v>2020</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="14">
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="15">
         <f t="shared" si="24"/>
         <v>0.36896660405246</v>
       </c>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28">
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29">
         <v>2364655862.43</v>
       </c>
-      <c r="U57" s="43"/>
-      <c r="V57" s="43"/>
-      <c r="W57" s="44"/>
-      <c r="AB57" s="9"/>
-      <c r="AC57" s="9"/>
-      <c r="AD57" s="9"/>
-      <c r="AE57" s="9"/>
-      <c r="AF57" s="9"/>
+      <c r="U57" s="46"/>
+      <c r="V57" s="46"/>
+      <c r="W57" s="48"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
     </row>
     <row r="58" spans="1:32">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7">
         <v>2019</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="14">
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="15">
         <f t="shared" si="24"/>
         <v>0.222575353222556</v>
       </c>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="28"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="28">
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29">
         <v>1727329107.54</v>
       </c>
-      <c r="U58" s="43"/>
-      <c r="V58" s="43"/>
-      <c r="W58" s="44"/>
-      <c r="AB58" s="9"/>
-      <c r="AC58" s="9"/>
-      <c r="AD58" s="9"/>
-      <c r="AE58" s="9"/>
-      <c r="AF58" s="9"/>
+      <c r="U58" s="46"/>
+      <c r="V58" s="46"/>
+      <c r="W58" s="48"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
     </row>
     <row r="59" spans="1:32">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7">
         <v>2018</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="14">
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="15">
         <f t="shared" si="24"/>
         <v>0.325614220708547</v>
       </c>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28">
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29">
         <v>1412861058.41</v>
       </c>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
-      <c r="W59" s="44"/>
-      <c r="AB59" s="9"/>
-      <c r="AC59" s="9"/>
-      <c r="AD59" s="9"/>
-      <c r="AE59" s="9"/>
-      <c r="AF59" s="9"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="48"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="10"/>
     </row>
     <row r="60" spans="1:32">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7">
         <v>2017</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="14">
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="15">
         <f t="shared" si="24"/>
         <v>0.0832576082351315</v>
       </c>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="28">
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29">
         <v>1065816160.04</v>
       </c>
-      <c r="U60" s="43"/>
-      <c r="V60" s="43"/>
-      <c r="W60" s="44"/>
-      <c r="AB60" s="9"/>
-      <c r="AC60" s="9"/>
-      <c r="AD60" s="9"/>
-      <c r="AE60" s="9"/>
-      <c r="AF60" s="9"/>
+      <c r="U60" s="46"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="48"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10"/>
     </row>
     <row r="61" spans="1:32">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7">
         <v>2016</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="28"/>
-      <c r="S61" s="28"/>
-      <c r="T61" s="28">
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29">
         <v>983899076.21</v>
       </c>
-      <c r="U61" s="43"/>
-      <c r="V61" s="43"/>
-      <c r="W61" s="44"/>
-      <c r="AB61" s="9"/>
-      <c r="AC61" s="9"/>
-      <c r="AD61" s="9"/>
-      <c r="AE61" s="9"/>
-      <c r="AF61" s="9"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="48"/>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="10"/>
     </row>
     <row r="62" spans="1:32">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7">
         <v>2015</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="28"/>
-      <c r="S62" s="28"/>
-      <c r="T62" s="28"/>
-      <c r="U62" s="43"/>
-      <c r="V62" s="43"/>
-      <c r="W62" s="44"/>
-      <c r="AB62" s="9"/>
-      <c r="AC62" s="9"/>
-      <c r="AD62" s="9"/>
-      <c r="AE62" s="9"/>
-      <c r="AF62" s="9"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="29"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="46"/>
+      <c r="V62" s="46"/>
+      <c r="W62" s="48"/>
+      <c r="AB62" s="10"/>
+      <c r="AC62" s="10"/>
+      <c r="AD62" s="10"/>
+      <c r="AE62" s="10"/>
+      <c r="AF62" s="10"/>
     </row>
     <row r="63" spans="1:32">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7">
         <v>2014</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="28"/>
-      <c r="S63" s="28"/>
-      <c r="T63" s="28"/>
-      <c r="U63" s="43"/>
-      <c r="V63" s="43"/>
-      <c r="W63" s="44"/>
-      <c r="AB63" s="10"/>
-      <c r="AC63" s="10"/>
-      <c r="AD63" s="10"/>
-      <c r="AE63" s="10"/>
-      <c r="AF63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="46"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="48"/>
+      <c r="AB63" s="11"/>
+      <c r="AC63" s="11"/>
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="11"/>
+      <c r="AF63" s="11"/>
     </row>
     <row r="64" spans="1:32">
-      <c r="A64" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B64" s="6">
+      <c r="A64" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="7">
         <v>2023</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="28"/>
-      <c r="R64" s="28"/>
-      <c r="S64" s="28"/>
-      <c r="T64" s="24"/>
-      <c r="U64" s="43"/>
-      <c r="V64" s="43"/>
-      <c r="W64" s="44"/>
-      <c r="AB64" s="7"/>
-      <c r="AC64" s="7"/>
-      <c r="AD64" s="7"/>
-      <c r="AE64" s="7"/>
-      <c r="AF64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="25"/>
+      <c r="U64" s="46"/>
+      <c r="V64" s="46"/>
+      <c r="W64" s="48"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="8"/>
+      <c r="AD64" s="8"/>
+      <c r="AE64" s="8"/>
+      <c r="AF64" s="8"/>
     </row>
     <row r="65" spans="1:32">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7">
         <v>2022</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="28"/>
-      <c r="R65" s="28"/>
-      <c r="S65" s="28"/>
-      <c r="T65" s="24"/>
-      <c r="U65" s="43"/>
-      <c r="V65" s="43"/>
-      <c r="W65" s="44"/>
-      <c r="AB65" s="9"/>
-      <c r="AC65" s="9"/>
-      <c r="AD65" s="9"/>
-      <c r="AE65" s="9"/>
-      <c r="AF65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="25"/>
+      <c r="U65" s="46"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="48"/>
+      <c r="AB65" s="10"/>
+      <c r="AC65" s="10"/>
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="10"/>
     </row>
     <row r="66" spans="1:32">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7">
         <v>2021</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="28"/>
-      <c r="T66" s="24"/>
-      <c r="U66" s="43"/>
-      <c r="V66" s="43"/>
-      <c r="W66" s="44"/>
-      <c r="AB66" s="9"/>
-      <c r="AC66" s="9"/>
-      <c r="AD66" s="9"/>
-      <c r="AE66" s="9"/>
-      <c r="AF66" s="9"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="46"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="48"/>
+      <c r="AB66" s="10"/>
+      <c r="AC66" s="10"/>
+      <c r="AD66" s="10"/>
+      <c r="AE66" s="10"/>
+      <c r="AF66" s="10"/>
     </row>
     <row r="67" spans="1:32">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7">
         <v>2020</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="28"/>
-      <c r="S67" s="28"/>
-      <c r="T67" s="24"/>
-      <c r="U67" s="43"/>
-      <c r="V67" s="43"/>
-      <c r="W67" s="44"/>
-      <c r="AB67" s="9"/>
-      <c r="AC67" s="9"/>
-      <c r="AD67" s="9"/>
-      <c r="AE67" s="9"/>
-      <c r="AF67" s="9"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="25"/>
+      <c r="U67" s="46"/>
+      <c r="V67" s="46"/>
+      <c r="W67" s="48"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="10"/>
+      <c r="AF67" s="10"/>
     </row>
     <row r="68" spans="1:32">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7">
         <v>2019</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="28"/>
-      <c r="R68" s="28"/>
-      <c r="S68" s="28"/>
-      <c r="T68" s="24"/>
-      <c r="U68" s="43"/>
-      <c r="V68" s="43"/>
-      <c r="W68" s="44"/>
-      <c r="AB68" s="9"/>
-      <c r="AC68" s="9"/>
-      <c r="AD68" s="9"/>
-      <c r="AE68" s="9"/>
-      <c r="AF68" s="9"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="25"/>
+      <c r="U68" s="46"/>
+      <c r="V68" s="46"/>
+      <c r="W68" s="48"/>
+      <c r="AB68" s="10"/>
+      <c r="AC68" s="10"/>
+      <c r="AD68" s="10"/>
+      <c r="AE68" s="10"/>
+      <c r="AF68" s="10"/>
     </row>
     <row r="69" spans="1:32">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7">
         <v>2018</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="28"/>
-      <c r="R69" s="28"/>
-      <c r="S69" s="28"/>
-      <c r="T69" s="24"/>
-      <c r="U69" s="43"/>
-      <c r="V69" s="43"/>
-      <c r="W69" s="44"/>
-      <c r="AB69" s="9"/>
-      <c r="AC69" s="9"/>
-      <c r="AD69" s="9"/>
-      <c r="AE69" s="9"/>
-      <c r="AF69" s="9"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="46"/>
+      <c r="V69" s="46"/>
+      <c r="W69" s="48"/>
+      <c r="AB69" s="10"/>
+      <c r="AC69" s="10"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="10"/>
+      <c r="AF69" s="10"/>
     </row>
     <row r="70" spans="1:32">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7">
         <v>2017</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="28"/>
-      <c r="R70" s="28"/>
-      <c r="S70" s="28"/>
-      <c r="T70" s="24"/>
-      <c r="U70" s="43"/>
-      <c r="V70" s="43"/>
-      <c r="W70" s="44"/>
-      <c r="AB70" s="9"/>
-      <c r="AC70" s="9"/>
-      <c r="AD70" s="9"/>
-      <c r="AE70" s="9"/>
-      <c r="AF70" s="9"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="46"/>
+      <c r="V70" s="46"/>
+      <c r="W70" s="48"/>
+      <c r="AB70" s="10"/>
+      <c r="AC70" s="10"/>
+      <c r="AD70" s="10"/>
+      <c r="AE70" s="10"/>
+      <c r="AF70" s="10"/>
     </row>
     <row r="71" spans="1:32">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7">
         <v>2016</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="28"/>
-      <c r="R71" s="28"/>
-      <c r="S71" s="28"/>
-      <c r="T71" s="24"/>
-      <c r="U71" s="43"/>
-      <c r="V71" s="43"/>
-      <c r="W71" s="44"/>
-      <c r="AB71" s="9"/>
-      <c r="AC71" s="9"/>
-      <c r="AD71" s="9"/>
-      <c r="AE71" s="9"/>
-      <c r="AF71" s="9"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="25"/>
+      <c r="U71" s="46"/>
+      <c r="V71" s="46"/>
+      <c r="W71" s="48"/>
+      <c r="AB71" s="10"/>
+      <c r="AC71" s="10"/>
+      <c r="AD71" s="10"/>
+      <c r="AE71" s="10"/>
+      <c r="AF71" s="10"/>
     </row>
     <row r="72" spans="1:32">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7">
         <v>2015</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="28"/>
-      <c r="R72" s="28"/>
-      <c r="S72" s="28"/>
-      <c r="T72" s="24"/>
-      <c r="U72" s="43"/>
-      <c r="V72" s="43"/>
-      <c r="W72" s="44"/>
-      <c r="AB72" s="9"/>
-      <c r="AC72" s="9"/>
-      <c r="AD72" s="9"/>
-      <c r="AE72" s="9"/>
-      <c r="AF72" s="9"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="25"/>
+      <c r="U72" s="46"/>
+      <c r="V72" s="46"/>
+      <c r="W72" s="48"/>
+      <c r="AB72" s="10"/>
+      <c r="AC72" s="10"/>
+      <c r="AD72" s="10"/>
+      <c r="AE72" s="10"/>
+      <c r="AF72" s="10"/>
     </row>
     <row r="73" spans="1:32">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7">
         <v>2014</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="28"/>
-      <c r="S73" s="28"/>
-      <c r="T73" s="24"/>
-      <c r="U73" s="43"/>
-      <c r="V73" s="43"/>
-      <c r="W73" s="44"/>
-      <c r="AB73" s="10"/>
-      <c r="AC73" s="10"/>
-      <c r="AD73" s="10"/>
-      <c r="AE73" s="10"/>
-      <c r="AF73" s="10"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="29"/>
+      <c r="R73" s="29"/>
+      <c r="S73" s="29"/>
+      <c r="T73" s="25"/>
+      <c r="U73" s="46"/>
+      <c r="V73" s="46"/>
+      <c r="W73" s="48"/>
+      <c r="AB73" s="11"/>
+      <c r="AC73" s="11"/>
+      <c r="AD73" s="11"/>
+      <c r="AE73" s="11"/>
+      <c r="AF73" s="11"/>
     </row>
     <row r="74" spans="1:32">
-      <c r="A74" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B74" s="6">
+      <c r="A74" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" s="7">
         <v>2023</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="28"/>
-      <c r="R74" s="28"/>
-      <c r="S74" s="28"/>
-      <c r="T74" s="24"/>
-      <c r="U74" s="43"/>
-      <c r="V74" s="43"/>
-      <c r="W74" s="44"/>
-      <c r="AB74" s="7"/>
-      <c r="AC74" s="7"/>
-      <c r="AD74" s="7"/>
-      <c r="AE74" s="7"/>
-      <c r="AF74" s="7"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="29"/>
+      <c r="R74" s="29"/>
+      <c r="S74" s="29"/>
+      <c r="T74" s="25"/>
+      <c r="U74" s="46"/>
+      <c r="V74" s="46"/>
+      <c r="W74" s="48"/>
+      <c r="AB74" s="8"/>
+      <c r="AC74" s="8"/>
+      <c r="AD74" s="8"/>
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="8"/>
     </row>
     <row r="75" spans="1:32">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7">
         <v>2022</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="28"/>
-      <c r="S75" s="28"/>
-      <c r="T75" s="24"/>
-      <c r="U75" s="43"/>
-      <c r="V75" s="43"/>
-      <c r="W75" s="44"/>
-      <c r="AB75" s="9"/>
-      <c r="AC75" s="9"/>
-      <c r="AD75" s="9"/>
-      <c r="AE75" s="9"/>
-      <c r="AF75" s="9"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="29"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="46"/>
+      <c r="V75" s="46"/>
+      <c r="W75" s="48"/>
+      <c r="AB75" s="10"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="10"/>
     </row>
     <row r="76" spans="1:32">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7">
         <v>2021</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="28"/>
-      <c r="R76" s="28"/>
-      <c r="S76" s="28"/>
-      <c r="T76" s="24"/>
-      <c r="U76" s="43"/>
-      <c r="V76" s="43"/>
-      <c r="W76" s="44"/>
-      <c r="AB76" s="9"/>
-      <c r="AC76" s="9"/>
-      <c r="AD76" s="9"/>
-      <c r="AE76" s="9"/>
-      <c r="AF76" s="9"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="25"/>
+      <c r="Q76" s="29"/>
+      <c r="R76" s="29"/>
+      <c r="S76" s="29"/>
+      <c r="T76" s="25"/>
+      <c r="U76" s="46"/>
+      <c r="V76" s="46"/>
+      <c r="W76" s="48"/>
+      <c r="AB76" s="10"/>
+      <c r="AC76" s="10"/>
+      <c r="AD76" s="10"/>
+      <c r="AE76" s="10"/>
+      <c r="AF76" s="10"/>
     </row>
     <row r="77" spans="1:32">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7">
         <v>2020</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="28"/>
-      <c r="R77" s="28"/>
-      <c r="S77" s="28"/>
-      <c r="T77" s="24"/>
-      <c r="U77" s="43"/>
-      <c r="V77" s="43"/>
-      <c r="W77" s="44"/>
-      <c r="AB77" s="9"/>
-      <c r="AC77" s="9"/>
-      <c r="AD77" s="9"/>
-      <c r="AE77" s="9"/>
-      <c r="AF77" s="9"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="25"/>
+      <c r="P77" s="25"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="29"/>
+      <c r="T77" s="25"/>
+      <c r="U77" s="46"/>
+      <c r="V77" s="46"/>
+      <c r="W77" s="48"/>
+      <c r="AB77" s="10"/>
+      <c r="AC77" s="10"/>
+      <c r="AD77" s="10"/>
+      <c r="AE77" s="10"/>
+      <c r="AF77" s="10"/>
     </row>
     <row r="78" spans="1:32">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7">
         <v>2019</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="28"/>
-      <c r="R78" s="28"/>
-      <c r="S78" s="28"/>
-      <c r="T78" s="24"/>
-      <c r="U78" s="43"/>
-      <c r="V78" s="43"/>
-      <c r="W78" s="44"/>
-      <c r="AB78" s="9"/>
-      <c r="AC78" s="9"/>
-      <c r="AD78" s="9"/>
-      <c r="AE78" s="9"/>
-      <c r="AF78" s="9"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="29"/>
+      <c r="R78" s="29"/>
+      <c r="S78" s="29"/>
+      <c r="T78" s="25"/>
+      <c r="U78" s="46"/>
+      <c r="V78" s="46"/>
+      <c r="W78" s="48"/>
+      <c r="AB78" s="10"/>
+      <c r="AC78" s="10"/>
+      <c r="AD78" s="10"/>
+      <c r="AE78" s="10"/>
+      <c r="AF78" s="10"/>
     </row>
     <row r="79" spans="1:32">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7">
         <v>2018</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="24"/>
-      <c r="Q79" s="28"/>
-      <c r="R79" s="28"/>
-      <c r="S79" s="28"/>
-      <c r="T79" s="24"/>
-      <c r="U79" s="43"/>
-      <c r="V79" s="43"/>
-      <c r="W79" s="44"/>
-      <c r="AB79" s="9"/>
-      <c r="AC79" s="9"/>
-      <c r="AD79" s="9"/>
-      <c r="AE79" s="9"/>
-      <c r="AF79" s="9"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="25"/>
+      <c r="Q79" s="29"/>
+      <c r="R79" s="29"/>
+      <c r="S79" s="29"/>
+      <c r="T79" s="25"/>
+      <c r="U79" s="46"/>
+      <c r="V79" s="46"/>
+      <c r="W79" s="48"/>
+      <c r="AB79" s="10"/>
+      <c r="AC79" s="10"/>
+      <c r="AD79" s="10"/>
+      <c r="AE79" s="10"/>
+      <c r="AF79" s="10"/>
     </row>
     <row r="80" spans="1:32">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7">
         <v>2017</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="28"/>
-      <c r="R80" s="28"/>
-      <c r="S80" s="28"/>
-      <c r="T80" s="24"/>
-      <c r="U80" s="43"/>
-      <c r="V80" s="43"/>
-      <c r="W80" s="44"/>
-      <c r="AB80" s="9"/>
-      <c r="AC80" s="9"/>
-      <c r="AD80" s="9"/>
-      <c r="AE80" s="9"/>
-      <c r="AF80" s="9"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+      <c r="Q80" s="29"/>
+      <c r="R80" s="29"/>
+      <c r="S80" s="29"/>
+      <c r="T80" s="25"/>
+      <c r="U80" s="46"/>
+      <c r="V80" s="46"/>
+      <c r="W80" s="48"/>
+      <c r="AB80" s="10"/>
+      <c r="AC80" s="10"/>
+      <c r="AD80" s="10"/>
+      <c r="AE80" s="10"/>
+      <c r="AF80" s="10"/>
     </row>
     <row r="81" spans="1:32">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7">
         <v>2016</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="28"/>
-      <c r="R81" s="28"/>
-      <c r="S81" s="28"/>
-      <c r="T81" s="24"/>
-      <c r="U81" s="43"/>
-      <c r="V81" s="43"/>
-      <c r="W81" s="44"/>
-      <c r="AB81" s="9"/>
-      <c r="AC81" s="9"/>
-      <c r="AD81" s="9"/>
-      <c r="AE81" s="9"/>
-      <c r="AF81" s="9"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="29"/>
+      <c r="R81" s="29"/>
+      <c r="S81" s="29"/>
+      <c r="T81" s="25"/>
+      <c r="U81" s="46"/>
+      <c r="V81" s="46"/>
+      <c r="W81" s="48"/>
+      <c r="AB81" s="10"/>
+      <c r="AC81" s="10"/>
+      <c r="AD81" s="10"/>
+      <c r="AE81" s="10"/>
+      <c r="AF81" s="10"/>
     </row>
     <row r="82" spans="1:32">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7">
         <v>2015</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="24"/>
-      <c r="Q82" s="28"/>
-      <c r="R82" s="28"/>
-      <c r="S82" s="28"/>
-      <c r="T82" s="24"/>
-      <c r="U82" s="43"/>
-      <c r="V82" s="43"/>
-      <c r="W82" s="44"/>
-      <c r="AB82" s="9"/>
-      <c r="AC82" s="9"/>
-      <c r="AD82" s="9"/>
-      <c r="AE82" s="9"/>
-      <c r="AF82" s="9"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="29"/>
+      <c r="R82" s="29"/>
+      <c r="S82" s="29"/>
+      <c r="T82" s="25"/>
+      <c r="U82" s="46"/>
+      <c r="V82" s="46"/>
+      <c r="W82" s="48"/>
+      <c r="AB82" s="10"/>
+      <c r="AC82" s="10"/>
+      <c r="AD82" s="10"/>
+      <c r="AE82" s="10"/>
+      <c r="AF82" s="10"/>
     </row>
     <row r="83" spans="1:32">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7">
         <v>2014</v>
       </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="28"/>
-      <c r="R83" s="28"/>
-      <c r="S83" s="28"/>
-      <c r="T83" s="24"/>
-      <c r="U83" s="43"/>
-      <c r="V83" s="43"/>
-      <c r="W83" s="44"/>
-      <c r="AB83" s="10"/>
-      <c r="AC83" s="10"/>
-      <c r="AD83" s="10"/>
-      <c r="AE83" s="10"/>
-      <c r="AF83" s="10"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="29"/>
+      <c r="R83" s="29"/>
+      <c r="S83" s="29"/>
+      <c r="T83" s="25"/>
+      <c r="U83" s="46"/>
+      <c r="V83" s="46"/>
+      <c r="W83" s="48"/>
+      <c r="AB83" s="11"/>
+      <c r="AC83" s="11"/>
+      <c r="AD83" s="11"/>
+      <c r="AE83" s="11"/>
+      <c r="AF83" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="A16:A29"/>
     <mergeCell ref="A30:A43"/>
@@ -5836,6 +5869,7 @@
     <mergeCell ref="D64:D73"/>
     <mergeCell ref="D74:D83"/>
     <mergeCell ref="W2:W15"/>
+    <mergeCell ref="X2:X15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/行业/食品饮料/调味品/总表.xlsx
+++ b/行业/食品饮料/调味品/总表.xlsx
@@ -133,7 +133,9 @@
   </si>
   <si>
     <t>1.营收下滑。营收下滑是由于疫情导致餐饮企业大量倒闭，人们的
-吃饭需求由外出就餐大量转为在家就餐，而在家就餐对酱油的需求量下滑且海天酱油在个人购买酱油渠道(电商渠道&lt;顺丰、韵达、申通、京东、菜鸟等&gt;)上不占优势引起。</t>
+吃饭需求由外出就餐大量转为在家就餐，而在家就餐对酱油的需求量下滑且海天酱油在个人购买酱油渠道(电商渠道&lt;顺丰、韵达、申通、京东、菜鸟等在快送方面的优劣&gt;)上不占优势引起。
+2.等待中。
+3.大量资本扩张是通过公积金转增股本和总股实现的。即通过留存利润和对历史公积的利用来实现。</t>
   </si>
   <si>
     <t>送股(每股送0.1股)</t>
@@ -1584,7 +1586,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y6" sqref="Y6"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X2:X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/行业/食品饮料/调味品/总表.xlsx
+++ b/行业/食品饮料/调味品/总表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>名称</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>营业收入同比增长率</t>
+  </si>
+  <si>
+    <t>经营性现金流量净额同比增长率</t>
   </si>
   <si>
     <t>总股份数同比增长率</t>
@@ -129,13 +132,15 @@
     <t>1.最近两年净利润下滑的厉害，需要对影响净利润下滑的因素进行探究;
 2.从2019年开始股份实现了全部流通，需要对限制性国家股和法人股的知识进行了解。
 3.股份数在2015年之后的2020年第一次开始大量扩张，需要找到这些扩张的资本都拿去干嘛了，评估效果将会如何。
-4.2017年开始有利息支出，之前没有利息支出，但之前有贷款费用(这意味着之前没有贷款)，这些费用是哪里来的？</t>
+4.2017年开始有利息支出，之前没有利息支出，但之前有贷款费用(这意味着之前没有贷款)，这些费用是哪里来的？
+5.经营性现金流量同比增速从2019年大幅降低后，在2023年大幅回暖，其原因是什么？</t>
   </si>
   <si>
     <t>1.营收下滑。营收下滑是由于疫情导致餐饮企业大量倒闭，人们的
 吃饭需求由外出就餐大量转为在家就餐，而在家就餐对酱油的需求量下滑且海天酱油在个人购买酱油渠道(电商渠道&lt;顺丰、韵达、申通、京东、菜鸟等在快送方面的优劣&gt;)上不占优势引起。
 2.等待中。
-3.大量资本扩张是通过公积金转增股本和总股实现的。即通过留存利润和对历史公积的利用来实现。</t>
+3.大量资本扩张是通过公积金转增股本和总股实现的。即通过留存利润和对历史公积的利用来实现。
+4.等待中。</t>
   </si>
   <si>
     <t>送股(每股送0.1股)</t>
@@ -958,12 +963,12 @@
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -976,46 +981,31 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1024,35 +1014,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1579,10 +1584,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF83"/>
+  <dimension ref="A1:AG83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1599,24 +1604,26 @@
     <col min="7" max="7" width="12.9230769230769"/>
     <col min="8" max="8" width="12.7692307692308" customWidth="1"/>
     <col min="9" max="9" width="20" style="2" customWidth="1"/>
-    <col min="10" max="11" width="20" style="3" customWidth="1"/>
-    <col min="12" max="12" width="43.4326923076923" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.9230769230769" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.8461538461538" style="1"/>
-    <col min="15" max="15" width="20.9230769230769" customWidth="1"/>
-    <col min="16" max="16" width="19.8461538461538" customWidth="1"/>
-    <col min="17" max="17" width="17.0769230769231" style="4" customWidth="1"/>
-    <col min="18" max="18" width="19.8461538461538" style="4" customWidth="1"/>
-    <col min="19" max="19" width="22.4615384615385" style="4" customWidth="1"/>
-    <col min="20" max="20" width="20.9230769230769" customWidth="1"/>
-    <col min="21" max="21" width="19.8461538461538" style="5" customWidth="1"/>
-    <col min="22" max="22" width="15.1538461538462" style="5" customWidth="1"/>
-    <col min="23" max="23" width="30.7596153846154" customWidth="1"/>
-    <col min="24" max="24" width="61.8557692307692" style="6" customWidth="1"/>
-    <col min="28" max="32" width="12.7692307692308" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="3" customWidth="1"/>
+    <col min="11" max="11" width="34.5384615384615" style="3" customWidth="1"/>
+    <col min="12" max="12" width="20" style="3" customWidth="1"/>
+    <col min="13" max="13" width="43.4326923076923" style="3" customWidth="1"/>
+    <col min="14" max="14" width="20.9230769230769" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.8461538461538" style="1"/>
+    <col min="16" max="16" width="20.9230769230769" customWidth="1"/>
+    <col min="17" max="17" width="19.8461538461538" customWidth="1"/>
+    <col min="18" max="18" width="17.0769230769231" style="4" customWidth="1"/>
+    <col min="19" max="19" width="19.8461538461538" style="4" customWidth="1"/>
+    <col min="20" max="20" width="22.4615384615385" style="4" customWidth="1"/>
+    <col min="21" max="21" width="20.9230769230769" customWidth="1"/>
+    <col min="22" max="22" width="19.8461538461538" style="5" customWidth="1"/>
+    <col min="23" max="23" width="15.1538461538462" style="5" customWidth="1"/>
+    <col min="24" max="24" width="30.7596153846154" customWidth="1"/>
+    <col min="25" max="25" width="61.8557692307692" style="6" customWidth="1"/>
+    <col min="29" max="33" width="12.7692307692308" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:32">
+    <row r="1" s="1" customFormat="1" spans="1:33">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1665,7 +1672,7 @@
       <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="21" t="s">
@@ -1674,22 +1681,22 @@
       <c r="S1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="X1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="Y1" s="46" t="s">
         <v>24</v>
       </c>
       <c r="AC1" s="7" t="s">
@@ -1704,95 +1711,102 @@
       <c r="AF1" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AG1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7">
         <v>2023</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="8">
         <v>2014</v>
       </c>
       <c r="E2" s="12">
-        <f>(P2+Q2)/M2</f>
+        <f>(Q2+R2)/N2</f>
         <v>0.147095403940763</v>
       </c>
       <c r="F2" s="12">
-        <f>P2/O2</f>
+        <f>Q2/P2</f>
         <v>0.194337185436872</v>
       </c>
       <c r="G2" s="12">
-        <f>N2/M2</f>
+        <f>O2/N2</f>
         <v>0.244395703547193</v>
       </c>
       <c r="H2" s="12">
-        <f>P2/M2</f>
+        <f>Q2/N2</f>
         <v>0.146842012276646</v>
       </c>
       <c r="I2" s="14">
-        <f>(P2-P3)/P3</f>
+        <f>(Q2-Q3)/Q3</f>
         <v>-0.0904344275443549</v>
       </c>
       <c r="J2" s="15">
-        <f>(T2-T3)/T3</f>
+        <f>(U2-U3)/U3</f>
         <v>-0.041013411874212</v>
       </c>
       <c r="K2" s="15">
-        <f>(U2-U3)/U3</f>
+        <f t="shared" ref="K2:K13" si="0">(T2-T3)/T3</f>
+        <v>0.920377906332489</v>
+      </c>
+      <c r="L2" s="15">
+        <f>(V2-V3)/V3</f>
         <v>0.199999999913678</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="20">
+      <c r="M2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="20">
         <v>38423518405.62</v>
       </c>
-      <c r="N2" s="21">
-        <f>M2-O2</f>
+      <c r="O2" s="21">
+        <f>N2-P2</f>
         <v>9390542813.5</v>
       </c>
-      <c r="O2" s="20">
+      <c r="P2" s="20">
         <v>29032975592.12</v>
       </c>
-      <c r="P2" s="20">
+      <c r="Q2" s="20">
         <v>5642186761.43</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="R2" s="20">
         <v>9736199.27</v>
       </c>
-      <c r="R2" s="20">
+      <c r="S2" s="20">
         <v>1096850567.11</v>
       </c>
-      <c r="S2" s="20">
+      <c r="T2" s="20">
         <v>7355650997.74</v>
       </c>
-      <c r="T2" s="20">
+      <c r="U2" s="20">
         <v>24559312356.59</v>
       </c>
-      <c r="U2" s="40">
+      <c r="V2" s="34">
         <v>5560600544</v>
       </c>
-      <c r="V2" s="41">
+      <c r="W2" s="35">
         <v>5560600544</v>
       </c>
-      <c r="W2" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" s="43" t="s">
+      <c r="X2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="8"/>
+      <c r="Y2" s="47" t="s">
+        <v>34</v>
+      </c>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AG2" s="8"/>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" s="10"/>
       <c r="B3" s="7">
         <v>2022</v>
@@ -1800,76 +1814,80 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="12">
-        <f t="shared" ref="E3:E8" si="0">(P3+Q3)/M3</f>
+        <f t="shared" ref="E3:E8" si="1">(Q3+R3)/N3</f>
         <v>0.182492569233006</v>
       </c>
       <c r="F3" s="12">
-        <f>P3/O3</f>
+        <f>Q3/P3</f>
         <v>0.230734115590543</v>
       </c>
       <c r="G3" s="12">
-        <f>N3/M3</f>
+        <f>O3/N3</f>
         <v>0.210653847603796</v>
       </c>
       <c r="H3" s="12">
-        <f>P3/M3</f>
+        <f>Q3/N3</f>
         <v>0.182129086367936</v>
       </c>
       <c r="I3" s="14">
-        <f t="shared" ref="I2:I14" si="1">(P3-P4)/P4</f>
+        <f t="shared" ref="I2:I14" si="2">(Q3-Q4)/Q4</f>
         <v>-0.0701950107999122</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J14" si="2">(T3-T4)/T4</f>
+        <f t="shared" ref="J3:J14" si="3">(U3-U4)/U4</f>
         <v>0.0242209145696001</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K13" si="3">(U3-U4)/U4</f>
+        <f t="shared" si="0"/>
+        <v>-0.394273898792507</v>
+      </c>
+      <c r="L3" s="15">
+        <f t="shared" ref="L3:L13" si="4">(V3-V4)/V4</f>
         <v>0.1</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="22">
+      <c r="M3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="22">
         <v>34059175850.3</v>
       </c>
-      <c r="N3" s="21">
-        <f>M3-O3</f>
+      <c r="O3" s="21">
+        <f>N3-P3</f>
         <v>7174696439.08</v>
       </c>
-      <c r="O3" s="22">
+      <c r="P3" s="22">
         <v>26884479411.22</v>
       </c>
-      <c r="P3" s="22">
+      <c r="Q3" s="22">
         <v>6203166580.06</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="R3" s="22">
         <v>12379926.82</v>
       </c>
-      <c r="R3" s="28">
+      <c r="S3" s="26">
         <v>1161039435.23</v>
       </c>
-      <c r="S3" s="28">
+      <c r="T3" s="20">
         <v>3830314321.72</v>
       </c>
-      <c r="T3" s="29">
+      <c r="U3" s="31">
         <v>25609651543.29</v>
       </c>
-      <c r="U3" s="44">
+      <c r="V3" s="37">
         <v>4633833787</v>
       </c>
-      <c r="V3" s="41">
+      <c r="W3" s="35">
         <v>4633833787</v>
       </c>
-      <c r="W3" s="42"/>
-      <c r="X3" s="45"/>
-      <c r="AB3" s="10"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="48"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AG3" s="10"/>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" s="10"/>
       <c r="B4" s="7">
         <v>2021</v>
@@ -1877,76 +1895,80 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="12">
+        <f t="shared" si="1"/>
+        <v>0.200255197052557</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:F13" si="5">Q4/P4</f>
+        <v>0.283894192203626</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" ref="G4:G14" si="6">O4/N4</f>
+        <v>0.295097404400503</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" ref="H4:H13" si="7">Q4/N4</f>
+        <v>0.200117752959959</v>
+      </c>
+      <c r="I4" s="14">
+        <f t="shared" si="2"/>
+        <v>0.0409485540539824</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" si="3"/>
+        <v>0.0970590269656729</v>
+      </c>
+      <c r="K4" s="15">
         <f t="shared" si="0"/>
-        <v>0.200255197052557</v>
-      </c>
-      <c r="F4" s="12">
-        <f t="shared" ref="F4:F13" si="4">P4/O4</f>
-        <v>0.283894192203626</v>
-      </c>
-      <c r="G4" s="12">
-        <f t="shared" ref="G4:G14" si="5">N4/M4</f>
-        <v>0.295097404400503</v>
-      </c>
-      <c r="H4" s="12">
-        <f t="shared" ref="H4:H13" si="6">P4/M4</f>
-        <v>0.200117752959959</v>
-      </c>
-      <c r="I4" s="14">
-        <f t="shared" si="1"/>
-        <v>0.0409485540539824</v>
-      </c>
-      <c r="J4" s="15">
-        <f t="shared" si="2"/>
-        <v>0.0970590269656729</v>
-      </c>
-      <c r="K4" s="15">
-        <f t="shared" si="3"/>
+        <v>-0.090199174607969</v>
+      </c>
+      <c r="L4" s="15">
+        <f t="shared" si="4"/>
         <v>0.29999999987656</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="22">
+      <c r="M4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="22">
         <v>33337724549.58</v>
       </c>
-      <c r="N4" s="21">
-        <f t="shared" ref="N4:N13" si="7">M4-O4</f>
+      <c r="O4" s="21">
+        <f t="shared" ref="O4:O13" si="8">N4-P4</f>
         <v>9837875983.2</v>
       </c>
-      <c r="O4" s="22">
+      <c r="P4" s="22">
         <v>23499848566.38</v>
       </c>
-      <c r="P4" s="22">
+      <c r="Q4" s="22">
         <v>6671470525.66</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="R4" s="22">
         <v>4582073.3</v>
       </c>
-      <c r="R4" s="28">
+      <c r="S4" s="26">
         <v>1149269490.14</v>
       </c>
-      <c r="S4" s="28">
+      <c r="T4" s="20">
         <v>6323508784.06</v>
       </c>
-      <c r="T4" s="29">
+      <c r="U4" s="31">
         <v>25004031043.49</v>
       </c>
-      <c r="U4" s="44">
+      <c r="V4" s="37">
         <v>4212576170</v>
       </c>
-      <c r="V4" s="41">
+      <c r="W4" s="35">
         <v>4212576170</v>
       </c>
-      <c r="W4" s="42"/>
-      <c r="X4" s="45"/>
-      <c r="AB4" s="10"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="48"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
       <c r="AF4" s="10"/>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AG4" s="10"/>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" s="10"/>
       <c r="B5" s="7">
         <v>2020</v>
@@ -1954,76 +1976,80 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="12">
+        <f t="shared" si="1"/>
+        <v>0.217187032745513</v>
+      </c>
+      <c r="F5" s="13">
+        <f t="shared" si="5"/>
+        <v>0.317813102988648</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" si="6"/>
+        <v>0.317183788558181</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="7"/>
+        <v>0.217007938929277</v>
+      </c>
+      <c r="I5" s="14">
+        <f t="shared" si="2"/>
+        <v>0.196553348847028</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="3"/>
+        <v>0.151285589133775</v>
+      </c>
+      <c r="K5" s="15">
         <f t="shared" si="0"/>
-        <v>0.217187032745513</v>
-      </c>
-      <c r="F5" s="13">
+        <v>0.0582959231918652</v>
+      </c>
+      <c r="L5" s="15">
         <f t="shared" si="4"/>
-        <v>0.317813102988648</v>
-      </c>
-      <c r="G5" s="14">
-        <f t="shared" si="5"/>
-        <v>0.317183788558181</v>
-      </c>
-      <c r="H5" s="12">
-        <f t="shared" si="6"/>
-        <v>0.217007938929277</v>
-      </c>
-      <c r="I5" s="14">
-        <f t="shared" si="1"/>
-        <v>0.196553348847028</v>
-      </c>
-      <c r="J5" s="15">
-        <f t="shared" si="2"/>
-        <v>0.151285589133775</v>
-      </c>
-      <c r="K5" s="15">
-        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="22">
+      <c r="M5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="22">
         <v>29533620038.66</v>
       </c>
-      <c r="N5" s="21">
-        <f t="shared" si="7"/>
+      <c r="O5" s="21">
+        <f t="shared" si="8"/>
         <v>9367585493.7</v>
       </c>
-      <c r="O5" s="22">
+      <c r="P5" s="22">
         <v>20166034544.96</v>
       </c>
-      <c r="P5" s="22">
+      <c r="Q5" s="22">
         <v>6409030013.71</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="R5" s="22">
         <v>5289288.72</v>
       </c>
-      <c r="R5" s="28">
+      <c r="S5" s="26">
         <v>1233392261</v>
       </c>
-      <c r="S5" s="28">
+      <c r="T5" s="20">
         <v>6950432014.98</v>
       </c>
-      <c r="T5" s="29">
+      <c r="U5" s="31">
         <v>22791873936.49</v>
       </c>
-      <c r="U5" s="44">
+      <c r="V5" s="37">
         <v>3240443208</v>
       </c>
-      <c r="V5" s="41">
+      <c r="W5" s="35">
         <v>3240443208</v>
       </c>
-      <c r="W5" s="42"/>
-      <c r="X5" s="45"/>
-      <c r="AB5" s="10"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="48"/>
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AG5" s="10"/>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" s="10"/>
       <c r="B6" s="7">
         <v>2019</v>
@@ -2031,74 +2057,78 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="12">
+        <f t="shared" si="1"/>
+        <v>0.216423791788316</v>
+      </c>
+      <c r="F6" s="13">
+        <f t="shared" si="5"/>
+        <v>0.322709797499474</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" si="6"/>
+        <v>0.329490918127118</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="7"/>
+        <v>0.216379850032756</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="2"/>
+        <v>0.226618472154364</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="3"/>
+        <v>0.162166116197159</v>
+      </c>
+      <c r="K6" s="15">
         <f t="shared" si="0"/>
-        <v>0.216423791788316</v>
-      </c>
-      <c r="F6" s="13">
+        <v>0.0952808340762969</v>
+      </c>
+      <c r="L6" s="15">
         <f t="shared" si="4"/>
-        <v>0.322709797499474</v>
-      </c>
-      <c r="G6" s="14">
-        <f t="shared" si="5"/>
-        <v>0.329490918127118</v>
-      </c>
-      <c r="H6" s="12">
-        <f t="shared" si="6"/>
-        <v>0.216379850032756</v>
-      </c>
-      <c r="I6" s="18">
-        <f t="shared" si="1"/>
-        <v>0.226618472154364</v>
-      </c>
-      <c r="J6" s="15">
-        <f t="shared" si="2"/>
-        <v>0.162166116197159</v>
-      </c>
-      <c r="K6" s="15">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="22">
+      <c r="M6" s="15"/>
+      <c r="N6" s="22">
         <v>24753888098.68</v>
       </c>
-      <c r="N6" s="21">
-        <f t="shared" si="7"/>
+      <c r="O6" s="21">
+        <f t="shared" si="8"/>
         <v>8156181316.85</v>
       </c>
-      <c r="O6" s="22">
+      <c r="P6" s="22">
         <v>16597706781.83</v>
       </c>
-      <c r="P6" s="22">
+      <c r="Q6" s="22">
         <v>5356242594.52</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="R6" s="22">
         <v>1087729.3</v>
       </c>
-      <c r="R6" s="28">
+      <c r="S6" s="26">
         <v>1020956084.25</v>
       </c>
-      <c r="S6" s="28">
+      <c r="T6" s="20">
         <v>6567569488.52</v>
       </c>
-      <c r="T6" s="29">
+      <c r="U6" s="31">
         <v>19796889800.07</v>
       </c>
-      <c r="U6" s="44">
+      <c r="V6" s="37">
         <v>2700369340</v>
       </c>
-      <c r="V6" s="41">
+      <c r="W6" s="35">
         <v>2700369340</v>
       </c>
-      <c r="W6" s="42"/>
-      <c r="X6" s="45"/>
-      <c r="AB6" s="10"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="48"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AG6" s="10"/>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" s="10"/>
       <c r="B7" s="7">
         <v>2018</v>
@@ -2106,74 +2136,78 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="12">
+        <f t="shared" si="1"/>
+        <v>0.216804732804178</v>
+      </c>
+      <c r="F7" s="13">
+        <f t="shared" si="5"/>
+        <v>0.314424563871999</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="6"/>
+        <v>0.31056534390678</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="7"/>
+        <v>0.216775191060352</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="2"/>
+        <v>0.236500047209247</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="3"/>
+        <v>0.168000000000082</v>
+      </c>
+      <c r="K7" s="15">
         <f t="shared" si="0"/>
-        <v>0.216804732804178</v>
-      </c>
-      <c r="F7" s="13">
+        <v>0.270127298378713</v>
+      </c>
+      <c r="L7" s="15">
         <f t="shared" si="4"/>
-        <v>0.314424563871999</v>
-      </c>
-      <c r="G7" s="14">
-        <f t="shared" si="5"/>
-        <v>0.31056534390678</v>
-      </c>
-      <c r="H7" s="12">
-        <f t="shared" si="6"/>
-        <v>0.216775191060352</v>
-      </c>
-      <c r="I7" s="18">
-        <f t="shared" si="1"/>
-        <v>0.236500047209247</v>
-      </c>
-      <c r="J7" s="15">
-        <f t="shared" si="2"/>
-        <v>0.168000000000082</v>
-      </c>
-      <c r="K7" s="15">
-        <f t="shared" si="3"/>
         <v>-0.000309994788625395</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="22">
+      <c r="M7" s="15"/>
+      <c r="N7" s="22">
         <v>20143788853.33</v>
       </c>
-      <c r="N7" s="21">
-        <f t="shared" si="7"/>
+      <c r="O7" s="21">
+        <f t="shared" si="8"/>
         <v>6255962712.82</v>
       </c>
-      <c r="O7" s="22">
+      <c r="P7" s="22">
         <v>13887826140.51</v>
       </c>
-      <c r="P7" s="22">
+      <c r="Q7" s="22">
         <v>4366673677.36</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="R7" s="22">
         <v>595082.65</v>
       </c>
-      <c r="R7" s="28">
+      <c r="S7" s="26">
         <v>856132678.5</v>
       </c>
-      <c r="S7" s="28">
+      <c r="T7" s="20">
         <v>5996242501.64</v>
       </c>
-      <c r="T7" s="29">
+      <c r="U7" s="31">
         <v>17034475127.23</v>
       </c>
-      <c r="U7" s="44">
+      <c r="V7" s="37">
         <v>2700369340</v>
       </c>
-      <c r="V7" s="41">
+      <c r="W7" s="35">
         <v>2696886700</v>
       </c>
-      <c r="W7" s="42"/>
-      <c r="X7" s="45"/>
-      <c r="AB7" s="10"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="48"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7" s="10"/>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" s="10"/>
       <c r="B8" s="7">
         <v>2017</v>
@@ -2181,74 +2215,78 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="12">
+        <f t="shared" si="1"/>
+        <v>0.216216223892856</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" si="5"/>
+        <v>0.300189280364282</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="6"/>
+        <v>0.279862592937587</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="7"/>
+        <v>0.216177529989466</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="2"/>
+        <v>0.242107765186688</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="3"/>
+        <v>0.170625829671742</v>
+      </c>
+      <c r="K8" s="15">
         <f t="shared" si="0"/>
-        <v>0.216216223892856</v>
-      </c>
-      <c r="F8" s="13">
+        <v>0.158792041156015</v>
+      </c>
+      <c r="L8" s="15">
         <f t="shared" si="4"/>
-        <v>0.300189280364282</v>
-      </c>
-      <c r="G8" s="12">
-        <f t="shared" si="5"/>
-        <v>0.279862592937587</v>
-      </c>
-      <c r="H8" s="12">
-        <f t="shared" si="6"/>
-        <v>0.216177529989466</v>
-      </c>
-      <c r="I8" s="18">
-        <f t="shared" si="1"/>
-        <v>0.242107765186688</v>
-      </c>
-      <c r="J8" s="15">
-        <f t="shared" si="2"/>
-        <v>0.170625829671742</v>
-      </c>
-      <c r="K8" s="15">
-        <f t="shared" si="3"/>
         <v>-0.00138412873846462</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="22">
+      <c r="M8" s="15"/>
+      <c r="N8" s="22">
         <v>16336012255.77</v>
       </c>
-      <c r="N8" s="21">
-        <f t="shared" si="7"/>
+      <c r="O8" s="21">
+        <f t="shared" si="8"/>
         <v>4571838748.16</v>
       </c>
-      <c r="O8" s="22">
+      <c r="P8" s="22">
         <v>11764173507.61</v>
       </c>
-      <c r="P8" s="23">
+      <c r="Q8" s="27">
         <v>3531478779.33</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="R8" s="28">
         <v>632104.08</v>
       </c>
-      <c r="R8" s="28">
+      <c r="S8" s="26">
         <v>683810161.82</v>
       </c>
-      <c r="S8" s="28">
+      <c r="T8" s="20">
         <v>4720977581.77</v>
       </c>
-      <c r="T8" s="31">
+      <c r="U8" s="38">
         <v>14584310896.6</v>
       </c>
-      <c r="U8" s="44">
+      <c r="V8" s="37">
         <v>2701206700</v>
       </c>
-      <c r="V8" s="40">
+      <c r="W8" s="34">
         <v>2696886700</v>
       </c>
-      <c r="W8" s="42"/>
-      <c r="X8" s="45"/>
-      <c r="AB8" s="10"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="48"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AG8" s="10"/>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" s="10"/>
       <c r="B9" s="7">
         <v>2016</v>
@@ -2257,68 +2295,72 @@
       <c r="D9" s="10"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12">
+        <f t="shared" si="5"/>
+        <v>0.283922451698562</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="6"/>
+        <v>0.256233500647508</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="7"/>
+        <v>0.211172007987417</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="2"/>
+        <v>0.132888627506352</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="3"/>
+        <v>0.103075946410378</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="0"/>
+        <v>0.856201925998797</v>
+      </c>
+      <c r="L9" s="15">
         <f t="shared" si="4"/>
-        <v>0.283922451698562</v>
-      </c>
-      <c r="G9" s="12">
-        <f t="shared" si="5"/>
-        <v>0.256233500647508</v>
-      </c>
-      <c r="H9" s="12">
-        <f t="shared" si="6"/>
-        <v>0.211172007987417</v>
-      </c>
-      <c r="I9" s="14">
-        <f t="shared" si="1"/>
-        <v>0.132888627506352</v>
-      </c>
-      <c r="J9" s="15">
-        <f t="shared" si="2"/>
-        <v>0.103075946410378</v>
-      </c>
-      <c r="K9" s="15">
-        <f t="shared" si="3"/>
         <v>-0.000478633501906331</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="22">
+      <c r="M9" s="15"/>
+      <c r="N9" s="22">
         <v>13463592998.27</v>
       </c>
-      <c r="N9" s="21">
-        <f t="shared" si="7"/>
+      <c r="O9" s="21">
+        <f t="shared" si="8"/>
         <v>3449823565.24</v>
       </c>
-      <c r="O9" s="22">
+      <c r="P9" s="22">
         <v>10013769433.03</v>
       </c>
-      <c r="P9" s="22">
+      <c r="Q9" s="22">
         <v>2843133968.17</v>
       </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="28">
+      <c r="R9" s="24"/>
+      <c r="S9" s="26">
         <v>570244775.78</v>
       </c>
-      <c r="S9" s="28">
+      <c r="T9" s="20">
         <v>4074050747.76</v>
       </c>
-      <c r="T9" s="29">
+      <c r="U9" s="31">
         <v>12458558940.81</v>
       </c>
-      <c r="U9" s="44">
+      <c r="V9" s="37">
         <v>2704950700</v>
       </c>
-      <c r="V9" s="46">
+      <c r="W9" s="39">
         <v>271746700</v>
       </c>
-      <c r="W9" s="42"/>
-      <c r="X9" s="45"/>
-      <c r="AB9" s="10"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="48"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AG9" s="10"/>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" s="10"/>
       <c r="B10" s="7">
         <v>2015</v>
@@ -2327,68 +2369,72 @@
       <c r="D10" s="10"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12">
+        <f t="shared" si="5"/>
+        <v>0.286778236485815</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="6"/>
+        <v>0.238900339649918</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="7"/>
+        <v>0.218266818385149</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="2"/>
+        <v>0.200835017389606</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="3"/>
+        <v>0.150469779869341</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.19877086920991</v>
+      </c>
+      <c r="L10" s="15">
         <f t="shared" si="4"/>
-        <v>0.286778236485815</v>
-      </c>
-      <c r="G10" s="12">
-        <f t="shared" si="5"/>
-        <v>0.238900339649918</v>
-      </c>
-      <c r="H10" s="12">
-        <f t="shared" si="6"/>
-        <v>0.218266818385149</v>
-      </c>
-      <c r="I10" s="13">
-        <f t="shared" si="1"/>
-        <v>0.200835017389606</v>
-      </c>
-      <c r="J10" s="15">
-        <f t="shared" si="2"/>
-        <v>0.150469779869341</v>
-      </c>
-      <c r="K10" s="15">
-        <f t="shared" si="3"/>
         <v>0.799868314289895</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="22">
+      <c r="M10" s="15"/>
+      <c r="N10" s="22">
         <v>11498002242.84</v>
       </c>
-      <c r="N10" s="21">
-        <f t="shared" si="7"/>
+      <c r="O10" s="21">
+        <f t="shared" si="8"/>
         <v>2746876641.11</v>
       </c>
-      <c r="O10" s="22">
+      <c r="P10" s="22">
         <v>8751125601.73</v>
       </c>
-      <c r="P10" s="24">
+      <c r="Q10" s="29">
         <v>2509632367.33</v>
       </c>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="28">
+      <c r="R10" s="30"/>
+      <c r="S10" s="26">
         <v>501670546.62</v>
       </c>
-      <c r="S10" s="28">
+      <c r="T10" s="20">
         <v>2194831656.35</v>
       </c>
-      <c r="T10" s="29">
+      <c r="U10" s="31">
         <v>11294380030.09</v>
       </c>
-      <c r="U10" s="44">
+      <c r="V10" s="37">
         <v>2706246000</v>
       </c>
-      <c r="V10" s="40">
+      <c r="W10" s="34">
         <v>269460000</v>
       </c>
-      <c r="W10" s="42"/>
-      <c r="X10" s="45"/>
-      <c r="AB10" s="10"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="48"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AG10" s="10"/>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" s="10"/>
       <c r="B11" s="7">
         <v>2014</v>
@@ -2397,68 +2443,72 @@
       <c r="D11" s="10"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12">
+        <f t="shared" si="5"/>
+        <v>0.279103975335185</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="6"/>
+        <v>0.31931750503582</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="7"/>
+        <v>0.189981190285575</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="2"/>
+        <v>0.300972112855687</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="3"/>
+        <v>0.168491970709073</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.419204572504822</v>
+      </c>
+      <c r="L11" s="15">
         <f t="shared" si="4"/>
-        <v>0.279103975335185</v>
-      </c>
-      <c r="G11" s="14">
-        <f t="shared" si="5"/>
-        <v>0.31931750503582</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="6"/>
-        <v>0.189981190285575</v>
-      </c>
-      <c r="I11" s="13">
-        <f t="shared" si="1"/>
-        <v>0.300972112855687</v>
-      </c>
-      <c r="J11" s="15">
-        <f t="shared" si="2"/>
-        <v>0.168491970709073</v>
-      </c>
-      <c r="K11" s="15">
-        <f t="shared" si="3"/>
         <v>1.11473980309423</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="22">
+      <c r="M11" s="15"/>
+      <c r="N11" s="22">
         <v>11000594566.17</v>
       </c>
-      <c r="N11" s="21">
-        <f t="shared" si="7"/>
+      <c r="O11" s="21">
+        <f t="shared" si="8"/>
         <v>3512682410.78</v>
       </c>
-      <c r="O11" s="22">
+      <c r="P11" s="22">
         <v>7487912155.39</v>
       </c>
-      <c r="P11" s="24">
+      <c r="Q11" s="29">
         <v>2089906049.53</v>
       </c>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="28">
+      <c r="R11" s="30"/>
+      <c r="S11" s="26">
         <v>402320381.83</v>
       </c>
-      <c r="S11" s="28">
+      <c r="T11" s="20">
         <v>2739330825.61</v>
       </c>
-      <c r="T11" s="29">
+      <c r="U11" s="31">
         <v>9817189662.62</v>
       </c>
-      <c r="U11" s="44">
+      <c r="V11" s="37">
         <v>1503580000</v>
       </c>
-      <c r="V11" s="40">
+      <c r="W11" s="34">
         <v>149700000</v>
       </c>
-      <c r="W11" s="42"/>
-      <c r="X11" s="45"/>
-      <c r="AB11" s="11"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="48"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11" s="11"/>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" s="10"/>
       <c r="B12" s="7">
         <v>2013</v>
@@ -2467,69 +2517,73 @@
       <c r="D12" s="10"/>
       <c r="E12" s="12"/>
       <c r="F12" s="13">
+        <f t="shared" si="5"/>
+        <v>0.410382890750542</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="6"/>
+        <v>0.417678190862682</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="7"/>
+        <v>0.238974907380858</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="2"/>
+        <v>0.330293877918502</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="3"/>
+        <v>0.188412255311032</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.110977796082027</v>
+      </c>
+      <c r="L12" s="15">
         <f t="shared" si="4"/>
-        <v>0.410382890750542</v>
-      </c>
-      <c r="G12" s="14">
-        <f t="shared" si="5"/>
-        <v>0.417678190862682</v>
-      </c>
-      <c r="H12" s="12">
-        <f t="shared" si="6"/>
-        <v>0.238974907380858</v>
-      </c>
-      <c r="I12" s="13">
-        <f t="shared" si="1"/>
-        <v>0.330293877918502</v>
-      </c>
-      <c r="J12" s="15">
-        <f t="shared" si="2"/>
-        <v>0.188412255311032</v>
-      </c>
-      <c r="K12" s="15">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="22">
+      <c r="M12" s="15"/>
+      <c r="N12" s="22">
         <v>6722123294.35</v>
       </c>
-      <c r="N12" s="21">
-        <f t="shared" si="7"/>
+      <c r="O12" s="21">
+        <f t="shared" si="8"/>
         <v>2807684296.34</v>
       </c>
-      <c r="O12" s="22">
+      <c r="P12" s="22">
         <v>3914438998.01</v>
       </c>
-      <c r="P12" s="24">
+      <c r="Q12" s="29">
         <v>1606418791.67</v>
       </c>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28">
+      <c r="R12" s="26"/>
+      <c r="S12" s="26">
         <v>369200360.24</v>
       </c>
-      <c r="S12" s="29">
+      <c r="T12" s="31">
         <v>1930187429.41</v>
       </c>
-      <c r="T12" s="29">
+      <c r="U12" s="31">
         <v>8401589320.86</v>
       </c>
-      <c r="U12" s="44">
+      <c r="V12" s="37">
         <f>71100*10000</f>
         <v>711000000</v>
       </c>
-      <c r="V12" s="46">
+      <c r="W12" s="39">
         <v>0</v>
       </c>
-      <c r="W12" s="42"/>
-      <c r="X12" s="45"/>
-      <c r="AB12" s="10"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="48"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AG12" s="10"/>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" s="10"/>
       <c r="B13" s="7">
         <v>2012</v>
@@ -2538,70 +2592,74 @@
       <c r="D13" s="10"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13">
+        <f t="shared" si="5"/>
+        <v>0.33002646978956</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="6"/>
+        <v>0.401165692604779</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="7"/>
+        <v>0.197631172458521</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="2"/>
+        <v>0.263561963932884</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="3"/>
+        <v>0.160745719949092</v>
+      </c>
+      <c r="K13" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="15" t="e">
         <f t="shared" si="4"/>
-        <v>0.33002646978956</v>
-      </c>
-      <c r="G13" s="14">
-        <f t="shared" si="5"/>
-        <v>0.401165692604779</v>
-      </c>
-      <c r="H13" s="12">
-        <f t="shared" si="6"/>
-        <v>0.197631172458521</v>
-      </c>
-      <c r="I13" s="13">
-        <f t="shared" si="1"/>
-        <v>0.263561963932884</v>
-      </c>
-      <c r="J13" s="15">
-        <f t="shared" si="2"/>
-        <v>0.160745719949092</v>
-      </c>
-      <c r="K13" s="15" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="22">
+      <c r="M13" s="15"/>
+      <c r="N13" s="22">
         <v>6110204366.74</v>
       </c>
-      <c r="N13" s="21">
-        <f t="shared" si="7"/>
+      <c r="O13" s="21">
+        <f t="shared" si="8"/>
         <v>2451204366.74</v>
       </c>
-      <c r="O13" s="22">
+      <c r="P13" s="22">
         <f>36.59*100000000</f>
         <v>3659000000</v>
       </c>
-      <c r="P13" s="24">
+      <c r="Q13" s="29">
         <v>1207566852.96</v>
       </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28">
+      <c r="R13" s="26"/>
+      <c r="S13" s="26">
         <v>282068894.05</v>
       </c>
-      <c r="S13" s="26">
+      <c r="T13" s="4">
         <v>2171135232.51</v>
       </c>
-      <c r="T13" s="29">
+      <c r="U13" s="31">
         <v>7069591619.67</v>
       </c>
-      <c r="U13" s="44">
+      <c r="V13" s="37">
         <f>71100*10000</f>
         <v>711000000</v>
       </c>
-      <c r="V13" s="46">
+      <c r="W13" s="39">
         <v>0</v>
       </c>
-      <c r="W13" s="42"/>
-      <c r="X13" s="45"/>
-      <c r="AB13" s="10"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="48"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AG13" s="10"/>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" s="10"/>
       <c r="B14" s="7">
         <v>2011</v>
@@ -2613,41 +2671,45 @@
       <c r="G14" s="12"/>
       <c r="H14" s="7"/>
       <c r="I14" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.173794144238016</v>
       </c>
       <c r="J14" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.104261047185661</v>
       </c>
       <c r="K14" s="15" t="e">
-        <f>(U14-U15)/U15</f>
+        <f>(T14-T15)/T15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="7"/>
+      <c r="L14" s="15" t="e">
+        <f>(V14-V15)/V15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="15"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="24">
+      <c r="O14" s="7"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="29">
         <v>955684713.08</v>
       </c>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="33">
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="40">
         <v>6090560144.37</v>
       </c>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="45"/>
-      <c r="AB14" s="10"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="48"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AG14" s="10"/>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" s="11"/>
       <c r="B15" s="7">
         <v>2010</v>
@@ -2662,108 +2724,110 @@
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="15"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="24">
+      <c r="O15" s="7"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="29">
         <v>814184256.9</v>
       </c>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="33">
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="40">
         <v>5515507551.31</v>
       </c>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="45"/>
-      <c r="AB15" s="10"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="48"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AG15" s="10"/>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="7">
         <v>2023</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="12">
-        <f t="shared" ref="E16:E26" si="8">(P16+Q16)/M16</f>
+        <f t="shared" ref="E16:E26" si="9">(Q16+R16)/N16</f>
         <v>0.258931822172073</v>
       </c>
       <c r="F16" s="15">
-        <f>P16/O16</f>
+        <f>Q16/P16</f>
         <v>0.33401093467221</v>
       </c>
       <c r="G16" s="14">
-        <f>N16/M16</f>
+        <f>O16/N16</f>
         <v>0.225982881581961</v>
       </c>
       <c r="H16" s="15">
-        <f>P16/M16</f>
+        <f>Q16/N16</f>
         <v>0.2585301811751</v>
       </c>
       <c r="I16" s="14">
-        <f>(P16-P17)/P17</f>
+        <f>(Q16-Q17)/Q17</f>
         <v>-4.13225929112134</v>
       </c>
       <c r="J16" s="15">
-        <f>(T16-T17)/T17</f>
+        <f>(U16-U17)/U17</f>
         <v>-0.0378108110572284</v>
       </c>
-      <c r="K16" s="15">
-        <f t="shared" ref="K16:K25" si="9">(U16-U17)/U17</f>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15">
+        <f t="shared" ref="L16:L25" si="10">(V16-V17)/V17</f>
         <v>0</v>
       </c>
-      <c r="M16" s="26">
+      <c r="N16" s="24">
         <v>6718881439.74</v>
       </c>
-      <c r="N16" s="21">
-        <f>M16-O16</f>
+      <c r="O16" s="21">
+        <f>N16-P16</f>
         <v>1518352188.76</v>
       </c>
-      <c r="O16" s="26">
+      <c r="P16" s="24">
         <v>5200529250.98</v>
       </c>
-      <c r="P16" s="26">
+      <c r="Q16" s="24">
         <v>1737033635.91</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="R16" s="20">
         <v>2698578.24</v>
       </c>
-      <c r="R16" s="28">
+      <c r="S16" s="26">
         <v>64551857.2</v>
       </c>
-      <c r="S16" s="28">
+      <c r="T16" s="20">
         <v>841908805.69</v>
       </c>
-      <c r="T16" s="26">
+      <c r="U16" s="24">
         <v>5139091906.63</v>
       </c>
-      <c r="U16" s="40">
+      <c r="V16" s="34">
         <v>785375950</v>
       </c>
-      <c r="V16" s="40">
+      <c r="W16" s="34">
         <v>785375950</v>
       </c>
-      <c r="W16" s="48"/>
-      <c r="AB16" s="8"/>
+      <c r="X16" s="42"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16" s="8"/>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" s="10"/>
       <c r="B17" s="7">
         <v>2022</v>
@@ -2771,73 +2835,74 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.0893635366701453</v>
       </c>
       <c r="F17" s="15">
-        <f>P17/O17</f>
+        <f>Q17/P17</f>
         <v>-0.160054464613054</v>
       </c>
       <c r="G17" s="14">
-        <f>N17/M17</f>
+        <f>O17/N17</f>
         <v>0.443254585786438</v>
       </c>
       <c r="H17" s="15">
-        <f>P17/M17</f>
+        <f>Q17/N17</f>
         <v>-0.0891095891977247</v>
       </c>
       <c r="I17" s="14">
-        <f t="shared" ref="I17:I26" si="10">(P17-P18)/P18</f>
+        <f t="shared" ref="I17:I26" si="11">(Q17-Q18)/Q18</f>
         <v>-1.70715132355257</v>
       </c>
       <c r="J17" s="15">
-        <f>(T17-T18)/T18</f>
+        <f>(U17-U18)/U18</f>
         <v>0.044059172814461</v>
       </c>
-      <c r="K17" s="15">
-        <f t="shared" si="9"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15">
+        <f t="shared" si="10"/>
         <v>-0.0141359756797898</v>
       </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="22">
+      <c r="M17" s="15"/>
+      <c r="N17" s="22">
         <v>6223376570.5</v>
       </c>
-      <c r="N17" s="21">
-        <f>M17-O17</f>
+      <c r="O17" s="21">
+        <f>N17-P17</f>
         <v>2758540203.95</v>
       </c>
-      <c r="O17" s="22">
+      <c r="P17" s="22">
         <v>3464836366.55</v>
       </c>
-      <c r="P17" s="24">
+      <c r="Q17" s="29">
         <v>-554562529.62</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="R17" s="20">
         <v>-1580410.75</v>
       </c>
-      <c r="R17" s="28">
+      <c r="S17" s="26">
         <v>80152748.71</v>
       </c>
-      <c r="S17" s="28">
+      <c r="T17" s="20">
         <v>677654835.65</v>
       </c>
-      <c r="T17" s="34">
+      <c r="U17" s="43">
         <v>5341040998.68</v>
       </c>
-      <c r="U17" s="40">
+      <c r="V17" s="34">
         <v>785375950</v>
       </c>
-      <c r="V17" s="40">
+      <c r="W17" s="34">
         <v>785375950</v>
       </c>
-      <c r="W17" s="48"/>
-      <c r="AB17" s="10"/>
+      <c r="X17" s="42"/>
       <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17" s="10"/>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" s="10"/>
       <c r="B18" s="7">
         <v>2021</v>
@@ -2845,73 +2910,74 @@
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.135919835740443</v>
       </c>
       <c r="F18" s="15">
-        <f t="shared" ref="F18:F26" si="11">P18/O18</f>
+        <f t="shared" ref="F18:F26" si="12">Q18/P18</f>
         <v>0.184506426584944</v>
       </c>
       <c r="G18" s="15">
-        <f t="shared" ref="G18:G26" si="12">N18/M18</f>
+        <f t="shared" ref="G18:G26" si="13">O18/N18</f>
         <v>0.281747436919482</v>
       </c>
       <c r="H18" s="15">
-        <f t="shared" ref="H18:H26" si="13">P18/M18</f>
+        <f t="shared" ref="H18:H26" si="14">Q18/N18</f>
         <v>0.132522213799464</v>
       </c>
       <c r="I18" s="14">
+        <f t="shared" si="11"/>
+        <v>-0.192666937239026</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" ref="J18:J26" si="15">(U18-U19)/U19</f>
+        <v>-0.00150781658783711</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15">
         <f t="shared" si="10"/>
-        <v>-0.192666937239026</v>
-      </c>
-      <c r="J18" s="15">
-        <f t="shared" ref="J18:J26" si="14">(T18-T19)/T19</f>
-        <v>-0.00150781658783711</v>
-      </c>
-      <c r="K18" s="15">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="22">
+      <c r="M18" s="15"/>
+      <c r="N18" s="22">
         <v>5917652808.13</v>
       </c>
-      <c r="N18" s="21">
-        <f t="shared" ref="N18:N27" si="15">M18-O18</f>
+      <c r="O18" s="21">
+        <f t="shared" ref="O18:O27" si="16">N18-P18</f>
         <v>1667283511.27</v>
       </c>
-      <c r="O18" s="22">
+      <c r="P18" s="22">
         <v>4250369296.86</v>
       </c>
-      <c r="P18" s="24">
+      <c r="Q18" s="29">
         <v>784220450.63</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="R18" s="20">
         <v>20105947.02</v>
       </c>
-      <c r="R18" s="28">
+      <c r="S18" s="26">
         <v>92303153.39</v>
       </c>
-      <c r="S18" s="28">
+      <c r="T18" s="20">
         <v>1212493363.66</v>
       </c>
-      <c r="T18" s="34">
+      <c r="U18" s="43">
         <v>5115649704.3</v>
       </c>
-      <c r="U18" s="40">
+      <c r="V18" s="34">
         <v>796637194</v>
       </c>
-      <c r="V18" s="40">
+      <c r="W18" s="34">
         <v>796637194</v>
       </c>
-      <c r="W18" s="48"/>
-      <c r="AB18" s="10"/>
+      <c r="X18" s="42"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18" s="10"/>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" s="10"/>
       <c r="B19" s="7">
         <v>2020</v>
@@ -2919,73 +2985,74 @@
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.147404291199012</v>
       </c>
       <c r="F19" s="15">
+        <f t="shared" si="12"/>
+        <v>0.194599733296717</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" si="13"/>
+        <v>0.250383470044278</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="14"/>
+        <v>0.145875176804194</v>
+      </c>
+      <c r="I19" s="13">
         <f t="shared" si="11"/>
-        <v>0.194599733296717</v>
-      </c>
-      <c r="G19" s="15">
-        <f t="shared" si="12"/>
-        <v>0.250383470044278</v>
-      </c>
-      <c r="H19" s="15">
-        <f t="shared" si="13"/>
-        <v>0.145875176804194</v>
-      </c>
-      <c r="I19" s="13">
+        <v>0.227517922860407</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="15"/>
+        <v>0.0959455191484949</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15">
         <f t="shared" si="10"/>
-        <v>0.227517922860407</v>
-      </c>
-      <c r="J19" s="15">
-        <f t="shared" si="14"/>
-        <v>0.0959455191484949</v>
-      </c>
-      <c r="K19" s="15">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="22">
+      <c r="M19" s="15"/>
+      <c r="N19" s="22">
         <v>6658923560.27</v>
       </c>
-      <c r="N19" s="21">
-        <f t="shared" si="15"/>
+      <c r="O19" s="21">
+        <f t="shared" si="16"/>
         <v>1667284387.78</v>
       </c>
-      <c r="O19" s="22">
+      <c r="P19" s="22">
         <v>4991639172.49</v>
       </c>
-      <c r="P19" s="24">
+      <c r="Q19" s="29">
         <v>971371651.68</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="R19" s="20">
         <v>10182255.87</v>
       </c>
-      <c r="R19" s="28">
+      <c r="S19" s="26">
         <v>158704875.24</v>
       </c>
-      <c r="S19" s="28">
+      <c r="T19" s="20">
         <v>1000999170.24</v>
       </c>
-      <c r="T19" s="34">
+      <c r="U19" s="43">
         <v>5123374813.83</v>
       </c>
-      <c r="U19" s="40">
+      <c r="V19" s="34">
         <v>796637194</v>
       </c>
-      <c r="V19" s="40">
+      <c r="W19" s="34">
         <v>796637194</v>
       </c>
-      <c r="W19" s="48"/>
-      <c r="AB19" s="10"/>
+      <c r="X19" s="42"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19" s="10"/>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" s="10"/>
       <c r="B20" s="7">
         <v>2019</v>
@@ -2993,73 +3060,74 @@
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.141528959158248</v>
       </c>
       <c r="F20" s="15">
+        <f t="shared" si="12"/>
+        <v>0.186379631043394</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="13"/>
+        <v>0.286867510025872</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="14"/>
+        <v>0.132913370366435</v>
+      </c>
+      <c r="I20" s="14">
         <f t="shared" si="11"/>
-        <v>0.186379631043394</v>
-      </c>
-      <c r="G20" s="15">
-        <f t="shared" si="12"/>
-        <v>0.286867510025872</v>
-      </c>
-      <c r="H20" s="15">
-        <f t="shared" si="13"/>
-        <v>0.132913370366435</v>
-      </c>
-      <c r="I20" s="14">
+        <v>0.161605538848774</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="15"/>
+        <v>0.12201698396675</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15">
         <f t="shared" si="10"/>
-        <v>0.161605538848774</v>
-      </c>
-      <c r="J20" s="15">
-        <f t="shared" si="14"/>
-        <v>0.12201698396675</v>
-      </c>
-      <c r="K20" s="15">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="22">
+      <c r="M20" s="15"/>
+      <c r="N20" s="22">
         <v>5953726937.24</v>
       </c>
-      <c r="N20" s="21">
-        <f t="shared" si="15"/>
+      <c r="O20" s="21">
+        <f t="shared" si="16"/>
         <v>1707930821.86</v>
       </c>
-      <c r="O20" s="22">
+      <c r="P20" s="22">
         <v>4245796115.38</v>
       </c>
-      <c r="P20" s="24">
+      <c r="Q20" s="29">
         <v>791329913.47</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="R20" s="20">
         <v>51294863.07</v>
       </c>
-      <c r="R20" s="28">
+      <c r="S20" s="26">
         <v>136691992.21</v>
       </c>
-      <c r="S20" s="28">
+      <c r="T20" s="20">
         <v>1058869197.81</v>
       </c>
-      <c r="T20" s="35">
+      <c r="U20" s="44">
         <v>4674844437.35</v>
       </c>
-      <c r="U20" s="40">
+      <c r="V20" s="34">
         <v>796637194</v>
       </c>
-      <c r="V20" s="40">
+      <c r="W20" s="34">
         <v>796637194</v>
       </c>
-      <c r="W20" s="48"/>
-      <c r="AB20" s="10"/>
+      <c r="X20" s="42"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AG20" s="10"/>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" s="10"/>
       <c r="B21" s="7">
         <v>2018</v>
@@ -3067,73 +3135,74 @@
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.123400232469235</v>
       </c>
       <c r="F21" s="15">
+        <f t="shared" si="12"/>
+        <v>0.172561498486247</v>
+      </c>
+      <c r="G21" s="14">
+        <f t="shared" si="13"/>
+        <v>0.340239814359238</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="14"/>
+        <v>0.113849206275734</v>
+      </c>
+      <c r="I21" s="13">
         <f t="shared" si="11"/>
-        <v>0.172561498486247</v>
-      </c>
-      <c r="G21" s="14">
-        <f t="shared" si="12"/>
-        <v>0.340239814359238</v>
-      </c>
-      <c r="H21" s="15">
-        <f t="shared" si="13"/>
-        <v>0.113849206275734</v>
-      </c>
-      <c r="I21" s="13">
+        <v>0.332092262949975</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="15"/>
+        <v>0.154346322704087</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15">
         <f t="shared" si="10"/>
-        <v>0.332092262949975</v>
-      </c>
-      <c r="J21" s="15">
-        <f t="shared" si="14"/>
-        <v>0.154346322704087</v>
-      </c>
-      <c r="K21" s="15">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="22">
+      <c r="M21" s="15"/>
+      <c r="N21" s="22">
         <v>5983687463.75</v>
       </c>
-      <c r="N21" s="21">
-        <f t="shared" si="15"/>
+      <c r="O21" s="21">
+        <f t="shared" si="16"/>
         <v>2035888711.85</v>
       </c>
-      <c r="O21" s="22">
+      <c r="P21" s="22">
         <v>3947798751.9</v>
       </c>
-      <c r="P21" s="24">
+      <c r="Q21" s="29">
         <v>681238068.35</v>
       </c>
-      <c r="Q21" s="20">
+      <c r="R21" s="20">
         <v>57150355.7</v>
       </c>
-      <c r="R21" s="28">
+      <c r="S21" s="26">
         <v>111327569.02</v>
       </c>
-      <c r="S21" s="28">
+      <c r="T21" s="20">
         <v>723569594.03</v>
       </c>
-      <c r="T21" s="35">
+      <c r="U21" s="44">
         <v>4166464950.31</v>
       </c>
-      <c r="U21" s="40">
+      <c r="V21" s="34">
         <v>796637194</v>
       </c>
-      <c r="V21" s="40">
+      <c r="W21" s="34">
         <v>796637194</v>
       </c>
-      <c r="W21" s="48"/>
-      <c r="AB21" s="10"/>
+      <c r="X21" s="42"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21" s="10"/>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" s="10"/>
       <c r="B22" s="7">
         <v>2017</v>
@@ -3141,73 +3210,74 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.107981762462568</v>
       </c>
       <c r="F22" s="15">
+        <f t="shared" si="12"/>
+        <v>0.148226520751638</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" si="13"/>
+        <v>0.349611711070378</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" si="14"/>
+        <v>0.0964047932056491</v>
+      </c>
+      <c r="I22" s="13">
         <f t="shared" si="11"/>
-        <v>0.148226520751638</v>
-      </c>
-      <c r="G22" s="14">
-        <f t="shared" si="12"/>
-        <v>0.349611711070378</v>
-      </c>
-      <c r="H22" s="15">
-        <f t="shared" si="13"/>
-        <v>0.0964047932056491</v>
-      </c>
-      <c r="I22" s="13">
+        <v>0.246525457918945</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="15"/>
+        <v>0.142933638506007</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15">
         <f t="shared" si="10"/>
-        <v>0.246525457918945</v>
-      </c>
-      <c r="J22" s="15">
-        <f t="shared" si="14"/>
-        <v>0.142933638506007</v>
-      </c>
-      <c r="K22" s="15">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="22">
+      <c r="M22" s="15"/>
+      <c r="N22" s="22">
         <v>5304762875.94</v>
       </c>
-      <c r="N22" s="21">
-        <f t="shared" si="15"/>
+      <c r="O22" s="21">
+        <f t="shared" si="16"/>
         <v>1854607225.88</v>
       </c>
-      <c r="O22" s="22">
+      <c r="P22" s="22">
         <v>3450155650.06</v>
       </c>
-      <c r="P22" s="24">
+      <c r="Q22" s="29">
         <v>511404568.06</v>
       </c>
-      <c r="Q22" s="20">
+      <c r="R22" s="20">
         <v>61413076.73</v>
       </c>
-      <c r="R22" s="28">
+      <c r="S22" s="26">
         <v>97773235.58</v>
       </c>
-      <c r="S22" s="28">
+      <c r="T22" s="20">
         <v>650615659.55</v>
       </c>
-      <c r="T22" s="35">
+      <c r="U22" s="44">
         <v>3609371700.99</v>
       </c>
-      <c r="U22" s="40">
+      <c r="V22" s="34">
         <v>796637194</v>
       </c>
-      <c r="V22" s="40">
+      <c r="W22" s="34">
         <v>796637194</v>
       </c>
-      <c r="W22" s="48"/>
-      <c r="AB22" s="10"/>
+      <c r="X22" s="42"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22" s="10"/>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" s="10"/>
       <c r="B23" s="7">
         <v>2016</v>
@@ -3215,73 +3285,74 @@
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.0964580983452112</v>
       </c>
       <c r="F23" s="15">
+        <f t="shared" si="12"/>
+        <v>0.132810018005808</v>
+      </c>
+      <c r="G23" s="14">
+        <f t="shared" si="13"/>
+        <v>0.370965480070186</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="14"/>
+        <v>0.0835420859181533</v>
+      </c>
+      <c r="I23" s="13">
         <f t="shared" si="11"/>
-        <v>0.132810018005808</v>
-      </c>
-      <c r="G23" s="14">
-        <f t="shared" si="12"/>
-        <v>0.370965480070186</v>
-      </c>
-      <c r="H23" s="15">
-        <f t="shared" si="13"/>
-        <v>0.0835420859181533</v>
-      </c>
-      <c r="I23" s="13">
+        <v>0.496971412499224</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="15"/>
+        <v>0.144785649301856</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15">
         <f t="shared" si="10"/>
-        <v>0.496971412499224</v>
-      </c>
-      <c r="J23" s="15">
-        <f t="shared" si="14"/>
-        <v>0.144785649301856</v>
-      </c>
-      <c r="K23" s="15">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L23" s="15"/>
-      <c r="M23" s="22">
+      <c r="M23" s="15"/>
+      <c r="N23" s="22">
         <v>4910866585.04</v>
       </c>
-      <c r="N23" s="21">
-        <f t="shared" si="15"/>
+      <c r="O23" s="21">
+        <f t="shared" si="16"/>
         <v>1821761980.28</v>
       </c>
-      <c r="O23" s="22">
+      <c r="P23" s="22">
         <v>3089104604.76</v>
       </c>
-      <c r="P23" s="24">
+      <c r="Q23" s="29">
         <v>410264038.18</v>
       </c>
-      <c r="Q23" s="20">
+      <c r="R23" s="20">
         <v>63428813.84</v>
       </c>
-      <c r="R23" s="28">
+      <c r="S23" s="26">
         <v>75998454.21</v>
       </c>
-      <c r="S23" s="28">
+      <c r="T23" s="20">
         <v>676669245.06</v>
       </c>
-      <c r="T23" s="35">
+      <c r="U23" s="44">
         <v>3157988862.51</v>
       </c>
-      <c r="U23" s="40">
+      <c r="V23" s="34">
         <v>796637194</v>
       </c>
-      <c r="V23" s="40">
+      <c r="W23" s="34">
         <v>796637194</v>
       </c>
-      <c r="W23" s="48"/>
-      <c r="AB23" s="10"/>
+      <c r="X23" s="42"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AG23" s="10"/>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" s="10"/>
       <c r="B24" s="7">
         <v>2015</v>
@@ -3289,73 +3360,74 @@
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.0741579481353309</v>
       </c>
       <c r="F24" s="15">
+        <f t="shared" si="12"/>
+        <v>0.0979289181850914</v>
+      </c>
+      <c r="G24" s="14">
+        <f t="shared" si="13"/>
+        <v>0.381269762551473</v>
+      </c>
+      <c r="H24" s="15">
+        <f t="shared" si="14"/>
+        <v>0.060591582801739</v>
+      </c>
+      <c r="I24" s="14">
         <f t="shared" si="11"/>
-        <v>0.0979289181850914</v>
-      </c>
-      <c r="G24" s="14">
-        <f t="shared" si="12"/>
-        <v>0.381269762551473</v>
-      </c>
-      <c r="H24" s="15">
-        <f t="shared" si="13"/>
-        <v>0.060591582801739</v>
-      </c>
-      <c r="I24" s="14">
+        <v>-0.0634488224879556</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="15"/>
+        <v>0.0441684194682816</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15">
         <f t="shared" si="10"/>
-        <v>-0.0634488224879556</v>
-      </c>
-      <c r="J24" s="15">
-        <f t="shared" si="14"/>
-        <v>0.0441684194682816</v>
-      </c>
-      <c r="K24" s="15">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L24" s="15"/>
-      <c r="M24" s="22">
+      <c r="M24" s="15"/>
+      <c r="N24" s="22">
         <v>4523115170.58</v>
       </c>
-      <c r="N24" s="21">
-        <f t="shared" si="15"/>
+      <c r="O24" s="21">
+        <f t="shared" si="16"/>
         <v>1724527047.08</v>
       </c>
-      <c r="O24" s="22">
+      <c r="P24" s="22">
         <v>2798588123.5</v>
       </c>
-      <c r="P24" s="24">
+      <c r="Q24" s="29">
         <v>274062707.38</v>
       </c>
-      <c r="Q24" s="20">
+      <c r="R24" s="20">
         <v>61362232.85</v>
       </c>
-      <c r="R24" s="28">
+      <c r="S24" s="26">
         <v>65056564.18</v>
       </c>
-      <c r="S24" s="28">
+      <c r="T24" s="20">
         <v>393949066.09</v>
       </c>
-      <c r="T24" s="35">
+      <c r="U24" s="44">
         <v>2758585298.86</v>
       </c>
-      <c r="U24" s="40">
+      <c r="V24" s="34">
         <v>796637194</v>
       </c>
-      <c r="V24" s="40">
+      <c r="W24" s="34">
         <v>796637194</v>
       </c>
-      <c r="W24" s="48"/>
-      <c r="AB24" s="10"/>
+      <c r="X24" s="42"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24" s="10"/>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" s="10"/>
       <c r="B25" s="7">
         <v>2014</v>
@@ -3363,73 +3435,74 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.080085434624652</v>
       </c>
       <c r="F25" s="15">
+        <f t="shared" si="12"/>
+        <v>0.112009784784847</v>
+      </c>
+      <c r="G25" s="14">
+        <f t="shared" si="13"/>
+        <v>0.35635460067491</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" si="14"/>
+        <v>0.0720945826561604</v>
+      </c>
+      <c r="I25" s="13">
         <f t="shared" si="11"/>
-        <v>0.112009784784847</v>
-      </c>
-      <c r="G25" s="14">
-        <f t="shared" si="12"/>
-        <v>0.35635460067491</v>
-      </c>
-      <c r="H25" s="15">
-        <f t="shared" si="13"/>
-        <v>0.0720945826561604</v>
-      </c>
-      <c r="I25" s="13">
+        <v>0.328006614094497</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="15"/>
+        <v>0.139637431020141</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15">
         <f t="shared" si="10"/>
-        <v>0.328006614094497</v>
-      </c>
-      <c r="J25" s="15">
-        <f t="shared" si="14"/>
-        <v>0.139637431020141</v>
-      </c>
-      <c r="K25" s="15">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L25" s="15"/>
-      <c r="M25" s="22">
+      <c r="M25" s="15"/>
+      <c r="N25" s="22">
         <v>4058969587.71</v>
       </c>
-      <c r="N25" s="21">
-        <f t="shared" si="15"/>
+      <c r="O25" s="21">
+        <f t="shared" si="16"/>
         <v>1446432486.58</v>
       </c>
-      <c r="O25" s="22">
+      <c r="P25" s="22">
         <v>2612537101.13</v>
       </c>
-      <c r="P25" s="24">
+      <c r="Q25" s="29">
         <v>292629718.44</v>
       </c>
-      <c r="Q25" s="20">
+      <c r="R25" s="20">
         <v>32434625.12</v>
       </c>
-      <c r="R25" s="28">
+      <c r="S25" s="26">
         <v>51394587.66</v>
       </c>
-      <c r="S25" s="28">
+      <c r="T25" s="20">
         <v>334963620.08</v>
       </c>
-      <c r="T25" s="35">
+      <c r="U25" s="44">
         <v>2641896888.88</v>
       </c>
-      <c r="U25" s="40">
+      <c r="V25" s="34">
         <v>796637194</v>
       </c>
-      <c r="V25" s="40">
+      <c r="W25" s="34">
         <v>796637194</v>
       </c>
-      <c r="W25" s="48"/>
-      <c r="AB25" s="11"/>
+      <c r="X25" s="42"/>
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
       <c r="AF25" s="11"/>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25" s="11"/>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" s="10"/>
       <c r="B26" s="7">
         <v>2013</v>
@@ -3437,73 +3510,74 @@
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.0685897167369739</v>
       </c>
       <c r="F26" s="15">
+        <f t="shared" si="12"/>
+        <v>0.0923980798268776</v>
+      </c>
+      <c r="G26" s="14">
+        <f t="shared" si="13"/>
+        <v>0.354778424853162</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" si="14"/>
+        <v>0.0596172346064413</v>
+      </c>
+      <c r="I26" s="13">
         <f t="shared" si="11"/>
-        <v>0.0923980798268776</v>
-      </c>
-      <c r="G26" s="14">
-        <f t="shared" si="12"/>
-        <v>0.354778424853162</v>
-      </c>
-      <c r="H26" s="15">
-        <f t="shared" si="13"/>
-        <v>0.0596172346064413</v>
-      </c>
-      <c r="I26" s="13">
-        <f t="shared" si="10"/>
         <v>0.800068850009729</v>
       </c>
       <c r="J26" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.321404611520922</v>
       </c>
-      <c r="K26" s="15">
-        <f>(U26-U27)/U27</f>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15">
+        <f>(V26-V27)/V27</f>
         <v>0</v>
       </c>
-      <c r="L26" s="15"/>
-      <c r="M26" s="22">
+      <c r="M26" s="15"/>
+      <c r="N26" s="22">
         <v>3696122566.48</v>
       </c>
-      <c r="N26" s="21">
-        <f t="shared" si="15"/>
+      <c r="O26" s="21">
+        <f t="shared" si="16"/>
         <v>1311304542.2</v>
       </c>
-      <c r="O26" s="22">
+      <c r="P26" s="22">
         <v>2384818024.28</v>
       </c>
-      <c r="P26" s="24">
+      <c r="Q26" s="29">
         <v>220352606.18</v>
       </c>
-      <c r="Q26" s="20">
+      <c r="R26" s="20">
         <v>33163393.68</v>
       </c>
-      <c r="R26" s="28">
+      <c r="S26" s="26">
         <v>42004915.4</v>
       </c>
-      <c r="S26" s="28">
+      <c r="T26" s="20">
         <v>135067181.02</v>
       </c>
-      <c r="T26" s="35">
+      <c r="U26" s="44">
         <v>2318190695.54</v>
       </c>
-      <c r="U26" s="40">
+      <c r="V26" s="34">
         <v>796637194</v>
       </c>
-      <c r="V26" s="40">
+      <c r="W26" s="34">
         <v>796637194</v>
       </c>
-      <c r="W26" s="48"/>
-      <c r="AB26" s="10"/>
+      <c r="X26" s="42"/>
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AG26" s="10"/>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" s="10"/>
       <c r="B27" s="7">
         <v>2012</v>
@@ -3511,64 +3585,65 @@
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="12">
-        <f>(P27+Q27)/M27</f>
+        <f>(Q27+R27)/N27</f>
         <v>0.0468819626470807</v>
       </c>
       <c r="F27" s="15">
-        <f>P27/O27</f>
+        <f>Q27/P27</f>
         <v>0.0559079336901412</v>
       </c>
       <c r="G27" s="14">
-        <f>N27/M27</f>
+        <f>O27/N27</f>
         <v>0.373534101066837</v>
       </c>
       <c r="H27" s="15">
-        <f>P27/M27</f>
+        <f>Q27/N27</f>
         <v>0.03502441393669</v>
       </c>
-      <c r="I27" s="19"/>
+      <c r="I27" s="18"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
-      <c r="M27" s="22">
+      <c r="M27" s="15"/>
+      <c r="N27" s="22">
         <v>3495088667.33</v>
       </c>
-      <c r="N27" s="21">
-        <f t="shared" si="15"/>
+      <c r="O27" s="21">
+        <f t="shared" si="16"/>
         <v>1305534803.5</v>
       </c>
-      <c r="O27" s="22">
+      <c r="P27" s="22">
         <v>2189553863.83</v>
       </c>
-      <c r="P27" s="24">
+      <c r="Q27" s="29">
         <v>122413432.23</v>
       </c>
-      <c r="Q27" s="20">
+      <c r="R27" s="20">
         <v>41443184.12</v>
       </c>
-      <c r="R27" s="28">
+      <c r="S27" s="26">
         <v>22906699.05</v>
       </c>
-      <c r="S27" s="28">
+      <c r="T27" s="20">
         <v>242084618.48</v>
       </c>
-      <c r="T27" s="35">
+      <c r="U27" s="44">
         <v>1754338281.65</v>
       </c>
-      <c r="U27" s="40">
+      <c r="V27" s="34">
         <v>796637194</v>
       </c>
-      <c r="V27" s="40">
+      <c r="W27" s="34">
         <v>796637194</v>
       </c>
-      <c r="W27" s="48"/>
-      <c r="AB27" s="10"/>
+      <c r="X27" s="42"/>
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AG27" s="10"/>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" s="10"/>
       <c r="B28" s="7">
         <v>2011</v>
@@ -3583,24 +3658,25 @@
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="7"/>
+      <c r="M28" s="15"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="48"/>
-      <c r="AB28" s="10"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="42"/>
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AG28" s="10"/>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" s="11"/>
       <c r="B29" s="7">
         <v>2010</v>
@@ -3615,26 +3691,27 @@
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
-      <c r="M29" s="7"/>
+      <c r="M29" s="15"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="48"/>
-      <c r="AB29" s="10"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="42"/>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AG29" s="10"/>
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="7">
         <v>2023</v>
@@ -3646,72 +3723,73 @@
         <v>2016</v>
       </c>
       <c r="E30" s="12">
-        <f>(P30+Q30)/M30</f>
+        <f>(Q30+R30)/N30</f>
         <v>0.124292110925563</v>
       </c>
       <c r="F30" s="15">
-        <f>P30/O30</f>
+        <f>Q30/P30</f>
         <v>0.145233997925144</v>
       </c>
       <c r="G30" s="15">
-        <f>N30/M30</f>
+        <f>O30/N30</f>
         <v>0.144202436732955</v>
       </c>
       <c r="H30" s="15">
-        <f>P30/M30</f>
+        <f>Q30/N30</f>
         <v>0.124290901527869</v>
       </c>
       <c r="I30" s="13">
-        <f>(P30-P31)/P31</f>
+        <f>(Q30-Q31)/Q31</f>
         <v>0.542210500449144</v>
       </c>
       <c r="J30" s="15">
-        <f>(T30-T31)/T31</f>
+        <f>(U30-U31)/U31</f>
         <v>0.316164682857814</v>
       </c>
-      <c r="K30" s="15">
-        <f t="shared" ref="K30:K37" si="16">(U30-U31)/U31</f>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15">
+        <f t="shared" ref="L30:L37" si="17">(V30-V31)/V31</f>
         <v>0.0645826251064263</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="4">
         <v>4267793815.23</v>
       </c>
-      <c r="N30" s="21">
-        <f>M30-O30</f>
+      <c r="O30" s="21">
+        <f>N30-P30</f>
         <v>615426267.63</v>
       </c>
-      <c r="O30" s="4">
+      <c r="P30" s="4">
         <v>3652367547.6</v>
       </c>
-      <c r="P30" s="4">
+      <c r="Q30" s="4">
         <v>530447940.83</v>
       </c>
-      <c r="Q30" s="29">
+      <c r="R30" s="31">
         <v>5161.46</v>
       </c>
-      <c r="R30" s="29">
+      <c r="S30" s="31">
         <v>98762845.55</v>
       </c>
-      <c r="S30" s="29">
+      <c r="T30" s="31">
         <v>470030322.18</v>
       </c>
-      <c r="T30" s="4">
+      <c r="U30" s="4">
         <v>3206797965.72</v>
       </c>
-      <c r="U30" s="37">
+      <c r="V30" s="32">
         <v>1027821086</v>
       </c>
-      <c r="V30" s="37">
+      <c r="W30" s="32">
         <v>958538590</v>
       </c>
-      <c r="W30" s="48"/>
-      <c r="AB30" s="8"/>
+      <c r="X30" s="42"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
       <c r="AE30" s="8"/>
       <c r="AF30" s="8"/>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AG30" s="8"/>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" s="10"/>
       <c r="B31" s="7">
         <v>2022</v>
@@ -3719,73 +3797,74 @@
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="12">
-        <f>(P31+Q31)/M31</f>
+        <f>(Q31+R31)/N31</f>
         <v>0.108881967128426</v>
       </c>
       <c r="F31" s="15">
-        <f>P31/O31</f>
+        <f>Q31/P31</f>
         <v>0.146174949199638</v>
       </c>
       <c r="G31" s="15">
-        <f>N31/M31</f>
+        <f>O31/N31</f>
         <v>0.258094344897165</v>
       </c>
       <c r="H31" s="15">
-        <f>P31/M31</f>
+        <f>Q31/N31</f>
         <v>0.108448021445581</v>
       </c>
       <c r="I31" s="13">
-        <f t="shared" ref="I31:I39" si="17">(P31-P32)/P32</f>
+        <f t="shared" ref="I31:I39" si="18">(Q31-Q32)/Q32</f>
         <v>0.553525427321262</v>
       </c>
       <c r="J31" s="15">
-        <f>(T31-T32)/T32</f>
+        <f>(U31-U32)/U32</f>
         <v>0.265511357801264</v>
       </c>
-      <c r="K31" s="15">
-        <f t="shared" si="16"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15">
+        <f t="shared" si="17"/>
         <v>0.208675707551295</v>
       </c>
-      <c r="L31" s="15"/>
-      <c r="M31" s="22">
+      <c r="M31" s="15"/>
+      <c r="N31" s="22">
         <v>3171593207.19</v>
       </c>
-      <c r="N31" s="21">
-        <f>M31-O31</f>
+      <c r="O31" s="21">
+        <f>N31-P31</f>
         <v>818570271.09</v>
       </c>
-      <c r="O31" s="22">
+      <c r="P31" s="22">
         <v>2353022936.1</v>
       </c>
-      <c r="P31" s="22">
+      <c r="Q31" s="22">
         <v>343953008.15</v>
       </c>
-      <c r="Q31" s="29">
+      <c r="R31" s="31">
         <v>1376299.18</v>
       </c>
-      <c r="R31" s="29">
+      <c r="S31" s="31">
         <v>57707967.16</v>
       </c>
-      <c r="S31" s="29">
+      <c r="T31" s="31">
         <v>773383847.4</v>
       </c>
-      <c r="T31" s="34">
+      <c r="U31" s="43">
         <v>2436471672.19</v>
       </c>
-      <c r="U31" s="37">
+      <c r="V31" s="32">
         <v>965468590</v>
       </c>
-      <c r="V31" s="37">
+      <c r="W31" s="32">
         <v>958538590</v>
       </c>
-      <c r="W31" s="48"/>
-      <c r="AB31" s="10"/>
+      <c r="X31" s="42"/>
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AG31" s="10"/>
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" s="10"/>
       <c r="B32" s="7">
         <v>2021</v>
@@ -3793,73 +3872,74 @@
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="12">
-        <f t="shared" ref="E32:E40" si="18">(P32+Q32)/M32</f>
+        <f t="shared" ref="E32:E40" si="19">(Q32+R32)/N32</f>
         <v>0.0923400343109796</v>
       </c>
       <c r="F32" s="15">
-        <f t="shared" ref="F32:F40" si="19">P32/O32</f>
+        <f t="shared" ref="F32:F40" si="20">Q32/P32</f>
         <v>0.106734499493711</v>
       </c>
       <c r="G32" s="15">
-        <f t="shared" ref="G32:G40" si="20">N32/M32</f>
+        <f t="shared" ref="G32:G40" si="21">O32/N32</f>
         <v>0.134950903282766</v>
       </c>
       <c r="H32" s="15">
-        <f t="shared" ref="H32:H40" si="21">P32/M32</f>
+        <f t="shared" ref="H32:H40" si="22">Q32/N32</f>
         <v>0.0923305823756004</v>
       </c>
       <c r="I32" s="14">
+        <f t="shared" si="18"/>
+        <v>0.0758040630428128</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" ref="J32:J39" si="23">(U32-U33)/U33</f>
+        <v>0.137019947464054</v>
+      </c>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15">
         <f t="shared" si="17"/>
-        <v>0.0758040630428128</v>
-      </c>
-      <c r="J32" s="15">
-        <f t="shared" ref="J32:J39" si="22">(T32-T33)/T33</f>
-        <v>0.137019947464054</v>
-      </c>
-      <c r="K32" s="15">
-        <f t="shared" si="16"/>
         <v>0.199957601552533</v>
       </c>
-      <c r="L32" s="15"/>
-      <c r="M32" s="22">
+      <c r="M32" s="15"/>
+      <c r="N32" s="22">
         <v>2397922657.19</v>
       </c>
-      <c r="N32" s="21">
-        <f t="shared" ref="N32:N40" si="23">M32-O32</f>
+      <c r="O32" s="21">
+        <f t="shared" ref="O32:O40" si="24">N32-P32</f>
         <v>323601828.59</v>
       </c>
-      <c r="O32" s="22">
+      <c r="P32" s="22">
         <v>2074320828.6</v>
       </c>
-      <c r="P32" s="22">
+      <c r="Q32" s="22">
         <v>221401595.43</v>
       </c>
-      <c r="Q32" s="29">
+      <c r="R32" s="31">
         <v>22665.01</v>
       </c>
-      <c r="R32" s="29">
+      <c r="S32" s="31">
         <v>39840870.93</v>
       </c>
-      <c r="S32" s="29">
+      <c r="T32" s="31">
         <v>178187852.39</v>
       </c>
-      <c r="T32" s="34">
+      <c r="U32" s="43">
         <v>1925286294.09</v>
       </c>
-      <c r="U32" s="37">
+      <c r="V32" s="32">
         <v>798782158</v>
       </c>
-      <c r="V32" s="37">
+      <c r="W32" s="32">
         <v>794566246</v>
       </c>
-      <c r="W32" s="48"/>
-      <c r="AB32" s="10"/>
+      <c r="X32" s="42"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
       <c r="AE32" s="10"/>
       <c r="AF32" s="10"/>
-    </row>
-    <row r="33" spans="1:32">
+      <c r="AG32" s="10"/>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" s="10"/>
       <c r="B33" s="7">
         <v>2020</v>
@@ -3867,73 +3947,74 @@
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="12">
+        <f t="shared" si="19"/>
+        <v>0.0937074701353158</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" si="20"/>
+        <v>0.108435539151202</v>
+      </c>
+      <c r="G33" s="15">
+        <f t="shared" si="21"/>
+        <v>0.131587242538234</v>
+      </c>
+      <c r="H33" s="15">
+        <f t="shared" si="22"/>
+        <v>0.0941668055611486</v>
+      </c>
+      <c r="I33" s="14">
         <f t="shared" si="18"/>
-        <v>0.0937074701353158</v>
-      </c>
-      <c r="F33" s="15">
-        <f t="shared" si="19"/>
-        <v>0.108435539151202</v>
-      </c>
-      <c r="G33" s="15">
-        <f t="shared" si="20"/>
-        <v>0.131587242538234</v>
-      </c>
-      <c r="H33" s="15">
-        <f t="shared" si="21"/>
-        <v>0.0941668055611486</v>
-      </c>
-      <c r="I33" s="14">
+        <v>0.038067685806363</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="23"/>
+        <v>0.249512951393242</v>
+      </c>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15">
         <f t="shared" si="17"/>
-        <v>0.038067685806363</v>
-      </c>
-      <c r="J33" s="15">
-        <f t="shared" si="22"/>
-        <v>0.249512951393242</v>
-      </c>
-      <c r="K33" s="15">
-        <f t="shared" si="16"/>
         <v>0.428945553936482</v>
       </c>
-      <c r="L33" s="15"/>
-      <c r="M33" s="22">
+      <c r="M33" s="15"/>
+      <c r="N33" s="22">
         <v>2185494550.48</v>
       </c>
-      <c r="N33" s="21">
-        <f t="shared" si="23"/>
+      <c r="O33" s="21">
+        <f t="shared" si="24"/>
         <v>287583201.48</v>
       </c>
-      <c r="O33" s="22">
+      <c r="P33" s="22">
         <v>1897911349</v>
       </c>
-      <c r="P33" s="22">
+      <c r="Q33" s="22">
         <v>205801040.39</v>
       </c>
-      <c r="Q33" s="29">
+      <c r="R33" s="31">
         <v>-1003875.07</v>
       </c>
-      <c r="R33" s="29">
+      <c r="S33" s="31">
         <v>51143969.08</v>
       </c>
-      <c r="S33" s="29">
+      <c r="T33" s="31">
         <v>378030105.44</v>
       </c>
-      <c r="T33" s="34">
+      <c r="U33" s="43">
         <v>1693273982.03</v>
       </c>
-      <c r="U33" s="37">
+      <c r="V33" s="32">
         <v>665675318</v>
       </c>
-      <c r="V33" s="37">
+      <c r="W33" s="32">
         <v>659771876</v>
       </c>
-      <c r="W33" s="48"/>
-      <c r="AB33" s="10"/>
+      <c r="X33" s="42"/>
       <c r="AC33" s="10"/>
       <c r="AD33" s="10"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
-    </row>
-    <row r="34" spans="1:32">
+      <c r="AG33" s="10"/>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" s="10"/>
       <c r="B34" s="7">
         <v>2019</v>
@@ -3941,73 +4022,74 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="12">
+        <f t="shared" si="19"/>
+        <v>0.0971055801939866</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="20"/>
+        <v>0.12448980369023</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="21"/>
+        <v>0.225260853007811</v>
+      </c>
+      <c r="H34" s="15">
+        <f t="shared" si="22"/>
+        <v>0.096447124320194</v>
+      </c>
+      <c r="I34" s="14">
         <f t="shared" si="18"/>
-        <v>0.0971055801939866</v>
-      </c>
-      <c r="F34" s="15">
-        <f t="shared" si="19"/>
-        <v>0.12448980369023</v>
-      </c>
-      <c r="G34" s="15">
-        <f t="shared" si="20"/>
-        <v>0.225260853007811</v>
-      </c>
-      <c r="H34" s="15">
-        <f t="shared" si="21"/>
-        <v>0.096447124320194</v>
-      </c>
-      <c r="I34" s="14">
+        <v>-0.17402301476168</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="23"/>
+        <v>0.271906286261509</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15">
         <f t="shared" si="17"/>
-        <v>-0.17402301476168</v>
-      </c>
-      <c r="J34" s="15">
-        <f t="shared" si="22"/>
-        <v>0.271906286261509</v>
-      </c>
-      <c r="K34" s="15">
-        <f t="shared" si="16"/>
         <v>0.428101919470848</v>
       </c>
-      <c r="L34" s="15"/>
-      <c r="M34" s="22">
+      <c r="M34" s="15"/>
+      <c r="N34" s="22">
         <v>2055571609.08</v>
       </c>
-      <c r="N34" s="21">
-        <f t="shared" si="23"/>
+      <c r="O34" s="21">
+        <f t="shared" si="24"/>
         <v>463039814.08</v>
       </c>
-      <c r="O34" s="22">
+      <c r="P34" s="22">
         <v>1592531795</v>
       </c>
-      <c r="P34" s="22">
+      <c r="Q34" s="22">
         <v>198253970.53</v>
       </c>
-      <c r="Q34" s="29">
+      <c r="R34" s="31">
         <v>1353503.2</v>
       </c>
-      <c r="R34" s="29">
+      <c r="S34" s="31">
         <v>33750491.3</v>
       </c>
-      <c r="S34" s="29">
+      <c r="T34" s="31">
         <v>191991964.23</v>
       </c>
-      <c r="T34" s="34">
+      <c r="U34" s="43">
         <v>1355147203.67</v>
       </c>
-      <c r="U34" s="37">
+      <c r="V34" s="32">
         <v>465850722</v>
       </c>
-      <c r="V34" s="37">
+      <c r="W34" s="32">
         <v>459810506</v>
       </c>
-      <c r="W34" s="48"/>
-      <c r="AB34" s="10"/>
+      <c r="X34" s="42"/>
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
       <c r="AE34" s="10"/>
       <c r="AF34" s="10"/>
-    </row>
-    <row r="35" spans="1:32">
+      <c r="AG34" s="10"/>
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" s="10"/>
       <c r="B35" s="7">
         <v>2018</v>
@@ -4015,73 +4097,74 @@
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="12">
+        <f t="shared" si="19"/>
+        <v>0.125470247715255</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="20"/>
+        <v>0.1837137290892</v>
+      </c>
+      <c r="G35" s="16">
+        <f t="shared" si="21"/>
+        <v>0.323453266079702</v>
+      </c>
+      <c r="H35" s="15">
+        <f t="shared" si="22"/>
+        <v>0.124290923391616</v>
+      </c>
+      <c r="I35" s="13">
         <f t="shared" si="18"/>
-        <v>0.125470247715255</v>
-      </c>
-      <c r="F35" s="15">
-        <f t="shared" si="19"/>
-        <v>0.1837137290892</v>
-      </c>
-      <c r="G35" s="16">
-        <f t="shared" si="20"/>
-        <v>0.323453266079702</v>
-      </c>
-      <c r="H35" s="15">
-        <f t="shared" si="21"/>
-        <v>0.124290923391616</v>
-      </c>
-      <c r="I35" s="13">
+        <v>0.666142883870169</v>
+      </c>
+      <c r="J35" s="15">
+        <f t="shared" si="23"/>
+        <v>0.123689887095143</v>
+      </c>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15">
         <f t="shared" si="17"/>
-        <v>0.666142883870169</v>
-      </c>
-      <c r="J35" s="15">
-        <f t="shared" si="22"/>
-        <v>0.123689887095143</v>
-      </c>
-      <c r="K35" s="15">
-        <f t="shared" si="16"/>
         <v>0.00066725115127926</v>
       </c>
-      <c r="L35" s="15"/>
-      <c r="M35" s="22">
+      <c r="M35" s="15"/>
+      <c r="N35" s="22">
         <v>1931143438.96</v>
       </c>
-      <c r="N35" s="21">
-        <f t="shared" si="23"/>
+      <c r="O35" s="21">
+        <f t="shared" si="24"/>
         <v>624634652.6</v>
       </c>
-      <c r="O35" s="22">
+      <c r="P35" s="22">
         <v>1306508786.36</v>
       </c>
-      <c r="P35" s="22">
+      <c r="Q35" s="22">
         <v>240023601.23</v>
       </c>
-      <c r="Q35" s="29">
+      <c r="R35" s="31">
         <v>2277444.43</v>
       </c>
-      <c r="R35" s="29">
+      <c r="S35" s="31">
         <v>45130726.95</v>
       </c>
-      <c r="S35" s="29">
+      <c r="T35" s="31">
         <v>243412728.61</v>
       </c>
-      <c r="T35" s="34">
+      <c r="U35" s="43">
         <v>1065445794.48</v>
       </c>
-      <c r="U35" s="37">
+      <c r="V35" s="32">
         <v>326202714</v>
       </c>
-      <c r="V35" s="37">
+      <c r="W35" s="32">
         <v>134964546</v>
       </c>
-      <c r="W35" s="48"/>
-      <c r="AB35" s="10"/>
+      <c r="X35" s="42"/>
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
       <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AG35" s="10"/>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" s="10"/>
       <c r="B36" s="7">
         <v>2017</v>
@@ -4089,73 +4172,74 @@
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="12">
+        <f t="shared" si="19"/>
+        <v>0.121803221086439</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="20"/>
+        <v>0.135523232361733</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="21"/>
+        <v>0.111309125008419</v>
+      </c>
+      <c r="H36" s="15">
+        <f t="shared" si="22"/>
+        <v>0.120438259949236</v>
+      </c>
+      <c r="I36" s="13">
         <f t="shared" si="18"/>
-        <v>0.121803221086439</v>
-      </c>
-      <c r="F36" s="15">
-        <f t="shared" si="19"/>
-        <v>0.135523232361733</v>
-      </c>
-      <c r="G36" s="15">
-        <f t="shared" si="20"/>
-        <v>0.111309125008419</v>
-      </c>
-      <c r="H36" s="15">
-        <f t="shared" si="21"/>
-        <v>0.120438259949236</v>
-      </c>
-      <c r="I36" s="13">
+        <v>0.439319600747544</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="23"/>
+        <v>0.230010498376745</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15">
         <f t="shared" si="17"/>
-        <v>0.439319600747544</v>
-      </c>
-      <c r="J36" s="15">
-        <f t="shared" si="22"/>
-        <v>0.230010498376745</v>
-      </c>
-      <c r="K36" s="15">
-        <f t="shared" si="16"/>
         <v>1.0374075</v>
       </c>
-      <c r="L36" s="15"/>
-      <c r="M36" s="22">
+      <c r="M36" s="15"/>
+      <c r="N36" s="22">
         <v>1196126831.38</v>
       </c>
-      <c r="N36" s="21">
-        <f t="shared" si="23"/>
+      <c r="O36" s="21">
+        <f t="shared" si="24"/>
         <v>133139831</v>
       </c>
-      <c r="O36" s="22">
+      <c r="P36" s="22">
         <v>1062987000.38</v>
       </c>
-      <c r="P36" s="22">
+      <c r="Q36" s="22">
         <v>144059434.25</v>
       </c>
-      <c r="Q36" s="29">
+      <c r="R36" s="31">
         <v>1632666.64</v>
       </c>
-      <c r="R36" s="29">
+      <c r="S36" s="31">
         <v>26757461.94</v>
       </c>
-      <c r="S36" s="29">
+      <c r="T36" s="31">
         <v>174843670.03</v>
       </c>
-      <c r="T36" s="34">
+      <c r="U36" s="43">
         <v>948167111.51</v>
       </c>
-      <c r="U36" s="37">
+      <c r="V36" s="32">
         <v>325985200</v>
       </c>
-      <c r="V36" s="37">
+      <c r="W36" s="32">
         <v>133190272</v>
       </c>
-      <c r="W36" s="48"/>
-      <c r="AB36" s="10"/>
+      <c r="X36" s="42"/>
       <c r="AC36" s="10"/>
       <c r="AD36" s="10"/>
       <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
-    </row>
-    <row r="37" spans="1:32">
+      <c r="AG36" s="10"/>
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" s="10"/>
       <c r="B37" s="7">
         <v>2016</v>
@@ -4163,73 +4247,74 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="12">
+        <f t="shared" si="19"/>
+        <v>0.0988176824631842</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="20"/>
+        <v>0.112405921712588</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="21"/>
+        <v>0.132697880913633</v>
+      </c>
+      <c r="H37" s="15">
+        <f t="shared" si="22"/>
+        <v>0.0974898940991835</v>
+      </c>
+      <c r="I37" s="13">
         <f t="shared" si="18"/>
-        <v>0.0988176824631842</v>
-      </c>
-      <c r="F37" s="15">
-        <f t="shared" si="19"/>
-        <v>0.112405921712588</v>
-      </c>
-      <c r="G37" s="15">
-        <f t="shared" si="20"/>
-        <v>0.132697880913633</v>
-      </c>
-      <c r="H37" s="15">
-        <f t="shared" si="21"/>
-        <v>0.0974898940991835</v>
-      </c>
-      <c r="I37" s="13">
+        <v>0.504387235419186</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="23"/>
+        <v>0.236174394035559</v>
+      </c>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15">
         <f t="shared" si="17"/>
-        <v>0.504387235419186</v>
-      </c>
-      <c r="J37" s="15">
-        <f t="shared" si="22"/>
-        <v>0.236174394035559</v>
-      </c>
-      <c r="K37" s="15">
-        <f t="shared" si="16"/>
         <v>0.333333333333333</v>
       </c>
-      <c r="L37" s="15"/>
-      <c r="M37" s="22">
+      <c r="M37" s="15"/>
+      <c r="N37" s="22">
         <v>1026655803.71</v>
       </c>
-      <c r="N37" s="21">
-        <f t="shared" si="23"/>
+      <c r="O37" s="21">
+        <f t="shared" si="24"/>
         <v>136235049.58</v>
       </c>
-      <c r="O37" s="22">
+      <c r="P37" s="22">
         <v>890420754.13</v>
       </c>
-      <c r="P37" s="24">
+      <c r="Q37" s="29">
         <v>100088565.58</v>
       </c>
-      <c r="Q37" s="29">
+      <c r="R37" s="31">
         <v>1363181.63</v>
       </c>
-      <c r="R37" s="29">
+      <c r="S37" s="31">
         <v>21883612.08</v>
       </c>
-      <c r="S37" s="29">
+      <c r="T37" s="31">
         <v>69492005.89</v>
       </c>
-      <c r="T37" s="34">
+      <c r="U37" s="43">
         <v>770860990.83</v>
       </c>
-      <c r="U37" s="37">
+      <c r="V37" s="32">
         <v>160000000</v>
       </c>
-      <c r="V37" s="37">
+      <c r="W37" s="32">
         <v>40000000</v>
       </c>
-      <c r="W37" s="48"/>
-      <c r="AB37" s="10"/>
+      <c r="X37" s="42"/>
       <c r="AC37" s="10"/>
       <c r="AD37" s="10"/>
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
-    </row>
-    <row r="38" spans="1:32">
+      <c r="AG37" s="10"/>
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" s="10"/>
       <c r="B38" s="7">
         <v>2015</v>
@@ -4237,71 +4322,72 @@
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.102122372604976</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="20"/>
+        <v>0.142313135043809</v>
+      </c>
+      <c r="G38" s="14">
+        <f t="shared" si="21"/>
+        <v>0.35439373871199</v>
+      </c>
+      <c r="H38" s="15">
+        <f t="shared" si="22"/>
+        <v>0.0918782510478093</v>
+      </c>
+      <c r="I38" s="13">
         <f t="shared" si="18"/>
-        <v>0.102122372604976</v>
-      </c>
-      <c r="F38" s="15">
-        <f t="shared" si="19"/>
-        <v>0.142313135043809</v>
-      </c>
-      <c r="G38" s="14">
-        <f t="shared" si="20"/>
-        <v>0.35439373871199</v>
-      </c>
-      <c r="H38" s="15">
-        <f t="shared" si="21"/>
-        <v>0.0918782510478093</v>
-      </c>
-      <c r="I38" s="13">
-        <f t="shared" si="17"/>
         <v>0.256007377514907</v>
       </c>
       <c r="J38" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.0417807283033406</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
-      <c r="M38" s="22">
+      <c r="M38" s="15"/>
+      <c r="N38" s="22">
         <v>724122606.18</v>
       </c>
-      <c r="N38" s="21">
-        <f t="shared" si="23"/>
+      <c r="O38" s="21">
+        <f t="shared" si="24"/>
         <v>256624517.69</v>
       </c>
-      <c r="O38" s="22">
+      <c r="P38" s="22">
         <v>467498088.49</v>
       </c>
-      <c r="P38" s="24">
+      <c r="Q38" s="29">
         <v>66531118.6</v>
       </c>
-      <c r="Q38" s="29">
+      <c r="R38" s="31">
         <f>741.8*10000</f>
         <v>7418000</v>
       </c>
-      <c r="R38" s="29">
+      <c r="S38" s="31">
         <v>14353571.4</v>
       </c>
-      <c r="S38" s="29">
+      <c r="T38" s="31">
         <v>73033936.57</v>
       </c>
-      <c r="T38" s="29">
+      <c r="U38" s="31">
         <v>623585955.63</v>
       </c>
-      <c r="U38" s="37">
+      <c r="V38" s="32">
         <v>120000000</v>
       </c>
-      <c r="V38" s="37">
+      <c r="W38" s="32">
         <v>0</v>
       </c>
-      <c r="W38" s="48"/>
-      <c r="AB38" s="10"/>
+      <c r="X38" s="42"/>
       <c r="AC38" s="10"/>
       <c r="AD38" s="10"/>
       <c r="AE38" s="10"/>
       <c r="AF38" s="10"/>
-    </row>
-    <row r="39" spans="1:32">
+      <c r="AG38" s="10"/>
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" s="10"/>
       <c r="B39" s="7">
         <v>2014</v>
@@ -4309,67 +4395,68 @@
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="12">
+        <f t="shared" si="19"/>
+        <v>0.092404743820588</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" si="20"/>
+        <v>0.132106454316004</v>
+      </c>
+      <c r="G39" s="14">
+        <f t="shared" si="21"/>
+        <v>0.382219951042547</v>
+      </c>
+      <c r="H39" s="15">
+        <f t="shared" si="22"/>
+        <v>0.0816127318149368</v>
+      </c>
+      <c r="I39" s="14">
         <f t="shared" si="18"/>
-        <v>0.092404743820588</v>
-      </c>
-      <c r="F39" s="15">
-        <f t="shared" si="19"/>
-        <v>0.132106454316004</v>
-      </c>
-      <c r="G39" s="14">
-        <f t="shared" si="20"/>
-        <v>0.382219951042547</v>
-      </c>
-      <c r="H39" s="15">
-        <f t="shared" si="21"/>
-        <v>0.0816127318149368</v>
-      </c>
-      <c r="I39" s="14">
-        <f t="shared" si="17"/>
         <v>-0.248319190709499</v>
       </c>
       <c r="J39" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.0622324251897966</v>
       </c>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
-      <c r="M39" s="27">
+      <c r="M39" s="15"/>
+      <c r="N39" s="25">
         <v>649044867.29</v>
       </c>
-      <c r="N39" s="21">
-        <f t="shared" si="23"/>
+      <c r="O39" s="21">
+        <f t="shared" si="24"/>
         <v>248077897.4</v>
       </c>
-      <c r="O39" s="27">
+      <c r="P39" s="25">
         <v>400966969.89</v>
       </c>
-      <c r="P39" s="24">
+      <c r="Q39" s="29">
         <v>52970324.69</v>
       </c>
-      <c r="Q39" s="29">
+      <c r="R39" s="31">
         <f>700.45*10000</f>
         <v>7004500</v>
       </c>
-      <c r="R39" s="29">
+      <c r="S39" s="31">
         <v>11307733.43</v>
       </c>
-      <c r="S39" s="29">
+      <c r="T39" s="31">
         <v>99224680.07</v>
       </c>
-      <c r="T39" s="29">
+      <c r="U39" s="31">
         <v>650775844.37</v>
       </c>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="48"/>
-      <c r="AB39" s="11"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="42"/>
       <c r="AC39" s="11"/>
       <c r="AD39" s="11"/>
       <c r="AE39" s="11"/>
       <c r="AF39" s="11"/>
-    </row>
-    <row r="40" spans="1:32">
+      <c r="AG39" s="11"/>
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" s="10"/>
       <c r="B40" s="7">
         <v>2013</v>
@@ -4377,61 +4464,62 @@
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.143815880807212</v>
       </c>
       <c r="F40" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.195099189143853</v>
       </c>
       <c r="G40" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.30242869917021</v>
       </c>
       <c r="H40" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.136095595161915</v>
       </c>
       <c r="I40" s="12"/>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
-      <c r="M40" s="27">
+      <c r="M40" s="15"/>
+      <c r="N40" s="25">
         <v>517791722.18</v>
       </c>
-      <c r="N40" s="21">
-        <f t="shared" si="23"/>
+      <c r="O40" s="21">
+        <f t="shared" si="24"/>
         <v>156595076.98</v>
       </c>
-      <c r="O40" s="27">
+      <c r="P40" s="25">
         <v>361196645.2</v>
       </c>
-      <c r="P40" s="24">
+      <c r="Q40" s="29">
         <v>70469172.6</v>
       </c>
-      <c r="Q40" s="29">
+      <c r="R40" s="31">
         <f>399.75*10000</f>
         <v>3997500</v>
       </c>
-      <c r="R40" s="29">
+      <c r="S40" s="31">
         <v>13149040.82</v>
       </c>
-      <c r="S40" s="29">
+      <c r="T40" s="31">
         <v>90132165.69</v>
       </c>
-      <c r="T40" s="36">
+      <c r="U40" s="45">
         <v>612649198.93</v>
       </c>
-      <c r="U40" s="46"/>
-      <c r="V40" s="46"/>
-      <c r="W40" s="48"/>
-      <c r="AB40" s="10"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="42"/>
       <c r="AC40" s="10"/>
       <c r="AD40" s="10"/>
       <c r="AE40" s="10"/>
       <c r="AF40" s="10"/>
-    </row>
-    <row r="41" spans="1:32">
+      <c r="AG40" s="10"/>
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" s="10"/>
       <c r="B41" s="7">
         <v>2012</v>
@@ -4446,24 +4534,25 @@
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
-      <c r="M41" s="7"/>
+      <c r="M41" s="15"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="46"/>
-      <c r="W41" s="48"/>
-      <c r="AB41" s="10"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="42"/>
       <c r="AC41" s="10"/>
       <c r="AD41" s="10"/>
       <c r="AE41" s="10"/>
       <c r="AF41" s="10"/>
-    </row>
-    <row r="42" spans="1:32">
+      <c r="AG41" s="10"/>
+    </row>
+    <row r="42" spans="1:33">
       <c r="A42" s="10"/>
       <c r="B42" s="7">
         <v>2011</v>
@@ -4478,24 +4567,25 @@
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-      <c r="M42" s="7"/>
+      <c r="M42" s="15"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="48"/>
-      <c r="AB42" s="10"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="42"/>
       <c r="AC42" s="10"/>
       <c r="AD42" s="10"/>
       <c r="AE42" s="10"/>
       <c r="AF42" s="10"/>
-    </row>
-    <row r="43" spans="1:32">
+      <c r="AG42" s="10"/>
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" s="11"/>
       <c r="B43" s="7">
         <v>2010</v>
@@ -4510,26 +4600,27 @@
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
-      <c r="M43" s="7"/>
+      <c r="M43" s="15"/>
       <c r="N43" s="7"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="48"/>
-      <c r="AB43" s="10"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="42"/>
       <c r="AC43" s="10"/>
       <c r="AD43" s="10"/>
       <c r="AE43" s="10"/>
       <c r="AF43" s="10"/>
-    </row>
-    <row r="44" spans="1:32">
+      <c r="AG43" s="10"/>
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="7">
         <v>2023</v>
@@ -4544,24 +4635,25 @@
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
-      <c r="M44" s="7"/>
+      <c r="M44" s="15"/>
       <c r="N44" s="7"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="46"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="48"/>
-      <c r="AB44" s="8"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="42"/>
       <c r="AC44" s="8"/>
       <c r="AD44" s="8"/>
       <c r="AE44" s="8"/>
       <c r="AF44" s="8"/>
-    </row>
-    <row r="45" spans="1:32">
+      <c r="AG44" s="8"/>
+    </row>
+    <row r="45" spans="1:33">
       <c r="A45" s="7"/>
       <c r="B45" s="7">
         <v>2022</v>
@@ -4576,24 +4668,25 @@
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
-      <c r="M45" s="7"/>
+      <c r="M45" s="15"/>
       <c r="N45" s="7"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="46"/>
-      <c r="V45" s="46"/>
-      <c r="W45" s="48"/>
-      <c r="AB45" s="10"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="42"/>
       <c r="AC45" s="10"/>
       <c r="AD45" s="10"/>
       <c r="AE45" s="10"/>
       <c r="AF45" s="10"/>
-    </row>
-    <row r="46" spans="1:32">
+      <c r="AG45" s="10"/>
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" s="7"/>
       <c r="B46" s="7">
         <v>2021</v>
@@ -4608,24 +4701,25 @@
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
-      <c r="M46" s="7"/>
+      <c r="M46" s="15"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="46"/>
-      <c r="V46" s="46"/>
-      <c r="W46" s="48"/>
-      <c r="AB46" s="10"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="42"/>
       <c r="AC46" s="10"/>
       <c r="AD46" s="10"/>
       <c r="AE46" s="10"/>
       <c r="AF46" s="10"/>
-    </row>
-    <row r="47" spans="1:32">
+      <c r="AG46" s="10"/>
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" s="7"/>
       <c r="B47" s="7">
         <v>2020</v>
@@ -4640,24 +4734,25 @@
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
-      <c r="M47" s="7"/>
+      <c r="M47" s="15"/>
       <c r="N47" s="7"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="46"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="48"/>
-      <c r="AB47" s="10"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="42"/>
       <c r="AC47" s="10"/>
       <c r="AD47" s="10"/>
       <c r="AE47" s="10"/>
       <c r="AF47" s="10"/>
-    </row>
-    <row r="48" spans="1:32">
+      <c r="AG47" s="10"/>
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" s="7"/>
       <c r="B48" s="7">
         <v>2019</v>
@@ -4672,24 +4767,25 @@
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
-      <c r="M48" s="7"/>
+      <c r="M48" s="15"/>
       <c r="N48" s="7"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="48"/>
-      <c r="AB48" s="10"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="42"/>
       <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
       <c r="AE48" s="10"/>
       <c r="AF48" s="10"/>
-    </row>
-    <row r="49" spans="1:32">
+      <c r="AG48" s="10"/>
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" s="7"/>
       <c r="B49" s="7">
         <v>2018</v>
@@ -4704,24 +4800,25 @@
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
-      <c r="M49" s="7"/>
+      <c r="M49" s="15"/>
       <c r="N49" s="7"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="48"/>
-      <c r="AB49" s="10"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="42"/>
       <c r="AC49" s="10"/>
       <c r="AD49" s="10"/>
       <c r="AE49" s="10"/>
       <c r="AF49" s="10"/>
-    </row>
-    <row r="50" spans="1:32">
+      <c r="AG49" s="10"/>
+    </row>
+    <row r="50" spans="1:33">
       <c r="A50" s="7"/>
       <c r="B50" s="7">
         <v>2017</v>
@@ -4736,24 +4833,25 @@
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
-      <c r="M50" s="7"/>
+      <c r="M50" s="15"/>
       <c r="N50" s="7"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="25"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="48"/>
-      <c r="AB50" s="10"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="42"/>
       <c r="AC50" s="10"/>
       <c r="AD50" s="10"/>
       <c r="AE50" s="10"/>
       <c r="AF50" s="10"/>
-    </row>
-    <row r="51" spans="1:32">
+      <c r="AG50" s="10"/>
+    </row>
+    <row r="51" spans="1:33">
       <c r="A51" s="7"/>
       <c r="B51" s="7">
         <v>2016</v>
@@ -4768,24 +4866,25 @@
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
-      <c r="M51" s="7"/>
+      <c r="M51" s="15"/>
       <c r="N51" s="7"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="48"/>
-      <c r="AB51" s="10"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="42"/>
       <c r="AC51" s="10"/>
       <c r="AD51" s="10"/>
       <c r="AE51" s="10"/>
       <c r="AF51" s="10"/>
-    </row>
-    <row r="52" spans="1:32">
+      <c r="AG51" s="10"/>
+    </row>
+    <row r="52" spans="1:33">
       <c r="A52" s="7"/>
       <c r="B52" s="7">
         <v>2015</v>
@@ -4800,24 +4899,25 @@
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
       <c r="L52" s="15"/>
-      <c r="M52" s="7"/>
+      <c r="M52" s="15"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="25"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="48"/>
-      <c r="AB52" s="10"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="42"/>
       <c r="AC52" s="10"/>
       <c r="AD52" s="10"/>
       <c r="AE52" s="10"/>
       <c r="AF52" s="10"/>
-    </row>
-    <row r="53" spans="1:32">
+      <c r="AG52" s="10"/>
+    </row>
+    <row r="53" spans="1:33">
       <c r="A53" s="7"/>
       <c r="B53" s="7">
         <v>2014</v>
@@ -4832,26 +4932,27 @@
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
-      <c r="M53" s="7"/>
+      <c r="M53" s="15"/>
       <c r="N53" s="7"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="25"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="48"/>
-      <c r="AB53" s="11"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="42"/>
       <c r="AC53" s="11"/>
       <c r="AD53" s="11"/>
       <c r="AE53" s="11"/>
       <c r="AF53" s="11"/>
-    </row>
-    <row r="54" spans="1:32">
+      <c r="AG53" s="11"/>
+    </row>
+    <row r="54" spans="1:33">
       <c r="A54" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B54" s="7">
         <v>2023</v>
@@ -4866,24 +4967,25 @@
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
-      <c r="M54" s="7"/>
+      <c r="M54" s="15"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="25"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="48"/>
-      <c r="AB54" s="8"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="39"/>
+      <c r="X54" s="42"/>
       <c r="AC54" s="8"/>
       <c r="AD54" s="8"/>
       <c r="AE54" s="8"/>
       <c r="AF54" s="8"/>
-    </row>
-    <row r="55" spans="1:32">
+      <c r="AG54" s="8"/>
+    </row>
+    <row r="55" spans="1:33">
       <c r="A55" s="7"/>
       <c r="B55" s="7">
         <v>2022</v>
@@ -4896,31 +4998,32 @@
       <c r="H55" s="7"/>
       <c r="I55" s="12"/>
       <c r="J55" s="15">
-        <f>(T55-T56)/T56</f>
+        <f>(U55-U56)/U56</f>
         <v>0.328394500954267</v>
       </c>
       <c r="K55" s="15"/>
       <c r="L55" s="15"/>
-      <c r="M55" s="7"/>
+      <c r="M55" s="15"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29">
+      <c r="O55" s="7"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="31"/>
+      <c r="U55" s="31">
         <v>2690710152.71</v>
       </c>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="48"/>
-      <c r="AB55" s="10"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="42"/>
       <c r="AC55" s="10"/>
       <c r="AD55" s="10"/>
       <c r="AE55" s="10"/>
       <c r="AF55" s="10"/>
-    </row>
-    <row r="56" spans="1:32">
+      <c r="AG55" s="10"/>
+    </row>
+    <row r="56" spans="1:33">
       <c r="A56" s="7"/>
       <c r="B56" s="7">
         <v>2021</v>
@@ -4933,31 +5036,32 @@
       <c r="H56" s="7"/>
       <c r="I56" s="12"/>
       <c r="J56" s="15">
-        <f t="shared" ref="J56:J62" si="24">(T56-T57)/T57</f>
+        <f t="shared" ref="J56:J62" si="25">(U56-U57)/U57</f>
         <v>-0.143412163367192</v>
       </c>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
-      <c r="M56" s="7"/>
+      <c r="M56" s="15"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="29">
+      <c r="O56" s="7"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="31">
         <v>2025535449.58</v>
       </c>
-      <c r="U56" s="46"/>
-      <c r="V56" s="46"/>
-      <c r="W56" s="48"/>
-      <c r="AB56" s="10"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="42"/>
       <c r="AC56" s="10"/>
       <c r="AD56" s="10"/>
       <c r="AE56" s="10"/>
       <c r="AF56" s="10"/>
-    </row>
-    <row r="57" spans="1:32">
+      <c r="AG56" s="10"/>
+    </row>
+    <row r="57" spans="1:33">
       <c r="A57" s="7"/>
       <c r="B57" s="7">
         <v>2020</v>
@@ -4970,31 +5074,32 @@
       <c r="H57" s="7"/>
       <c r="I57" s="12"/>
       <c r="J57" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.36896660405246</v>
       </c>
       <c r="K57" s="15"/>
       <c r="L57" s="15"/>
-      <c r="M57" s="7"/>
+      <c r="M57" s="15"/>
       <c r="N57" s="7"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29">
+      <c r="O57" s="7"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="31"/>
+      <c r="U57" s="31">
         <v>2364655862.43</v>
       </c>
-      <c r="U57" s="46"/>
-      <c r="V57" s="46"/>
-      <c r="W57" s="48"/>
-      <c r="AB57" s="10"/>
+      <c r="V57" s="39"/>
+      <c r="W57" s="39"/>
+      <c r="X57" s="42"/>
       <c r="AC57" s="10"/>
       <c r="AD57" s="10"/>
       <c r="AE57" s="10"/>
       <c r="AF57" s="10"/>
-    </row>
-    <row r="58" spans="1:32">
+      <c r="AG57" s="10"/>
+    </row>
+    <row r="58" spans="1:33">
       <c r="A58" s="7"/>
       <c r="B58" s="7">
         <v>2019</v>
@@ -5007,31 +5112,32 @@
       <c r="H58" s="7"/>
       <c r="I58" s="12"/>
       <c r="J58" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.222575353222556</v>
       </c>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
-      <c r="M58" s="7"/>
+      <c r="M58" s="15"/>
       <c r="N58" s="7"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="29">
+      <c r="O58" s="7"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="31">
         <v>1727329107.54</v>
       </c>
-      <c r="U58" s="46"/>
-      <c r="V58" s="46"/>
-      <c r="W58" s="48"/>
-      <c r="AB58" s="10"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="39"/>
+      <c r="X58" s="42"/>
       <c r="AC58" s="10"/>
       <c r="AD58" s="10"/>
       <c r="AE58" s="10"/>
       <c r="AF58" s="10"/>
-    </row>
-    <row r="59" spans="1:32">
+      <c r="AG58" s="10"/>
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" s="7"/>
       <c r="B59" s="7">
         <v>2018</v>
@@ -5044,31 +5150,32 @@
       <c r="H59" s="7"/>
       <c r="I59" s="12"/>
       <c r="J59" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.325614220708547</v>
       </c>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
-      <c r="M59" s="7"/>
+      <c r="M59" s="15"/>
       <c r="N59" s="7"/>
-      <c r="O59" s="25"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29">
+      <c r="O59" s="7"/>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="31">
         <v>1412861058.41</v>
       </c>
-      <c r="U59" s="46"/>
-      <c r="V59" s="46"/>
-      <c r="W59" s="48"/>
-      <c r="AB59" s="10"/>
+      <c r="V59" s="39"/>
+      <c r="W59" s="39"/>
+      <c r="X59" s="42"/>
       <c r="AC59" s="10"/>
       <c r="AD59" s="10"/>
       <c r="AE59" s="10"/>
       <c r="AF59" s="10"/>
-    </row>
-    <row r="60" spans="1:32">
+      <c r="AG59" s="10"/>
+    </row>
+    <row r="60" spans="1:33">
       <c r="A60" s="7"/>
       <c r="B60" s="7">
         <v>2017</v>
@@ -5081,31 +5188,32 @@
       <c r="H60" s="7"/>
       <c r="I60" s="12"/>
       <c r="J60" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.0832576082351315</v>
       </c>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
-      <c r="M60" s="7"/>
+      <c r="M60" s="15"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="29">
+      <c r="O60" s="7"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="31"/>
+      <c r="U60" s="31">
         <v>1065816160.04</v>
       </c>
-      <c r="U60" s="46"/>
-      <c r="V60" s="46"/>
-      <c r="W60" s="48"/>
-      <c r="AB60" s="10"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="42"/>
       <c r="AC60" s="10"/>
       <c r="AD60" s="10"/>
       <c r="AE60" s="10"/>
       <c r="AF60" s="10"/>
-    </row>
-    <row r="61" spans="1:32">
+      <c r="AG60" s="10"/>
+    </row>
+    <row r="61" spans="1:33">
       <c r="A61" s="7"/>
       <c r="B61" s="7">
         <v>2016</v>
@@ -5120,26 +5228,27 @@
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
-      <c r="M61" s="7"/>
+      <c r="M61" s="15"/>
       <c r="N61" s="7"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="29"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="29">
+      <c r="O61" s="7"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="31"/>
+      <c r="U61" s="31">
         <v>983899076.21</v>
       </c>
-      <c r="U61" s="46"/>
-      <c r="V61" s="46"/>
-      <c r="W61" s="48"/>
-      <c r="AB61" s="10"/>
+      <c r="V61" s="39"/>
+      <c r="W61" s="39"/>
+      <c r="X61" s="42"/>
       <c r="AC61" s="10"/>
       <c r="AD61" s="10"/>
       <c r="AE61" s="10"/>
       <c r="AF61" s="10"/>
-    </row>
-    <row r="62" spans="1:32">
+      <c r="AG61" s="10"/>
+    </row>
+    <row r="62" spans="1:33">
       <c r="A62" s="7"/>
       <c r="B62" s="7">
         <v>2015</v>
@@ -5154,24 +5263,25 @@
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
-      <c r="M62" s="7"/>
+      <c r="M62" s="15"/>
       <c r="N62" s="7"/>
-      <c r="O62" s="25"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="29"/>
-      <c r="R62" s="29"/>
-      <c r="S62" s="29"/>
-      <c r="T62" s="29"/>
-      <c r="U62" s="46"/>
-      <c r="V62" s="46"/>
-      <c r="W62" s="48"/>
-      <c r="AB62" s="10"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="31"/>
+      <c r="U62" s="31"/>
+      <c r="V62" s="39"/>
+      <c r="W62" s="39"/>
+      <c r="X62" s="42"/>
       <c r="AC62" s="10"/>
       <c r="AD62" s="10"/>
       <c r="AE62" s="10"/>
       <c r="AF62" s="10"/>
-    </row>
-    <row r="63" spans="1:32">
+      <c r="AG62" s="10"/>
+    </row>
+    <row r="63" spans="1:33">
       <c r="A63" s="7"/>
       <c r="B63" s="7">
         <v>2014</v>
@@ -5186,26 +5296,27 @@
       <c r="J63" s="15"/>
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
-      <c r="M63" s="7"/>
+      <c r="M63" s="15"/>
       <c r="N63" s="7"/>
-      <c r="O63" s="25"/>
-      <c r="P63" s="25"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="29"/>
-      <c r="S63" s="29"/>
-      <c r="T63" s="29"/>
-      <c r="U63" s="46"/>
-      <c r="V63" s="46"/>
-      <c r="W63" s="48"/>
-      <c r="AB63" s="11"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="31"/>
+      <c r="U63" s="31"/>
+      <c r="V63" s="39"/>
+      <c r="W63" s="39"/>
+      <c r="X63" s="42"/>
       <c r="AC63" s="11"/>
       <c r="AD63" s="11"/>
       <c r="AE63" s="11"/>
       <c r="AF63" s="11"/>
-    </row>
-    <row r="64" spans="1:32">
+      <c r="AG63" s="11"/>
+    </row>
+    <row r="64" spans="1:33">
       <c r="A64" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B64" s="7">
         <v>2023</v>
@@ -5220,24 +5331,25 @@
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
       <c r="L64" s="15"/>
-      <c r="M64" s="7"/>
+      <c r="M64" s="15"/>
       <c r="N64" s="7"/>
-      <c r="O64" s="25"/>
-      <c r="P64" s="25"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="29"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="25"/>
-      <c r="U64" s="46"/>
-      <c r="V64" s="46"/>
-      <c r="W64" s="48"/>
-      <c r="AB64" s="8"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="31"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="39"/>
+      <c r="W64" s="39"/>
+      <c r="X64" s="42"/>
       <c r="AC64" s="8"/>
       <c r="AD64" s="8"/>
       <c r="AE64" s="8"/>
       <c r="AF64" s="8"/>
-    </row>
-    <row r="65" spans="1:32">
+      <c r="AG64" s="8"/>
+    </row>
+    <row r="65" spans="1:33">
       <c r="A65" s="7"/>
       <c r="B65" s="7">
         <v>2022</v>
@@ -5252,24 +5364,25 @@
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
       <c r="L65" s="15"/>
-      <c r="M65" s="7"/>
+      <c r="M65" s="15"/>
       <c r="N65" s="7"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="29"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="25"/>
-      <c r="U65" s="46"/>
-      <c r="V65" s="46"/>
-      <c r="W65" s="48"/>
-      <c r="AB65" s="10"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="23"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="31"/>
+      <c r="U65" s="23"/>
+      <c r="V65" s="39"/>
+      <c r="W65" s="39"/>
+      <c r="X65" s="42"/>
       <c r="AC65" s="10"/>
       <c r="AD65" s="10"/>
       <c r="AE65" s="10"/>
       <c r="AF65" s="10"/>
-    </row>
-    <row r="66" spans="1:32">
+      <c r="AG65" s="10"/>
+    </row>
+    <row r="66" spans="1:33">
       <c r="A66" s="7"/>
       <c r="B66" s="7">
         <v>2021</v>
@@ -5284,24 +5397,25 @@
       <c r="J66" s="15"/>
       <c r="K66" s="15"/>
       <c r="L66" s="15"/>
-      <c r="M66" s="7"/>
+      <c r="M66" s="15"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="29"/>
-      <c r="S66" s="29"/>
-      <c r="T66" s="25"/>
-      <c r="U66" s="46"/>
-      <c r="V66" s="46"/>
-      <c r="W66" s="48"/>
-      <c r="AB66" s="10"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="31"/>
+      <c r="S66" s="31"/>
+      <c r="T66" s="31"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="39"/>
+      <c r="W66" s="39"/>
+      <c r="X66" s="42"/>
       <c r="AC66" s="10"/>
       <c r="AD66" s="10"/>
       <c r="AE66" s="10"/>
       <c r="AF66" s="10"/>
-    </row>
-    <row r="67" spans="1:32">
+      <c r="AG66" s="10"/>
+    </row>
+    <row r="67" spans="1:33">
       <c r="A67" s="7"/>
       <c r="B67" s="7">
         <v>2020</v>
@@ -5316,24 +5430,25 @@
       <c r="J67" s="15"/>
       <c r="K67" s="15"/>
       <c r="L67" s="15"/>
-      <c r="M67" s="7"/>
+      <c r="M67" s="15"/>
       <c r="N67" s="7"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="25"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="29"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="25"/>
-      <c r="U67" s="46"/>
-      <c r="V67" s="46"/>
-      <c r="W67" s="48"/>
-      <c r="AB67" s="10"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="31"/>
+      <c r="S67" s="31"/>
+      <c r="T67" s="31"/>
+      <c r="U67" s="23"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
+      <c r="X67" s="42"/>
       <c r="AC67" s="10"/>
       <c r="AD67" s="10"/>
       <c r="AE67" s="10"/>
       <c r="AF67" s="10"/>
-    </row>
-    <row r="68" spans="1:32">
+      <c r="AG67" s="10"/>
+    </row>
+    <row r="68" spans="1:33">
       <c r="A68" s="7"/>
       <c r="B68" s="7">
         <v>2019</v>
@@ -5348,24 +5463,25 @@
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
       <c r="L68" s="15"/>
-      <c r="M68" s="7"/>
+      <c r="M68" s="15"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="25"/>
-      <c r="P68" s="25"/>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="29"/>
-      <c r="S68" s="29"/>
-      <c r="T68" s="25"/>
-      <c r="U68" s="46"/>
-      <c r="V68" s="46"/>
-      <c r="W68" s="48"/>
-      <c r="AB68" s="10"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="23"/>
+      <c r="Q68" s="23"/>
+      <c r="R68" s="31"/>
+      <c r="S68" s="31"/>
+      <c r="T68" s="31"/>
+      <c r="U68" s="23"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+      <c r="X68" s="42"/>
       <c r="AC68" s="10"/>
       <c r="AD68" s="10"/>
       <c r="AE68" s="10"/>
       <c r="AF68" s="10"/>
-    </row>
-    <row r="69" spans="1:32">
+      <c r="AG68" s="10"/>
+    </row>
+    <row r="69" spans="1:33">
       <c r="A69" s="7"/>
       <c r="B69" s="7">
         <v>2018</v>
@@ -5380,24 +5496,25 @@
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
       <c r="L69" s="15"/>
-      <c r="M69" s="7"/>
+      <c r="M69" s="15"/>
       <c r="N69" s="7"/>
-      <c r="O69" s="25"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="29"/>
-      <c r="S69" s="29"/>
-      <c r="T69" s="25"/>
-      <c r="U69" s="46"/>
-      <c r="V69" s="46"/>
-      <c r="W69" s="48"/>
-      <c r="AB69" s="10"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="31"/>
+      <c r="S69" s="31"/>
+      <c r="T69" s="31"/>
+      <c r="U69" s="23"/>
+      <c r="V69" s="39"/>
+      <c r="W69" s="39"/>
+      <c r="X69" s="42"/>
       <c r="AC69" s="10"/>
       <c r="AD69" s="10"/>
       <c r="AE69" s="10"/>
       <c r="AF69" s="10"/>
-    </row>
-    <row r="70" spans="1:32">
+      <c r="AG69" s="10"/>
+    </row>
+    <row r="70" spans="1:33">
       <c r="A70" s="7"/>
       <c r="B70" s="7">
         <v>2017</v>
@@ -5412,24 +5529,25 @@
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
       <c r="L70" s="15"/>
-      <c r="M70" s="7"/>
+      <c r="M70" s="15"/>
       <c r="N70" s="7"/>
-      <c r="O70" s="25"/>
-      <c r="P70" s="25"/>
-      <c r="Q70" s="29"/>
-      <c r="R70" s="29"/>
-      <c r="S70" s="29"/>
-      <c r="T70" s="25"/>
-      <c r="U70" s="46"/>
-      <c r="V70" s="46"/>
-      <c r="W70" s="48"/>
-      <c r="AB70" s="10"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="23"/>
+      <c r="Q70" s="23"/>
+      <c r="R70" s="31"/>
+      <c r="S70" s="31"/>
+      <c r="T70" s="31"/>
+      <c r="U70" s="23"/>
+      <c r="V70" s="39"/>
+      <c r="W70" s="39"/>
+      <c r="X70" s="42"/>
       <c r="AC70" s="10"/>
       <c r="AD70" s="10"/>
       <c r="AE70" s="10"/>
       <c r="AF70" s="10"/>
-    </row>
-    <row r="71" spans="1:32">
+      <c r="AG70" s="10"/>
+    </row>
+    <row r="71" spans="1:33">
       <c r="A71" s="7"/>
       <c r="B71" s="7">
         <v>2016</v>
@@ -5444,24 +5562,25 @@
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
       <c r="L71" s="15"/>
-      <c r="M71" s="7"/>
+      <c r="M71" s="15"/>
       <c r="N71" s="7"/>
-      <c r="O71" s="25"/>
-      <c r="P71" s="25"/>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="29"/>
-      <c r="S71" s="29"/>
-      <c r="T71" s="25"/>
-      <c r="U71" s="46"/>
-      <c r="V71" s="46"/>
-      <c r="W71" s="48"/>
-      <c r="AB71" s="10"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="23"/>
+      <c r="R71" s="31"/>
+      <c r="S71" s="31"/>
+      <c r="T71" s="31"/>
+      <c r="U71" s="23"/>
+      <c r="V71" s="39"/>
+      <c r="W71" s="39"/>
+      <c r="X71" s="42"/>
       <c r="AC71" s="10"/>
       <c r="AD71" s="10"/>
       <c r="AE71" s="10"/>
       <c r="AF71" s="10"/>
-    </row>
-    <row r="72" spans="1:32">
+      <c r="AG71" s="10"/>
+    </row>
+    <row r="72" spans="1:33">
       <c r="A72" s="7"/>
       <c r="B72" s="7">
         <v>2015</v>
@@ -5476,24 +5595,25 @@
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
-      <c r="M72" s="7"/>
+      <c r="M72" s="15"/>
       <c r="N72" s="7"/>
-      <c r="O72" s="25"/>
-      <c r="P72" s="25"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="29"/>
-      <c r="S72" s="29"/>
-      <c r="T72" s="25"/>
-      <c r="U72" s="46"/>
-      <c r="V72" s="46"/>
-      <c r="W72" s="48"/>
-      <c r="AB72" s="10"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="31"/>
+      <c r="S72" s="31"/>
+      <c r="T72" s="31"/>
+      <c r="U72" s="23"/>
+      <c r="V72" s="39"/>
+      <c r="W72" s="39"/>
+      <c r="X72" s="42"/>
       <c r="AC72" s="10"/>
       <c r="AD72" s="10"/>
       <c r="AE72" s="10"/>
       <c r="AF72" s="10"/>
-    </row>
-    <row r="73" spans="1:32">
+      <c r="AG72" s="10"/>
+    </row>
+    <row r="73" spans="1:33">
       <c r="A73" s="7"/>
       <c r="B73" s="7">
         <v>2014</v>
@@ -5508,26 +5628,27 @@
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
       <c r="L73" s="15"/>
-      <c r="M73" s="7"/>
+      <c r="M73" s="15"/>
       <c r="N73" s="7"/>
-      <c r="O73" s="25"/>
-      <c r="P73" s="25"/>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="29"/>
-      <c r="S73" s="29"/>
-      <c r="T73" s="25"/>
-      <c r="U73" s="46"/>
-      <c r="V73" s="46"/>
-      <c r="W73" s="48"/>
-      <c r="AB73" s="11"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="23"/>
+      <c r="Q73" s="23"/>
+      <c r="R73" s="31"/>
+      <c r="S73" s="31"/>
+      <c r="T73" s="31"/>
+      <c r="U73" s="23"/>
+      <c r="V73" s="39"/>
+      <c r="W73" s="39"/>
+      <c r="X73" s="42"/>
       <c r="AC73" s="11"/>
       <c r="AD73" s="11"/>
       <c r="AE73" s="11"/>
       <c r="AF73" s="11"/>
-    </row>
-    <row r="74" spans="1:32">
+      <c r="AG73" s="11"/>
+    </row>
+    <row r="74" spans="1:33">
       <c r="A74" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B74" s="7">
         <v>2023</v>
@@ -5542,24 +5663,25 @@
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
       <c r="L74" s="15"/>
-      <c r="M74" s="7"/>
+      <c r="M74" s="15"/>
       <c r="N74" s="7"/>
-      <c r="O74" s="25"/>
-      <c r="P74" s="25"/>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="29"/>
-      <c r="S74" s="29"/>
-      <c r="T74" s="25"/>
-      <c r="U74" s="46"/>
-      <c r="V74" s="46"/>
-      <c r="W74" s="48"/>
-      <c r="AB74" s="8"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="31"/>
+      <c r="S74" s="31"/>
+      <c r="T74" s="31"/>
+      <c r="U74" s="23"/>
+      <c r="V74" s="39"/>
+      <c r="W74" s="39"/>
+      <c r="X74" s="42"/>
       <c r="AC74" s="8"/>
       <c r="AD74" s="8"/>
       <c r="AE74" s="8"/>
       <c r="AF74" s="8"/>
-    </row>
-    <row r="75" spans="1:32">
+      <c r="AG74" s="8"/>
+    </row>
+    <row r="75" spans="1:33">
       <c r="A75" s="7"/>
       <c r="B75" s="7">
         <v>2022</v>
@@ -5574,24 +5696,25 @@
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
       <c r="L75" s="15"/>
-      <c r="M75" s="7"/>
+      <c r="M75" s="15"/>
       <c r="N75" s="7"/>
-      <c r="O75" s="25"/>
-      <c r="P75" s="25"/>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="29"/>
-      <c r="S75" s="29"/>
-      <c r="T75" s="25"/>
-      <c r="U75" s="46"/>
-      <c r="V75" s="46"/>
-      <c r="W75" s="48"/>
-      <c r="AB75" s="10"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="31"/>
+      <c r="S75" s="31"/>
+      <c r="T75" s="31"/>
+      <c r="U75" s="23"/>
+      <c r="V75" s="39"/>
+      <c r="W75" s="39"/>
+      <c r="X75" s="42"/>
       <c r="AC75" s="10"/>
       <c r="AD75" s="10"/>
       <c r="AE75" s="10"/>
       <c r="AF75" s="10"/>
-    </row>
-    <row r="76" spans="1:32">
+      <c r="AG75" s="10"/>
+    </row>
+    <row r="76" spans="1:33">
       <c r="A76" s="7"/>
       <c r="B76" s="7">
         <v>2021</v>
@@ -5606,24 +5729,25 @@
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
       <c r="L76" s="15"/>
-      <c r="M76" s="7"/>
+      <c r="M76" s="15"/>
       <c r="N76" s="7"/>
-      <c r="O76" s="25"/>
-      <c r="P76" s="25"/>
-      <c r="Q76" s="29"/>
-      <c r="R76" s="29"/>
-      <c r="S76" s="29"/>
-      <c r="T76" s="25"/>
-      <c r="U76" s="46"/>
-      <c r="V76" s="46"/>
-      <c r="W76" s="48"/>
-      <c r="AB76" s="10"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="23"/>
+      <c r="Q76" s="23"/>
+      <c r="R76" s="31"/>
+      <c r="S76" s="31"/>
+      <c r="T76" s="31"/>
+      <c r="U76" s="23"/>
+      <c r="V76" s="39"/>
+      <c r="W76" s="39"/>
+      <c r="X76" s="42"/>
       <c r="AC76" s="10"/>
       <c r="AD76" s="10"/>
       <c r="AE76" s="10"/>
       <c r="AF76" s="10"/>
-    </row>
-    <row r="77" spans="1:32">
+      <c r="AG76" s="10"/>
+    </row>
+    <row r="77" spans="1:33">
       <c r="A77" s="7"/>
       <c r="B77" s="7">
         <v>2020</v>
@@ -5638,24 +5762,25 @@
       <c r="J77" s="15"/>
       <c r="K77" s="15"/>
       <c r="L77" s="15"/>
-      <c r="M77" s="7"/>
+      <c r="M77" s="15"/>
       <c r="N77" s="7"/>
-      <c r="O77" s="25"/>
-      <c r="P77" s="25"/>
-      <c r="Q77" s="29"/>
-      <c r="R77" s="29"/>
-      <c r="S77" s="29"/>
-      <c r="T77" s="25"/>
-      <c r="U77" s="46"/>
-      <c r="V77" s="46"/>
-      <c r="W77" s="48"/>
-      <c r="AB77" s="10"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="31"/>
+      <c r="S77" s="31"/>
+      <c r="T77" s="31"/>
+      <c r="U77" s="23"/>
+      <c r="V77" s="39"/>
+      <c r="W77" s="39"/>
+      <c r="X77" s="42"/>
       <c r="AC77" s="10"/>
       <c r="AD77" s="10"/>
       <c r="AE77" s="10"/>
       <c r="AF77" s="10"/>
-    </row>
-    <row r="78" spans="1:32">
+      <c r="AG77" s="10"/>
+    </row>
+    <row r="78" spans="1:33">
       <c r="A78" s="7"/>
       <c r="B78" s="7">
         <v>2019</v>
@@ -5670,24 +5795,25 @@
       <c r="J78" s="15"/>
       <c r="K78" s="15"/>
       <c r="L78" s="15"/>
-      <c r="M78" s="7"/>
+      <c r="M78" s="15"/>
       <c r="N78" s="7"/>
-      <c r="O78" s="25"/>
-      <c r="P78" s="25"/>
-      <c r="Q78" s="29"/>
-      <c r="R78" s="29"/>
-      <c r="S78" s="29"/>
-      <c r="T78" s="25"/>
-      <c r="U78" s="46"/>
-      <c r="V78" s="46"/>
-      <c r="W78" s="48"/>
-      <c r="AB78" s="10"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="31"/>
+      <c r="S78" s="31"/>
+      <c r="T78" s="31"/>
+      <c r="U78" s="23"/>
+      <c r="V78" s="39"/>
+      <c r="W78" s="39"/>
+      <c r="X78" s="42"/>
       <c r="AC78" s="10"/>
       <c r="AD78" s="10"/>
       <c r="AE78" s="10"/>
       <c r="AF78" s="10"/>
-    </row>
-    <row r="79" spans="1:32">
+      <c r="AG78" s="10"/>
+    </row>
+    <row r="79" spans="1:33">
       <c r="A79" s="7"/>
       <c r="B79" s="7">
         <v>2018</v>
@@ -5702,24 +5828,25 @@
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
       <c r="L79" s="15"/>
-      <c r="M79" s="7"/>
+      <c r="M79" s="15"/>
       <c r="N79" s="7"/>
-      <c r="O79" s="25"/>
-      <c r="P79" s="25"/>
-      <c r="Q79" s="29"/>
-      <c r="R79" s="29"/>
-      <c r="S79" s="29"/>
-      <c r="T79" s="25"/>
-      <c r="U79" s="46"/>
-      <c r="V79" s="46"/>
-      <c r="W79" s="48"/>
-      <c r="AB79" s="10"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="23"/>
+      <c r="Q79" s="23"/>
+      <c r="R79" s="31"/>
+      <c r="S79" s="31"/>
+      <c r="T79" s="31"/>
+      <c r="U79" s="23"/>
+      <c r="V79" s="39"/>
+      <c r="W79" s="39"/>
+      <c r="X79" s="42"/>
       <c r="AC79" s="10"/>
       <c r="AD79" s="10"/>
       <c r="AE79" s="10"/>
       <c r="AF79" s="10"/>
-    </row>
-    <row r="80" spans="1:32">
+      <c r="AG79" s="10"/>
+    </row>
+    <row r="80" spans="1:33">
       <c r="A80" s="7"/>
       <c r="B80" s="7">
         <v>2017</v>
@@ -5734,24 +5861,25 @@
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
       <c r="L80" s="15"/>
-      <c r="M80" s="7"/>
+      <c r="M80" s="15"/>
       <c r="N80" s="7"/>
-      <c r="O80" s="25"/>
-      <c r="P80" s="25"/>
-      <c r="Q80" s="29"/>
-      <c r="R80" s="29"/>
-      <c r="S80" s="29"/>
-      <c r="T80" s="25"/>
-      <c r="U80" s="46"/>
-      <c r="V80" s="46"/>
-      <c r="W80" s="48"/>
-      <c r="AB80" s="10"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="23"/>
+      <c r="Q80" s="23"/>
+      <c r="R80" s="31"/>
+      <c r="S80" s="31"/>
+      <c r="T80" s="31"/>
+      <c r="U80" s="23"/>
+      <c r="V80" s="39"/>
+      <c r="W80" s="39"/>
+      <c r="X80" s="42"/>
       <c r="AC80" s="10"/>
       <c r="AD80" s="10"/>
       <c r="AE80" s="10"/>
       <c r="AF80" s="10"/>
-    </row>
-    <row r="81" spans="1:32">
+      <c r="AG80" s="10"/>
+    </row>
+    <row r="81" spans="1:33">
       <c r="A81" s="7"/>
       <c r="B81" s="7">
         <v>2016</v>
@@ -5766,24 +5894,25 @@
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
       <c r="L81" s="15"/>
-      <c r="M81" s="7"/>
+      <c r="M81" s="15"/>
       <c r="N81" s="7"/>
-      <c r="O81" s="25"/>
-      <c r="P81" s="25"/>
-      <c r="Q81" s="29"/>
-      <c r="R81" s="29"/>
-      <c r="S81" s="29"/>
-      <c r="T81" s="25"/>
-      <c r="U81" s="46"/>
-      <c r="V81" s="46"/>
-      <c r="W81" s="48"/>
-      <c r="AB81" s="10"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="23"/>
+      <c r="Q81" s="23"/>
+      <c r="R81" s="31"/>
+      <c r="S81" s="31"/>
+      <c r="T81" s="31"/>
+      <c r="U81" s="23"/>
+      <c r="V81" s="39"/>
+      <c r="W81" s="39"/>
+      <c r="X81" s="42"/>
       <c r="AC81" s="10"/>
       <c r="AD81" s="10"/>
       <c r="AE81" s="10"/>
       <c r="AF81" s="10"/>
-    </row>
-    <row r="82" spans="1:32">
+      <c r="AG81" s="10"/>
+    </row>
+    <row r="82" spans="1:33">
       <c r="A82" s="7"/>
       <c r="B82" s="7">
         <v>2015</v>
@@ -5798,24 +5927,25 @@
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
       <c r="L82" s="15"/>
-      <c r="M82" s="7"/>
+      <c r="M82" s="15"/>
       <c r="N82" s="7"/>
-      <c r="O82" s="25"/>
-      <c r="P82" s="25"/>
-      <c r="Q82" s="29"/>
-      <c r="R82" s="29"/>
-      <c r="S82" s="29"/>
-      <c r="T82" s="25"/>
-      <c r="U82" s="46"/>
-      <c r="V82" s="46"/>
-      <c r="W82" s="48"/>
-      <c r="AB82" s="10"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="23"/>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="31"/>
+      <c r="S82" s="31"/>
+      <c r="T82" s="31"/>
+      <c r="U82" s="23"/>
+      <c r="V82" s="39"/>
+      <c r="W82" s="39"/>
+      <c r="X82" s="42"/>
       <c r="AC82" s="10"/>
       <c r="AD82" s="10"/>
       <c r="AE82" s="10"/>
       <c r="AF82" s="10"/>
-    </row>
-    <row r="83" spans="1:32">
+      <c r="AG82" s="10"/>
+    </row>
+    <row r="83" spans="1:33">
       <c r="A83" s="7"/>
       <c r="B83" s="7">
         <v>2014</v>
@@ -5830,22 +5960,23 @@
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
       <c r="L83" s="15"/>
-      <c r="M83" s="7"/>
+      <c r="M83" s="15"/>
       <c r="N83" s="7"/>
-      <c r="O83" s="25"/>
-      <c r="P83" s="25"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="29"/>
-      <c r="S83" s="29"/>
-      <c r="T83" s="25"/>
-      <c r="U83" s="46"/>
-      <c r="V83" s="46"/>
-      <c r="W83" s="48"/>
-      <c r="AB83" s="11"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="23"/>
+      <c r="Q83" s="23"/>
+      <c r="R83" s="31"/>
+      <c r="S83" s="31"/>
+      <c r="T83" s="31"/>
+      <c r="U83" s="23"/>
+      <c r="V83" s="39"/>
+      <c r="W83" s="39"/>
+      <c r="X83" s="42"/>
       <c r="AC83" s="11"/>
       <c r="AD83" s="11"/>
       <c r="AE83" s="11"/>
       <c r="AF83" s="11"/>
+      <c r="AG83" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -5870,8 +6001,8 @@
     <mergeCell ref="D54:D63"/>
     <mergeCell ref="D64:D73"/>
     <mergeCell ref="D74:D83"/>
-    <mergeCell ref="W2:W15"/>
     <mergeCell ref="X2:X15"/>
+    <mergeCell ref="Y2:Y15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/行业/食品饮料/调味品/总表.xlsx
+++ b/行业/食品饮料/调味品/总表.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27180" windowHeight="13160"/>
+    <workbookView windowWidth="27180" windowHeight="13160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>名称</t>
   </si>
@@ -175,6 +176,21 @@
   </si>
   <si>
     <t>仲景食品</t>
+  </si>
+  <si>
+    <t>定性问题</t>
+  </si>
+  <si>
+    <t>1.人们为什么喜欢酱油、蚝油？</t>
+  </si>
+  <si>
+    <t>1.增色、增味</t>
+  </si>
+  <si>
+    <t>2.酱油、蚝油持续受到更多人喜欢的原因是什么？</t>
+  </si>
+  <si>
+    <t>3.酱油、蚝油的替代品是什么？人们为什么喜欢它们？</t>
   </si>
 </sst>
 </file>
@@ -911,7 +927,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -966,12 +982,6 @@
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -990,9 +1000,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1005,15 +1012,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1029,18 +1030,12 @@
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1055,9 +1050,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1586,12 +1578,12 @@
   <sheetPr/>
   <dimension ref="A1:AG83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X2" sqref="X2:X15"/>
+      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1675,28 +1667,28 @@
       <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="19" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="W1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="46" t="s">
+      <c r="Y1" s="39" t="s">
         <v>24</v>
       </c>
       <c r="AC1" s="7" t="s">
@@ -1753,51 +1745,51 @@
         <v>-0.041013411874212</v>
       </c>
       <c r="K2" s="15">
-        <f t="shared" ref="K2:K13" si="0">(T2-T3)/T3</f>
+        <f t="shared" ref="K2:K14" si="0">(T2-T3)/T3</f>
         <v>0.920377906332489</v>
       </c>
       <c r="L2" s="15">
         <f>(V2-V3)/V3</f>
         <v>0.199999999913678</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="18">
         <v>38423518405.62</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="19">
         <f>N2-P2</f>
         <v>9390542813.5</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="18">
         <v>29032975592.12</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="Q2" s="18">
         <v>5642186761.43</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2" s="18">
         <v>9736199.27</v>
       </c>
-      <c r="S2" s="20">
+      <c r="S2" s="18">
         <v>1096850567.11</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2" s="18">
         <v>7355650997.74</v>
       </c>
-      <c r="U2" s="20">
+      <c r="U2" s="18">
         <v>24559312356.59</v>
       </c>
-      <c r="V2" s="34">
+      <c r="V2" s="29">
         <v>5560600544</v>
       </c>
-      <c r="W2" s="35">
+      <c r="W2" s="30">
         <v>5560600544</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="X2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="47" t="s">
+      <c r="Y2" s="40" t="s">
         <v>34</v>
       </c>
       <c r="AC2" s="8"/>
@@ -1842,45 +1834,45 @@
         <v>-0.394273898792507</v>
       </c>
       <c r="L3" s="15">
-        <f t="shared" ref="L3:L13" si="4">(V3-V4)/V4</f>
+        <f t="shared" ref="L3:L14" si="4">(V3-V4)/V4</f>
         <v>0.1</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="20">
         <v>34059175850.3</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="19">
         <f>N3-P3</f>
         <v>7174696439.08</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="20">
         <v>26884479411.22</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="20">
         <v>6203166580.06</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="20">
         <v>12379926.82</v>
       </c>
-      <c r="S3" s="26">
+      <c r="S3" s="23">
         <v>1161039435.23</v>
       </c>
-      <c r="T3" s="20">
+      <c r="T3" s="18">
         <v>3830314321.72</v>
       </c>
-      <c r="U3" s="31">
+      <c r="U3" s="18">
         <v>25609651543.29</v>
       </c>
-      <c r="V3" s="37">
+      <c r="V3" s="32">
         <v>4633833787</v>
       </c>
-      <c r="W3" s="35">
+      <c r="W3" s="30">
         <v>4633833787</v>
       </c>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="48"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="39"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
@@ -1929,39 +1921,39 @@
       <c r="M4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="20">
         <v>33337724549.58</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="19">
         <f t="shared" ref="O4:O13" si="8">N4-P4</f>
         <v>9837875983.2</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="20">
         <v>23499848566.38</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="20">
         <v>6671470525.66</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="20">
         <v>4582073.3</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="23">
         <v>1149269490.14</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="18">
         <v>6323508784.06</v>
       </c>
-      <c r="U4" s="31">
+      <c r="U4" s="18">
         <v>25004031043.49</v>
       </c>
-      <c r="V4" s="37">
+      <c r="V4" s="32">
         <v>4212576170</v>
       </c>
-      <c r="W4" s="35">
+      <c r="W4" s="30">
         <v>4212576170</v>
       </c>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="48"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="39"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
@@ -2010,39 +2002,39 @@
       <c r="M5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="20">
         <v>29533620038.66</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="19">
         <f t="shared" si="8"/>
         <v>9367585493.7</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="20">
         <v>20166034544.96</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="20">
         <v>6409030013.71</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="20">
         <v>5289288.72</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="23">
         <v>1233392261</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="18">
         <v>6950432014.98</v>
       </c>
-      <c r="U5" s="31">
+      <c r="U5" s="18">
         <v>22791873936.49</v>
       </c>
-      <c r="V5" s="37">
+      <c r="V5" s="32">
         <v>3240443208</v>
       </c>
-      <c r="W5" s="35">
+      <c r="W5" s="30">
         <v>3240443208</v>
       </c>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="48"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="39"/>
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
@@ -2089,39 +2081,39 @@
         <v>0</v>
       </c>
       <c r="M6" s="15"/>
-      <c r="N6" s="22">
+      <c r="N6" s="20">
         <v>24753888098.68</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="19">
         <f t="shared" si="8"/>
         <v>8156181316.85</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="20">
         <v>16597706781.83</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="20">
         <v>5356242594.52</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="20">
         <v>1087729.3</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="23">
         <v>1020956084.25</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6" s="18">
         <v>6567569488.52</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U6" s="18">
         <v>19796889800.07</v>
       </c>
-      <c r="V6" s="37">
+      <c r="V6" s="32">
         <v>2700369340</v>
       </c>
-      <c r="W6" s="35">
+      <c r="W6" s="30">
         <v>2700369340</v>
       </c>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="48"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="39"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
@@ -2168,39 +2160,39 @@
         <v>-0.000309994788625395</v>
       </c>
       <c r="M7" s="15"/>
-      <c r="N7" s="22">
+      <c r="N7" s="20">
         <v>20143788853.33</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="19">
         <f t="shared" si="8"/>
         <v>6255962712.82</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="20">
         <v>13887826140.51</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="20">
         <v>4366673677.36</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="20">
         <v>595082.65</v>
       </c>
-      <c r="S7" s="26">
+      <c r="S7" s="23">
         <v>856132678.5</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="18">
         <v>5996242501.64</v>
       </c>
-      <c r="U7" s="31">
+      <c r="U7" s="18">
         <v>17034475127.23</v>
       </c>
-      <c r="V7" s="37">
+      <c r="V7" s="32">
         <v>2700369340</v>
       </c>
-      <c r="W7" s="35">
+      <c r="W7" s="30">
         <v>2696886700</v>
       </c>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="48"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="39"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
@@ -2247,39 +2239,39 @@
         <v>-0.00138412873846462</v>
       </c>
       <c r="M8" s="15"/>
-      <c r="N8" s="22">
+      <c r="N8" s="20">
         <v>16336012255.77</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="19">
         <f t="shared" si="8"/>
         <v>4571838748.16</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="20">
         <v>11764173507.61</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="24">
         <v>3531478779.33</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="25">
         <v>632104.08</v>
       </c>
-      <c r="S8" s="26">
+      <c r="S8" s="23">
         <v>683810161.82</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="18">
         <v>4720977581.77</v>
       </c>
-      <c r="U8" s="38">
+      <c r="U8" s="33">
         <v>14584310896.6</v>
       </c>
-      <c r="V8" s="37">
+      <c r="V8" s="32">
         <v>2701206700</v>
       </c>
-      <c r="W8" s="34">
+      <c r="W8" s="29">
         <v>2696886700</v>
       </c>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="48"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="39"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="10"/>
@@ -2323,37 +2315,37 @@
         <v>-0.000478633501906331</v>
       </c>
       <c r="M9" s="15"/>
-      <c r="N9" s="22">
+      <c r="N9" s="20">
         <v>13463592998.27</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="19">
         <f t="shared" si="8"/>
         <v>3449823565.24</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="20">
         <v>10013769433.03</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="20">
         <v>2843133968.17</v>
       </c>
-      <c r="R9" s="24"/>
-      <c r="S9" s="26">
+      <c r="R9" s="22"/>
+      <c r="S9" s="23">
         <v>570244775.78</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="18">
         <v>4074050747.76</v>
       </c>
-      <c r="U9" s="31">
+      <c r="U9" s="18">
         <v>12458558940.81</v>
       </c>
-      <c r="V9" s="37">
+      <c r="V9" s="32">
         <v>2704950700</v>
       </c>
-      <c r="W9" s="39">
+      <c r="W9" s="28">
         <v>271746700</v>
       </c>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="48"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="39"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
@@ -2397,37 +2389,37 @@
         <v>0.799868314289895</v>
       </c>
       <c r="M10" s="15"/>
-      <c r="N10" s="22">
+      <c r="N10" s="20">
         <v>11498002242.84</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="19">
         <f t="shared" si="8"/>
         <v>2746876641.11</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="20">
         <v>8751125601.73</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="Q10" s="26">
         <v>2509632367.33</v>
       </c>
-      <c r="R10" s="30"/>
-      <c r="S10" s="26">
+      <c r="R10" s="27"/>
+      <c r="S10" s="23">
         <v>501670546.62</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10" s="18">
         <v>2194831656.35</v>
       </c>
-      <c r="U10" s="31">
+      <c r="U10" s="18">
         <v>11294380030.09</v>
       </c>
-      <c r="V10" s="37">
+      <c r="V10" s="32">
         <v>2706246000</v>
       </c>
-      <c r="W10" s="34">
+      <c r="W10" s="29">
         <v>269460000</v>
       </c>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="48"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="39"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
@@ -2471,37 +2463,37 @@
         <v>1.11473980309423</v>
       </c>
       <c r="M11" s="15"/>
-      <c r="N11" s="22">
+      <c r="N11" s="20">
         <v>11000594566.17</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="19">
         <f t="shared" si="8"/>
         <v>3512682410.78</v>
       </c>
-      <c r="P11" s="22">
+      <c r="P11" s="20">
         <v>7487912155.39</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="Q11" s="26">
         <v>2089906049.53</v>
       </c>
-      <c r="R11" s="30"/>
-      <c r="S11" s="26">
+      <c r="R11" s="27"/>
+      <c r="S11" s="23">
         <v>402320381.83</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="18">
         <v>2739330825.61</v>
       </c>
-      <c r="U11" s="31">
+      <c r="U11" s="18">
         <v>9817189662.62</v>
       </c>
-      <c r="V11" s="37">
+      <c r="V11" s="32">
         <v>1503580000</v>
       </c>
-      <c r="W11" s="34">
+      <c r="W11" s="29">
         <v>149700000</v>
       </c>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="48"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="39"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
@@ -2545,38 +2537,38 @@
         <v>0</v>
       </c>
       <c r="M12" s="15"/>
-      <c r="N12" s="22">
+      <c r="N12" s="20">
         <v>6722123294.35</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="19">
         <f t="shared" si="8"/>
         <v>2807684296.34</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="20">
         <v>3914438998.01</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="Q12" s="26">
         <v>1606418791.67</v>
       </c>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26">
+      <c r="R12" s="23"/>
+      <c r="S12" s="23">
         <v>369200360.24</v>
       </c>
-      <c r="T12" s="31">
+      <c r="T12" s="18">
         <v>1930187429.41</v>
       </c>
-      <c r="U12" s="31">
+      <c r="U12" s="18">
         <v>8401589320.86</v>
       </c>
-      <c r="V12" s="37">
+      <c r="V12" s="32">
         <f>71100*10000</f>
         <v>711000000</v>
       </c>
-      <c r="W12" s="39">
+      <c r="W12" s="28">
         <v>0</v>
       </c>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="48"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="39"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
       <c r="AE12" s="10"/>
@@ -2620,39 +2612,39 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M13" s="15"/>
-      <c r="N13" s="22">
+      <c r="N13" s="20">
         <v>6110204366.74</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="19">
         <f t="shared" si="8"/>
         <v>2451204366.74</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="20">
         <f>36.59*100000000</f>
         <v>3659000000</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q13" s="26">
         <v>1207566852.96</v>
       </c>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26">
+      <c r="R13" s="23"/>
+      <c r="S13" s="23">
         <v>282068894.05</v>
       </c>
       <c r="T13" s="4">
         <v>2171135232.51</v>
       </c>
-      <c r="U13" s="31">
+      <c r="U13" s="18">
         <v>7069591619.67</v>
       </c>
-      <c r="V13" s="37">
+      <c r="V13" s="32">
         <f>71100*10000</f>
         <v>711000000</v>
       </c>
-      <c r="W13" s="39">
+      <c r="W13" s="28">
         <v>0</v>
       </c>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="48"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="39"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
       <c r="AE13" s="10"/>
@@ -2679,30 +2671,30 @@
         <v>0.104261047185661</v>
       </c>
       <c r="K14" s="15" t="e">
-        <f>(T14-T15)/T15</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L14" s="15" t="e">
-        <f>(V14-V15)/V15</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="29">
+      <c r="P14" s="21"/>
+      <c r="Q14" s="26">
         <v>955684713.08</v>
       </c>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="40">
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="34">
         <v>6090560144.37</v>
       </c>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="48"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="39"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
       <c r="AE14" s="10"/>
@@ -2727,20 +2719,20 @@
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="29">
+      <c r="P15" s="21"/>
+      <c r="Q15" s="26">
         <v>814184256.9</v>
       </c>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="40">
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="34">
         <v>5515507551.31</v>
       </c>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="48"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="39"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
       <c r="AE15" s="10"/>
@@ -2761,7 +2753,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="12">
-        <f t="shared" ref="E16:E26" si="9">(Q16+R16)/N16</f>
+        <f t="shared" ref="E16:E27" si="9">(Q16+R16)/N16</f>
         <v>0.258931822172073</v>
       </c>
       <c r="F16" s="15">
@@ -2786,41 +2778,41 @@
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15">
-        <f t="shared" ref="L16:L25" si="10">(V16-V17)/V17</f>
+        <f t="shared" ref="L16:L26" si="10">(V16-V17)/V17</f>
         <v>0</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="22">
         <v>6718881439.74</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="19">
         <f>N16-P16</f>
         <v>1518352188.76</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="22">
         <v>5200529250.98</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="22">
         <v>1737033635.91</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="18">
         <v>2698578.24</v>
       </c>
-      <c r="S16" s="26">
+      <c r="S16" s="23">
         <v>64551857.2</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T16" s="18">
         <v>841908805.69</v>
       </c>
-      <c r="U16" s="24">
+      <c r="U16" s="22">
         <v>5139091906.63</v>
       </c>
-      <c r="V16" s="34">
+      <c r="V16" s="29">
         <v>785375950</v>
       </c>
-      <c r="W16" s="34">
+      <c r="W16" s="29">
         <v>785375950</v>
       </c>
-      <c r="X16" s="42"/>
+      <c r="X16" s="21"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
       <c r="AE16" s="8"/>
@@ -2864,38 +2856,38 @@
         <v>-0.0141359756797898</v>
       </c>
       <c r="M17" s="15"/>
-      <c r="N17" s="22">
+      <c r="N17" s="20">
         <v>6223376570.5</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="19">
         <f>N17-P17</f>
         <v>2758540203.95</v>
       </c>
-      <c r="P17" s="22">
+      <c r="P17" s="20">
         <v>3464836366.55</v>
       </c>
-      <c r="Q17" s="29">
+      <c r="Q17" s="26">
         <v>-554562529.62</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="18">
         <v>-1580410.75</v>
       </c>
-      <c r="S17" s="26">
+      <c r="S17" s="23">
         <v>80152748.71</v>
       </c>
-      <c r="T17" s="20">
+      <c r="T17" s="18">
         <v>677654835.65</v>
       </c>
-      <c r="U17" s="43">
+      <c r="U17" s="36">
         <v>5341040998.68</v>
       </c>
-      <c r="V17" s="34">
+      <c r="V17" s="29">
         <v>785375950</v>
       </c>
-      <c r="W17" s="34">
+      <c r="W17" s="29">
         <v>785375950</v>
       </c>
-      <c r="X17" s="42"/>
+      <c r="X17" s="21"/>
       <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
       <c r="AE17" s="10"/>
@@ -2914,15 +2906,15 @@
         <v>0.135919835740443</v>
       </c>
       <c r="F18" s="15">
-        <f t="shared" ref="F18:F26" si="12">Q18/P18</f>
+        <f t="shared" ref="F18:F27" si="12">Q18/P18</f>
         <v>0.184506426584944</v>
       </c>
       <c r="G18" s="15">
-        <f t="shared" ref="G18:G26" si="13">O18/N18</f>
+        <f t="shared" ref="G18:G27" si="13">O18/N18</f>
         <v>0.281747436919482</v>
       </c>
       <c r="H18" s="15">
-        <f t="shared" ref="H18:H26" si="14">Q18/N18</f>
+        <f t="shared" ref="H18:H27" si="14">Q18/N18</f>
         <v>0.132522213799464</v>
       </c>
       <c r="I18" s="14">
@@ -2939,38 +2931,38 @@
         <v>0</v>
       </c>
       <c r="M18" s="15"/>
-      <c r="N18" s="22">
+      <c r="N18" s="20">
         <v>5917652808.13</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="19">
         <f t="shared" ref="O18:O27" si="16">N18-P18</f>
         <v>1667283511.27</v>
       </c>
-      <c r="P18" s="22">
+      <c r="P18" s="20">
         <v>4250369296.86</v>
       </c>
-      <c r="Q18" s="29">
+      <c r="Q18" s="26">
         <v>784220450.63</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="18">
         <v>20105947.02</v>
       </c>
-      <c r="S18" s="26">
+      <c r="S18" s="23">
         <v>92303153.39</v>
       </c>
-      <c r="T18" s="20">
+      <c r="T18" s="18">
         <v>1212493363.66</v>
       </c>
-      <c r="U18" s="43">
+      <c r="U18" s="36">
         <v>5115649704.3</v>
       </c>
-      <c r="V18" s="34">
+      <c r="V18" s="29">
         <v>796637194</v>
       </c>
-      <c r="W18" s="34">
+      <c r="W18" s="29">
         <v>796637194</v>
       </c>
-      <c r="X18" s="42"/>
+      <c r="X18" s="21"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
       <c r="AE18" s="10"/>
@@ -3014,38 +3006,38 @@
         <v>0</v>
       </c>
       <c r="M19" s="15"/>
-      <c r="N19" s="22">
+      <c r="N19" s="20">
         <v>6658923560.27</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="19">
         <f t="shared" si="16"/>
         <v>1667284387.78</v>
       </c>
-      <c r="P19" s="22">
+      <c r="P19" s="20">
         <v>4991639172.49</v>
       </c>
-      <c r="Q19" s="29">
+      <c r="Q19" s="26">
         <v>971371651.68</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19" s="18">
         <v>10182255.87</v>
       </c>
-      <c r="S19" s="26">
+      <c r="S19" s="23">
         <v>158704875.24</v>
       </c>
-      <c r="T19" s="20">
+      <c r="T19" s="18">
         <v>1000999170.24</v>
       </c>
-      <c r="U19" s="43">
+      <c r="U19" s="36">
         <v>5123374813.83</v>
       </c>
-      <c r="V19" s="34">
+      <c r="V19" s="29">
         <v>796637194</v>
       </c>
-      <c r="W19" s="34">
+      <c r="W19" s="29">
         <v>796637194</v>
       </c>
-      <c r="X19" s="42"/>
+      <c r="X19" s="21"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
       <c r="AE19" s="10"/>
@@ -3089,38 +3081,38 @@
         <v>0</v>
       </c>
       <c r="M20" s="15"/>
-      <c r="N20" s="22">
+      <c r="N20" s="20">
         <v>5953726937.24</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="19">
         <f t="shared" si="16"/>
         <v>1707930821.86</v>
       </c>
-      <c r="P20" s="22">
+      <c r="P20" s="20">
         <v>4245796115.38</v>
       </c>
-      <c r="Q20" s="29">
+      <c r="Q20" s="26">
         <v>791329913.47</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="18">
         <v>51294863.07</v>
       </c>
-      <c r="S20" s="26">
+      <c r="S20" s="23">
         <v>136691992.21</v>
       </c>
-      <c r="T20" s="20">
+      <c r="T20" s="18">
         <v>1058869197.81</v>
       </c>
-      <c r="U20" s="44">
+      <c r="U20" s="37">
         <v>4674844437.35</v>
       </c>
-      <c r="V20" s="34">
+      <c r="V20" s="29">
         <v>796637194</v>
       </c>
-      <c r="W20" s="34">
+      <c r="W20" s="29">
         <v>796637194</v>
       </c>
-      <c r="X20" s="42"/>
+      <c r="X20" s="21"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
       <c r="AE20" s="10"/>
@@ -3164,38 +3156,38 @@
         <v>0</v>
       </c>
       <c r="M21" s="15"/>
-      <c r="N21" s="22">
+      <c r="N21" s="20">
         <v>5983687463.75</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21" s="19">
         <f t="shared" si="16"/>
         <v>2035888711.85</v>
       </c>
-      <c r="P21" s="22">
+      <c r="P21" s="20">
         <v>3947798751.9</v>
       </c>
-      <c r="Q21" s="29">
+      <c r="Q21" s="26">
         <v>681238068.35</v>
       </c>
-      <c r="R21" s="20">
+      <c r="R21" s="18">
         <v>57150355.7</v>
       </c>
-      <c r="S21" s="26">
+      <c r="S21" s="23">
         <v>111327569.02</v>
       </c>
-      <c r="T21" s="20">
+      <c r="T21" s="18">
         <v>723569594.03</v>
       </c>
-      <c r="U21" s="44">
+      <c r="U21" s="37">
         <v>4166464950.31</v>
       </c>
-      <c r="V21" s="34">
+      <c r="V21" s="29">
         <v>796637194</v>
       </c>
-      <c r="W21" s="34">
+      <c r="W21" s="29">
         <v>796637194</v>
       </c>
-      <c r="X21" s="42"/>
+      <c r="X21" s="21"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
       <c r="AE21" s="10"/>
@@ -3239,38 +3231,38 @@
         <v>0</v>
       </c>
       <c r="M22" s="15"/>
-      <c r="N22" s="22">
+      <c r="N22" s="20">
         <v>5304762875.94</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="19">
         <f t="shared" si="16"/>
         <v>1854607225.88</v>
       </c>
-      <c r="P22" s="22">
+      <c r="P22" s="20">
         <v>3450155650.06</v>
       </c>
-      <c r="Q22" s="29">
+      <c r="Q22" s="26">
         <v>511404568.06</v>
       </c>
-      <c r="R22" s="20">
+      <c r="R22" s="18">
         <v>61413076.73</v>
       </c>
-      <c r="S22" s="26">
+      <c r="S22" s="23">
         <v>97773235.58</v>
       </c>
-      <c r="T22" s="20">
+      <c r="T22" s="18">
         <v>650615659.55</v>
       </c>
-      <c r="U22" s="44">
+      <c r="U22" s="37">
         <v>3609371700.99</v>
       </c>
-      <c r="V22" s="34">
+      <c r="V22" s="29">
         <v>796637194</v>
       </c>
-      <c r="W22" s="34">
+      <c r="W22" s="29">
         <v>796637194</v>
       </c>
-      <c r="X22" s="42"/>
+      <c r="X22" s="21"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
       <c r="AE22" s="10"/>
@@ -3314,38 +3306,38 @@
         <v>0</v>
       </c>
       <c r="M23" s="15"/>
-      <c r="N23" s="22">
+      <c r="N23" s="20">
         <v>4910866585.04</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O23" s="19">
         <f t="shared" si="16"/>
         <v>1821761980.28</v>
       </c>
-      <c r="P23" s="22">
+      <c r="P23" s="20">
         <v>3089104604.76</v>
       </c>
-      <c r="Q23" s="29">
+      <c r="Q23" s="26">
         <v>410264038.18</v>
       </c>
-      <c r="R23" s="20">
+      <c r="R23" s="18">
         <v>63428813.84</v>
       </c>
-      <c r="S23" s="26">
+      <c r="S23" s="23">
         <v>75998454.21</v>
       </c>
-      <c r="T23" s="20">
+      <c r="T23" s="18">
         <v>676669245.06</v>
       </c>
-      <c r="U23" s="44">
+      <c r="U23" s="37">
         <v>3157988862.51</v>
       </c>
-      <c r="V23" s="34">
+      <c r="V23" s="29">
         <v>796637194</v>
       </c>
-      <c r="W23" s="34">
+      <c r="W23" s="29">
         <v>796637194</v>
       </c>
-      <c r="X23" s="42"/>
+      <c r="X23" s="21"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
@@ -3389,38 +3381,38 @@
         <v>0</v>
       </c>
       <c r="M24" s="15"/>
-      <c r="N24" s="22">
+      <c r="N24" s="20">
         <v>4523115170.58</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24" s="19">
         <f t="shared" si="16"/>
         <v>1724527047.08</v>
       </c>
-      <c r="P24" s="22">
+      <c r="P24" s="20">
         <v>2798588123.5</v>
       </c>
-      <c r="Q24" s="29">
+      <c r="Q24" s="26">
         <v>274062707.38</v>
       </c>
-      <c r="R24" s="20">
+      <c r="R24" s="18">
         <v>61362232.85</v>
       </c>
-      <c r="S24" s="26">
+      <c r="S24" s="23">
         <v>65056564.18</v>
       </c>
-      <c r="T24" s="20">
+      <c r="T24" s="18">
         <v>393949066.09</v>
       </c>
-      <c r="U24" s="44">
+      <c r="U24" s="37">
         <v>2758585298.86</v>
       </c>
-      <c r="V24" s="34">
+      <c r="V24" s="29">
         <v>796637194</v>
       </c>
-      <c r="W24" s="34">
+      <c r="W24" s="29">
         <v>796637194</v>
       </c>
-      <c r="X24" s="42"/>
+      <c r="X24" s="21"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
@@ -3464,38 +3456,38 @@
         <v>0</v>
       </c>
       <c r="M25" s="15"/>
-      <c r="N25" s="22">
+      <c r="N25" s="20">
         <v>4058969587.71</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O25" s="19">
         <f t="shared" si="16"/>
         <v>1446432486.58</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P25" s="20">
         <v>2612537101.13</v>
       </c>
-      <c r="Q25" s="29">
+      <c r="Q25" s="26">
         <v>292629718.44</v>
       </c>
-      <c r="R25" s="20">
+      <c r="R25" s="18">
         <v>32434625.12</v>
       </c>
-      <c r="S25" s="26">
+      <c r="S25" s="23">
         <v>51394587.66</v>
       </c>
-      <c r="T25" s="20">
+      <c r="T25" s="18">
         <v>334963620.08</v>
       </c>
-      <c r="U25" s="44">
+      <c r="U25" s="37">
         <v>2641896888.88</v>
       </c>
-      <c r="V25" s="34">
+      <c r="V25" s="29">
         <v>796637194</v>
       </c>
-      <c r="W25" s="34">
+      <c r="W25" s="29">
         <v>796637194</v>
       </c>
-      <c r="X25" s="42"/>
+      <c r="X25" s="21"/>
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
@@ -3535,42 +3527,42 @@
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15">
-        <f>(V26-V27)/V27</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M26" s="15"/>
-      <c r="N26" s="22">
+      <c r="N26" s="20">
         <v>3696122566.48</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O26" s="19">
         <f t="shared" si="16"/>
         <v>1311304542.2</v>
       </c>
-      <c r="P26" s="22">
+      <c r="P26" s="20">
         <v>2384818024.28</v>
       </c>
-      <c r="Q26" s="29">
+      <c r="Q26" s="26">
         <v>220352606.18</v>
       </c>
-      <c r="R26" s="20">
+      <c r="R26" s="18">
         <v>33163393.68</v>
       </c>
-      <c r="S26" s="26">
+      <c r="S26" s="23">
         <v>42004915.4</v>
       </c>
-      <c r="T26" s="20">
+      <c r="T26" s="18">
         <v>135067181.02</v>
       </c>
-      <c r="U26" s="44">
+      <c r="U26" s="37">
         <v>2318190695.54</v>
       </c>
-      <c r="V26" s="34">
+      <c r="V26" s="29">
         <v>796637194</v>
       </c>
-      <c r="W26" s="34">
+      <c r="W26" s="29">
         <v>796637194</v>
       </c>
-      <c r="X26" s="42"/>
+      <c r="X26" s="21"/>
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
       <c r="AE26" s="10"/>
@@ -3585,58 +3577,58 @@
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="12">
-        <f>(Q27+R27)/N27</f>
+        <f t="shared" si="9"/>
         <v>0.0468819626470807</v>
       </c>
       <c r="F27" s="15">
-        <f>Q27/P27</f>
+        <f t="shared" si="12"/>
         <v>0.0559079336901412</v>
       </c>
       <c r="G27" s="14">
-        <f>O27/N27</f>
+        <f t="shared" si="13"/>
         <v>0.373534101066837</v>
       </c>
       <c r="H27" s="15">
-        <f>Q27/N27</f>
+        <f t="shared" si="14"/>
         <v>0.03502441393669</v>
       </c>
-      <c r="I27" s="18"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="22">
+      <c r="N27" s="20">
         <v>3495088667.33</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O27" s="19">
         <f t="shared" si="16"/>
         <v>1305534803.5</v>
       </c>
-      <c r="P27" s="22">
+      <c r="P27" s="20">
         <v>2189553863.83</v>
       </c>
-      <c r="Q27" s="29">
+      <c r="Q27" s="26">
         <v>122413432.23</v>
       </c>
-      <c r="R27" s="20">
+      <c r="R27" s="18">
         <v>41443184.12</v>
       </c>
-      <c r="S27" s="26">
+      <c r="S27" s="23">
         <v>22906699.05</v>
       </c>
-      <c r="T27" s="20">
+      <c r="T27" s="18">
         <v>242084618.48</v>
       </c>
-      <c r="U27" s="44">
+      <c r="U27" s="37">
         <v>1754338281.65</v>
       </c>
-      <c r="V27" s="34">
+      <c r="V27" s="29">
         <v>796637194</v>
       </c>
-      <c r="W27" s="34">
+      <c r="W27" s="29">
         <v>796637194</v>
       </c>
-      <c r="X27" s="42"/>
+      <c r="X27" s="21"/>
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
@@ -3661,15 +3653,15 @@
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="42"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="21"/>
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
@@ -3694,15 +3686,15 @@
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="42"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="21"/>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
       <c r="AE29" s="10"/>
@@ -3754,7 +3746,7 @@
       <c r="N30" s="4">
         <v>4267793815.23</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O30" s="19">
         <f>N30-P30</f>
         <v>615426267.63</v>
       </c>
@@ -3764,25 +3756,25 @@
       <c r="Q30" s="4">
         <v>530447940.83</v>
       </c>
-      <c r="R30" s="31">
+      <c r="R30" s="18">
         <v>5161.46</v>
       </c>
-      <c r="S30" s="31">
+      <c r="S30" s="18">
         <v>98762845.55</v>
       </c>
-      <c r="T30" s="31">
+      <c r="T30" s="18">
         <v>470030322.18</v>
       </c>
       <c r="U30" s="4">
         <v>3206797965.72</v>
       </c>
-      <c r="V30" s="32">
+      <c r="V30" s="28">
         <v>1027821086</v>
       </c>
-      <c r="W30" s="32">
+      <c r="W30" s="28">
         <v>958538590</v>
       </c>
-      <c r="X30" s="42"/>
+      <c r="X30" s="21"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
       <c r="AE30" s="8"/>
@@ -3826,38 +3818,38 @@
         <v>0.208675707551295</v>
       </c>
       <c r="M31" s="15"/>
-      <c r="N31" s="22">
+      <c r="N31" s="20">
         <v>3171593207.19</v>
       </c>
-      <c r="O31" s="21">
+      <c r="O31" s="19">
         <f>N31-P31</f>
         <v>818570271.09</v>
       </c>
-      <c r="P31" s="22">
+      <c r="P31" s="20">
         <v>2353022936.1</v>
       </c>
-      <c r="Q31" s="22">
+      <c r="Q31" s="20">
         <v>343953008.15</v>
       </c>
-      <c r="R31" s="31">
+      <c r="R31" s="18">
         <v>1376299.18</v>
       </c>
-      <c r="S31" s="31">
+      <c r="S31" s="18">
         <v>57707967.16</v>
       </c>
-      <c r="T31" s="31">
+      <c r="T31" s="18">
         <v>773383847.4</v>
       </c>
-      <c r="U31" s="43">
+      <c r="U31" s="36">
         <v>2436471672.19</v>
       </c>
-      <c r="V31" s="32">
+      <c r="V31" s="28">
         <v>965468590</v>
       </c>
-      <c r="W31" s="32">
+      <c r="W31" s="28">
         <v>958538590</v>
       </c>
-      <c r="X31" s="42"/>
+      <c r="X31" s="21"/>
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
       <c r="AE31" s="10"/>
@@ -3901,38 +3893,38 @@
         <v>0.199957601552533</v>
       </c>
       <c r="M32" s="15"/>
-      <c r="N32" s="22">
+      <c r="N32" s="20">
         <v>2397922657.19</v>
       </c>
-      <c r="O32" s="21">
+      <c r="O32" s="19">
         <f t="shared" ref="O32:O40" si="24">N32-P32</f>
         <v>323601828.59</v>
       </c>
-      <c r="P32" s="22">
+      <c r="P32" s="20">
         <v>2074320828.6</v>
       </c>
-      <c r="Q32" s="22">
+      <c r="Q32" s="20">
         <v>221401595.43</v>
       </c>
-      <c r="R32" s="31">
+      <c r="R32" s="18">
         <v>22665.01</v>
       </c>
-      <c r="S32" s="31">
+      <c r="S32" s="18">
         <v>39840870.93</v>
       </c>
-      <c r="T32" s="31">
+      <c r="T32" s="18">
         <v>178187852.39</v>
       </c>
-      <c r="U32" s="43">
+      <c r="U32" s="36">
         <v>1925286294.09</v>
       </c>
-      <c r="V32" s="32">
+      <c r="V32" s="28">
         <v>798782158</v>
       </c>
-      <c r="W32" s="32">
+      <c r="W32" s="28">
         <v>794566246</v>
       </c>
-      <c r="X32" s="42"/>
+      <c r="X32" s="21"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
       <c r="AE32" s="10"/>
@@ -3976,38 +3968,38 @@
         <v>0.428945553936482</v>
       </c>
       <c r="M33" s="15"/>
-      <c r="N33" s="22">
+      <c r="N33" s="20">
         <v>2185494550.48</v>
       </c>
-      <c r="O33" s="21">
+      <c r="O33" s="19">
         <f t="shared" si="24"/>
         <v>287583201.48</v>
       </c>
-      <c r="P33" s="22">
+      <c r="P33" s="20">
         <v>1897911349</v>
       </c>
-      <c r="Q33" s="22">
+      <c r="Q33" s="20">
         <v>205801040.39</v>
       </c>
-      <c r="R33" s="31">
+      <c r="R33" s="18">
         <v>-1003875.07</v>
       </c>
-      <c r="S33" s="31">
+      <c r="S33" s="18">
         <v>51143969.08</v>
       </c>
-      <c r="T33" s="31">
+      <c r="T33" s="18">
         <v>378030105.44</v>
       </c>
-      <c r="U33" s="43">
+      <c r="U33" s="36">
         <v>1693273982.03</v>
       </c>
-      <c r="V33" s="32">
+      <c r="V33" s="28">
         <v>665675318</v>
       </c>
-      <c r="W33" s="32">
+      <c r="W33" s="28">
         <v>659771876</v>
       </c>
-      <c r="X33" s="42"/>
+      <c r="X33" s="21"/>
       <c r="AC33" s="10"/>
       <c r="AD33" s="10"/>
       <c r="AE33" s="10"/>
@@ -4051,38 +4043,38 @@
         <v>0.428101919470848</v>
       </c>
       <c r="M34" s="15"/>
-      <c r="N34" s="22">
+      <c r="N34" s="20">
         <v>2055571609.08</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="19">
         <f t="shared" si="24"/>
         <v>463039814.08</v>
       </c>
-      <c r="P34" s="22">
+      <c r="P34" s="20">
         <v>1592531795</v>
       </c>
-      <c r="Q34" s="22">
+      <c r="Q34" s="20">
         <v>198253970.53</v>
       </c>
-      <c r="R34" s="31">
+      <c r="R34" s="18">
         <v>1353503.2</v>
       </c>
-      <c r="S34" s="31">
+      <c r="S34" s="18">
         <v>33750491.3</v>
       </c>
-      <c r="T34" s="31">
+      <c r="T34" s="18">
         <v>191991964.23</v>
       </c>
-      <c r="U34" s="43">
+      <c r="U34" s="36">
         <v>1355147203.67</v>
       </c>
-      <c r="V34" s="32">
+      <c r="V34" s="28">
         <v>465850722</v>
       </c>
-      <c r="W34" s="32">
+      <c r="W34" s="28">
         <v>459810506</v>
       </c>
-      <c r="X34" s="42"/>
+      <c r="X34" s="21"/>
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
       <c r="AE34" s="10"/>
@@ -4126,38 +4118,38 @@
         <v>0.00066725115127926</v>
       </c>
       <c r="M35" s="15"/>
-      <c r="N35" s="22">
+      <c r="N35" s="20">
         <v>1931143438.96</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O35" s="19">
         <f t="shared" si="24"/>
         <v>624634652.6</v>
       </c>
-      <c r="P35" s="22">
+      <c r="P35" s="20">
         <v>1306508786.36</v>
       </c>
-      <c r="Q35" s="22">
+      <c r="Q35" s="20">
         <v>240023601.23</v>
       </c>
-      <c r="R35" s="31">
+      <c r="R35" s="18">
         <v>2277444.43</v>
       </c>
-      <c r="S35" s="31">
+      <c r="S35" s="18">
         <v>45130726.95</v>
       </c>
-      <c r="T35" s="31">
+      <c r="T35" s="18">
         <v>243412728.61</v>
       </c>
-      <c r="U35" s="43">
+      <c r="U35" s="36">
         <v>1065445794.48</v>
       </c>
-      <c r="V35" s="32">
+      <c r="V35" s="28">
         <v>326202714</v>
       </c>
-      <c r="W35" s="32">
+      <c r="W35" s="28">
         <v>134964546</v>
       </c>
-      <c r="X35" s="42"/>
+      <c r="X35" s="21"/>
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
       <c r="AE35" s="10"/>
@@ -4201,38 +4193,38 @@
         <v>1.0374075</v>
       </c>
       <c r="M36" s="15"/>
-      <c r="N36" s="22">
+      <c r="N36" s="20">
         <v>1196126831.38</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O36" s="19">
         <f t="shared" si="24"/>
         <v>133139831</v>
       </c>
-      <c r="P36" s="22">
+      <c r="P36" s="20">
         <v>1062987000.38</v>
       </c>
-      <c r="Q36" s="22">
+      <c r="Q36" s="20">
         <v>144059434.25</v>
       </c>
-      <c r="R36" s="31">
+      <c r="R36" s="18">
         <v>1632666.64</v>
       </c>
-      <c r="S36" s="31">
+      <c r="S36" s="18">
         <v>26757461.94</v>
       </c>
-      <c r="T36" s="31">
+      <c r="T36" s="18">
         <v>174843670.03</v>
       </c>
-      <c r="U36" s="43">
+      <c r="U36" s="36">
         <v>948167111.51</v>
       </c>
-      <c r="V36" s="32">
+      <c r="V36" s="28">
         <v>325985200</v>
       </c>
-      <c r="W36" s="32">
+      <c r="W36" s="28">
         <v>133190272</v>
       </c>
-      <c r="X36" s="42"/>
+      <c r="X36" s="21"/>
       <c r="AC36" s="10"/>
       <c r="AD36" s="10"/>
       <c r="AE36" s="10"/>
@@ -4276,38 +4268,38 @@
         <v>0.333333333333333</v>
       </c>
       <c r="M37" s="15"/>
-      <c r="N37" s="22">
+      <c r="N37" s="20">
         <v>1026655803.71</v>
       </c>
-      <c r="O37" s="21">
+      <c r="O37" s="19">
         <f t="shared" si="24"/>
         <v>136235049.58</v>
       </c>
-      <c r="P37" s="22">
+      <c r="P37" s="20">
         <v>890420754.13</v>
       </c>
-      <c r="Q37" s="29">
+      <c r="Q37" s="26">
         <v>100088565.58</v>
       </c>
-      <c r="R37" s="31">
+      <c r="R37" s="18">
         <v>1363181.63</v>
       </c>
-      <c r="S37" s="31">
+      <c r="S37" s="18">
         <v>21883612.08</v>
       </c>
-      <c r="T37" s="31">
+      <c r="T37" s="18">
         <v>69492005.89</v>
       </c>
-      <c r="U37" s="43">
+      <c r="U37" s="36">
         <v>770860990.83</v>
       </c>
-      <c r="V37" s="32">
+      <c r="V37" s="28">
         <v>160000000</v>
       </c>
-      <c r="W37" s="32">
+      <c r="W37" s="28">
         <v>40000000</v>
       </c>
-      <c r="X37" s="42"/>
+      <c r="X37" s="21"/>
       <c r="AC37" s="10"/>
       <c r="AD37" s="10"/>
       <c r="AE37" s="10"/>
@@ -4348,39 +4340,39 @@
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
-      <c r="N38" s="22">
+      <c r="N38" s="20">
         <v>724122606.18</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O38" s="19">
         <f t="shared" si="24"/>
         <v>256624517.69</v>
       </c>
-      <c r="P38" s="22">
+      <c r="P38" s="20">
         <v>467498088.49</v>
       </c>
-      <c r="Q38" s="29">
+      <c r="Q38" s="26">
         <v>66531118.6</v>
       </c>
-      <c r="R38" s="31">
+      <c r="R38" s="18">
         <f>741.8*10000</f>
         <v>7418000</v>
       </c>
-      <c r="S38" s="31">
+      <c r="S38" s="18">
         <v>14353571.4</v>
       </c>
-      <c r="T38" s="31">
+      <c r="T38" s="18">
         <v>73033936.57</v>
       </c>
-      <c r="U38" s="31">
+      <c r="U38" s="18">
         <v>623585955.63</v>
       </c>
-      <c r="V38" s="32">
+      <c r="V38" s="28">
         <v>120000000</v>
       </c>
-      <c r="W38" s="32">
+      <c r="W38" s="28">
         <v>0</v>
       </c>
-      <c r="X38" s="42"/>
+      <c r="X38" s="21"/>
       <c r="AC38" s="10"/>
       <c r="AD38" s="10"/>
       <c r="AE38" s="10"/>
@@ -4421,35 +4413,35 @@
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="25">
+      <c r="N39" s="23">
         <v>649044867.29</v>
       </c>
-      <c r="O39" s="21">
+      <c r="O39" s="19">
         <f t="shared" si="24"/>
         <v>248077897.4</v>
       </c>
-      <c r="P39" s="25">
+      <c r="P39" s="23">
         <v>400966969.89</v>
       </c>
-      <c r="Q39" s="29">
+      <c r="Q39" s="26">
         <v>52970324.69</v>
       </c>
-      <c r="R39" s="31">
+      <c r="R39" s="18">
         <f>700.45*10000</f>
         <v>7004500</v>
       </c>
-      <c r="S39" s="31">
+      <c r="S39" s="18">
         <v>11307733.43</v>
       </c>
-      <c r="T39" s="31">
+      <c r="T39" s="18">
         <v>99224680.07</v>
       </c>
-      <c r="U39" s="31">
+      <c r="U39" s="18">
         <v>650775844.37</v>
       </c>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="42"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="21"/>
       <c r="AC39" s="11"/>
       <c r="AD39" s="11"/>
       <c r="AE39" s="11"/>
@@ -4484,35 +4476,35 @@
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="25">
+      <c r="N40" s="23">
         <v>517791722.18</v>
       </c>
-      <c r="O40" s="21">
+      <c r="O40" s="19">
         <f t="shared" si="24"/>
         <v>156595076.98</v>
       </c>
-      <c r="P40" s="25">
+      <c r="P40" s="23">
         <v>361196645.2</v>
       </c>
-      <c r="Q40" s="29">
+      <c r="Q40" s="26">
         <v>70469172.6</v>
       </c>
-      <c r="R40" s="31">
+      <c r="R40" s="18">
         <f>399.75*10000</f>
         <v>3997500</v>
       </c>
-      <c r="S40" s="31">
+      <c r="S40" s="18">
         <v>13149040.82</v>
       </c>
-      <c r="T40" s="31">
+      <c r="T40" s="18">
         <v>90132165.69</v>
       </c>
-      <c r="U40" s="45">
+      <c r="U40" s="38">
         <v>612649198.93</v>
       </c>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="42"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="21"/>
       <c r="AC40" s="10"/>
       <c r="AD40" s="10"/>
       <c r="AE40" s="10"/>
@@ -4537,15 +4529,15 @@
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="42"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="21"/>
       <c r="AC41" s="10"/>
       <c r="AD41" s="10"/>
       <c r="AE41" s="10"/>
@@ -4570,15 +4562,15 @@
       <c r="M42" s="15"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="42"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="21"/>
       <c r="AC42" s="10"/>
       <c r="AD42" s="10"/>
       <c r="AE42" s="10"/>
@@ -4603,15 +4595,15 @@
       <c r="M43" s="15"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="39"/>
-      <c r="W43" s="39"/>
-      <c r="X43" s="42"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="21"/>
       <c r="AC43" s="10"/>
       <c r="AD43" s="10"/>
       <c r="AE43" s="10"/>
@@ -4638,15 +4630,15 @@
       <c r="M44" s="15"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="39"/>
-      <c r="W44" s="39"/>
-      <c r="X44" s="42"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="21"/>
       <c r="AC44" s="8"/>
       <c r="AD44" s="8"/>
       <c r="AE44" s="8"/>
@@ -4671,15 +4663,15 @@
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="42"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="21"/>
       <c r="AC45" s="10"/>
       <c r="AD45" s="10"/>
       <c r="AE45" s="10"/>
@@ -4704,15 +4696,15 @@
       <c r="M46" s="15"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="39"/>
-      <c r="W46" s="39"/>
-      <c r="X46" s="42"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="21"/>
       <c r="AC46" s="10"/>
       <c r="AD46" s="10"/>
       <c r="AE46" s="10"/>
@@ -4737,15 +4729,15 @@
       <c r="M47" s="15"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="42"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="21"/>
       <c r="AC47" s="10"/>
       <c r="AD47" s="10"/>
       <c r="AE47" s="10"/>
@@ -4770,15 +4762,15 @@
       <c r="M48" s="15"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="39"/>
-      <c r="W48" s="39"/>
-      <c r="X48" s="42"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="21"/>
       <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
       <c r="AE48" s="10"/>
@@ -4803,15 +4795,15 @@
       <c r="M49" s="15"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="42"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="21"/>
       <c r="AC49" s="10"/>
       <c r="AD49" s="10"/>
       <c r="AE49" s="10"/>
@@ -4836,15 +4828,15 @@
       <c r="M50" s="15"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="31"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="39"/>
-      <c r="X50" s="42"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="21"/>
       <c r="AC50" s="10"/>
       <c r="AD50" s="10"/>
       <c r="AE50" s="10"/>
@@ -4869,15 +4861,15 @@
       <c r="M51" s="15"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="39"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="42"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="21"/>
       <c r="AC51" s="10"/>
       <c r="AD51" s="10"/>
       <c r="AE51" s="10"/>
@@ -4902,15 +4894,15 @@
       <c r="M52" s="15"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="31"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="42"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="21"/>
       <c r="AC52" s="10"/>
       <c r="AD52" s="10"/>
       <c r="AE52" s="10"/>
@@ -4935,15 +4927,15 @@
       <c r="M53" s="15"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="31"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="42"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="21"/>
       <c r="AC53" s="11"/>
       <c r="AD53" s="11"/>
       <c r="AE53" s="11"/>
@@ -4970,15 +4962,15 @@
       <c r="M54" s="15"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="31"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="42"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="21"/>
       <c r="AC54" s="8"/>
       <c r="AD54" s="8"/>
       <c r="AE54" s="8"/>
@@ -5006,17 +4998,17 @@
       <c r="M55" s="15"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="31"/>
-      <c r="U55" s="31">
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18">
         <v>2690710152.71</v>
       </c>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="42"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="21"/>
       <c r="AC55" s="10"/>
       <c r="AD55" s="10"/>
       <c r="AE55" s="10"/>
@@ -5044,17 +5036,17 @@
       <c r="M56" s="15"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31">
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18">
         <v>2025535449.58</v>
       </c>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39"/>
-      <c r="X56" s="42"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="21"/>
       <c r="AC56" s="10"/>
       <c r="AD56" s="10"/>
       <c r="AE56" s="10"/>
@@ -5082,17 +5074,17 @@
       <c r="M57" s="15"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="31">
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18">
         <v>2364655862.43</v>
       </c>
-      <c r="V57" s="39"/>
-      <c r="W57" s="39"/>
-      <c r="X57" s="42"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="21"/>
       <c r="AC57" s="10"/>
       <c r="AD57" s="10"/>
       <c r="AE57" s="10"/>
@@ -5120,17 +5112,17 @@
       <c r="M58" s="15"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="31"/>
-      <c r="T58" s="31"/>
-      <c r="U58" s="31">
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="18">
         <v>1727329107.54</v>
       </c>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="42"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="21"/>
       <c r="AC58" s="10"/>
       <c r="AD58" s="10"/>
       <c r="AE58" s="10"/>
@@ -5158,17 +5150,17 @@
       <c r="M59" s="15"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="31">
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18">
         <v>1412861058.41</v>
       </c>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="42"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="21"/>
       <c r="AC59" s="10"/>
       <c r="AD59" s="10"/>
       <c r="AE59" s="10"/>
@@ -5196,17 +5188,17 @@
       <c r="M60" s="15"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="31"/>
-      <c r="U60" s="31">
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="18">
         <v>1065816160.04</v>
       </c>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="42"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="21"/>
       <c r="AC60" s="10"/>
       <c r="AD60" s="10"/>
       <c r="AE60" s="10"/>
@@ -5231,17 +5223,17 @@
       <c r="M61" s="15"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="31">
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
+      <c r="T61" s="18"/>
+      <c r="U61" s="18">
         <v>983899076.21</v>
       </c>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="42"/>
+      <c r="V61" s="28"/>
+      <c r="W61" s="28"/>
+      <c r="X61" s="21"/>
       <c r="AC61" s="10"/>
       <c r="AD61" s="10"/>
       <c r="AE61" s="10"/>
@@ -5266,15 +5258,15 @@
       <c r="M62" s="15"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="31"/>
-      <c r="U62" s="31"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="42"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="18"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="21"/>
       <c r="AC62" s="10"/>
       <c r="AD62" s="10"/>
       <c r="AE62" s="10"/>
@@ -5299,15 +5291,15 @@
       <c r="M63" s="15"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="31"/>
-      <c r="U63" s="31"/>
-      <c r="V63" s="39"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="42"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="18"/>
+      <c r="V63" s="28"/>
+      <c r="W63" s="28"/>
+      <c r="X63" s="21"/>
       <c r="AC63" s="11"/>
       <c r="AD63" s="11"/>
       <c r="AE63" s="11"/>
@@ -5334,15 +5326,15 @@
       <c r="M64" s="15"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="31"/>
-      <c r="T64" s="31"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="39"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="42"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="18"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="28"/>
+      <c r="W64" s="28"/>
+      <c r="X64" s="21"/>
       <c r="AC64" s="8"/>
       <c r="AD64" s="8"/>
       <c r="AE64" s="8"/>
@@ -5367,15 +5359,15 @@
       <c r="M65" s="15"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
-      <c r="P65" s="23"/>
-      <c r="Q65" s="23"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
-      <c r="T65" s="31"/>
-      <c r="U65" s="23"/>
-      <c r="V65" s="39"/>
-      <c r="W65" s="39"/>
-      <c r="X65" s="42"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="18"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="28"/>
+      <c r="W65" s="28"/>
+      <c r="X65" s="21"/>
       <c r="AC65" s="10"/>
       <c r="AD65" s="10"/>
       <c r="AE65" s="10"/>
@@ -5400,15 +5392,15 @@
       <c r="M66" s="15"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="31"/>
-      <c r="S66" s="31"/>
-      <c r="T66" s="31"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="39"/>
-      <c r="W66" s="39"/>
-      <c r="X66" s="42"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
+      <c r="U66" s="21"/>
+      <c r="V66" s="28"/>
+      <c r="W66" s="28"/>
+      <c r="X66" s="21"/>
       <c r="AC66" s="10"/>
       <c r="AD66" s="10"/>
       <c r="AE66" s="10"/>
@@ -5433,15 +5425,15 @@
       <c r="M67" s="15"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="23"/>
-      <c r="R67" s="31"/>
-      <c r="S67" s="31"/>
-      <c r="T67" s="31"/>
-      <c r="U67" s="23"/>
-      <c r="V67" s="39"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="42"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="18"/>
+      <c r="U67" s="21"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="21"/>
       <c r="AC67" s="10"/>
       <c r="AD67" s="10"/>
       <c r="AE67" s="10"/>
@@ -5466,15 +5458,15 @@
       <c r="M68" s="15"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
-      <c r="P68" s="23"/>
-      <c r="Q68" s="23"/>
-      <c r="R68" s="31"/>
-      <c r="S68" s="31"/>
-      <c r="T68" s="31"/>
-      <c r="U68" s="23"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="39"/>
-      <c r="X68" s="42"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="18"/>
+      <c r="U68" s="21"/>
+      <c r="V68" s="28"/>
+      <c r="W68" s="28"/>
+      <c r="X68" s="21"/>
       <c r="AC68" s="10"/>
       <c r="AD68" s="10"/>
       <c r="AE68" s="10"/>
@@ -5499,15 +5491,15 @@
       <c r="M69" s="15"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
-      <c r="P69" s="23"/>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="31"/>
-      <c r="S69" s="31"/>
-      <c r="T69" s="31"/>
-      <c r="U69" s="23"/>
-      <c r="V69" s="39"/>
-      <c r="W69" s="39"/>
-      <c r="X69" s="42"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="21"/>
+      <c r="V69" s="28"/>
+      <c r="W69" s="28"/>
+      <c r="X69" s="21"/>
       <c r="AC69" s="10"/>
       <c r="AD69" s="10"/>
       <c r="AE69" s="10"/>
@@ -5532,15 +5524,15 @@
       <c r="M70" s="15"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
-      <c r="P70" s="23"/>
-      <c r="Q70" s="23"/>
-      <c r="R70" s="31"/>
-      <c r="S70" s="31"/>
-      <c r="T70" s="31"/>
-      <c r="U70" s="23"/>
-      <c r="V70" s="39"/>
-      <c r="W70" s="39"/>
-      <c r="X70" s="42"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="18"/>
+      <c r="S70" s="18"/>
+      <c r="T70" s="18"/>
+      <c r="U70" s="21"/>
+      <c r="V70" s="28"/>
+      <c r="W70" s="28"/>
+      <c r="X70" s="21"/>
       <c r="AC70" s="10"/>
       <c r="AD70" s="10"/>
       <c r="AE70" s="10"/>
@@ -5565,15 +5557,15 @@
       <c r="M71" s="15"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
-      <c r="P71" s="23"/>
-      <c r="Q71" s="23"/>
-      <c r="R71" s="31"/>
-      <c r="S71" s="31"/>
-      <c r="T71" s="31"/>
-      <c r="U71" s="23"/>
-      <c r="V71" s="39"/>
-      <c r="W71" s="39"/>
-      <c r="X71" s="42"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="28"/>
+      <c r="W71" s="28"/>
+      <c r="X71" s="21"/>
       <c r="AC71" s="10"/>
       <c r="AD71" s="10"/>
       <c r="AE71" s="10"/>
@@ -5598,15 +5590,15 @@
       <c r="M72" s="15"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7"/>
-      <c r="P72" s="23"/>
-      <c r="Q72" s="23"/>
-      <c r="R72" s="31"/>
-      <c r="S72" s="31"/>
-      <c r="T72" s="31"/>
-      <c r="U72" s="23"/>
-      <c r="V72" s="39"/>
-      <c r="W72" s="39"/>
-      <c r="X72" s="42"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
+      <c r="T72" s="18"/>
+      <c r="U72" s="21"/>
+      <c r="V72" s="28"/>
+      <c r="W72" s="28"/>
+      <c r="X72" s="21"/>
       <c r="AC72" s="10"/>
       <c r="AD72" s="10"/>
       <c r="AE72" s="10"/>
@@ -5631,15 +5623,15 @@
       <c r="M73" s="15"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
-      <c r="P73" s="23"/>
-      <c r="Q73" s="23"/>
-      <c r="R73" s="31"/>
-      <c r="S73" s="31"/>
-      <c r="T73" s="31"/>
-      <c r="U73" s="23"/>
-      <c r="V73" s="39"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="42"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="18"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="28"/>
+      <c r="W73" s="28"/>
+      <c r="X73" s="21"/>
       <c r="AC73" s="11"/>
       <c r="AD73" s="11"/>
       <c r="AE73" s="11"/>
@@ -5666,15 +5658,15 @@
       <c r="M74" s="15"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7"/>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="23"/>
-      <c r="R74" s="31"/>
-      <c r="S74" s="31"/>
-      <c r="T74" s="31"/>
-      <c r="U74" s="23"/>
-      <c r="V74" s="39"/>
-      <c r="W74" s="39"/>
-      <c r="X74" s="42"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="18"/>
+      <c r="U74" s="21"/>
+      <c r="V74" s="28"/>
+      <c r="W74" s="28"/>
+      <c r="X74" s="21"/>
       <c r="AC74" s="8"/>
       <c r="AD74" s="8"/>
       <c r="AE74" s="8"/>
@@ -5699,15 +5691,15 @@
       <c r="M75" s="15"/>
       <c r="N75" s="7"/>
       <c r="O75" s="7"/>
-      <c r="P75" s="23"/>
-      <c r="Q75" s="23"/>
-      <c r="R75" s="31"/>
-      <c r="S75" s="31"/>
-      <c r="T75" s="31"/>
-      <c r="U75" s="23"/>
-      <c r="V75" s="39"/>
-      <c r="W75" s="39"/>
-      <c r="X75" s="42"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="18"/>
+      <c r="U75" s="21"/>
+      <c r="V75" s="28"/>
+      <c r="W75" s="28"/>
+      <c r="X75" s="21"/>
       <c r="AC75" s="10"/>
       <c r="AD75" s="10"/>
       <c r="AE75" s="10"/>
@@ -5732,15 +5724,15 @@
       <c r="M76" s="15"/>
       <c r="N76" s="7"/>
       <c r="O76" s="7"/>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="23"/>
-      <c r="R76" s="31"/>
-      <c r="S76" s="31"/>
-      <c r="T76" s="31"/>
-      <c r="U76" s="23"/>
-      <c r="V76" s="39"/>
-      <c r="W76" s="39"/>
-      <c r="X76" s="42"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="18"/>
+      <c r="U76" s="21"/>
+      <c r="V76" s="28"/>
+      <c r="W76" s="28"/>
+      <c r="X76" s="21"/>
       <c r="AC76" s="10"/>
       <c r="AD76" s="10"/>
       <c r="AE76" s="10"/>
@@ -5765,15 +5757,15 @@
       <c r="M77" s="15"/>
       <c r="N77" s="7"/>
       <c r="O77" s="7"/>
-      <c r="P77" s="23"/>
-      <c r="Q77" s="23"/>
-      <c r="R77" s="31"/>
-      <c r="S77" s="31"/>
-      <c r="T77" s="31"/>
-      <c r="U77" s="23"/>
-      <c r="V77" s="39"/>
-      <c r="W77" s="39"/>
-      <c r="X77" s="42"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="18"/>
+      <c r="S77" s="18"/>
+      <c r="T77" s="18"/>
+      <c r="U77" s="21"/>
+      <c r="V77" s="28"/>
+      <c r="W77" s="28"/>
+      <c r="X77" s="21"/>
       <c r="AC77" s="10"/>
       <c r="AD77" s="10"/>
       <c r="AE77" s="10"/>
@@ -5798,15 +5790,15 @@
       <c r="M78" s="15"/>
       <c r="N78" s="7"/>
       <c r="O78" s="7"/>
-      <c r="P78" s="23"/>
-      <c r="Q78" s="23"/>
-      <c r="R78" s="31"/>
-      <c r="S78" s="31"/>
-      <c r="T78" s="31"/>
-      <c r="U78" s="23"/>
-      <c r="V78" s="39"/>
-      <c r="W78" s="39"/>
-      <c r="X78" s="42"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="18"/>
+      <c r="S78" s="18"/>
+      <c r="T78" s="18"/>
+      <c r="U78" s="21"/>
+      <c r="V78" s="28"/>
+      <c r="W78" s="28"/>
+      <c r="X78" s="21"/>
       <c r="AC78" s="10"/>
       <c r="AD78" s="10"/>
       <c r="AE78" s="10"/>
@@ -5831,15 +5823,15 @@
       <c r="M79" s="15"/>
       <c r="N79" s="7"/>
       <c r="O79" s="7"/>
-      <c r="P79" s="23"/>
-      <c r="Q79" s="23"/>
-      <c r="R79" s="31"/>
-      <c r="S79" s="31"/>
-      <c r="T79" s="31"/>
-      <c r="U79" s="23"/>
-      <c r="V79" s="39"/>
-      <c r="W79" s="39"/>
-      <c r="X79" s="42"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="18"/>
+      <c r="S79" s="18"/>
+      <c r="T79" s="18"/>
+      <c r="U79" s="21"/>
+      <c r="V79" s="28"/>
+      <c r="W79" s="28"/>
+      <c r="X79" s="21"/>
       <c r="AC79" s="10"/>
       <c r="AD79" s="10"/>
       <c r="AE79" s="10"/>
@@ -5864,15 +5856,15 @@
       <c r="M80" s="15"/>
       <c r="N80" s="7"/>
       <c r="O80" s="7"/>
-      <c r="P80" s="23"/>
-      <c r="Q80" s="23"/>
-      <c r="R80" s="31"/>
-      <c r="S80" s="31"/>
-      <c r="T80" s="31"/>
-      <c r="U80" s="23"/>
-      <c r="V80" s="39"/>
-      <c r="W80" s="39"/>
-      <c r="X80" s="42"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="18"/>
+      <c r="U80" s="21"/>
+      <c r="V80" s="28"/>
+      <c r="W80" s="28"/>
+      <c r="X80" s="21"/>
       <c r="AC80" s="10"/>
       <c r="AD80" s="10"/>
       <c r="AE80" s="10"/>
@@ -5897,15 +5889,15 @@
       <c r="M81" s="15"/>
       <c r="N81" s="7"/>
       <c r="O81" s="7"/>
-      <c r="P81" s="23"/>
-      <c r="Q81" s="23"/>
-      <c r="R81" s="31"/>
-      <c r="S81" s="31"/>
-      <c r="T81" s="31"/>
-      <c r="U81" s="23"/>
-      <c r="V81" s="39"/>
-      <c r="W81" s="39"/>
-      <c r="X81" s="42"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="18"/>
+      <c r="U81" s="21"/>
+      <c r="V81" s="28"/>
+      <c r="W81" s="28"/>
+      <c r="X81" s="21"/>
       <c r="AC81" s="10"/>
       <c r="AD81" s="10"/>
       <c r="AE81" s="10"/>
@@ -5930,15 +5922,15 @@
       <c r="M82" s="15"/>
       <c r="N82" s="7"/>
       <c r="O82" s="7"/>
-      <c r="P82" s="23"/>
-      <c r="Q82" s="23"/>
-      <c r="R82" s="31"/>
-      <c r="S82" s="31"/>
-      <c r="T82" s="31"/>
-      <c r="U82" s="23"/>
-      <c r="V82" s="39"/>
-      <c r="W82" s="39"/>
-      <c r="X82" s="42"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="18"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="18"/>
+      <c r="U82" s="21"/>
+      <c r="V82" s="28"/>
+      <c r="W82" s="28"/>
+      <c r="X82" s="21"/>
       <c r="AC82" s="10"/>
       <c r="AD82" s="10"/>
       <c r="AE82" s="10"/>
@@ -5963,15 +5955,15 @@
       <c r="M83" s="15"/>
       <c r="N83" s="7"/>
       <c r="O83" s="7"/>
-      <c r="P83" s="23"/>
-      <c r="Q83" s="23"/>
-      <c r="R83" s="31"/>
-      <c r="S83" s="31"/>
-      <c r="T83" s="31"/>
-      <c r="U83" s="23"/>
-      <c r="V83" s="39"/>
-      <c r="W83" s="39"/>
-      <c r="X83" s="42"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="18"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="18"/>
+      <c r="U83" s="21"/>
+      <c r="V83" s="28"/>
+      <c r="W83" s="28"/>
+      <c r="X83" s="21"/>
       <c r="AC83" s="11"/>
       <c r="AD83" s="11"/>
       <c r="AE83" s="11"/>
@@ -6007,4 +5999,51 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="53.1538461538462" customWidth="1"/>
+    <col min="2" max="2" width="14.3846153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/行业/食品饮料/调味品/总表.xlsx
+++ b/行业/食品饮料/调味品/总表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>名称</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>3.酱油、蚝油的替代品是什么？人们为什么喜欢它们？</t>
+  </si>
+  <si>
+    <t>4.为什么要从海天获得？</t>
+  </si>
+  <si>
+    <t>价格\便利(可获得性高)</t>
   </si>
 </sst>
 </file>
@@ -6004,16 +6010,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="53.1538461538462" customWidth="1"/>
-    <col min="2" max="2" width="14.3846153846154" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6042,6 +6048,14 @@
         <v>50</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/行业/食品饮料/调味品/总表.xlsx
+++ b/行业/食品饮料/调味品/总表.xlsx
@@ -1190,7 +1190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1374,18 +1374,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1415,6 +1436,9 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2021,14 +2045,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA83"/>
+  <dimension ref="A1:AA84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G42" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51:M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2048,7 +2072,7 @@
     <col min="14" max="14" width="55.4615384615385" style="54" customWidth="1"/>
     <col min="15" max="15" width="22.1057692307692" style="54" customWidth="1"/>
     <col min="16" max="16" width="20.9230769230769" style="18" customWidth="1"/>
-    <col min="17" max="17" width="19.8461538461538" style="18"/>
+    <col min="17" max="17" width="21.7692307692308" style="18"/>
     <col min="18" max="18" width="20.9230769230769" customWidth="1"/>
     <col min="19" max="19" width="19.8461538461538" customWidth="1"/>
     <col min="20" max="20" width="17.0769230769231" style="26" customWidth="1"/>
@@ -2074,10 +2098,10 @@
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="66" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2131,10 +2155,10 @@
       <c r="W1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="69" t="s">
+      <c r="X1" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="69" t="s">
+      <c r="Y1" s="76" t="s">
         <v>34</v>
       </c>
       <c r="Z1" s="1" t="s">
@@ -2225,16 +2249,16 @@
       <c r="W2" s="15">
         <v>24559312356.59</v>
       </c>
-      <c r="X2" s="70">
+      <c r="X2" s="77">
         <v>5560600544</v>
       </c>
-      <c r="Y2" s="75">
+      <c r="Y2" s="83">
         <v>5560600544</v>
       </c>
-      <c r="Z2" s="76" t="s">
+      <c r="Z2" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="77" t="s">
+      <c r="AA2" s="85" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2313,14 +2337,14 @@
       <c r="W3" s="15">
         <v>25609651543.29</v>
       </c>
-      <c r="X3" s="71">
+      <c r="X3" s="78">
         <v>4633833787</v>
       </c>
-      <c r="Y3" s="75">
+      <c r="Y3" s="83">
         <v>4633833787</v>
       </c>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="78"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="86"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="59"/>
@@ -2397,14 +2421,14 @@
       <c r="W4" s="15">
         <v>25004031043.49</v>
       </c>
-      <c r="X4" s="71">
+      <c r="X4" s="78">
         <v>4212576170</v>
       </c>
-      <c r="Y4" s="75">
+      <c r="Y4" s="83">
         <v>4212576170</v>
       </c>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="78"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="86"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="59"/>
@@ -2481,14 +2505,14 @@
       <c r="W5" s="15">
         <v>22791873936.49</v>
       </c>
-      <c r="X5" s="71">
+      <c r="X5" s="78">
         <v>3240443208</v>
       </c>
-      <c r="Y5" s="75">
+      <c r="Y5" s="83">
         <v>3240443208</v>
       </c>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="78"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="86"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="59"/>
@@ -2517,7 +2541,7 @@
         <f t="shared" si="8"/>
         <v>0.216379850032756</v>
       </c>
-      <c r="J6" s="63">
+      <c r="J6" s="69">
         <f t="shared" si="3"/>
         <v>0.226618472154364</v>
       </c>
@@ -2563,14 +2587,14 @@
       <c r="W6" s="15">
         <v>19796889800.07</v>
       </c>
-      <c r="X6" s="71">
+      <c r="X6" s="78">
         <v>2700369340</v>
       </c>
-      <c r="Y6" s="75">
+      <c r="Y6" s="83">
         <v>2700369340</v>
       </c>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="78"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="86"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="59"/>
@@ -2599,7 +2623,7 @@
         <f t="shared" si="8"/>
         <v>0.216775191060352</v>
       </c>
-      <c r="J7" s="63">
+      <c r="J7" s="69">
         <f t="shared" si="3"/>
         <v>0.236500047209247</v>
       </c>
@@ -2647,14 +2671,14 @@
       <c r="W7" s="15">
         <v>17034475127.23</v>
       </c>
-      <c r="X7" s="71">
+      <c r="X7" s="78">
         <v>2700369340</v>
       </c>
-      <c r="Y7" s="75">
+      <c r="Y7" s="83">
         <v>2696886700</v>
       </c>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="78"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="86"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="59"/>
@@ -2683,7 +2707,7 @@
         <f t="shared" si="8"/>
         <v>0.216177529989466</v>
       </c>
-      <c r="J8" s="63">
+      <c r="J8" s="69">
         <f t="shared" si="3"/>
         <v>0.242107765186688</v>
       </c>
@@ -2716,10 +2740,10 @@
       <c r="R8" s="13">
         <v>11764173507.61</v>
       </c>
-      <c r="S8" s="66">
+      <c r="S8" s="73">
         <v>3531478779.33</v>
       </c>
-      <c r="T8" s="67">
+      <c r="T8" s="74">
         <v>632104.08</v>
       </c>
       <c r="U8" s="50">
@@ -2728,17 +2752,17 @@
       <c r="V8" s="15">
         <v>4720977581.77</v>
       </c>
-      <c r="W8" s="72">
+      <c r="W8" s="79">
         <v>14584310896.6</v>
       </c>
-      <c r="X8" s="71">
+      <c r="X8" s="78">
         <v>2701206700</v>
       </c>
-      <c r="Y8" s="70">
+      <c r="Y8" s="77">
         <v>2696886700</v>
       </c>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="78"/>
+      <c r="Z8" s="84"/>
+      <c r="AA8" s="86"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="59"/>
@@ -2815,14 +2839,14 @@
       <c r="W9" s="15">
         <v>12458558940.81</v>
       </c>
-      <c r="X9" s="71">
+      <c r="X9" s="78">
         <v>2704950700</v>
       </c>
-      <c r="Y9" s="73">
+      <c r="Y9" s="80">
         <v>271746700</v>
       </c>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="78"/>
+      <c r="Z9" s="84"/>
+      <c r="AA9" s="86"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="59"/>
@@ -2884,7 +2908,7 @@
       <c r="R10" s="13">
         <v>8751125601.73</v>
       </c>
-      <c r="S10" s="68">
+      <c r="S10" s="75">
         <v>2509632367.33</v>
       </c>
       <c r="T10" s="21">
@@ -2899,14 +2923,14 @@
       <c r="W10" s="15">
         <v>11294380030.09</v>
       </c>
-      <c r="X10" s="71">
+      <c r="X10" s="78">
         <v>2706246000</v>
       </c>
-      <c r="Y10" s="70">
+      <c r="Y10" s="77">
         <v>269460000</v>
       </c>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="78"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="86"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="59"/>
@@ -2968,7 +2992,7 @@
       <c r="R11" s="13">
         <v>7487912155.39</v>
       </c>
-      <c r="S11" s="68">
+      <c r="S11" s="75">
         <v>2089906049.53</v>
       </c>
       <c r="T11" s="21">
@@ -2983,14 +3007,14 @@
       <c r="W11" s="15">
         <v>9817189662.62</v>
       </c>
-      <c r="X11" s="71">
+      <c r="X11" s="78">
         <v>1503580000</v>
       </c>
-      <c r="Y11" s="70">
+      <c r="Y11" s="77">
         <v>149700000</v>
       </c>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="78"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="86"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="59"/>
@@ -3050,7 +3074,7 @@
       <c r="R12" s="13">
         <v>3914438998.01</v>
       </c>
-      <c r="S12" s="68">
+      <c r="S12" s="75">
         <v>1606418791.67</v>
       </c>
       <c r="T12" s="15">
@@ -3065,15 +3089,15 @@
       <c r="W12" s="15">
         <v>8401589320.86</v>
       </c>
-      <c r="X12" s="71">
+      <c r="X12" s="78">
         <f>71100*10000</f>
         <v>711000000</v>
       </c>
-      <c r="Y12" s="73">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="78"/>
+      <c r="Y12" s="80">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="86"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="59"/>
@@ -3130,7 +3154,7 @@
       <c r="R13" s="11">
         <v>3658927527.25</v>
       </c>
-      <c r="S13" s="68">
+      <c r="S13" s="75">
         <v>1207566852.96</v>
       </c>
       <c r="T13" s="15">
@@ -3145,15 +3169,15 @@
       <c r="W13" s="15">
         <v>7069591619.67</v>
       </c>
-      <c r="X13" s="71">
+      <c r="X13" s="78">
         <f>71100*10000</f>
         <v>711000000</v>
       </c>
-      <c r="Y13" s="73">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="78"/>
+      <c r="Y13" s="80">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="86"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="59"/>
@@ -3188,7 +3212,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="68">
+      <c r="S14" s="75">
         <v>955684713.08</v>
       </c>
       <c r="T14" s="15"/>
@@ -3197,10 +3221,10 @@
       <c r="W14" s="40">
         <v>6090560144.37</v>
       </c>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="78"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="86"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="60"/>
@@ -3223,7 +3247,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="68">
+      <c r="S15" s="75">
         <v>814184256.9</v>
       </c>
       <c r="T15" s="15"/>
@@ -3232,10 +3256,10 @@
       <c r="W15" s="40">
         <v>5515507551.31</v>
       </c>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="78"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="86"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="57" t="s">
@@ -3283,18 +3307,18 @@
         <f t="shared" ref="M16:M26" si="11">(X16-X17)/X17</f>
         <v>0</v>
       </c>
-      <c r="O16" s="64"/>
-      <c r="P16" s="65">
+      <c r="O16" s="71"/>
+      <c r="P16" s="72">
         <v>6718881439.74</v>
       </c>
       <c r="Q16" s="11">
         <f>P16-R16</f>
         <v>1518352188.76</v>
       </c>
-      <c r="R16" s="65">
+      <c r="R16" s="72">
         <v>5200529250.98</v>
       </c>
-      <c r="S16" s="65">
+      <c r="S16" s="72">
         <v>1737033635.91</v>
       </c>
       <c r="T16" s="15">
@@ -3309,14 +3333,14 @@
       <c r="W16" s="26">
         <v>5139091906.63</v>
       </c>
-      <c r="X16" s="70">
+      <c r="X16" s="77">
         <v>785375950</v>
       </c>
-      <c r="Y16" s="70">
+      <c r="Y16" s="77">
         <v>785375950</v>
       </c>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="79"/>
+      <c r="AA16" s="87"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="59"/>
@@ -3370,7 +3394,7 @@
       <c r="R17" s="13">
         <v>3464836366.55</v>
       </c>
-      <c r="S17" s="68">
+      <c r="S17" s="75">
         <v>-554562529.62</v>
       </c>
       <c r="T17" s="15">
@@ -3382,17 +3406,17 @@
       <c r="V17" s="15">
         <v>677654835.65</v>
       </c>
-      <c r="W17" s="74">
+      <c r="W17" s="81">
         <v>5341040998.68</v>
       </c>
-      <c r="X17" s="70">
+      <c r="X17" s="77">
         <v>785375950</v>
       </c>
-      <c r="Y17" s="70">
+      <c r="Y17" s="77">
         <v>785375950</v>
       </c>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="79"/>
+      <c r="AA17" s="87"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="59"/>
@@ -3446,7 +3470,7 @@
       <c r="R18" s="13">
         <v>4250369296.86</v>
       </c>
-      <c r="S18" s="68">
+      <c r="S18" s="75">
         <v>784220450.63</v>
       </c>
       <c r="T18" s="15">
@@ -3458,17 +3482,17 @@
       <c r="V18" s="15">
         <v>1212493363.66</v>
       </c>
-      <c r="W18" s="74">
+      <c r="W18" s="81">
         <v>5115649704.3</v>
       </c>
-      <c r="X18" s="70">
+      <c r="X18" s="77">
         <v>796637194</v>
       </c>
-      <c r="Y18" s="70">
+      <c r="Y18" s="77">
         <v>796637194</v>
       </c>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="79"/>
+      <c r="AA18" s="87"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="59"/>
@@ -3522,7 +3546,7 @@
       <c r="R19" s="13">
         <v>4991639172.49</v>
       </c>
-      <c r="S19" s="68">
+      <c r="S19" s="75">
         <v>971371651.68</v>
       </c>
       <c r="T19" s="15">
@@ -3534,17 +3558,17 @@
       <c r="V19" s="15">
         <v>1000999170.24</v>
       </c>
-      <c r="W19" s="74">
+      <c r="W19" s="81">
         <v>5123374813.83</v>
       </c>
-      <c r="X19" s="70">
+      <c r="X19" s="77">
         <v>796637194</v>
       </c>
-      <c r="Y19" s="70">
+      <c r="Y19" s="77">
         <v>796637194</v>
       </c>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="79"/>
+      <c r="AA19" s="87"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="59"/>
@@ -3598,7 +3622,7 @@
       <c r="R20" s="13">
         <v>4245796115.38</v>
       </c>
-      <c r="S20" s="68">
+      <c r="S20" s="75">
         <v>791329913.47</v>
       </c>
       <c r="T20" s="15">
@@ -3613,14 +3637,14 @@
       <c r="W20" s="21">
         <v>4674844437.35</v>
       </c>
-      <c r="X20" s="70">
+      <c r="X20" s="77">
         <v>796637194</v>
       </c>
-      <c r="Y20" s="70">
+      <c r="Y20" s="77">
         <v>796637194</v>
       </c>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="79"/>
+      <c r="AA20" s="87"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="59"/>
@@ -3674,7 +3698,7 @@
       <c r="R21" s="13">
         <v>3947798751.9</v>
       </c>
-      <c r="S21" s="68">
+      <c r="S21" s="75">
         <v>681238068.35</v>
       </c>
       <c r="T21" s="15">
@@ -3689,14 +3713,14 @@
       <c r="W21" s="21">
         <v>4166464950.31</v>
       </c>
-      <c r="X21" s="70">
+      <c r="X21" s="77">
         <v>796637194</v>
       </c>
-      <c r="Y21" s="70">
+      <c r="Y21" s="77">
         <v>796637194</v>
       </c>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="79"/>
+      <c r="AA21" s="87"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="59"/>
@@ -3750,7 +3774,7 @@
       <c r="R22" s="13">
         <v>3450155650.06</v>
       </c>
-      <c r="S22" s="68">
+      <c r="S22" s="75">
         <v>511404568.06</v>
       </c>
       <c r="T22" s="15">
@@ -3765,14 +3789,14 @@
       <c r="W22" s="21">
         <v>3609371700.99</v>
       </c>
-      <c r="X22" s="70">
+      <c r="X22" s="77">
         <v>796637194</v>
       </c>
-      <c r="Y22" s="70">
+      <c r="Y22" s="77">
         <v>796637194</v>
       </c>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="79"/>
+      <c r="AA22" s="87"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="59"/>
@@ -3826,7 +3850,7 @@
       <c r="R23" s="13">
         <v>3089104604.76</v>
       </c>
-      <c r="S23" s="68">
+      <c r="S23" s="75">
         <v>410264038.18</v>
       </c>
       <c r="T23" s="15">
@@ -3841,14 +3865,14 @@
       <c r="W23" s="21">
         <v>3157988862.51</v>
       </c>
-      <c r="X23" s="70">
+      <c r="X23" s="77">
         <v>796637194</v>
       </c>
-      <c r="Y23" s="70">
+      <c r="Y23" s="77">
         <v>796637194</v>
       </c>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="79"/>
+      <c r="AA23" s="87"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="59"/>
@@ -3902,7 +3926,7 @@
       <c r="R24" s="13">
         <v>2798588123.5</v>
       </c>
-      <c r="S24" s="68">
+      <c r="S24" s="75">
         <v>274062707.38</v>
       </c>
       <c r="T24" s="15">
@@ -3917,14 +3941,14 @@
       <c r="W24" s="21">
         <v>2758585298.86</v>
       </c>
-      <c r="X24" s="70">
+      <c r="X24" s="77">
         <v>796637194</v>
       </c>
-      <c r="Y24" s="70">
+      <c r="Y24" s="77">
         <v>796637194</v>
       </c>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="79"/>
+      <c r="AA24" s="87"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="59"/>
@@ -3978,7 +4002,7 @@
       <c r="R25" s="13">
         <v>2612537101.13</v>
       </c>
-      <c r="S25" s="68">
+      <c r="S25" s="75">
         <v>292629718.44</v>
       </c>
       <c r="T25" s="15">
@@ -3993,14 +4017,14 @@
       <c r="W25" s="21">
         <v>2641896888.88</v>
       </c>
-      <c r="X25" s="70">
+      <c r="X25" s="77">
         <v>796637194</v>
       </c>
-      <c r="Y25" s="70">
+      <c r="Y25" s="77">
         <v>796637194</v>
       </c>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="79"/>
+      <c r="AA25" s="87"/>
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="59"/>
@@ -4054,7 +4078,7 @@
       <c r="R26" s="13">
         <v>2384818024.28</v>
       </c>
-      <c r="S26" s="68">
+      <c r="S26" s="75">
         <v>220352606.18</v>
       </c>
       <c r="T26" s="15">
@@ -4069,14 +4093,14 @@
       <c r="W26" s="21">
         <v>2318190695.54</v>
       </c>
-      <c r="X26" s="70">
+      <c r="X26" s="77">
         <v>796637194</v>
       </c>
-      <c r="Y26" s="70">
+      <c r="Y26" s="77">
         <v>796637194</v>
       </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="79"/>
+      <c r="AA26" s="87"/>
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="59"/>
@@ -4118,7 +4142,7 @@
       <c r="R27" s="13">
         <v>2189553863.83</v>
       </c>
-      <c r="S27" s="68">
+      <c r="S27" s="75">
         <v>122413432.23</v>
       </c>
       <c r="T27" s="15">
@@ -4133,14 +4157,14 @@
       <c r="W27" s="21">
         <v>1754338281.65</v>
       </c>
-      <c r="X27" s="70">
+      <c r="X27" s="77">
         <v>796637194</v>
       </c>
-      <c r="Y27" s="70">
+      <c r="Y27" s="77">
         <v>796637194</v>
       </c>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="79"/>
+      <c r="AA27" s="87"/>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="59"/>
@@ -4168,10 +4192,10 @@
       <c r="U28" s="15"/>
       <c r="V28" s="15"/>
       <c r="W28" s="2"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="73"/>
+      <c r="X28" s="80"/>
+      <c r="Y28" s="80"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="79"/>
+      <c r="AA28" s="87"/>
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="60"/>
@@ -4199,10 +4223,10 @@
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
       <c r="W29" s="2"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="80"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="79"/>
+      <c r="AA29" s="87"/>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="57" t="s">
@@ -4250,7 +4274,7 @@
         <f t="shared" ref="M30:M37" si="19">(X30-X31)/X31</f>
         <v>0.0645826251064263</v>
       </c>
-      <c r="O30" s="64"/>
+      <c r="O30" s="71"/>
       <c r="P30" s="26">
         <v>4267793815.23</v>
       </c>
@@ -4276,14 +4300,14 @@
       <c r="W30" s="26">
         <v>3206797965.72</v>
       </c>
-      <c r="X30" s="73">
+      <c r="X30" s="80">
         <v>1027821086</v>
       </c>
-      <c r="Y30" s="73">
+      <c r="Y30" s="80">
         <v>958538590</v>
       </c>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="79"/>
+      <c r="AA30" s="87"/>
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="59"/>
@@ -4349,17 +4373,17 @@
       <c r="V31" s="15">
         <v>773383847.4</v>
       </c>
-      <c r="W31" s="74">
+      <c r="W31" s="81">
         <v>2436471672.19</v>
       </c>
-      <c r="X31" s="73">
+      <c r="X31" s="80">
         <v>965468590</v>
       </c>
-      <c r="Y31" s="73">
+      <c r="Y31" s="80">
         <v>958538590</v>
       </c>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="79"/>
+      <c r="AA31" s="87"/>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="59"/>
@@ -4425,17 +4449,17 @@
       <c r="V32" s="15">
         <v>178187852.39</v>
       </c>
-      <c r="W32" s="74">
+      <c r="W32" s="81">
         <v>1925286294.09</v>
       </c>
-      <c r="X32" s="73">
+      <c r="X32" s="80">
         <v>798782158</v>
       </c>
-      <c r="Y32" s="73">
+      <c r="Y32" s="80">
         <v>794566246</v>
       </c>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="79"/>
+      <c r="AA32" s="87"/>
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="59"/>
@@ -4501,17 +4525,17 @@
       <c r="V33" s="15">
         <v>378030105.44</v>
       </c>
-      <c r="W33" s="74">
+      <c r="W33" s="81">
         <v>1693273982.03</v>
       </c>
-      <c r="X33" s="73">
+      <c r="X33" s="80">
         <v>665675318</v>
       </c>
-      <c r="Y33" s="73">
+      <c r="Y33" s="80">
         <v>659771876</v>
       </c>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="79"/>
+      <c r="AA33" s="87"/>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="59"/>
@@ -4577,17 +4601,17 @@
       <c r="V34" s="15">
         <v>191991964.23</v>
       </c>
-      <c r="W34" s="74">
+      <c r="W34" s="81">
         <v>1355147203.67</v>
       </c>
-      <c r="X34" s="73">
+      <c r="X34" s="80">
         <v>465850722</v>
       </c>
-      <c r="Y34" s="73">
+      <c r="Y34" s="80">
         <v>459810506</v>
       </c>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="79"/>
+      <c r="AA34" s="87"/>
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="59"/>
@@ -4605,7 +4629,7 @@
         <f t="shared" si="23"/>
         <v>0.1837137290892</v>
       </c>
-      <c r="H35" s="62">
+      <c r="H35" s="67">
         <f t="shared" si="24"/>
         <v>0.323453266079702</v>
       </c>
@@ -4653,17 +4677,17 @@
       <c r="V35" s="15">
         <v>243412728.61</v>
       </c>
-      <c r="W35" s="74">
+      <c r="W35" s="81">
         <v>1065445794.48</v>
       </c>
-      <c r="X35" s="73">
+      <c r="X35" s="80">
         <v>326202714</v>
       </c>
-      <c r="Y35" s="73">
+      <c r="Y35" s="80">
         <v>134964546</v>
       </c>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="79"/>
+      <c r="AA35" s="87"/>
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="59"/>
@@ -4729,17 +4753,17 @@
       <c r="V36" s="15">
         <v>174843670.03</v>
       </c>
-      <c r="W36" s="74">
+      <c r="W36" s="81">
         <v>948167111.51</v>
       </c>
-      <c r="X36" s="73">
+      <c r="X36" s="80">
         <v>325985200</v>
       </c>
-      <c r="Y36" s="73">
+      <c r="Y36" s="80">
         <v>133190272</v>
       </c>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="79"/>
+      <c r="AA36" s="87"/>
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="59"/>
@@ -4793,7 +4817,7 @@
       <c r="R37" s="13">
         <v>890420754.13</v>
       </c>
-      <c r="S37" s="68">
+      <c r="S37" s="75">
         <v>100088565.58</v>
       </c>
       <c r="T37" s="15">
@@ -4805,17 +4829,17 @@
       <c r="V37" s="15">
         <v>69492005.89</v>
       </c>
-      <c r="W37" s="74">
+      <c r="W37" s="81">
         <v>770860990.83</v>
       </c>
-      <c r="X37" s="73">
+      <c r="X37" s="80">
         <v>160000000</v>
       </c>
-      <c r="Y37" s="73">
+      <c r="Y37" s="80">
         <v>40000000</v>
       </c>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="79"/>
+      <c r="AA37" s="87"/>
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="59"/>
@@ -4866,7 +4890,7 @@
       <c r="R38" s="13">
         <v>467498088.49</v>
       </c>
-      <c r="S38" s="68">
+      <c r="S38" s="75">
         <v>66531118.6</v>
       </c>
       <c r="T38" s="15">
@@ -4882,14 +4906,14 @@
       <c r="W38" s="15">
         <v>623585955.63</v>
       </c>
-      <c r="X38" s="73">
+      <c r="X38" s="80">
         <v>120000000</v>
       </c>
-      <c r="Y38" s="73">
+      <c r="Y38" s="80">
         <v>0</v>
       </c>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="79"/>
+      <c r="AA38" s="87"/>
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="59"/>
@@ -4940,7 +4964,7 @@
       <c r="R39" s="50">
         <v>400966969.89</v>
       </c>
-      <c r="S39" s="68">
+      <c r="S39" s="75">
         <v>52970324.69</v>
       </c>
       <c r="T39" s="15">
@@ -4956,10 +4980,10 @@
       <c r="W39" s="15">
         <v>650775844.37</v>
       </c>
-      <c r="X39" s="73"/>
-      <c r="Y39" s="73"/>
+      <c r="X39" s="80"/>
+      <c r="Y39" s="80"/>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="79"/>
+      <c r="AA39" s="87"/>
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="59"/>
@@ -5001,7 +5025,7 @@
       <c r="R40" s="50">
         <v>361196645.2</v>
       </c>
-      <c r="S40" s="68">
+      <c r="S40" s="75">
         <v>70469172.6</v>
       </c>
       <c r="T40" s="15">
@@ -5017,10 +5041,10 @@
       <c r="W40" s="22">
         <v>612649198.93</v>
       </c>
-      <c r="X40" s="73"/>
-      <c r="Y40" s="73"/>
+      <c r="X40" s="80"/>
+      <c r="Y40" s="80"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="79"/>
+      <c r="AA40" s="87"/>
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="59"/>
@@ -5048,10 +5072,10 @@
       <c r="U41" s="15"/>
       <c r="V41" s="15"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="73"/>
-      <c r="Y41" s="73"/>
+      <c r="X41" s="80"/>
+      <c r="Y41" s="80"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="79"/>
+      <c r="AA41" s="87"/>
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="59"/>
@@ -5079,10 +5103,10 @@
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
       <c r="W42" s="2"/>
-      <c r="X42" s="73"/>
-      <c r="Y42" s="73"/>
+      <c r="X42" s="80"/>
+      <c r="Y42" s="80"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="79"/>
+      <c r="AA42" s="87"/>
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="60"/>
@@ -5110,13 +5134,13 @@
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
       <c r="W43" s="2"/>
-      <c r="X43" s="73"/>
-      <c r="Y43" s="73"/>
+      <c r="X43" s="80"/>
+      <c r="Y43" s="80"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="79"/>
+      <c r="AA43" s="87"/>
     </row>
     <row r="44" spans="1:27">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="61" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="1">
@@ -5128,661 +5152,1521 @@
       <c r="D44" s="57">
         <v>2016</v>
       </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
+      <c r="E44" s="34">
+        <f>(S44+T44)/(R44+负债表!F45)</f>
+        <v>0.17907164091712</v>
+      </c>
+      <c r="F44" s="34">
+        <f>(S44+T44)/P44</f>
+        <v>0.150529082963605</v>
+      </c>
+      <c r="G44" s="34">
+        <f>S44/R44</f>
+        <v>0.178218693325945</v>
+      </c>
+      <c r="H44" s="34">
+        <f>Q44/P44</f>
+        <v>0.15939183785514</v>
+      </c>
+      <c r="I44" s="34">
+        <f>S44/P44</f>
+        <v>0.149812088256581</v>
+      </c>
+      <c r="J44" s="35">
+        <f>(S44-S45)/S45</f>
+        <v>0.111572992673894</v>
+      </c>
+      <c r="K44" s="32">
+        <f>(W44-W45)/W45</f>
+        <v>9.14265486103734e-5</v>
+      </c>
+      <c r="L44" s="39">
+        <f>(V44-V45)/V45</f>
+        <v>-0.245966822505594</v>
+      </c>
+      <c r="M44" s="32" t="e">
+        <f>(X44-X45)/X45</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N44" s="32"/>
       <c r="O44" s="32"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="73"/>
-      <c r="Y44" s="73"/>
+      <c r="P44" s="11">
+        <f>6054438*1000</f>
+        <v>6054438000</v>
+      </c>
+      <c r="Q44" s="11">
+        <f>P44-R44</f>
+        <v>965028000</v>
+      </c>
+      <c r="R44" s="15">
+        <f>5089410*1000</f>
+        <v>5089410000</v>
+      </c>
+      <c r="S44" s="15">
+        <f>907028*1000</f>
+        <v>907028000</v>
+      </c>
+      <c r="T44" s="15">
+        <f>4341*1000</f>
+        <v>4341000</v>
+      </c>
+      <c r="U44" s="15">
+        <f>357089*1000</f>
+        <v>357089000</v>
+      </c>
+      <c r="V44" s="15">
+        <f>958999*1000</f>
+        <v>958999000</v>
+      </c>
+      <c r="W44" s="15">
+        <f>6147573*1000</f>
+        <v>6147573000</v>
+      </c>
+      <c r="X44" s="80"/>
+      <c r="Y44" s="80"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="79"/>
+      <c r="AA44" s="87"/>
     </row>
     <row r="45" spans="1:27">
-      <c r="A45" s="1"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="1">
         <v>2022</v>
       </c>
       <c r="C45" s="59"/>
       <c r="D45" s="59"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
+      <c r="E45" s="34">
+        <f>(S45+T45)/(R45+负债表!F46)</f>
+        <v>0.181141325993422</v>
+      </c>
+      <c r="F45" s="34">
+        <f>(S45+T45)/P45</f>
+        <v>0.148045149121115</v>
+      </c>
+      <c r="G45" s="34">
+        <f t="shared" ref="G45:G51" si="28">S45/R45</f>
+        <v>0.179850611227058</v>
+      </c>
+      <c r="H45" s="34">
+        <f t="shared" ref="H45:H51" si="29">Q45/P45</f>
+        <v>0.182709145418914</v>
+      </c>
+      <c r="I45" s="34">
+        <f t="shared" ref="I45:I51" si="30">S45/P45</f>
+        <v>0.146990259746693</v>
+      </c>
+      <c r="J45" s="35">
+        <f t="shared" ref="J45:J51" si="31">(S45-S46)/S46</f>
+        <v>-0.0484782971200815</v>
+      </c>
+      <c r="K45" s="32">
+        <f t="shared" ref="K45:K51" si="32">(W45-W46)/W46</f>
+        <v>0.034394610993776</v>
+      </c>
+      <c r="L45" s="39">
+        <f t="shared" ref="L45:L51" si="33">(V45-V46)/V46</f>
+        <v>0.533264455586512</v>
+      </c>
+      <c r="M45" s="32" t="e">
+        <f t="shared" ref="M45:M51" si="34">(X45-X46)/X46</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N45" s="32"/>
       <c r="O45" s="32"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="73"/>
-      <c r="Y45" s="73"/>
+      <c r="P45" s="11">
+        <f>5551293*1000</f>
+        <v>5551293000</v>
+      </c>
+      <c r="Q45" s="11">
+        <f>P45-R45</f>
+        <v>1014272000</v>
+      </c>
+      <c r="R45" s="15">
+        <f>4537021*1000</f>
+        <v>4537021000</v>
+      </c>
+      <c r="S45" s="15">
+        <f>815986*1000</f>
+        <v>815986000</v>
+      </c>
+      <c r="T45" s="15">
+        <f>5856*1000</f>
+        <v>5856000</v>
+      </c>
+      <c r="U45" s="15">
+        <f>326161*1000</f>
+        <v>326161000</v>
+      </c>
+      <c r="V45" s="15">
+        <f>1271826*1000</f>
+        <v>1271826000</v>
+      </c>
+      <c r="W45" s="15">
+        <f>6147011*1000</f>
+        <v>6147011000</v>
+      </c>
+      <c r="X45" s="80"/>
+      <c r="Y45" s="80"/>
       <c r="Z45" s="2"/>
-      <c r="AA45" s="79"/>
+      <c r="AA45" s="87"/>
     </row>
     <row r="46" spans="1:27">
-      <c r="A46" s="1"/>
+      <c r="A46" s="62"/>
       <c r="B46" s="1">
         <v>2021</v>
       </c>
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
+      <c r="E46" s="34">
+        <f>(S46+T46)/(R46+负债表!F47)</f>
+        <v>0.210048540475708</v>
+      </c>
+      <c r="F46" s="34">
+        <f>(S46+T46)/P46</f>
+        <v>0.17243167838743</v>
+      </c>
+      <c r="G46" s="34">
+        <f t="shared" si="28"/>
+        <v>0.208716013878721</v>
+      </c>
+      <c r="H46" s="34">
+        <f t="shared" si="29"/>
+        <v>0.179086519730562</v>
+      </c>
+      <c r="I46" s="34">
+        <f t="shared" si="30"/>
+        <v>0.171337789341145</v>
+      </c>
+      <c r="J46" s="35">
+        <f t="shared" si="31"/>
+        <v>-0.127486999687647</v>
+      </c>
+      <c r="K46" s="32">
+        <f t="shared" si="32"/>
+        <v>0.108692857733207</v>
+      </c>
+      <c r="L46" s="39">
+        <f t="shared" si="33"/>
+        <v>-0.308040682241728</v>
+      </c>
+      <c r="M46" s="32" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N46" s="32"/>
       <c r="O46" s="32"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="73"/>
-      <c r="Y46" s="73"/>
+      <c r="P46" s="11">
+        <f>5005078*1000</f>
+        <v>5005078000</v>
+      </c>
+      <c r="Q46" s="11">
+        <f>P46-R46</f>
+        <v>896342000</v>
+      </c>
+      <c r="R46" s="15">
+        <f>4108736*1000</f>
+        <v>4108736000</v>
+      </c>
+      <c r="S46" s="15">
+        <f>857559*1000</f>
+        <v>857559000</v>
+      </c>
+      <c r="T46" s="15">
+        <f>5475*1000</f>
+        <v>5475000</v>
+      </c>
+      <c r="U46" s="15">
+        <f>312602*1000</f>
+        <v>312602000</v>
+      </c>
+      <c r="V46" s="15">
+        <f>829489*1000</f>
+        <v>829489000</v>
+      </c>
+      <c r="W46" s="15">
+        <f>5942617*1000</f>
+        <v>5942617000</v>
+      </c>
+      <c r="X46" s="80"/>
+      <c r="Y46" s="80"/>
       <c r="Z46" s="2"/>
-      <c r="AA46" s="79"/>
+      <c r="AA46" s="87"/>
     </row>
     <row r="47" spans="1:27">
-      <c r="A47" s="1"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="1">
         <v>2020</v>
       </c>
       <c r="C47" s="59"/>
       <c r="D47" s="59"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
+      <c r="E47" s="34">
+        <f>(S47+T47)/(R47+负债表!F48)</f>
+        <v>0.280302721976146</v>
+      </c>
+      <c r="F47" s="34">
+        <f>(S47+T47)/P47</f>
+        <v>0.229715716107026</v>
+      </c>
+      <c r="G47" s="34">
+        <f t="shared" si="28"/>
+        <v>0.279731510846323</v>
+      </c>
+      <c r="H47" s="34">
+        <f t="shared" si="29"/>
+        <v>0.180472759994906</v>
+      </c>
+      <c r="I47" s="34">
+        <f t="shared" si="30"/>
+        <v>0.229247593026342</v>
+      </c>
+      <c r="J47" s="39">
+        <f t="shared" si="31"/>
+        <v>0.236295369211514</v>
+      </c>
+      <c r="K47" s="32">
+        <f t="shared" si="32"/>
+        <v>0.251613781521396</v>
+      </c>
+      <c r="L47" s="39">
+        <f t="shared" si="33"/>
+        <v>0.260000084087316</v>
+      </c>
+      <c r="M47" s="32" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N47" s="32"/>
       <c r="O47" s="32"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="73"/>
-      <c r="Y47" s="73"/>
+      <c r="P47" s="11">
+        <f>4287334*1000</f>
+        <v>4287334000</v>
+      </c>
+      <c r="Q47" s="11">
+        <f>P47-R47</f>
+        <v>773747000</v>
+      </c>
+      <c r="R47" s="15">
+        <f>3513587*1000</f>
+        <v>3513587000</v>
+      </c>
+      <c r="S47" s="15">
+        <f>982861*1000</f>
+        <v>982861000</v>
+      </c>
+      <c r="T47" s="15">
+        <f>2007*1000</f>
+        <v>2007000</v>
+      </c>
+      <c r="U47" s="15">
+        <f>312602*1000</f>
+        <v>312602000</v>
+      </c>
+      <c r="V47" s="15">
+        <f>1198754*1000</f>
+        <v>1198754000</v>
+      </c>
+      <c r="W47" s="15">
+        <f>5360021*1000</f>
+        <v>5360021000</v>
+      </c>
+      <c r="X47" s="80"/>
+      <c r="Y47" s="80"/>
       <c r="Z47" s="2"/>
-      <c r="AA47" s="79"/>
+      <c r="AA47" s="87"/>
     </row>
     <row r="48" spans="1:27">
-      <c r="A48" s="1"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="1">
         <v>2019</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="59"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
+      <c r="E48" s="34">
+        <f>(S48+U48)/(R48+负债表!F49)</f>
+        <v>0.400865495884203</v>
+      </c>
+      <c r="F48" s="34">
+        <f>(S48+U48)/P48</f>
+        <v>0.330224101993175</v>
+      </c>
+      <c r="G48" s="34">
+        <f t="shared" si="28"/>
+        <v>0.291408417508294</v>
+      </c>
+      <c r="H48" s="34">
+        <f t="shared" si="29"/>
+        <v>0.176222185786311</v>
+      </c>
+      <c r="I48" s="34">
+        <f t="shared" si="30"/>
+        <v>0.240055789218453</v>
+      </c>
+      <c r="J48" s="39">
+        <f t="shared" si="31"/>
+        <v>0.450993239691625</v>
+      </c>
+      <c r="K48" s="32">
+        <f t="shared" si="32"/>
+        <v>0.597125054962514</v>
+      </c>
+      <c r="L48" s="39">
+        <f t="shared" si="33"/>
+        <v>1.89554464636258</v>
+      </c>
+      <c r="M48" s="32" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N48" s="32"/>
       <c r="O48" s="32"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="73"/>
-      <c r="Y48" s="73"/>
+      <c r="P48" s="11">
+        <f>3311751*1000</f>
+        <v>3311751000</v>
+      </c>
+      <c r="Q48" s="11">
+        <f>P48-R48</f>
+        <v>583604000</v>
+      </c>
+      <c r="R48" s="15">
+        <f>2728147*1000</f>
+        <v>2728147000</v>
+      </c>
+      <c r="S48" s="15">
+        <f>795005*1000</f>
+        <v>795005000</v>
+      </c>
+      <c r="T48" s="72">
+        <v>1560</v>
+      </c>
+      <c r="U48" s="15">
+        <f>298615*1000</f>
+        <v>298615000</v>
+      </c>
+      <c r="V48" s="15">
+        <f>951392*1000</f>
+        <v>951392000</v>
+      </c>
+      <c r="W48" s="15">
+        <f>4282488*1000</f>
+        <v>4282488000</v>
+      </c>
+      <c r="X48" s="80"/>
+      <c r="Y48" s="80"/>
       <c r="Z48" s="2"/>
-      <c r="AA48" s="79"/>
+      <c r="AA48" s="87"/>
     </row>
     <row r="49" spans="1:27">
-      <c r="A49" s="1"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="1">
         <v>2018</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="59"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
+      <c r="E49" s="34">
+        <f>(S49+U49)/(R49+负债表!F50)</f>
+        <v>0.358137706088235</v>
+      </c>
+      <c r="F49" s="34">
+        <f>(S49+U49)/P49</f>
+        <v>0.296705698000722</v>
+      </c>
+      <c r="G49" s="34">
+        <f t="shared" si="28"/>
+        <v>0.268617129499574</v>
+      </c>
+      <c r="H49" s="34">
+        <f t="shared" si="29"/>
+        <v>0.171531807579003</v>
+      </c>
+      <c r="I49" s="34">
+        <f t="shared" si="30"/>
+        <v>0.222540747729829</v>
+      </c>
+      <c r="J49" s="39">
+        <f t="shared" si="31"/>
+        <v>1.09852541269294</v>
+      </c>
+      <c r="K49" s="32">
+        <f t="shared" si="32"/>
+        <v>0.628805002487515</v>
+      </c>
+      <c r="L49" s="39">
+        <f t="shared" si="33"/>
+        <v>-0.0697362982089569</v>
+      </c>
+      <c r="M49" s="32" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N49" s="32"/>
       <c r="O49" s="32"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="73"/>
-      <c r="Y49" s="73"/>
+      <c r="P49" s="11">
+        <f>2462039*1000</f>
+        <v>2462039000</v>
+      </c>
+      <c r="Q49" s="11">
+        <f>P49-R49</f>
+        <v>422318000</v>
+      </c>
+      <c r="R49" s="15">
+        <f>2039721*1000</f>
+        <v>2039721000</v>
+      </c>
+      <c r="S49" s="15">
+        <f>547904*1000</f>
+        <v>547904000</v>
+      </c>
+      <c r="T49" s="72">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <f>182597*1000</f>
+        <v>182597000</v>
+      </c>
+      <c r="V49" s="15">
+        <f>328571*1000</f>
+        <v>328571000</v>
+      </c>
+      <c r="W49" s="15">
+        <f>2681373*1000</f>
+        <v>2681373000</v>
+      </c>
+      <c r="X49" s="80"/>
+      <c r="Y49" s="80"/>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="79"/>
+      <c r="AA49" s="87"/>
     </row>
     <row r="50" spans="1:27">
-      <c r="A50" s="1"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="1">
         <v>2017</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="59"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
+      <c r="E50" s="34">
+        <f>(S50+T50)/(R50+负债表!F51)</f>
+        <v>0.173388524042558</v>
+      </c>
+      <c r="F50" s="34">
+        <f>(S50+T50)/P50</f>
+        <v>0.144512813757305</v>
+      </c>
+      <c r="G50" s="34">
+        <f t="shared" si="28"/>
+        <v>0.173388524042558</v>
+      </c>
+      <c r="H50" s="34">
+        <f t="shared" si="29"/>
+        <v>0.166537609364302</v>
+      </c>
+      <c r="I50" s="34">
+        <f t="shared" si="30"/>
+        <v>0.144512813757305</v>
+      </c>
+      <c r="J50" s="39">
+        <f t="shared" si="31"/>
+        <v>0.398296915167095</v>
+      </c>
+      <c r="K50" s="32">
+        <f t="shared" si="32"/>
+        <v>0.513051302648679</v>
+      </c>
+      <c r="L50" s="39">
+        <f t="shared" si="33"/>
+        <v>0.576843919229619</v>
+      </c>
+      <c r="M50" s="32" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N50" s="32"/>
       <c r="O50" s="32"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="15"/>
-      <c r="U50" s="15"/>
-      <c r="V50" s="15"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="73"/>
-      <c r="Y50" s="73"/>
+      <c r="P50" s="11">
+        <f>1806691*1000</f>
+        <v>1806691000</v>
+      </c>
+      <c r="Q50" s="11">
+        <f>P50-R50</f>
+        <v>300882000</v>
+      </c>
+      <c r="R50" s="15">
+        <f>1505809*1000</f>
+        <v>1505809000</v>
+      </c>
+      <c r="S50" s="15">
+        <f>261090*1000</f>
+        <v>261090000</v>
+      </c>
+      <c r="T50" s="15">
+        <v>0</v>
+      </c>
+      <c r="U50" s="15">
+        <f>107990*1000</f>
+        <v>107990000</v>
+      </c>
+      <c r="V50" s="15">
+        <f>353202*1000</f>
+        <v>353202000</v>
+      </c>
+      <c r="W50" s="15">
+        <f>1646221*1000</f>
+        <v>1646221000</v>
+      </c>
+      <c r="X50" s="80"/>
+      <c r="Y50" s="80"/>
       <c r="Z50" s="2"/>
-      <c r="AA50" s="79"/>
+      <c r="AA50" s="87"/>
     </row>
     <row r="51" spans="1:27">
-      <c r="A51" s="1"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="1">
         <v>2016</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="59"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
+      <c r="E51" s="34">
+        <f>(S51+T51)/(R51+负债表!F52)</f>
+        <v>0.147464273162719</v>
+      </c>
+      <c r="F51" s="34">
+        <f>(S51+T51)/P51</f>
+        <v>0.13115435783393</v>
+      </c>
+      <c r="G51" s="34">
+        <f t="shared" si="28"/>
+        <v>0.147464273162719</v>
+      </c>
+      <c r="H51" s="34">
+        <f t="shared" si="29"/>
+        <v>0.11060248681924</v>
+      </c>
+      <c r="I51" s="34">
+        <f t="shared" si="30"/>
+        <v>0.13115435783393</v>
+      </c>
+      <c r="J51" s="70">
+        <f t="shared" si="31"/>
+        <v>0.49919307570636</v>
+      </c>
+      <c r="K51" s="32">
+        <f t="shared" si="32"/>
+        <v>0.28403625939559</v>
+      </c>
+      <c r="L51" s="39">
+        <f t="shared" si="33"/>
+        <v>1.49886208973873</v>
+      </c>
+      <c r="M51" s="32" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N51" s="32"/>
       <c r="O51" s="32"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="73"/>
-      <c r="Y51" s="73"/>
+      <c r="P51" s="11">
+        <f>1423666*1000</f>
+        <v>1423666000</v>
+      </c>
+      <c r="Q51" s="11">
+        <f>P51-R51</f>
+        <v>157461000</v>
+      </c>
+      <c r="R51" s="15">
+        <f>1266205*1000</f>
+        <v>1266205000</v>
+      </c>
+      <c r="S51" s="15">
+        <f>186720*1000</f>
+        <v>186720000</v>
+      </c>
+      <c r="T51" s="15">
+        <v>0</v>
+      </c>
+      <c r="U51" s="15">
+        <f>68369*1000</f>
+        <v>68369000</v>
+      </c>
+      <c r="V51" s="15">
+        <f>223993*1000</f>
+        <v>223993000</v>
+      </c>
+      <c r="W51" s="15">
+        <f>1088014*1000</f>
+        <v>1088014000</v>
+      </c>
+      <c r="X51" s="80"/>
+      <c r="Y51" s="80"/>
       <c r="Z51" s="2"/>
-      <c r="AA51" s="79"/>
+      <c r="AA51" s="87"/>
     </row>
     <row r="52" spans="1:27">
-      <c r="A52" s="1"/>
+      <c r="A52" s="62"/>
       <c r="B52" s="1">
         <v>2015</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
+      <c r="E52" s="34">
+        <f>(S52+T52)/(R52+负债表!F53)</f>
+        <v>0.87756122995406</v>
+      </c>
+      <c r="F52" s="34">
+        <f>(S52+T52)/P52</f>
+        <v>0.211324410720709</v>
+      </c>
+      <c r="G52" s="34">
+        <f>S52/R52</f>
+        <v>0.87756122995406</v>
+      </c>
+      <c r="H52" s="34">
+        <f>Q52/P52</f>
+        <v>0.759191263803015</v>
+      </c>
+      <c r="I52" s="34">
+        <f>S52/P52</f>
+        <v>0.211324410720709</v>
+      </c>
+      <c r="J52" s="70">
+        <f>(S52-S53)/S53</f>
+        <v>1.92982827569984</v>
+      </c>
+      <c r="K52" s="32">
+        <f>(W52-W53)/W53</f>
+        <v>0.700695059119164</v>
+      </c>
+      <c r="L52" s="39">
+        <f>(V52-V53)/V53</f>
+        <v>0.222525299364447</v>
+      </c>
+      <c r="M52" s="32" t="e">
+        <f>(X52-X53)/X53</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N52" s="32"/>
       <c r="O52" s="32"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="73"/>
-      <c r="Y52" s="73"/>
+      <c r="P52" s="11">
+        <f>589364*1000</f>
+        <v>589364000</v>
+      </c>
+      <c r="Q52" s="11">
+        <f>P52-R52</f>
+        <v>447440000</v>
+      </c>
+      <c r="R52" s="15">
+        <f>141924*1000</f>
+        <v>141924000</v>
+      </c>
+      <c r="S52" s="15">
+        <f>124547*1000</f>
+        <v>124547000</v>
+      </c>
+      <c r="T52" s="15">
+        <v>0</v>
+      </c>
+      <c r="U52" s="15">
+        <f>42373*1000</f>
+        <v>42373000</v>
+      </c>
+      <c r="V52" s="15">
+        <f>89638*1000</f>
+        <v>89638000</v>
+      </c>
+      <c r="W52" s="15">
+        <f>847339*1000</f>
+        <v>847339000</v>
+      </c>
+      <c r="X52" s="80"/>
+      <c r="Y52" s="80"/>
       <c r="Z52" s="2"/>
-      <c r="AA52" s="79"/>
+      <c r="AA52" s="87"/>
     </row>
     <row r="53" spans="1:27">
-      <c r="A53" s="1"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="1">
         <v>2014</v>
       </c>
       <c r="C53" s="60"/>
       <c r="D53" s="60"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
+      <c r="E53" s="34">
+        <f>(S53+T53)/(R53+负债表!F54)</f>
+        <v>0.929424111242293</v>
+      </c>
+      <c r="F53" s="34">
+        <f>(S53+T53)/P53</f>
+        <v>0.148825257232081</v>
+      </c>
+      <c r="G53" s="34">
+        <f>S53/R53</f>
+        <v>0.929424111242293</v>
+      </c>
+      <c r="H53" s="34">
+        <f>Q53/P53</f>
+        <v>0.839873685832018</v>
+      </c>
+      <c r="I53" s="34">
+        <f>S53/P53</f>
+        <v>0.148825257232081</v>
+      </c>
+      <c r="J53" s="70">
+        <f>(S53-S54)/S54</f>
+        <v>0.926667875271936</v>
+      </c>
+      <c r="K53" s="32">
+        <f>(W53-W54)/W54</f>
+        <v>0.577364237026812</v>
+      </c>
+      <c r="L53" s="39">
+        <f>(V53-V54)/V54</f>
+        <v>-13.5939539677087</v>
+      </c>
+      <c r="M53" s="32" t="e">
+        <f>(X53-X54)/X54</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N53" s="32"/>
       <c r="O53" s="32"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="73"/>
-      <c r="Y53" s="73"/>
+      <c r="P53" s="11">
+        <f>285637*1000</f>
+        <v>285637000</v>
+      </c>
+      <c r="Q53" s="11">
+        <f>P53-R53</f>
+        <v>239899000</v>
+      </c>
+      <c r="R53" s="15">
+        <f>45738*1000</f>
+        <v>45738000</v>
+      </c>
+      <c r="S53" s="15">
+        <f>42510*1000</f>
+        <v>42510000</v>
+      </c>
+      <c r="T53" s="15">
+        <v>0</v>
+      </c>
+      <c r="U53" s="15">
+        <f>14646*1000</f>
+        <v>14646000</v>
+      </c>
+      <c r="V53" s="15">
+        <f>73322*1000</f>
+        <v>73322000</v>
+      </c>
+      <c r="W53" s="15">
+        <f>498231*1000</f>
+        <v>498231000</v>
+      </c>
+      <c r="X53" s="80"/>
+      <c r="Y53" s="80"/>
       <c r="Z53" s="2"/>
-      <c r="AA53" s="79"/>
+      <c r="AA53" s="87"/>
     </row>
     <row r="54" spans="1:27">
-      <c r="A54" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A54" s="63"/>
       <c r="B54" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C54" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="57">
-        <v>2019</v>
-      </c>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
+        <v>2013</v>
+      </c>
+      <c r="C54" s="64"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="34">
+        <f>(S54+T54)/(R54+负债表!F55)</f>
+        <v>0.585469405084116</v>
+      </c>
+      <c r="F54" s="34">
+        <f>(S54+T54)/P54</f>
+        <v>0.0981752328235613</v>
+      </c>
+      <c r="G54" s="34">
+        <f>S54/R54</f>
+        <v>0.585469405084116</v>
+      </c>
+      <c r="H54" s="34">
+        <f>Q54/P54</f>
+        <v>0.832313641035681</v>
+      </c>
+      <c r="I54" s="34">
+        <f>S54/P54</f>
+        <v>0.0981752328235613</v>
+      </c>
+      <c r="J54" s="70">
+        <f>(S54-S55)/S55</f>
+        <v>-0.952602844133657</v>
+      </c>
+      <c r="K54" s="32">
+        <f>(W54-W55)/W55</f>
+        <v>-0.899680206388205</v>
+      </c>
+      <c r="L54" s="39">
+        <f>(V54-V55)/V55</f>
+        <v>-1.00966093481155</v>
+      </c>
+      <c r="M54" s="32">
+        <f>(X54-X55)/X55</f>
+        <v>-1</v>
+      </c>
       <c r="N54" s="32"/>
       <c r="O54" s="32"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="73"/>
-      <c r="Y54" s="73"/>
+      <c r="P54" s="72">
+        <f>224741*1000</f>
+        <v>224741000</v>
+      </c>
+      <c r="Q54" s="11">
+        <f>P54-R54</f>
+        <v>187055000</v>
+      </c>
+      <c r="R54" s="15">
+        <f>37686*1000</f>
+        <v>37686000</v>
+      </c>
+      <c r="S54" s="15">
+        <f>22064*1000</f>
+        <v>22064000</v>
+      </c>
+      <c r="T54" s="15">
+        <v>0</v>
+      </c>
+      <c r="U54" s="72">
+        <f>7455*1000</f>
+        <v>7455000</v>
+      </c>
+      <c r="V54" s="15">
+        <f>-5822*1000</f>
+        <v>-5822000</v>
+      </c>
+      <c r="W54" s="72">
+        <f>315863*1000</f>
+        <v>315863000</v>
+      </c>
+      <c r="X54" s="82"/>
+      <c r="Y54" s="80"/>
       <c r="Z54" s="2"/>
-      <c r="AA54" s="79"/>
+      <c r="AA54" s="87"/>
     </row>
     <row r="55" spans="1:27">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B55" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="32">
+        <v>2023</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="57">
+        <v>2019</v>
+      </c>
+      <c r="E55" s="68">
+        <f>(S55+T55)/(R55+负债表!F55)</f>
+        <v>0.105761538368452</v>
+      </c>
+      <c r="F55" s="68">
+        <f>(S55+T55)/P55</f>
+        <v>0.0882708487594691</v>
+      </c>
+      <c r="G55" s="68">
+        <f>S55/R55</f>
+        <v>0.105761538368452</v>
+      </c>
+      <c r="H55" s="68">
+        <f>Q55/P55</f>
+        <v>0.165378547615757</v>
+      </c>
+      <c r="I55" s="68">
+        <f>S55/P55</f>
+        <v>0.0882708487594691</v>
+      </c>
+      <c r="J55" s="39">
+        <f>(S55-S56)/S56</f>
+        <v>0.366699981260592</v>
+      </c>
+      <c r="K55" s="68">
         <f>(W55-W56)/W56</f>
-        <v>0.328394500954267</v>
-      </c>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
+        <v>0.170159892383379</v>
+      </c>
+      <c r="L55" s="70">
+        <f>(V55-V56)/V56</f>
+        <v>0.103433230985893</v>
+      </c>
+      <c r="M55" s="39">
+        <f>(X55-X56)/X56</f>
+        <v>0.39635410905143</v>
+      </c>
       <c r="N55" s="32"/>
       <c r="O55" s="32"/>
-      <c r="P55" s="13">
-        <v>4821728151.31</v>
-      </c>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="11">
-        <v>4024801422.74</v>
-      </c>
-      <c r="S55" s="2"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15">
-        <v>2690710152.71</v>
-      </c>
-      <c r="X55" s="73"/>
-      <c r="Y55" s="73"/>
+      <c r="P55" s="72">
+        <v>5273690813.13</v>
+      </c>
+      <c r="Q55" s="11">
+        <f>P55-R55</f>
+        <v>872155327.25</v>
+      </c>
+      <c r="R55" s="15">
+        <v>4401535485.88</v>
+      </c>
+      <c r="S55" s="15">
+        <v>465513164.17</v>
+      </c>
+      <c r="T55" s="15">
+        <v>0</v>
+      </c>
+      <c r="U55" s="72">
+        <v>70027686.17</v>
+      </c>
+      <c r="V55" s="15">
+        <v>602633193.74</v>
+      </c>
+      <c r="W55" s="72">
+        <v>3148561102.73</v>
+      </c>
+      <c r="X55" s="82">
+        <v>1065493714</v>
+      </c>
+      <c r="Y55" s="80">
+        <v>1059111534</v>
+      </c>
       <c r="Z55" s="2"/>
-      <c r="AA55" s="79"/>
+      <c r="AA55" s="87"/>
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="1"/>
       <c r="B56" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="59"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="32">
-        <f t="shared" ref="K56:K62" si="28">(W56-W57)/W57</f>
-        <v>-0.143412163367192</v>
-      </c>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
+      <c r="E56" s="68">
+        <f>(S56+T56)/(R56+负债表!F56)</f>
+        <v>0.0846289294660696</v>
+      </c>
+      <c r="F56" s="68">
+        <f t="shared" ref="F56:F62" si="35">(S56+T56)/P56</f>
+        <v>0.0706416091972044</v>
+      </c>
+      <c r="G56" s="68">
+        <f t="shared" ref="G56:G62" si="36">S56/R56</f>
+        <v>0.084628047380315</v>
+      </c>
+      <c r="H56" s="68">
+        <f t="shared" ref="H56:H62" si="37">Q56/P56</f>
+        <v>0.165278237088809</v>
+      </c>
+      <c r="I56" s="68">
+        <f t="shared" ref="I56:I62" si="38">S56/P56</f>
+        <v>0.0706408729010283</v>
+      </c>
+      <c r="J56" s="39">
+        <f t="shared" ref="J56:J62" si="39">(S56-S57)/S57</f>
+        <v>0.847272571171295</v>
+      </c>
+      <c r="K56" s="68">
+        <f t="shared" ref="K56:K62" si="40">(W56-W57)/W57</f>
+        <v>0.328394500954267</v>
+      </c>
+      <c r="L56" s="70">
+        <f t="shared" ref="L56:L62" si="41">(V56-V57)/V57</f>
+        <v>1.27225643552297</v>
+      </c>
+      <c r="M56" s="68">
+        <f t="shared" ref="M56:M62" si="42">(X56-X57)/X57</f>
+        <v>0.0117642739377563</v>
+      </c>
       <c r="N56" s="32"/>
       <c r="O56" s="32"/>
       <c r="P56" s="13">
-        <v>4230481534.85</v>
-      </c>
-      <c r="Q56" s="1"/>
+        <v>4821728151.31</v>
+      </c>
+      <c r="Q56" s="11">
+        <f t="shared" ref="Q56:Q62" si="43">P56-R56</f>
+        <v>796926728.570001</v>
+      </c>
       <c r="R56" s="11">
-        <v>3804077971.37</v>
-      </c>
-      <c r="S56" s="2"/>
-      <c r="T56" s="15"/>
-      <c r="U56" s="15"/>
-      <c r="V56" s="15"/>
+        <v>4024801422.74</v>
+      </c>
+      <c r="S56" s="15">
+        <v>340611085.5</v>
+      </c>
+      <c r="T56" s="15">
+        <v>3550.22</v>
+      </c>
+      <c r="U56" s="15">
+        <v>63187916.37</v>
+      </c>
+      <c r="V56" s="15">
+        <v>546143778.18</v>
+      </c>
       <c r="W56" s="15">
-        <v>2025535449.58</v>
-      </c>
-      <c r="X56" s="73"/>
-      <c r="Y56" s="73"/>
+        <v>2690710152.71</v>
+      </c>
+      <c r="X56" s="80">
+        <v>763054090</v>
+      </c>
+      <c r="Y56" s="80">
+        <v>754181690</v>
+      </c>
       <c r="Z56" s="2"/>
-      <c r="AA56" s="79"/>
+      <c r="AA56" s="87"/>
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="59"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="32">
-        <f t="shared" si="28"/>
-        <v>0.36896660405246</v>
-      </c>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
+      <c r="E57" s="68">
+        <f>(S57+T57)/(R57+负债表!F57)</f>
+        <v>0.048548259817474</v>
+      </c>
+      <c r="F57" s="68">
+        <f t="shared" si="35"/>
+        <v>0.0436549277425337</v>
+      </c>
+      <c r="G57" s="68">
+        <f t="shared" si="36"/>
+        <v>0.0484705989829108</v>
+      </c>
+      <c r="H57" s="68">
+        <f t="shared" si="37"/>
+        <v>0.100793150842843</v>
+      </c>
+      <c r="I57" s="68">
+        <f t="shared" si="38"/>
+        <v>0.0435850945881833</v>
+      </c>
+      <c r="J57" s="70">
+        <f t="shared" si="39"/>
+        <v>-0.493822471316296</v>
+      </c>
+      <c r="K57" s="68">
+        <f t="shared" si="40"/>
+        <v>-0.143412163367192</v>
+      </c>
+      <c r="L57" s="70">
+        <f t="shared" si="41"/>
+        <v>-0.318707334708892</v>
+      </c>
+      <c r="M57" s="68">
+        <f t="shared" si="42"/>
+        <v>0.196269870829109</v>
+      </c>
       <c r="N57" s="32"/>
       <c r="O57" s="32"/>
       <c r="P57" s="13">
-        <v>4289984896.09</v>
-      </c>
-      <c r="Q57" s="1"/>
+        <v>4230481534.85</v>
+      </c>
+      <c r="Q57" s="11">
+        <f t="shared" si="43"/>
+        <v>426403563.48</v>
+      </c>
       <c r="R57" s="11">
-        <v>3729658162.74</v>
-      </c>
-      <c r="S57" s="2"/>
-      <c r="T57" s="15"/>
-      <c r="U57" s="15"/>
-      <c r="V57" s="15"/>
+        <v>3804077971.37</v>
+      </c>
+      <c r="S57" s="15">
+        <v>184385937.85</v>
+      </c>
+      <c r="T57" s="15">
+        <v>295427.87</v>
+      </c>
+      <c r="U57" s="15">
+        <v>31742347.75</v>
+      </c>
+      <c r="V57" s="15">
+        <v>240353055.95</v>
+      </c>
       <c r="W57" s="15">
-        <v>2364655862.43</v>
-      </c>
-      <c r="X57" s="73"/>
-      <c r="Y57" s="73"/>
+        <v>2025535449.58</v>
+      </c>
+      <c r="X57" s="80">
+        <v>754181690</v>
+      </c>
+      <c r="Y57" s="80">
+        <v>185549690</v>
+      </c>
       <c r="Z57" s="2"/>
-      <c r="AA57" s="79"/>
+      <c r="AA57" s="87"/>
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="59"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="32">
-        <f t="shared" si="28"/>
-        <v>0.222575353222556</v>
-      </c>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
+      <c r="E58" s="68">
+        <f>(S58+T58)/(R58+负债表!F58)</f>
+        <v>0.0976688123161366</v>
+      </c>
+      <c r="F58" s="68">
+        <f t="shared" si="35"/>
+        <v>0.0849120199541975</v>
+      </c>
+      <c r="G58" s="68">
+        <f t="shared" si="36"/>
+        <v>0.0976688123161366</v>
+      </c>
+      <c r="H58" s="68">
+        <f t="shared" si="37"/>
+        <v>0.130612752007751</v>
+      </c>
+      <c r="I58" s="68">
+        <f t="shared" si="38"/>
+        <v>0.0849120199541975</v>
+      </c>
+      <c r="J58" s="39">
+        <f t="shared" si="39"/>
+        <v>0.226619416939976</v>
+      </c>
+      <c r="K58" s="68">
+        <f t="shared" si="40"/>
+        <v>0.36896660405246</v>
+      </c>
+      <c r="L58" s="70">
+        <f t="shared" si="41"/>
+        <v>-0.0665886473014246</v>
+      </c>
+      <c r="M58" s="39">
+        <f t="shared" si="42"/>
+        <v>0.525927172610763</v>
+      </c>
       <c r="N58" s="32"/>
       <c r="O58" s="32"/>
       <c r="P58" s="13">
-        <v>2142313400.4</v>
-      </c>
-      <c r="Q58" s="1"/>
+        <v>4289984896.09</v>
+      </c>
+      <c r="Q58" s="11">
+        <f t="shared" si="43"/>
+        <v>560326733.35</v>
+      </c>
       <c r="R58" s="11">
-        <v>1841916395.05</v>
-      </c>
-      <c r="S58" s="2"/>
-      <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
-      <c r="V58" s="15"/>
+        <v>3729658162.74</v>
+      </c>
+      <c r="S58" s="15">
+        <v>364271283.1</v>
+      </c>
+      <c r="T58" s="15">
+        <v>0</v>
+      </c>
+      <c r="U58" s="15">
+        <v>63782745.42</v>
+      </c>
+      <c r="V58" s="15">
+        <v>352789730.75</v>
+      </c>
       <c r="W58" s="15">
-        <v>1727329107.54</v>
-      </c>
-      <c r="X58" s="73"/>
-      <c r="Y58" s="73"/>
+        <v>2364655862.43</v>
+      </c>
+      <c r="X58" s="80">
+        <v>630444441</v>
+      </c>
+      <c r="Y58" s="80">
+        <v>125214750</v>
+      </c>
       <c r="Z58" s="2"/>
-      <c r="AA58" s="79"/>
+      <c r="AA58" s="87"/>
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C59" s="59"/>
       <c r="D59" s="59"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="32">
-        <f t="shared" si="28"/>
-        <v>0.325614220708547</v>
-      </c>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
+      <c r="E59" s="68">
+        <f>(S59+T59)/(R59+负债表!F59)</f>
+        <v>0.161229752299337</v>
+      </c>
+      <c r="F59" s="68">
+        <f t="shared" si="35"/>
+        <v>0.138621979433332</v>
+      </c>
+      <c r="G59" s="68">
+        <f t="shared" si="36"/>
+        <v>0.161229752299337</v>
+      </c>
+      <c r="H59" s="68">
+        <f t="shared" si="37"/>
+        <v>0.14022084971037</v>
+      </c>
+      <c r="I59" s="68">
+        <f t="shared" si="38"/>
+        <v>0.138621979433332</v>
+      </c>
+      <c r="J59" s="70">
+        <f t="shared" si="39"/>
+        <v>0.113893184008093</v>
+      </c>
+      <c r="K59" s="68">
+        <f t="shared" si="40"/>
+        <v>0.222575353222556</v>
+      </c>
+      <c r="L59" s="70">
+        <f t="shared" si="41"/>
+        <v>0.426577366038062</v>
+      </c>
+      <c r="M59" s="68">
+        <f t="shared" si="42"/>
+        <v>0.111124557935643</v>
+      </c>
       <c r="N59" s="32"/>
       <c r="O59" s="32"/>
       <c r="P59" s="13">
-        <v>1386819709.64</v>
-      </c>
-      <c r="Q59" s="1"/>
+        <v>2142313400.4</v>
+      </c>
+      <c r="Q59" s="11">
+        <f t="shared" si="43"/>
+        <v>300397005.35</v>
+      </c>
       <c r="R59" s="11">
-        <v>1138264322.8</v>
-      </c>
-      <c r="S59" s="2"/>
+        <v>1841916395.05</v>
+      </c>
+      <c r="S59" s="15">
+        <v>296971724.13</v>
+      </c>
       <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
+      <c r="U59" s="15">
+        <v>49454352.38</v>
+      </c>
+      <c r="V59" s="15">
+        <v>377957402.95</v>
+      </c>
       <c r="W59" s="15">
-        <v>1412861058.41</v>
-      </c>
-      <c r="X59" s="73"/>
-      <c r="Y59" s="73"/>
+        <v>1727329107.54</v>
+      </c>
+      <c r="X59" s="80">
+        <f>41315.5*10000</f>
+        <v>413155000</v>
+      </c>
+      <c r="Y59" s="80"/>
       <c r="Z59" s="2"/>
-      <c r="AA59" s="79"/>
+      <c r="AA59" s="87"/>
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="1"/>
       <c r="B60" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="59"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="32">
-        <f t="shared" si="28"/>
-        <v>0.0832576082351315</v>
-      </c>
-      <c r="L60" s="32"/>
-      <c r="M60" s="32"/>
+      <c r="E60" s="68">
+        <f>(S60+T60)/(R60+负债表!F60)</f>
+        <v>0.23422240183561</v>
+      </c>
+      <c r="F60" s="68">
+        <f t="shared" si="35"/>
+        <v>0.192243448630542</v>
+      </c>
+      <c r="G60" s="68">
+        <f t="shared" si="36"/>
+        <v>0.23422240183561</v>
+      </c>
+      <c r="H60" s="68">
+        <f t="shared" si="37"/>
+        <v>0.179226892372709</v>
+      </c>
+      <c r="I60" s="68">
+        <f t="shared" si="38"/>
+        <v>0.192243448630542</v>
+      </c>
+      <c r="J60" s="39">
+        <f t="shared" si="39"/>
+        <v>0.450479550269318</v>
+      </c>
+      <c r="K60" s="68">
+        <f t="shared" si="40"/>
+        <v>0.325614220708547</v>
+      </c>
+      <c r="L60" s="70">
+        <f t="shared" si="41"/>
+        <v>0.179288329598614</v>
+      </c>
+      <c r="M60" s="68" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N60" s="32"/>
       <c r="O60" s="32"/>
       <c r="P60" s="13">
-        <v>1192648317.5</v>
-      </c>
-      <c r="Q60" s="1"/>
+        <v>1386819709.64</v>
+      </c>
+      <c r="Q60" s="11">
+        <f t="shared" si="43"/>
+        <v>248555386.84</v>
+      </c>
       <c r="R60" s="11">
-        <v>931150919.19</v>
-      </c>
-      <c r="S60" s="2"/>
+        <v>1138264322.8</v>
+      </c>
+      <c r="S60" s="15">
+        <v>266607003.61</v>
+      </c>
       <c r="T60" s="15"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="15"/>
+      <c r="U60" s="15">
+        <v>44107324.88</v>
+      </c>
+      <c r="V60" s="15">
+        <v>264939996.91</v>
+      </c>
       <c r="W60" s="15">
-        <v>1065816160.04</v>
-      </c>
-      <c r="X60" s="73"/>
-      <c r="Y60" s="73"/>
+        <v>1412861058.41</v>
+      </c>
+      <c r="X60" s="80">
+        <f>37183.5*10000</f>
+        <v>371835000</v>
+      </c>
+      <c r="Y60" s="80"/>
       <c r="Z60" s="2"/>
-      <c r="AA60" s="79"/>
+      <c r="AA60" s="87"/>
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="59"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="32"/>
+      <c r="E61" s="68">
+        <f>(S61+T61)/(R61+负债表!F61)</f>
+        <v>0.19739669059221</v>
+      </c>
+      <c r="F61" s="68">
+        <f t="shared" si="35"/>
+        <v>0.154115934423393</v>
+      </c>
+      <c r="G61" s="68">
+        <f t="shared" si="36"/>
+        <v>0.19739669059221</v>
+      </c>
+      <c r="H61" s="68">
+        <f t="shared" si="37"/>
+        <v>0.219257759788019</v>
+      </c>
+      <c r="I61" s="68">
+        <f t="shared" si="38"/>
+        <v>0.154115934423393</v>
+      </c>
+      <c r="J61" s="70">
+        <f t="shared" si="39"/>
+        <v>-0.0960311781525517</v>
+      </c>
+      <c r="K61" s="68">
+        <f t="shared" si="40"/>
+        <v>0.0832576082351315</v>
+      </c>
+      <c r="L61" s="70">
+        <f t="shared" si="41"/>
+        <v>0.35935701080957</v>
+      </c>
+      <c r="M61" s="68" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N61" s="32"/>
       <c r="O61" s="32"/>
       <c r="P61" s="13">
-        <v>1151506778.33</v>
-      </c>
-      <c r="Q61" s="1"/>
+        <v>1192648317.5</v>
+      </c>
+      <c r="Q61" s="11">
+        <f t="shared" si="43"/>
+        <v>261497398.31</v>
+      </c>
       <c r="R61" s="11">
-        <v>945560809.3</v>
-      </c>
-      <c r="S61" s="2"/>
+        <v>931150919.19</v>
+      </c>
+      <c r="S61" s="28">
+        <v>183806109.89</v>
+      </c>
       <c r="T61" s="15"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="15"/>
+      <c r="U61" s="15">
+        <v>31104245.35</v>
+      </c>
+      <c r="V61" s="28">
+        <v>224660916.47</v>
+      </c>
       <c r="W61" s="15">
-        <v>983899076.21</v>
-      </c>
-      <c r="X61" s="73"/>
-      <c r="Y61" s="73"/>
+        <v>1065816160.04</v>
+      </c>
+      <c r="X61" s="80"/>
+      <c r="Y61" s="80"/>
       <c r="Z61" s="2"/>
-      <c r="AA61" s="79"/>
+      <c r="AA61" s="87"/>
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="1"/>
       <c r="B62" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="59"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
-      <c r="M62" s="32"/>
+      <c r="E62" s="68">
+        <f>(S62+T62)/(R62+负债表!F62)</f>
+        <v>0.215038899190976</v>
+      </c>
+      <c r="F62" s="68">
+        <f t="shared" si="35"/>
+        <v>0.176579382228985</v>
+      </c>
+      <c r="G62" s="68">
+        <f t="shared" si="36"/>
+        <v>0.215038899190976</v>
+      </c>
+      <c r="H62" s="68">
+        <f t="shared" si="37"/>
+        <v>0.178849115702713</v>
+      </c>
+      <c r="I62" s="68">
+        <f t="shared" si="38"/>
+        <v>0.176579382228985</v>
+      </c>
+      <c r="J62" s="70" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K62" s="68" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L62" s="70" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M62" s="68" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N62" s="32"/>
       <c r="O62" s="32"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
+      <c r="P62" s="13">
+        <v>1151506778.33</v>
+      </c>
+      <c r="Q62" s="11">
+        <f t="shared" si="43"/>
+        <v>205945969.03</v>
+      </c>
+      <c r="R62" s="11">
+        <v>945560809.3</v>
+      </c>
+      <c r="S62" s="15">
+        <v>203332355.55</v>
+      </c>
       <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="15"/>
-      <c r="X62" s="73"/>
-      <c r="Y62" s="73"/>
+      <c r="U62" s="15">
+        <v>33853562.4</v>
+      </c>
+      <c r="V62" s="15">
+        <v>165269987.71</v>
+      </c>
+      <c r="W62" s="15">
+        <v>983899076.21</v>
+      </c>
+      <c r="X62" s="80"/>
+      <c r="Y62" s="80"/>
       <c r="Z62" s="2"/>
-      <c r="AA62" s="79"/>
+      <c r="AA62" s="87"/>
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
+        <v>2015</v>
+      </c>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
       <c r="E63" s="34"/>
       <c r="F63" s="34"/>
       <c r="G63" s="1"/>
@@ -5797,29 +6681,23 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
+      <c r="S63" s="15"/>
       <c r="T63" s="15"/>
       <c r="U63" s="15"/>
       <c r="V63" s="15"/>
       <c r="W63" s="15"/>
-      <c r="X63" s="73"/>
-      <c r="Y63" s="73"/>
+      <c r="X63" s="80"/>
+      <c r="Y63" s="80"/>
       <c r="Z63" s="2"/>
-      <c r="AA63" s="79"/>
+      <c r="AA63" s="87"/>
     </row>
     <row r="64" spans="1:27">
-      <c r="A64" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A64" s="1"/>
       <c r="B64" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C64" s="57">
-        <v>2001</v>
-      </c>
-      <c r="D64" s="57">
-        <v>2022</v>
-      </c>
+        <v>2014</v>
+      </c>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
       <c r="E64" s="34"/>
       <c r="F64" s="34"/>
       <c r="G64" s="1"/>
@@ -5838,19 +6716,25 @@
       <c r="T64" s="15"/>
       <c r="U64" s="15"/>
       <c r="V64" s="15"/>
-      <c r="W64" s="2"/>
-      <c r="X64" s="73"/>
-      <c r="Y64" s="73"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="80"/>
+      <c r="Y64" s="80"/>
       <c r="Z64" s="2"/>
-      <c r="AA64" s="79"/>
+      <c r="AA64" s="87"/>
     </row>
     <row r="65" spans="1:27">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B65" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C65" s="57">
+        <v>2001</v>
+      </c>
+      <c r="D65" s="57">
         <v>2022</v>
       </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
       <c r="E65" s="34"/>
       <c r="F65" s="34"/>
       <c r="G65" s="1"/>
@@ -5870,15 +6754,15 @@
       <c r="U65" s="15"/>
       <c r="V65" s="15"/>
       <c r="W65" s="2"/>
-      <c r="X65" s="73"/>
-      <c r="Y65" s="73"/>
+      <c r="X65" s="80"/>
+      <c r="Y65" s="80"/>
       <c r="Z65" s="2"/>
-      <c r="AA65" s="79"/>
+      <c r="AA65" s="87"/>
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="1"/>
       <c r="B66" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="59"/>
@@ -5901,15 +6785,15 @@
       <c r="U66" s="15"/>
       <c r="V66" s="15"/>
       <c r="W66" s="2"/>
-      <c r="X66" s="73"/>
-      <c r="Y66" s="73"/>
+      <c r="X66" s="80"/>
+      <c r="Y66" s="80"/>
       <c r="Z66" s="2"/>
-      <c r="AA66" s="79"/>
+      <c r="AA66" s="87"/>
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="1"/>
       <c r="B67" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="59"/>
@@ -5932,15 +6816,15 @@
       <c r="U67" s="15"/>
       <c r="V67" s="15"/>
       <c r="W67" s="2"/>
-      <c r="X67" s="73"/>
-      <c r="Y67" s="73"/>
+      <c r="X67" s="80"/>
+      <c r="Y67" s="80"/>
       <c r="Z67" s="2"/>
-      <c r="AA67" s="79"/>
+      <c r="AA67" s="87"/>
     </row>
     <row r="68" spans="1:27">
       <c r="A68" s="1"/>
       <c r="B68" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="59"/>
@@ -5963,15 +6847,15 @@
       <c r="U68" s="15"/>
       <c r="V68" s="15"/>
       <c r="W68" s="2"/>
-      <c r="X68" s="73"/>
-      <c r="Y68" s="73"/>
+      <c r="X68" s="80"/>
+      <c r="Y68" s="80"/>
       <c r="Z68" s="2"/>
-      <c r="AA68" s="79"/>
+      <c r="AA68" s="87"/>
     </row>
     <row r="69" spans="1:27">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="59"/>
@@ -5994,15 +6878,15 @@
       <c r="U69" s="15"/>
       <c r="V69" s="15"/>
       <c r="W69" s="2"/>
-      <c r="X69" s="73"/>
-      <c r="Y69" s="73"/>
+      <c r="X69" s="80"/>
+      <c r="Y69" s="80"/>
       <c r="Z69" s="2"/>
-      <c r="AA69" s="79"/>
+      <c r="AA69" s="87"/>
     </row>
     <row r="70" spans="1:27">
       <c r="A70" s="1"/>
       <c r="B70" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="59"/>
@@ -6025,15 +6909,15 @@
       <c r="U70" s="15"/>
       <c r="V70" s="15"/>
       <c r="W70" s="2"/>
-      <c r="X70" s="73"/>
-      <c r="Y70" s="73"/>
+      <c r="X70" s="80"/>
+      <c r="Y70" s="80"/>
       <c r="Z70" s="2"/>
-      <c r="AA70" s="79"/>
+      <c r="AA70" s="87"/>
     </row>
     <row r="71" spans="1:27">
       <c r="A71" s="1"/>
       <c r="B71" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="59"/>
@@ -6056,15 +6940,15 @@
       <c r="U71" s="15"/>
       <c r="V71" s="15"/>
       <c r="W71" s="2"/>
-      <c r="X71" s="73"/>
-      <c r="Y71" s="73"/>
+      <c r="X71" s="80"/>
+      <c r="Y71" s="80"/>
       <c r="Z71" s="2"/>
-      <c r="AA71" s="79"/>
+      <c r="AA71" s="87"/>
     </row>
     <row r="72" spans="1:27">
       <c r="A72" s="1"/>
       <c r="B72" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C72" s="59"/>
       <c r="D72" s="59"/>
@@ -6087,18 +6971,18 @@
       <c r="U72" s="15"/>
       <c r="V72" s="15"/>
       <c r="W72" s="2"/>
-      <c r="X72" s="73"/>
-      <c r="Y72" s="73"/>
+      <c r="X72" s="80"/>
+      <c r="Y72" s="80"/>
       <c r="Z72" s="2"/>
-      <c r="AA72" s="79"/>
+      <c r="AA72" s="87"/>
     </row>
     <row r="73" spans="1:27">
       <c r="A73" s="1"/>
       <c r="B73" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
+        <v>2015</v>
+      </c>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
       <c r="E73" s="34"/>
       <c r="F73" s="34"/>
       <c r="G73" s="1"/>
@@ -6118,24 +7002,18 @@
       <c r="U73" s="15"/>
       <c r="V73" s="15"/>
       <c r="W73" s="2"/>
-      <c r="X73" s="73"/>
-      <c r="Y73" s="73"/>
+      <c r="X73" s="80"/>
+      <c r="Y73" s="80"/>
       <c r="Z73" s="2"/>
-      <c r="AA73" s="79"/>
+      <c r="AA73" s="87"/>
     </row>
     <row r="74" spans="1:27">
-      <c r="A74" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A74" s="1"/>
       <c r="B74" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C74" s="57">
-        <v>2002</v>
-      </c>
-      <c r="D74" s="57">
-        <v>2020</v>
-      </c>
+        <v>2014</v>
+      </c>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
       <c r="E74" s="34"/>
       <c r="F74" s="34"/>
       <c r="G74" s="1"/>
@@ -6155,18 +7033,24 @@
       <c r="U74" s="15"/>
       <c r="V74" s="15"/>
       <c r="W74" s="2"/>
-      <c r="X74" s="73"/>
-      <c r="Y74" s="73"/>
+      <c r="X74" s="80"/>
+      <c r="Y74" s="80"/>
       <c r="Z74" s="2"/>
-      <c r="AA74" s="79"/>
+      <c r="AA74" s="87"/>
     </row>
     <row r="75" spans="1:27">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B75" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
+        <v>2023</v>
+      </c>
+      <c r="C75" s="57">
+        <v>2002</v>
+      </c>
+      <c r="D75" s="57">
+        <v>2020</v>
+      </c>
       <c r="E75" s="34"/>
       <c r="F75" s="34"/>
       <c r="G75" s="1"/>
@@ -6186,15 +7070,15 @@
       <c r="U75" s="15"/>
       <c r="V75" s="15"/>
       <c r="W75" s="2"/>
-      <c r="X75" s="73"/>
-      <c r="Y75" s="73"/>
+      <c r="X75" s="80"/>
+      <c r="Y75" s="80"/>
       <c r="Z75" s="2"/>
-      <c r="AA75" s="79"/>
+      <c r="AA75" s="87"/>
     </row>
     <row r="76" spans="1:27">
       <c r="A76" s="1"/>
       <c r="B76" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C76" s="59"/>
       <c r="D76" s="59"/>
@@ -6217,15 +7101,15 @@
       <c r="U76" s="15"/>
       <c r="V76" s="15"/>
       <c r="W76" s="2"/>
-      <c r="X76" s="73"/>
-      <c r="Y76" s="73"/>
+      <c r="X76" s="80"/>
+      <c r="Y76" s="80"/>
       <c r="Z76" s="2"/>
-      <c r="AA76" s="79"/>
+      <c r="AA76" s="87"/>
     </row>
     <row r="77" spans="1:27">
       <c r="A77" s="1"/>
       <c r="B77" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C77" s="59"/>
       <c r="D77" s="59"/>
@@ -6248,15 +7132,15 @@
       <c r="U77" s="15"/>
       <c r="V77" s="15"/>
       <c r="W77" s="2"/>
-      <c r="X77" s="73"/>
-      <c r="Y77" s="73"/>
+      <c r="X77" s="80"/>
+      <c r="Y77" s="80"/>
       <c r="Z77" s="2"/>
-      <c r="AA77" s="79"/>
+      <c r="AA77" s="87"/>
     </row>
     <row r="78" spans="1:27">
       <c r="A78" s="1"/>
       <c r="B78" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C78" s="59"/>
       <c r="D78" s="59"/>
@@ -6279,15 +7163,15 @@
       <c r="U78" s="15"/>
       <c r="V78" s="15"/>
       <c r="W78" s="2"/>
-      <c r="X78" s="73"/>
-      <c r="Y78" s="73"/>
+      <c r="X78" s="80"/>
+      <c r="Y78" s="80"/>
       <c r="Z78" s="2"/>
-      <c r="AA78" s="79"/>
+      <c r="AA78" s="87"/>
     </row>
     <row r="79" spans="1:27">
       <c r="A79" s="1"/>
       <c r="B79" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C79" s="59"/>
       <c r="D79" s="59"/>
@@ -6310,15 +7194,15 @@
       <c r="U79" s="15"/>
       <c r="V79" s="15"/>
       <c r="W79" s="2"/>
-      <c r="X79" s="73"/>
-      <c r="Y79" s="73"/>
+      <c r="X79" s="80"/>
+      <c r="Y79" s="80"/>
       <c r="Z79" s="2"/>
-      <c r="AA79" s="79"/>
+      <c r="AA79" s="87"/>
     </row>
     <row r="80" spans="1:27">
       <c r="A80" s="1"/>
       <c r="B80" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C80" s="59"/>
       <c r="D80" s="59"/>
@@ -6341,15 +7225,15 @@
       <c r="U80" s="15"/>
       <c r="V80" s="15"/>
       <c r="W80" s="2"/>
-      <c r="X80" s="73"/>
-      <c r="Y80" s="73"/>
+      <c r="X80" s="80"/>
+      <c r="Y80" s="80"/>
       <c r="Z80" s="2"/>
-      <c r="AA80" s="79"/>
+      <c r="AA80" s="87"/>
     </row>
     <row r="81" spans="1:27">
       <c r="A81" s="1"/>
       <c r="B81" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C81" s="59"/>
       <c r="D81" s="59"/>
@@ -6372,15 +7256,15 @@
       <c r="U81" s="15"/>
       <c r="V81" s="15"/>
       <c r="W81" s="2"/>
-      <c r="X81" s="73"/>
-      <c r="Y81" s="73"/>
+      <c r="X81" s="80"/>
+      <c r="Y81" s="80"/>
       <c r="Z81" s="2"/>
-      <c r="AA81" s="79"/>
+      <c r="AA81" s="87"/>
     </row>
     <row r="82" spans="1:27">
       <c r="A82" s="1"/>
       <c r="B82" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C82" s="59"/>
       <c r="D82" s="59"/>
@@ -6403,18 +7287,18 @@
       <c r="U82" s="15"/>
       <c r="V82" s="15"/>
       <c r="W82" s="2"/>
-      <c r="X82" s="73"/>
-      <c r="Y82" s="73"/>
+      <c r="X82" s="80"/>
+      <c r="Y82" s="80"/>
       <c r="Z82" s="2"/>
-      <c r="AA82" s="79"/>
+      <c r="AA82" s="87"/>
     </row>
     <row r="83" spans="1:27">
       <c r="A83" s="1"/>
       <c r="B83" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
+        <v>2015</v>
+      </c>
+      <c r="C83" s="59"/>
+      <c r="D83" s="59"/>
       <c r="E83" s="34"/>
       <c r="F83" s="34"/>
       <c r="G83" s="1"/>
@@ -6434,34 +7318,65 @@
       <c r="U83" s="15"/>
       <c r="V83" s="15"/>
       <c r="W83" s="2"/>
-      <c r="X83" s="73"/>
-      <c r="Y83" s="73"/>
+      <c r="X83" s="80"/>
+      <c r="Y83" s="80"/>
       <c r="Z83" s="2"/>
-      <c r="AA83" s="79"/>
+      <c r="AA83" s="87"/>
+    </row>
+    <row r="84" spans="1:27">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="32"/>
+      <c r="O84" s="32"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="15"/>
+      <c r="U84" s="15"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="80"/>
+      <c r="Y84" s="80"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="A16:A29"/>
     <mergeCell ref="A30:A43"/>
-    <mergeCell ref="A44:A53"/>
-    <mergeCell ref="A54:A63"/>
-    <mergeCell ref="A64:A73"/>
-    <mergeCell ref="A74:A83"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="A65:A74"/>
+    <mergeCell ref="A75:A84"/>
     <mergeCell ref="C2:C15"/>
     <mergeCell ref="C16:C29"/>
     <mergeCell ref="C30:C43"/>
     <mergeCell ref="C44:C53"/>
-    <mergeCell ref="C54:C63"/>
-    <mergeCell ref="C64:C73"/>
-    <mergeCell ref="C74:C83"/>
+    <mergeCell ref="C55:C64"/>
+    <mergeCell ref="C65:C74"/>
+    <mergeCell ref="C75:C84"/>
     <mergeCell ref="D2:D15"/>
     <mergeCell ref="D16:D29"/>
     <mergeCell ref="D30:D43"/>
     <mergeCell ref="D44:D53"/>
-    <mergeCell ref="D54:D63"/>
-    <mergeCell ref="D64:D73"/>
-    <mergeCell ref="D74:D83"/>
+    <mergeCell ref="D55:D64"/>
+    <mergeCell ref="D65:D74"/>
+    <mergeCell ref="D75:D84"/>
     <mergeCell ref="Z2:Z15"/>
     <mergeCell ref="AA2:AA15"/>
   </mergeCells>
